--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -324,9 +324,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1">
+      <c r="A1" t="str">
         <v>Hello world.</v>
       </c>
     </row>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -326,8 +326,116 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Hello world.</v>
-      </c>
+        <v>主线程开始</v>
+      </c>
+      <c r="B1" t="str"/>
+      <c r="C1" t="str">
+        <v>2019-08-07 15:36:04.947</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>basicOpe</v>
+      </c>
+      <c r="B2" t="str">
+        <v>37</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2019-08-07 15:36:04.998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>basicProd</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2019-08-07 15:36:05.001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>basicOwnTime</v>
+      </c>
+      <c r="B4" t="str">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2019-08-07 15:36:05.016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>rpushTime</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2019-08-07 15:36:05.019</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>zaddTime</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2019-08-07 15:36:05.020</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>matchedRuleTime</v>
+      </c>
+      <c r="B7" t="str">
+        <v>158</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2019-08-07 15:36:05.178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>zaddHistory</v>
+      </c>
+      <c r="B8" t="str">
+        <v>166</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2019-08-07 15:36:05.344</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>主线程调用子线程(MAIN CALL SUB)</v>
+      </c>
+      <c r="B9" t="str"/>
+      <c r="C9" t="str">
+        <v>2019-08-07 15:36:05.496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>回主线程 (MAIN RETURN)</v>
+      </c>
+      <c r="B10" t="str"/>
+      <c r="C10" t="str">
+        <v>2019-08-07 15:36:09.602</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>总时间</v>
+      </c>
+      <c r="B11" t="str">
+        <v>4106</v>
+      </c>
+      <c r="C11" t="str"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -437,6 +437,8414 @@
       </c>
       <c r="C11" t="str"/>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>RuleId</v>
+      </c>
+      <c r="B20" t="str">
+        <v>areaCate</v>
+      </c>
+      <c r="C20" t="str">
+        <v>subTotalTime</v>
+      </c>
+      <c r="D20" t="str">
+        <v>START</v>
+      </c>
+      <c r="E20" t="str">
+        <v>basicInfoTime</v>
+      </c>
+      <c r="F20" t="str">
+        <v>preOpeTime</v>
+      </c>
+      <c r="G20" t="str">
+        <v>checkDefectTime</v>
+      </c>
+      <c r="H20" t="str">
+        <v>saveDefectTime</v>
+      </c>
+      <c r="I20" t="str">
+        <v>sitoTime</v>
+      </c>
+      <c r="J20" t="str">
+        <v>getGlassTime</v>
+      </c>
+      <c r="K20" t="str">
+        <v>sheetTupleListTime</v>
+      </c>
+      <c r="L20" t="str">
+        <v>redisRuleKeysTime</v>
+      </c>
+      <c r="M20" t="str">
+        <v>getRuleBySheetsTime</v>
+      </c>
+      <c r="N20" t="str">
+        <v>getSampCntTime</v>
+      </c>
+      <c r="O20" t="str">
+        <v>checkRuleTime</v>
+      </c>
+      <c r="P20" t="str">
+        <v>sendAlarmTime</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>toFileCheckOutTime</v>
+      </c>
+      <c r="R20" t="str">
+        <v>FINISH</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>67864</v>
+      </c>
+      <c r="B21" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E21" t="str">
+        <v>222</v>
+      </c>
+      <c r="F21" t="str">
+        <v>254</v>
+      </c>
+      <c r="G21" t="str">
+        <v>206</v>
+      </c>
+      <c r="H21" t="str">
+        <v>195</v>
+      </c>
+      <c r="I21" t="str">
+        <v>211</v>
+      </c>
+      <c r="J21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R21" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>67920</v>
+      </c>
+      <c r="B22" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E22" t="str">
+        <v>254</v>
+      </c>
+      <c r="F22" t="str">
+        <v>213</v>
+      </c>
+      <c r="G22" t="str">
+        <v>191</v>
+      </c>
+      <c r="H22" t="str">
+        <v>4</v>
+      </c>
+      <c r="I22" t="str">
+        <v>204</v>
+      </c>
+      <c r="J22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R22" t="str">
+        <v>2019-08-07 15:36:07.715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>67974</v>
+      </c>
+      <c r="B23" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E23" t="str">
+        <v>255</v>
+      </c>
+      <c r="F23" t="str">
+        <v>219</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <v>190</v>
+      </c>
+      <c r="I23" t="str">
+        <v>203</v>
+      </c>
+      <c r="J23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R23" t="str">
+        <v>2019-08-07 15:36:07.718</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>67998</v>
+      </c>
+      <c r="B24" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E24" t="str">
+        <v>255</v>
+      </c>
+      <c r="F24" t="str">
+        <v>219</v>
+      </c>
+      <c r="G24" t="str">
+        <v>195</v>
+      </c>
+      <c r="H24" t="str">
+        <v>198</v>
+      </c>
+      <c r="I24" t="str">
+        <v>253</v>
+      </c>
+      <c r="J24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R24" t="str">
+        <v>2019-08-07 15:36:08.024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>68000</v>
+      </c>
+      <c r="B25" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C25" t="str">
+        <v>868</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E25" t="str">
+        <v>255</v>
+      </c>
+      <c r="F25" t="str">
+        <v>219</v>
+      </c>
+      <c r="G25" t="str">
+        <v>195</v>
+      </c>
+      <c r="H25" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <v>198</v>
+      </c>
+      <c r="J25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R25" t="str">
+        <v>2019-08-07 15:36:07.468</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>68006</v>
+      </c>
+      <c r="B26" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E26" t="str">
+        <v>255</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>226</v>
+      </c>
+      <c r="H26" t="str">
+        <v>189</v>
+      </c>
+      <c r="I26" t="str">
+        <v>197</v>
+      </c>
+      <c r="J26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R26" t="str">
+        <v>2019-08-07 15:36:07.720</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>88258</v>
+      </c>
+      <c r="B27" t="str">
+        <v>SITO</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E27" t="str">
+        <v>256</v>
+      </c>
+      <c r="F27" t="str">
+        <v>224</v>
+      </c>
+      <c r="G27" t="str">
+        <v>190</v>
+      </c>
+      <c r="H27" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <v>197</v>
+      </c>
+      <c r="J27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R27" t="str">
+        <v>2019-08-07 15:36:07.720</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>67892</v>
+      </c>
+      <c r="B28" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E28" t="str">
+        <v>222</v>
+      </c>
+      <c r="F28" t="str">
+        <v>254</v>
+      </c>
+      <c r="G28" t="str">
+        <v>213</v>
+      </c>
+      <c r="H28" t="str">
+        <v>189</v>
+      </c>
+      <c r="I28" t="str">
+        <v>210</v>
+      </c>
+      <c r="J28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R28" t="str">
+        <v>2019-08-07 15:36:07.462</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>67900</v>
+      </c>
+      <c r="B29" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C29" t="str">
+        <v>867</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E29" t="str">
+        <v>254</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>213</v>
+      </c>
+      <c r="I29" t="str">
+        <v>189</v>
+      </c>
+      <c r="J29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R29" t="str">
+        <v>2019-08-07 15:36:07.463</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>67912</v>
+      </c>
+      <c r="B30" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C30" t="str">
+        <v>867</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E30" t="str">
+        <v>255</v>
+      </c>
+      <c r="F30" t="str">
+        <v>212</v>
+      </c>
+      <c r="G30" t="str">
+        <v>1</v>
+      </c>
+      <c r="H30" t="str">
+        <v>189</v>
+      </c>
+      <c r="I30" t="str">
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R30" t="str">
+        <v>2019-08-07 15:36:07.209</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>67988</v>
+      </c>
+      <c r="B31" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E31" t="str">
+        <v>255</v>
+      </c>
+      <c r="F31" t="str">
+        <v>219</v>
+      </c>
+      <c r="G31" t="str">
+        <v>192</v>
+      </c>
+      <c r="H31" t="str">
+        <v>201</v>
+      </c>
+      <c r="I31" t="str">
+        <v>253</v>
+      </c>
+      <c r="J31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R31" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>67800</v>
+      </c>
+      <c r="B32" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E32" t="str">
+        <v>222</v>
+      </c>
+      <c r="F32" t="str">
+        <v>252</v>
+      </c>
+      <c r="G32" t="str">
+        <v>208</v>
+      </c>
+      <c r="H32" t="str">
+        <v>195</v>
+      </c>
+      <c r="I32" t="str">
+        <v>211</v>
+      </c>
+      <c r="J32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R32" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>67804</v>
+      </c>
+      <c r="B33" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E33" t="str">
+        <v>222</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>252</v>
+      </c>
+      <c r="H33" t="str">
+        <v>208</v>
+      </c>
+      <c r="I33" t="str">
+        <v>195</v>
+      </c>
+      <c r="J33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R33" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>67810</v>
+      </c>
+      <c r="B34" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E34" t="str">
+        <v>221</v>
+      </c>
+      <c r="F34" t="str">
+        <v>252</v>
+      </c>
+      <c r="G34" t="str">
+        <v>208</v>
+      </c>
+      <c r="H34" t="str">
+        <v>195</v>
+      </c>
+      <c r="I34" t="str">
+        <v>210</v>
+      </c>
+      <c r="J34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R34" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>67868</v>
+      </c>
+      <c r="B35" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E35" t="str">
+        <v>222</v>
+      </c>
+      <c r="F35" t="str">
+        <v>253</v>
+      </c>
+      <c r="G35" t="str">
+        <v>206</v>
+      </c>
+      <c r="H35" t="str">
+        <v>195</v>
+      </c>
+      <c r="I35" t="str">
+        <v>1</v>
+      </c>
+      <c r="J35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R35" t="str">
+        <v>2019-08-07 15:36:07.461</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>67946</v>
+      </c>
+      <c r="B36" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E36" t="str">
+        <v>255</v>
+      </c>
+      <c r="F36" t="str">
+        <v>212</v>
+      </c>
+      <c r="G36" t="str">
+        <v>197</v>
+      </c>
+      <c r="H36" t="str">
+        <v>203</v>
+      </c>
+      <c r="I36" t="str">
+        <v>254</v>
+      </c>
+      <c r="J36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R36" t="str">
+        <v>2019-08-07 15:36:08.022</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>67980</v>
+      </c>
+      <c r="B37" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C37" t="str">
+        <v>867</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E37" t="str">
+        <v>255</v>
+      </c>
+      <c r="F37" t="str">
+        <v>219</v>
+      </c>
+      <c r="G37" t="str">
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <v>190</v>
+      </c>
+      <c r="I37" t="str">
+        <v>2</v>
+      </c>
+      <c r="J37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R37" t="str">
+        <v>2019-08-07 15:36:07.466</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>68012</v>
+      </c>
+      <c r="B38" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C38" t="str">
+        <v>670</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E38" t="str">
+        <v>255</v>
+      </c>
+      <c r="F38" t="str">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <v>1</v>
+      </c>
+      <c r="I38" t="str">
+        <v>224</v>
+      </c>
+      <c r="J38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R38" t="str">
+        <v>2019-08-07 15:36:07.215</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>67768</v>
+      </c>
+      <c r="B39" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1142</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E39" t="str">
+        <v>266</v>
+      </c>
+      <c r="F39" t="str">
+        <v>221</v>
+      </c>
+      <c r="G39" t="str">
+        <v>252</v>
+      </c>
+      <c r="H39" t="str">
+        <v>193</v>
+      </c>
+      <c r="I39" t="str">
+        <v>1</v>
+      </c>
+      <c r="J39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R39" t="str">
+        <v>2019-08-07 15:36:07.201</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>67814</v>
+      </c>
+      <c r="B40" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E40" t="str">
+        <v>222</v>
+      </c>
+      <c r="F40" t="str">
+        <v>252</v>
+      </c>
+      <c r="G40" t="str">
+        <v>207</v>
+      </c>
+      <c r="H40" t="str">
+        <v>196</v>
+      </c>
+      <c r="I40" t="str">
+        <v>210</v>
+      </c>
+      <c r="J40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R40" t="str">
+        <v>2019-08-07 15:36:07.459</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>67890</v>
+      </c>
+      <c r="B41" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E41" t="str">
+        <v>222</v>
+      </c>
+      <c r="F41" t="str">
+        <v>253</v>
+      </c>
+      <c r="G41" t="str">
+        <v>2</v>
+      </c>
+      <c r="H41" t="str">
+        <v>213</v>
+      </c>
+      <c r="I41" t="str">
+        <v>189</v>
+      </c>
+      <c r="J41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R41" t="str">
+        <v>2019-08-07 15:36:07.463</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>67958</v>
+      </c>
+      <c r="B42" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E42" t="str">
+        <v>255</v>
+      </c>
+      <c r="F42" t="str">
+        <v>213</v>
+      </c>
+      <c r="G42" t="str">
+        <v>196</v>
+      </c>
+      <c r="H42" t="str">
+        <v>202</v>
+      </c>
+      <c r="I42" t="str">
+        <v>254</v>
+      </c>
+      <c r="J42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R42" t="str">
+        <v>2019-08-07 15:36:08.022</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>67840</v>
+      </c>
+      <c r="B43" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E43" t="str">
+        <v>222</v>
+      </c>
+      <c r="F43" t="str">
+        <v>253</v>
+      </c>
+      <c r="G43" t="str">
+        <v>207</v>
+      </c>
+      <c r="H43" t="str">
+        <v>196</v>
+      </c>
+      <c r="I43" t="str">
+        <v>210</v>
+      </c>
+      <c r="J43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R43" t="str">
+        <v>2019-08-07 15:36:07.460</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>67842</v>
+      </c>
+      <c r="B44" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E44" t="str">
+        <v>221</v>
+      </c>
+      <c r="F44" t="str">
+        <v>253</v>
+      </c>
+      <c r="G44" t="str">
+        <v>207</v>
+      </c>
+      <c r="H44" t="str">
+        <v>196</v>
+      </c>
+      <c r="I44" t="str">
+        <v>211</v>
+      </c>
+      <c r="J44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R44" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>67896</v>
+      </c>
+      <c r="B45" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E45" t="str">
+        <v>255</v>
+      </c>
+      <c r="F45" t="str">
+        <v>212</v>
+      </c>
+      <c r="G45" t="str">
+        <v>197</v>
+      </c>
+      <c r="H45" t="str">
+        <v>203</v>
+      </c>
+      <c r="I45" t="str">
+        <v>253</v>
+      </c>
+      <c r="J45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R45" t="str">
+        <v>2019-08-07 15:36:08.021</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>67962</v>
+      </c>
+      <c r="B46" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E46" t="str">
+        <v>254</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <v>219</v>
+      </c>
+      <c r="H46" t="str">
+        <v>190</v>
+      </c>
+      <c r="I46" t="str">
+        <v>203</v>
+      </c>
+      <c r="J46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R46" t="str">
+        <v>2019-08-07 15:36:07.718</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>67758</v>
+      </c>
+      <c r="B47" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1343</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E47" t="str">
+        <v>194</v>
+      </c>
+      <c r="F47" t="str">
+        <v>271</v>
+      </c>
+      <c r="G47" t="str">
+        <v>222</v>
+      </c>
+      <c r="H47" t="str">
+        <v>255</v>
+      </c>
+      <c r="I47" t="str">
+        <v>212</v>
+      </c>
+      <c r="J47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R47" t="str">
+        <v>2019-08-07 15:36:07.208</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>67808</v>
+      </c>
+      <c r="B48" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C48" t="str">
+        <v>877</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E48" t="str">
+        <v>222</v>
+      </c>
+      <c r="F48" t="str">
+        <v>252</v>
+      </c>
+      <c r="G48" t="str">
+        <v>208</v>
+      </c>
+      <c r="H48" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <v>195</v>
+      </c>
+      <c r="J48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R48" t="str">
+        <v>2019-08-07 15:36:07.203</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>67846</v>
+      </c>
+      <c r="B49" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1089</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E49" t="str">
+        <v>222</v>
+      </c>
+      <c r="F49" t="str">
+        <v>253</v>
+      </c>
+      <c r="G49" t="str">
+        <v>207</v>
+      </c>
+      <c r="H49" t="str">
+        <v>196</v>
+      </c>
+      <c r="I49" t="str">
+        <v>210</v>
+      </c>
+      <c r="J49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R49" t="str">
+        <v>2019-08-07 15:36:07.461</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>67878</v>
+      </c>
+      <c r="B50" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E50" t="str">
+        <v>222</v>
+      </c>
+      <c r="F50" t="str">
+        <v>254</v>
+      </c>
+      <c r="G50" t="str">
+        <v>206</v>
+      </c>
+      <c r="H50" t="str">
+        <v>196</v>
+      </c>
+      <c r="I50" t="str">
+        <v>210</v>
+      </c>
+      <c r="J50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R50" t="str">
+        <v>2019-08-07 15:36:07.461</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>67770</v>
+      </c>
+      <c r="B51" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1144</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E51" t="str">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <v>266</v>
+      </c>
+      <c r="G51" t="str">
+        <v>221</v>
+      </c>
+      <c r="H51" t="str">
+        <v>252</v>
+      </c>
+      <c r="I51" t="str">
+        <v>194</v>
+      </c>
+      <c r="J51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R51" t="str">
+        <v>2019-08-07 15:36:07.201</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>67782</v>
+      </c>
+      <c r="B52" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C52" t="str">
+        <v>933</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E52" t="str">
+        <v>266</v>
+      </c>
+      <c r="F52" t="str">
+        <v>221</v>
+      </c>
+      <c r="G52" t="str">
+        <v>1</v>
+      </c>
+      <c r="H52" t="str">
+        <v>251</v>
+      </c>
+      <c r="I52" t="str">
+        <v>0</v>
+      </c>
+      <c r="J52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R52" t="str">
+        <v>2019-08-07 15:36:06.991</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>67956</v>
+      </c>
+      <c r="B53" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E53" t="str">
+        <v>254</v>
+      </c>
+      <c r="F53" t="str">
+        <v>212</v>
+      </c>
+      <c r="G53" t="str">
+        <v>198</v>
+      </c>
+      <c r="H53" t="str">
+        <v>202</v>
+      </c>
+      <c r="I53" t="str">
+        <v>1</v>
+      </c>
+      <c r="J53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R53" t="str">
+        <v>2019-08-07 15:36:07.717</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>67984</v>
+      </c>
+      <c r="B54" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E54" t="str">
+        <v>255</v>
+      </c>
+      <c r="F54" t="str">
+        <v>219</v>
+      </c>
+      <c r="G54" t="str">
+        <v>191</v>
+      </c>
+      <c r="H54" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" t="str">
+        <v>202</v>
+      </c>
+      <c r="J54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R54" t="str">
+        <v>2019-08-07 15:36:07.718</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>67844</v>
+      </c>
+      <c r="B55" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1089</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E55" t="str">
+        <v>222</v>
+      </c>
+      <c r="F55" t="str">
+        <v>253</v>
+      </c>
+      <c r="G55" t="str">
+        <v>207</v>
+      </c>
+      <c r="H55" t="str">
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <v>195</v>
+      </c>
+      <c r="J55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R55" t="str">
+        <v>2019-08-07 15:36:07.207</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>67994</v>
+      </c>
+      <c r="B56" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E56" t="str">
+        <v>255</v>
+      </c>
+      <c r="F56" t="str">
+        <v>219</v>
+      </c>
+      <c r="G56" t="str">
+        <v>192</v>
+      </c>
+      <c r="H56" t="str">
+        <v>201</v>
+      </c>
+      <c r="I56" t="str">
+        <v>0</v>
+      </c>
+      <c r="J56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R56" t="str">
+        <v>2019-08-07 15:36:07.719</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>68010</v>
+      </c>
+      <c r="B57" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E57" t="str">
+        <v>255</v>
+      </c>
+      <c r="F57" t="str">
+        <v>226</v>
+      </c>
+      <c r="G57" t="str">
+        <v>188</v>
+      </c>
+      <c r="H57" t="str">
+        <v>198</v>
+      </c>
+      <c r="I57" t="str">
+        <v>253</v>
+      </c>
+      <c r="J57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R57" t="str">
+        <v>2019-08-07 15:36:08.024</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>88262</v>
+      </c>
+      <c r="B58" t="str">
+        <v>SITO</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E58" t="str">
+        <v>256</v>
+      </c>
+      <c r="F58" t="str">
+        <v>225</v>
+      </c>
+      <c r="G58" t="str">
+        <v>189</v>
+      </c>
+      <c r="H58" t="str">
+        <v>197</v>
+      </c>
+      <c r="I58" t="str">
+        <v>253</v>
+      </c>
+      <c r="J58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R58" t="str">
+        <v>2019-08-07 15:36:08.024</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>67826</v>
+      </c>
+      <c r="B59" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C59" t="str">
+        <v>877</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E59" t="str">
+        <v>222</v>
+      </c>
+      <c r="F59" t="str">
+        <v>252</v>
+      </c>
+      <c r="G59" t="str">
+        <v>207</v>
+      </c>
+      <c r="H59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <v>0</v>
+      </c>
+      <c r="J59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R59" t="str">
+        <v>2019-08-07 15:36:07.205</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>67886</v>
+      </c>
+      <c r="B60" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C60" t="str">
+        <v>877</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E60" t="str">
+        <v>221</v>
+      </c>
+      <c r="F60" t="str">
+        <v>254</v>
+      </c>
+      <c r="G60" t="str">
+        <v>206</v>
+      </c>
+      <c r="H60" t="str">
+        <v>3</v>
+      </c>
+      <c r="I60" t="str">
+        <v>4</v>
+      </c>
+      <c r="J60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R60" t="str">
+        <v>2019-08-07 15:36:07.208</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>67766</v>
+      </c>
+      <c r="B61" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1143</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E61" t="str">
+        <v>266</v>
+      </c>
+      <c r="F61" t="str">
+        <v>222</v>
+      </c>
+      <c r="G61" t="str">
+        <v>252</v>
+      </c>
+      <c r="H61" t="str">
+        <v>193</v>
+      </c>
+      <c r="I61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R61" t="str">
+        <v>2019-08-07 15:36:06.991</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>67816</v>
+      </c>
+      <c r="B62" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E62" t="str">
+        <v>222</v>
+      </c>
+      <c r="F62" t="str">
+        <v>252</v>
+      </c>
+      <c r="G62" t="str">
+        <v>208</v>
+      </c>
+      <c r="H62" t="str">
+        <v>195</v>
+      </c>
+      <c r="I62" t="str">
+        <v>0</v>
+      </c>
+      <c r="J62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R62" t="str">
+        <v>2019-08-07 15:36:07.204</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>67950</v>
+      </c>
+      <c r="B63" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1121</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E63" t="str">
+        <v>255</v>
+      </c>
+      <c r="F63" t="str">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <v>219</v>
+      </c>
+      <c r="H63" t="str">
+        <v>190</v>
+      </c>
+      <c r="I63" t="str">
+        <v>203</v>
+      </c>
+      <c r="J63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R63" t="str">
+        <v>2019-08-07 15:36:07.717</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>67968</v>
+      </c>
+      <c r="B64" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C64" t="str">
+        <v>867</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E64" t="str">
+        <v>255</v>
+      </c>
+      <c r="F64" t="str">
+        <v>219</v>
+      </c>
+      <c r="G64" t="str">
+        <v>191</v>
+      </c>
+      <c r="H64" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <v>0</v>
+      </c>
+      <c r="J64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R64" t="str">
+        <v>2019-08-07 15:36:07.214</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>67996</v>
+      </c>
+      <c r="B65" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C65" t="str">
+        <v>867</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <v>255</v>
+      </c>
+      <c r="G65" t="str">
+        <v>225</v>
+      </c>
+      <c r="H65" t="str">
+        <v>188</v>
+      </c>
+      <c r="I65" t="str">
+        <v>0</v>
+      </c>
+      <c r="J65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R65" t="str">
+        <v>2019-08-07 15:36:07.467</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>69088</v>
+      </c>
+      <c r="B66" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2258</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E66" t="str">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>255</v>
+      </c>
+      <c r="H66" t="str">
+        <v>225</v>
+      </c>
+      <c r="I66" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J66" t="str">
+        <v>198</v>
+      </c>
+      <c r="K66" t="str">
+        <v>252</v>
+      </c>
+      <c r="L66" t="str">
+        <v>251</v>
+      </c>
+      <c r="M66" t="str">
+        <v>306</v>
+      </c>
+      <c r="N66" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O66" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P66" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>297</v>
+      </c>
+      <c r="R66" t="str">
+        <v>2019-08-07 15:36:08.608</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>67760</v>
+      </c>
+      <c r="B67" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E67" t="str">
+        <v>266</v>
+      </c>
+      <c r="F67" t="str">
+        <v>222</v>
+      </c>
+      <c r="G67" t="str">
+        <v>251</v>
+      </c>
+      <c r="H67" t="str">
+        <v>194</v>
+      </c>
+      <c r="I67" t="str">
+        <v>210</v>
+      </c>
+      <c r="J67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R67" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>67852</v>
+      </c>
+      <c r="B68" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C68" t="str">
+        <v>981</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E68" t="str">
+        <v>272</v>
+      </c>
+      <c r="F68" t="str">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <v>1</v>
+      </c>
+      <c r="H68" t="str">
+        <v>228</v>
+      </c>
+      <c r="I68" t="str">
+        <v>255</v>
+      </c>
+      <c r="J68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R68" t="str">
+        <v>2019-08-07 15:36:07.020</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>67894</v>
+      </c>
+      <c r="B69" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C69" t="str">
+        <v>981</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E69" t="str">
+        <v>272</v>
+      </c>
+      <c r="F69" t="str">
+        <v>229</v>
+      </c>
+      <c r="G69" t="str">
+        <v>1</v>
+      </c>
+      <c r="H69" t="str">
+        <v>3</v>
+      </c>
+      <c r="I69" t="str">
+        <v>252</v>
+      </c>
+      <c r="J69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R69" t="str">
+        <v>2019-08-07 15:36:07.021</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>67832</v>
+      </c>
+      <c r="B70" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E70" t="str">
+        <v>222</v>
+      </c>
+      <c r="F70" t="str">
+        <v>252</v>
+      </c>
+      <c r="G70" t="str">
+        <v>207</v>
+      </c>
+      <c r="H70" t="str">
+        <v>195</v>
+      </c>
+      <c r="I70" t="str">
+        <v>211</v>
+      </c>
+      <c r="J70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R70" t="str">
+        <v>2019-08-07 15:36:07.459</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>67874</v>
+      </c>
+      <c r="B71" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1089</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E71" t="str">
+        <v>222</v>
+      </c>
+      <c r="F71" t="str">
+        <v>254</v>
+      </c>
+      <c r="G71" t="str">
+        <v>206</v>
+      </c>
+      <c r="H71" t="str">
+        <v>2</v>
+      </c>
+      <c r="I71" t="str">
+        <v>194</v>
+      </c>
+      <c r="J71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R71" t="str">
+        <v>2019-08-07 15:36:07.462</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>67954</v>
+      </c>
+      <c r="B72" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C72" t="str">
+        <v>866</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E72" t="str">
+        <v>255</v>
+      </c>
+      <c r="F72" t="str">
+        <v>212</v>
+      </c>
+      <c r="G72" t="str">
+        <v>7</v>
+      </c>
+      <c r="H72" t="str">
+        <v>0</v>
+      </c>
+      <c r="I72" t="str">
+        <v>190</v>
+      </c>
+      <c r="J72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R72" t="str">
+        <v>2019-08-07 15:36:07.465</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>67960</v>
+      </c>
+      <c r="B73" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E73" t="str">
+        <v>254</v>
+      </c>
+      <c r="F73" t="str">
+        <v>219</v>
+      </c>
+      <c r="G73" t="str">
+        <v>190</v>
+      </c>
+      <c r="H73" t="str">
+        <v>203</v>
+      </c>
+      <c r="I73" t="str">
+        <v>253</v>
+      </c>
+      <c r="J73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R73" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>67986</v>
+      </c>
+      <c r="B74" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E74" t="str">
+        <v>254</v>
+      </c>
+      <c r="F74" t="str">
+        <v>219</v>
+      </c>
+      <c r="G74" t="str">
+        <v>191</v>
+      </c>
+      <c r="H74" t="str">
+        <v>202</v>
+      </c>
+      <c r="I74" t="str">
+        <v>253</v>
+      </c>
+      <c r="J74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R74" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>67992</v>
+      </c>
+      <c r="B75" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E75" t="str">
+        <v>255</v>
+      </c>
+      <c r="F75" t="str">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>219</v>
+      </c>
+      <c r="H75" t="str">
+        <v>195</v>
+      </c>
+      <c r="I75" t="str">
+        <v>198</v>
+      </c>
+      <c r="J75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R75" t="str">
+        <v>2019-08-07 15:36:07.719</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>67792</v>
+      </c>
+      <c r="B76" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1145</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E76" t="str">
+        <v>268</v>
+      </c>
+      <c r="F76" t="str">
+        <v>222</v>
+      </c>
+      <c r="G76" t="str">
+        <v>253</v>
+      </c>
+      <c r="H76" t="str">
+        <v>0</v>
+      </c>
+      <c r="I76" t="str">
+        <v>207</v>
+      </c>
+      <c r="J76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R76" t="str">
+        <v>2019-08-07 15:36:06.994</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>67862</v>
+      </c>
+      <c r="B77" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C77" t="str">
+        <v>682</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E77" t="str">
+        <v>222</v>
+      </c>
+      <c r="F77" t="str">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <v>254</v>
+      </c>
+      <c r="H77" t="str">
+        <v>206</v>
+      </c>
+      <c r="I77" t="str">
+        <v>0</v>
+      </c>
+      <c r="J77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R77" t="str">
+        <v>2019-08-07 15:36:06.800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>67970</v>
+      </c>
+      <c r="B78" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E78" t="str">
+        <v>255</v>
+      </c>
+      <c r="F78" t="str">
+        <v>218</v>
+      </c>
+      <c r="G78" t="str">
+        <v>191</v>
+      </c>
+      <c r="H78" t="str">
+        <v>203</v>
+      </c>
+      <c r="I78" t="str">
+        <v>253</v>
+      </c>
+      <c r="J78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R78" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>67744</v>
+      </c>
+      <c r="B79" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1143</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E79" t="str">
+        <v>265</v>
+      </c>
+      <c r="F79" t="str">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <v>222</v>
+      </c>
+      <c r="H79" t="str">
+        <v>250</v>
+      </c>
+      <c r="I79" t="str">
+        <v>195</v>
+      </c>
+      <c r="J79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R79" t="str">
+        <v>2019-08-07 15:36:07.200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>67754</v>
+      </c>
+      <c r="B80" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1144</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E80" t="str">
+        <v>266</v>
+      </c>
+      <c r="F80" t="str">
+        <v>222</v>
+      </c>
+      <c r="G80" t="str">
+        <v>0</v>
+      </c>
+      <c r="H80" t="str">
+        <v>253</v>
+      </c>
+      <c r="I80" t="str">
+        <v>193</v>
+      </c>
+      <c r="J80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R80" t="str">
+        <v>2019-08-07 15:36:07.201</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>67818</v>
+      </c>
+      <c r="B81" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1147</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E81" t="str">
+        <v>270</v>
+      </c>
+      <c r="F81" t="str">
+        <v>222</v>
+      </c>
+      <c r="G81" t="str">
+        <v>254</v>
+      </c>
+      <c r="H81" t="str">
+        <v>206</v>
+      </c>
+      <c r="I81" t="str">
+        <v>195</v>
+      </c>
+      <c r="J81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R81" t="str">
+        <v>2019-08-07 15:36:07.207</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>67790</v>
+      </c>
+      <c r="B82" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1343</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E82" t="str">
+        <v>222</v>
+      </c>
+      <c r="F82" t="str">
+        <v>251</v>
+      </c>
+      <c r="G82" t="str">
+        <v>208</v>
+      </c>
+      <c r="H82" t="str">
+        <v>196</v>
+      </c>
+      <c r="I82" t="str">
+        <v>211</v>
+      </c>
+      <c r="J82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R82" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>67880</v>
+      </c>
+      <c r="B83" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C83" t="str">
+        <v>878</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E83" t="str">
+        <v>222</v>
+      </c>
+      <c r="F83" t="str">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <v>253</v>
+      </c>
+      <c r="H83" t="str">
+        <v>211</v>
+      </c>
+      <c r="I83" t="str">
+        <v>191</v>
+      </c>
+      <c r="J83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R83" t="str">
+        <v>2019-08-07 15:36:07.208</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>67906</v>
+      </c>
+      <c r="B84" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1121</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E84" t="str">
+        <v>255</v>
+      </c>
+      <c r="F84" t="str">
+        <v>212</v>
+      </c>
+      <c r="G84" t="str">
+        <v>195</v>
+      </c>
+      <c r="H84" t="str">
+        <v>2</v>
+      </c>
+      <c r="I84" t="str">
+        <v>203</v>
+      </c>
+      <c r="J84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R84" t="str">
+        <v>2019-08-07 15:36:07.715</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>67934</v>
+      </c>
+      <c r="B85" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E85" t="str">
+        <v>255</v>
+      </c>
+      <c r="F85" t="str">
+        <v>212</v>
+      </c>
+      <c r="G85" t="str">
+        <v>196</v>
+      </c>
+      <c r="H85" t="str">
+        <v>203</v>
+      </c>
+      <c r="I85" t="str">
+        <v>0</v>
+      </c>
+      <c r="J85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R85" t="str">
+        <v>2019-08-07 15:36:07.716</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>67786</v>
+      </c>
+      <c r="B86" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1365</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E86" t="str">
+        <v>195</v>
+      </c>
+      <c r="F86" t="str">
+        <v>272</v>
+      </c>
+      <c r="G86" t="str">
+        <v>232</v>
+      </c>
+      <c r="H86" t="str">
+        <v>252</v>
+      </c>
+      <c r="I86" t="str">
+        <v>225</v>
+      </c>
+      <c r="J86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R86" t="str">
+        <v>2019-08-07 15:36:07.217</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>67788</v>
+      </c>
+      <c r="B87" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C87" t="str">
+        <v>947</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E87" t="str">
+        <v>266</v>
+      </c>
+      <c r="F87" t="str">
+        <v>222</v>
+      </c>
+      <c r="G87" t="str">
+        <v>252</v>
+      </c>
+      <c r="H87" t="str">
+        <v>207</v>
+      </c>
+      <c r="I87" t="str">
+        <v>0</v>
+      </c>
+      <c r="J87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R87" t="str">
+        <v>2019-08-07 15:36:06.797</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>68014</v>
+      </c>
+      <c r="B88" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C88" t="str">
+        <v>867</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+      <c r="F88" t="str">
+        <v>256</v>
+      </c>
+      <c r="G88" t="str">
+        <v>225</v>
+      </c>
+      <c r="H88" t="str">
+        <v>189</v>
+      </c>
+      <c r="I88" t="str">
+        <v>197</v>
+      </c>
+      <c r="J88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R88" t="str">
+        <v>2019-08-07 15:36:07.468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>69090</v>
+      </c>
+      <c r="B89" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2260</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E89" t="str">
+        <v>255</v>
+      </c>
+      <c r="F89" t="str">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <v>225</v>
+      </c>
+      <c r="H89" t="str">
+        <v>190</v>
+      </c>
+      <c r="I89" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J89" t="str">
+        <v>252</v>
+      </c>
+      <c r="K89" t="str">
+        <v>252</v>
+      </c>
+      <c r="L89" t="str">
+        <v>1</v>
+      </c>
+      <c r="M89" t="str">
+        <v>305</v>
+      </c>
+      <c r="N89" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O89" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P89" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>298</v>
+      </c>
+      <c r="R89" t="str">
+        <v>2019-08-07 15:36:08.951</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>67802</v>
+      </c>
+      <c r="B90" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1086</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E90" t="str">
+        <v>221</v>
+      </c>
+      <c r="F90" t="str">
+        <v>252</v>
+      </c>
+      <c r="G90" t="str">
+        <v>208</v>
+      </c>
+      <c r="H90" t="str">
+        <v>195</v>
+      </c>
+      <c r="I90" t="str">
+        <v>210</v>
+      </c>
+      <c r="J90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R90" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>67820</v>
+      </c>
+      <c r="B91" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C91" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E91" t="str">
+        <v>222</v>
+      </c>
+      <c r="F91" t="str">
+        <v>252</v>
+      </c>
+      <c r="G91" t="str">
+        <v>1</v>
+      </c>
+      <c r="H91" t="str">
+        <v>207</v>
+      </c>
+      <c r="I91" t="str">
+        <v>195</v>
+      </c>
+      <c r="J91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R91" t="str">
+        <v>2019-08-07 15:36:07.459</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>67830</v>
+      </c>
+      <c r="B92" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E92" t="str">
+        <v>222</v>
+      </c>
+      <c r="F92" t="str">
+        <v>251</v>
+      </c>
+      <c r="G92" t="str">
+        <v>208</v>
+      </c>
+      <c r="H92" t="str">
+        <v>195</v>
+      </c>
+      <c r="I92" t="str">
+        <v>211</v>
+      </c>
+      <c r="J92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R92" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>67848</v>
+      </c>
+      <c r="B93" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E93" t="str">
+        <v>222</v>
+      </c>
+      <c r="F93" t="str">
+        <v>253</v>
+      </c>
+      <c r="G93" t="str">
+        <v>206</v>
+      </c>
+      <c r="H93" t="str">
+        <v>196</v>
+      </c>
+      <c r="I93" t="str">
+        <v>0</v>
+      </c>
+      <c r="J93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R93" t="str">
+        <v>2019-08-07 15:36:07.460</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>67904</v>
+      </c>
+      <c r="B94" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E94" t="str">
+        <v>254</v>
+      </c>
+      <c r="F94" t="str">
+        <v>213</v>
+      </c>
+      <c r="G94" t="str">
+        <v>189</v>
+      </c>
+      <c r="H94" t="str">
+        <v>211</v>
+      </c>
+      <c r="I94" t="str">
+        <v>254</v>
+      </c>
+      <c r="J94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R94" t="str">
+        <v>2019-08-07 15:36:08.020</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>67914</v>
+      </c>
+      <c r="B95" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C95" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E95" t="str">
+        <v>255</v>
+      </c>
+      <c r="F95" t="str">
+        <v>213</v>
+      </c>
+      <c r="G95" t="str">
+        <v>189</v>
+      </c>
+      <c r="H95" t="str">
+        <v>210</v>
+      </c>
+      <c r="I95" t="str">
+        <v>254</v>
+      </c>
+      <c r="J95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R95" t="str">
+        <v>2019-08-07 15:36:08.020</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>69078</v>
+      </c>
+      <c r="B96" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1978</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E96" t="str">
+        <v>256</v>
+      </c>
+      <c r="F96" t="str">
+        <v>225</v>
+      </c>
+      <c r="G96" t="str">
+        <v>190</v>
+      </c>
+      <c r="H96" t="str">
+        <v>197</v>
+      </c>
+      <c r="I96" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J96" t="str">
+        <v>255</v>
+      </c>
+      <c r="K96" t="str">
+        <v>0</v>
+      </c>
+      <c r="L96" t="str">
+        <v>304</v>
+      </c>
+      <c r="M96" t="str">
+        <v>299</v>
+      </c>
+      <c r="N96" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O96" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P96" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>0</v>
+      </c>
+      <c r="R96" t="str">
+        <v>2019-08-07 15:36:08.327</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>67750</v>
+      </c>
+      <c r="B97" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1354</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E97" t="str">
+        <v>265</v>
+      </c>
+      <c r="F97" t="str">
+        <v>222</v>
+      </c>
+      <c r="G97" t="str">
+        <v>251</v>
+      </c>
+      <c r="H97" t="str">
+        <v>195</v>
+      </c>
+      <c r="I97" t="str">
+        <v>210</v>
+      </c>
+      <c r="J97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R97" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>67778</v>
+      </c>
+      <c r="B98" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C98" t="str">
+        <v>942</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E98" t="str">
+        <v>266</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <v>222</v>
+      </c>
+      <c r="H98" t="str">
+        <v>252</v>
+      </c>
+      <c r="I98" t="str">
+        <v>201</v>
+      </c>
+      <c r="J98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R98" t="str">
+        <v>2019-08-07 15:36:06.992</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>67824</v>
+      </c>
+      <c r="B99" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C99" t="str">
+        <v>876</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0</v>
+      </c>
+      <c r="F99" t="str">
+        <v>222</v>
+      </c>
+      <c r="G99" t="str">
+        <v>252</v>
+      </c>
+      <c r="H99" t="str">
+        <v>1</v>
+      </c>
+      <c r="I99" t="str">
+        <v>206</v>
+      </c>
+      <c r="J99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R99" t="str">
+        <v>2019-08-07 15:36:07.203</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>67924</v>
+      </c>
+      <c r="B100" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C100" t="str">
+        <v>867</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E100" t="str">
+        <v>255</v>
+      </c>
+      <c r="F100" t="str">
+        <v>212</v>
+      </c>
+      <c r="G100" t="str">
+        <v>197</v>
+      </c>
+      <c r="H100" t="str">
+        <v>0</v>
+      </c>
+      <c r="I100" t="str">
+        <v>203</v>
+      </c>
+      <c r="J100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R100" t="str">
+        <v>2019-08-07 15:36:07.464</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>67936</v>
+      </c>
+      <c r="B101" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C101" t="str">
+        <v>867</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+      <c r="F101" t="str">
+        <v>255</v>
+      </c>
+      <c r="G101" t="str">
+        <v>212</v>
+      </c>
+      <c r="H101" t="str">
+        <v>197</v>
+      </c>
+      <c r="I101" t="str">
+        <v>203</v>
+      </c>
+      <c r="J101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R101" t="str">
+        <v>2019-08-07 15:36:07.465</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>67978</v>
+      </c>
+      <c r="B102" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1121</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E102" t="str">
+        <v>255</v>
+      </c>
+      <c r="F102" t="str">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <v>219</v>
+      </c>
+      <c r="H102" t="str">
+        <v>195</v>
+      </c>
+      <c r="I102" t="str">
+        <v>198</v>
+      </c>
+      <c r="J102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R102" t="str">
+        <v>2019-08-07 15:36:07.719</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>69086</v>
+      </c>
+      <c r="B103" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2260</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E103" t="str">
+        <v>255</v>
+      </c>
+      <c r="F103" t="str">
+        <v>225</v>
+      </c>
+      <c r="G103" t="str">
+        <v>1</v>
+      </c>
+      <c r="H103" t="str">
+        <v>189</v>
+      </c>
+      <c r="I103" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J103" t="str">
+        <v>253</v>
+      </c>
+      <c r="K103" t="str">
+        <v>252</v>
+      </c>
+      <c r="L103" t="str">
+        <v>304</v>
+      </c>
+      <c r="M103" t="str">
+        <v>299</v>
+      </c>
+      <c r="N103" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O103" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P103" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>1</v>
+      </c>
+      <c r="R103" t="str">
+        <v>2019-08-07 15:36:08.951</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>67762</v>
+      </c>
+      <c r="B104" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E104" t="str">
+        <v>266</v>
+      </c>
+      <c r="F104" t="str">
+        <v>221</v>
+      </c>
+      <c r="G104" t="str">
+        <v>252</v>
+      </c>
+      <c r="H104" t="str">
+        <v>194</v>
+      </c>
+      <c r="I104" t="str">
+        <v>210</v>
+      </c>
+      <c r="J104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R104" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>67806</v>
+      </c>
+      <c r="B105" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C105" t="str">
+        <v>877</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1</v>
+      </c>
+      <c r="F105" t="str">
+        <v>222</v>
+      </c>
+      <c r="G105" t="str">
+        <v>0</v>
+      </c>
+      <c r="H105" t="str">
+        <v>252</v>
+      </c>
+      <c r="I105" t="str">
+        <v>207</v>
+      </c>
+      <c r="J105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R105" t="str">
+        <v>2019-08-07 15:36:07.202</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>67822</v>
+      </c>
+      <c r="B106" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C106" t="str">
+        <v>877</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E106" t="str">
+        <v>222</v>
+      </c>
+      <c r="F106" t="str">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <v>252</v>
+      </c>
+      <c r="H106" t="str">
+        <v>1</v>
+      </c>
+      <c r="I106" t="str">
+        <v>206</v>
+      </c>
+      <c r="J106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R106" t="str">
+        <v>2019-08-07 15:36:06.993</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>67834</v>
+      </c>
+      <c r="B107" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E107" t="str">
+        <v>222</v>
+      </c>
+      <c r="F107" t="str">
+        <v>252</v>
+      </c>
+      <c r="G107" t="str">
+        <v>1</v>
+      </c>
+      <c r="H107" t="str">
+        <v>207</v>
+      </c>
+      <c r="I107" t="str">
+        <v>195</v>
+      </c>
+      <c r="J107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R107" t="str">
+        <v>2019-08-07 15:36:07.460</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>67866</v>
+      </c>
+      <c r="B108" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C108" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E108" t="str">
+        <v>222</v>
+      </c>
+      <c r="F108" t="str">
+        <v>253</v>
+      </c>
+      <c r="G108" t="str">
+        <v>206</v>
+      </c>
+      <c r="H108" t="str">
+        <v>1</v>
+      </c>
+      <c r="I108" t="str">
+        <v>195</v>
+      </c>
+      <c r="J108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R108" t="str">
+        <v>2019-08-07 15:36:07.461</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>67926</v>
+      </c>
+      <c r="B109" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C109" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E109" t="str">
+        <v>254</v>
+      </c>
+      <c r="F109" t="str">
+        <v>213</v>
+      </c>
+      <c r="G109" t="str">
+        <v>196</v>
+      </c>
+      <c r="H109" t="str">
+        <v>203</v>
+      </c>
+      <c r="I109" t="str">
+        <v>254</v>
+      </c>
+      <c r="J109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R109" t="str">
+        <v>2019-08-07 15:36:08.021</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>67932</v>
+      </c>
+      <c r="B110" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C110" t="str">
+        <v>1121</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E110" t="str">
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <v>255</v>
+      </c>
+      <c r="G110" t="str">
+        <v>212</v>
+      </c>
+      <c r="H110" t="str">
+        <v>197</v>
+      </c>
+      <c r="I110" t="str">
+        <v>202</v>
+      </c>
+      <c r="J110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R110" t="str">
+        <v>2019-08-07 15:36:07.716</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>67964</v>
+      </c>
+      <c r="B111" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C111" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E111" t="str">
+        <v>254</v>
+      </c>
+      <c r="F111" t="str">
+        <v>219</v>
+      </c>
+      <c r="G111" t="str">
+        <v>191</v>
+      </c>
+      <c r="H111" t="str">
+        <v>0</v>
+      </c>
+      <c r="I111" t="str">
+        <v>202</v>
+      </c>
+      <c r="J111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R111" t="str">
+        <v>2019-08-07 15:36:07.718</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>69074</v>
+      </c>
+      <c r="B112" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2253</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E112" t="str">
+        <v>255</v>
+      </c>
+      <c r="F112" t="str">
+        <v>226</v>
+      </c>
+      <c r="G112" t="str">
+        <v>190</v>
+      </c>
+      <c r="H112" t="str">
+        <v>197</v>
+      </c>
+      <c r="I112" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J112" t="str">
+        <v>253</v>
+      </c>
+      <c r="K112" t="str">
+        <v>304</v>
+      </c>
+      <c r="L112" t="str">
+        <v>0</v>
+      </c>
+      <c r="M112" t="str">
+        <v>299</v>
+      </c>
+      <c r="N112" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O112" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P112" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>277</v>
+      </c>
+      <c r="R112" t="str">
+        <v>2019-08-07 15:36:08.601</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>67898</v>
+      </c>
+      <c r="B113" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C113" t="str">
+        <v>1122</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E113" t="str">
+        <v>255</v>
+      </c>
+      <c r="F113" t="str">
+        <v>213</v>
+      </c>
+      <c r="G113" t="str">
+        <v>197</v>
+      </c>
+      <c r="H113" t="str">
+        <v>0</v>
+      </c>
+      <c r="I113" t="str">
+        <v>203</v>
+      </c>
+      <c r="J113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R113" t="str">
+        <v>2019-08-07 15:36:07.715</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>67982</v>
+      </c>
+      <c r="B114" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E114" t="str">
+        <v>254</v>
+      </c>
+      <c r="F114" t="str">
+        <v>220</v>
+      </c>
+      <c r="G114" t="str">
+        <v>190</v>
+      </c>
+      <c r="H114" t="str">
+        <v>202</v>
+      </c>
+      <c r="I114" t="str">
+        <v>253</v>
+      </c>
+      <c r="J114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R114" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>68002</v>
+      </c>
+      <c r="B115" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E115" t="str">
+        <v>256</v>
+      </c>
+      <c r="F115" t="str">
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <v>225</v>
+      </c>
+      <c r="H115" t="str">
+        <v>188</v>
+      </c>
+      <c r="I115" t="str">
+        <v>199</v>
+      </c>
+      <c r="J115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R115" t="str">
+        <v>2019-08-07 15:36:07.720</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>67854</v>
+      </c>
+      <c r="B116" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1090</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E116" t="str">
+        <v>222</v>
+      </c>
+      <c r="F116" t="str">
+        <v>253</v>
+      </c>
+      <c r="G116" t="str">
+        <v>2</v>
+      </c>
+      <c r="H116" t="str">
+        <v>207</v>
+      </c>
+      <c r="I116" t="str">
+        <v>195</v>
+      </c>
+      <c r="J116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R116" t="str">
+        <v>2019-08-07 15:36:07.462</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>67872</v>
+      </c>
+      <c r="B117" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E117" t="str">
+        <v>0</v>
+      </c>
+      <c r="F117" t="str">
+        <v>222</v>
+      </c>
+      <c r="G117" t="str">
+        <v>254</v>
+      </c>
+      <c r="H117" t="str">
+        <v>206</v>
+      </c>
+      <c r="I117" t="str">
+        <v>196</v>
+      </c>
+      <c r="J117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R117" t="str">
+        <v>2019-08-07 15:36:07.462</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>67884</v>
+      </c>
+      <c r="B118" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1343</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E118" t="str">
+        <v>223</v>
+      </c>
+      <c r="F118" t="str">
+        <v>254</v>
+      </c>
+      <c r="G118" t="str">
+        <v>213</v>
+      </c>
+      <c r="H118" t="str">
+        <v>190</v>
+      </c>
+      <c r="I118" t="str">
+        <v>209</v>
+      </c>
+      <c r="J118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R118" t="str">
+        <v>2019-08-07 15:36:07.715</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>69084</v>
+      </c>
+      <c r="B119" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2260</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E119" t="str">
+        <v>255</v>
+      </c>
+      <c r="F119" t="str">
+        <v>225</v>
+      </c>
+      <c r="G119" t="str">
+        <v>190</v>
+      </c>
+      <c r="H119" t="str">
+        <v>197</v>
+      </c>
+      <c r="I119" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J119" t="str">
+        <v>255</v>
+      </c>
+      <c r="K119" t="str">
+        <v>0</v>
+      </c>
+      <c r="L119" t="str">
+        <v>0</v>
+      </c>
+      <c r="M119" t="str">
+        <v>305</v>
+      </c>
+      <c r="N119" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O119" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P119" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>297</v>
+      </c>
+      <c r="R119" t="str">
+        <v>2019-08-07 15:36:08.951</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>67746</v>
+      </c>
+      <c r="B120" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C120" t="str">
+        <v>932</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E120" t="str">
+        <v>265</v>
+      </c>
+      <c r="F120" t="str">
+        <v>1</v>
+      </c>
+      <c r="G120" t="str">
+        <v>221</v>
+      </c>
+      <c r="H120" t="str">
+        <v>1</v>
+      </c>
+      <c r="I120" t="str">
+        <v>250</v>
+      </c>
+      <c r="J120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R120" t="str">
+        <v>2019-08-07 15:36:06.989</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>67756</v>
+      </c>
+      <c r="B121" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C121" t="str">
+        <v>933</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <v>266</v>
+      </c>
+      <c r="H121" t="str">
+        <v>222</v>
+      </c>
+      <c r="I121" t="str">
+        <v>251</v>
+      </c>
+      <c r="J121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R121" t="str">
+        <v>2019-08-07 15:36:06.990</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>67794</v>
+      </c>
+      <c r="B122" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C122" t="str">
+        <v>681</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E122" t="str">
+        <v>221</v>
+      </c>
+      <c r="F122" t="str">
+        <v>252</v>
+      </c>
+      <c r="G122" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" t="str">
+        <v>0</v>
+      </c>
+      <c r="I122" t="str">
+        <v>207</v>
+      </c>
+      <c r="J122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R122" t="str">
+        <v>2019-08-07 15:36:06.796</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>67902</v>
+      </c>
+      <c r="B123" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C123" t="str">
+        <v>1092</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E123" t="str">
+        <v>226</v>
+      </c>
+      <c r="F123" t="str">
+        <v>254</v>
+      </c>
+      <c r="G123" t="str">
+        <v>219</v>
+      </c>
+      <c r="H123" t="str">
+        <v>190</v>
+      </c>
+      <c r="I123" t="str">
+        <v>0</v>
+      </c>
+      <c r="J123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R123" t="str">
+        <v>2019-08-07 15:36:07.466</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>67908</v>
+      </c>
+      <c r="B124" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C124" t="str">
+        <v>656</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E124" t="str">
+        <v>254</v>
+      </c>
+      <c r="F124" t="str">
+        <v>213</v>
+      </c>
+      <c r="G124" t="str">
+        <v>0</v>
+      </c>
+      <c r="H124" t="str">
+        <v>1</v>
+      </c>
+      <c r="I124" t="str">
+        <v>188</v>
+      </c>
+      <c r="J124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R124" t="str">
+        <v>2019-08-07 15:36:06.998</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>67940</v>
+      </c>
+      <c r="B125" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C125" t="str">
+        <v>1371</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E125" t="str">
+        <v>254</v>
+      </c>
+      <c r="F125" t="str">
+        <v>213</v>
+      </c>
+      <c r="G125" t="str">
+        <v>196</v>
+      </c>
+      <c r="H125" t="str">
+        <v>203</v>
+      </c>
+      <c r="I125" t="str">
+        <v>254</v>
+      </c>
+      <c r="J125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R125" t="str">
+        <v>2019-08-07 15:36:08.021</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>67952</v>
+      </c>
+      <c r="B126" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C126" t="str">
+        <v>867</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E126" t="str">
+        <v>0</v>
+      </c>
+      <c r="F126" t="str">
+        <v>255</v>
+      </c>
+      <c r="G126" t="str">
+        <v>219</v>
+      </c>
+      <c r="H126" t="str">
+        <v>190</v>
+      </c>
+      <c r="I126" t="str">
+        <v>0</v>
+      </c>
+      <c r="J126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R126" t="str">
+        <v>2019-08-07 15:36:07.212</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>67990</v>
+      </c>
+      <c r="B127" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C127" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E127" t="str">
+        <v>255</v>
+      </c>
+      <c r="F127" t="str">
+        <v>219</v>
+      </c>
+      <c r="G127" t="str">
+        <v>192</v>
+      </c>
+      <c r="H127" t="str">
+        <v>201</v>
+      </c>
+      <c r="I127" t="str">
+        <v>253</v>
+      </c>
+      <c r="J127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R127" t="str">
+        <v>2019-08-07 15:36:08.024</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>88260</v>
+      </c>
+      <c r="B128" t="str">
+        <v>SITO</v>
+      </c>
+      <c r="C128" t="str">
+        <v>1120</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E128" t="str">
+        <v>0</v>
+      </c>
+      <c r="F128" t="str">
+        <v>256</v>
+      </c>
+      <c r="G128" t="str">
+        <v>225</v>
+      </c>
+      <c r="H128" t="str">
+        <v>190</v>
+      </c>
+      <c r="I128" t="str">
+        <v>197</v>
+      </c>
+      <c r="J128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R128" t="str">
+        <v>2019-08-07 15:36:07.720</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>67776</v>
+      </c>
+      <c r="B129" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C129" t="str">
+        <v>1143</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E129" t="str">
+        <v>266</v>
+      </c>
+      <c r="F129" t="str">
+        <v>221</v>
+      </c>
+      <c r="G129" t="str">
+        <v>1</v>
+      </c>
+      <c r="H129" t="str">
+        <v>251</v>
+      </c>
+      <c r="I129" t="str">
+        <v>194</v>
+      </c>
+      <c r="J129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R129" t="str">
+        <v>2019-08-07 15:36:07.201</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>67828</v>
+      </c>
+      <c r="B130" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C130" t="str">
+        <v>1087</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E130" t="str">
+        <v>222</v>
+      </c>
+      <c r="F130" t="str">
+        <v>251</v>
+      </c>
+      <c r="G130" t="str">
+        <v>208</v>
+      </c>
+      <c r="H130" t="str">
+        <v>1</v>
+      </c>
+      <c r="I130" t="str">
+        <v>195</v>
+      </c>
+      <c r="J130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R130" t="str">
+        <v>2019-08-07 15:36:07.459</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>67948</v>
+      </c>
+      <c r="B131" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C131" t="str">
+        <v>1373</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E131" t="str">
+        <v>255</v>
+      </c>
+      <c r="F131" t="str">
+        <v>212</v>
+      </c>
+      <c r="G131" t="str">
+        <v>198</v>
+      </c>
+      <c r="H131" t="str">
+        <v>203</v>
+      </c>
+      <c r="I131" t="str">
+        <v>253</v>
+      </c>
+      <c r="J131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R131" t="str">
+        <v>2019-08-07 15:36:08.022</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>67796</v>
+      </c>
+      <c r="B132" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C132" t="str">
+        <v>675</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E132" t="str">
+        <v>221</v>
+      </c>
+      <c r="F132" t="str">
+        <v>1</v>
+      </c>
+      <c r="G132" t="str">
+        <v>251</v>
+      </c>
+      <c r="H132" t="str">
+        <v>202</v>
+      </c>
+      <c r="I132" t="str">
+        <v>0</v>
+      </c>
+      <c r="J132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R132" t="str">
+        <v>2019-08-07 15:36:06.791</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>67888</v>
+      </c>
+      <c r="B133" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D133" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E133" t="str">
+        <v>222</v>
+      </c>
+      <c r="F133" t="str">
+        <v>253</v>
+      </c>
+      <c r="G133" t="str">
+        <v>214</v>
+      </c>
+      <c r="H133" t="str">
+        <v>189</v>
+      </c>
+      <c r="I133" t="str">
+        <v>210</v>
+      </c>
+      <c r="J133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R133" t="str">
+        <v>2019-08-07 15:36:07.462</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>67910</v>
+      </c>
+      <c r="B134" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C134" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E134" t="str">
+        <v>254</v>
+      </c>
+      <c r="F134" t="str">
+        <v>213</v>
+      </c>
+      <c r="G134" t="str">
+        <v>190</v>
+      </c>
+      <c r="H134" t="str">
+        <v>209</v>
+      </c>
+      <c r="I134" t="str">
+        <v>254</v>
+      </c>
+      <c r="J134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R134" t="str">
+        <v>2019-08-07 15:36:08.020</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>67922</v>
+      </c>
+      <c r="B135" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E135" t="str">
+        <v>255</v>
+      </c>
+      <c r="F135" t="str">
+        <v>212</v>
+      </c>
+      <c r="G135" t="str">
+        <v>191</v>
+      </c>
+      <c r="H135" t="str">
+        <v>209</v>
+      </c>
+      <c r="I135" t="str">
+        <v>253</v>
+      </c>
+      <c r="J135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R135" t="str">
+        <v>2019-08-07 15:36:08.021</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>67860</v>
+      </c>
+      <c r="B136" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C136" t="str">
+        <v>879</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E136" t="str">
+        <v>222</v>
+      </c>
+      <c r="F136" t="str">
+        <v>254</v>
+      </c>
+      <c r="G136" t="str">
+        <v>0</v>
+      </c>
+      <c r="H136" t="str">
+        <v>207</v>
+      </c>
+      <c r="I136" t="str">
+        <v>196</v>
+      </c>
+      <c r="J136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R136" t="str">
+        <v>2019-08-07 15:36:07.207</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>67918</v>
+      </c>
+      <c r="B137" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C137" t="str">
+        <v>1121</v>
+      </c>
+      <c r="D137" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E137" t="str">
+        <v>255</v>
+      </c>
+      <c r="F137" t="str">
+        <v>213</v>
+      </c>
+      <c r="G137" t="str">
+        <v>191</v>
+      </c>
+      <c r="H137" t="str">
+        <v>0</v>
+      </c>
+      <c r="I137" t="str">
+        <v>208</v>
+      </c>
+      <c r="J137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R137" t="str">
+        <v>2019-08-07 15:36:07.715</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>67928</v>
+      </c>
+      <c r="B138" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C138" t="str">
+        <v>867</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E138" t="str">
+        <v>255</v>
+      </c>
+      <c r="F138" t="str">
+        <v>213</v>
+      </c>
+      <c r="G138" t="str">
+        <v>196</v>
+      </c>
+      <c r="H138" t="str">
+        <v>1</v>
+      </c>
+      <c r="I138" t="str">
+        <v>0</v>
+      </c>
+      <c r="J138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R138" t="str">
+        <v>2019-08-07 15:36:07.464</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>67938</v>
+      </c>
+      <c r="B139" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C139" t="str">
+        <v>1093</v>
+      </c>
+      <c r="D139" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E139" t="str">
+        <v>226</v>
+      </c>
+      <c r="F139" t="str">
+        <v>255</v>
+      </c>
+      <c r="G139" t="str">
+        <v>1</v>
+      </c>
+      <c r="H139" t="str">
+        <v>219</v>
+      </c>
+      <c r="I139" t="str">
+        <v>193</v>
+      </c>
+      <c r="J139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R139" t="str">
+        <v>2019-08-07 15:36:07.467</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>67976</v>
+      </c>
+      <c r="B140" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C140" t="str">
+        <v>1347</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E140" t="str">
+        <v>228</v>
+      </c>
+      <c r="F140" t="str">
+        <v>256</v>
+      </c>
+      <c r="G140" t="str">
+        <v>225</v>
+      </c>
+      <c r="H140" t="str">
+        <v>189</v>
+      </c>
+      <c r="I140" t="str">
+        <v>197</v>
+      </c>
+      <c r="J140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R140" t="str">
+        <v>2019-08-07 15:36:07.720</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>67858</v>
+      </c>
+      <c r="B141" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1343</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E141" t="str">
+        <v>222</v>
+      </c>
+      <c r="F141" t="str">
+        <v>253</v>
+      </c>
+      <c r="G141" t="str">
+        <v>207</v>
+      </c>
+      <c r="H141" t="str">
+        <v>196</v>
+      </c>
+      <c r="I141" t="str">
+        <v>210</v>
+      </c>
+      <c r="J141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R141" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>67966</v>
+      </c>
+      <c r="B142" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C142" t="str">
+        <v>1372</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E142" t="str">
+        <v>254</v>
+      </c>
+      <c r="F142" t="str">
+        <v>219</v>
+      </c>
+      <c r="G142" t="str">
+        <v>190</v>
+      </c>
+      <c r="H142" t="str">
+        <v>203</v>
+      </c>
+      <c r="I142" t="str">
+        <v>254</v>
+      </c>
+      <c r="J142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q142" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R142" t="str">
+        <v>2019-08-07 15:36:08.023</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>69082</v>
+      </c>
+      <c r="B143" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2260</v>
+      </c>
+      <c r="D143" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E143" t="str">
+        <v>256</v>
+      </c>
+      <c r="F143" t="str">
+        <v>0</v>
+      </c>
+      <c r="G143" t="str">
+        <v>225</v>
+      </c>
+      <c r="H143" t="str">
+        <v>190</v>
+      </c>
+      <c r="I143" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J143" t="str">
+        <v>253</v>
+      </c>
+      <c r="K143" t="str">
+        <v>252</v>
+      </c>
+      <c r="L143" t="str">
+        <v>304</v>
+      </c>
+      <c r="M143" t="str">
+        <v>2</v>
+      </c>
+      <c r="N143" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O143" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P143" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q143" t="str">
+        <v>297</v>
+      </c>
+      <c r="R143" t="str">
+        <v>2019-08-07 15:36:08.951</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>67752</v>
+      </c>
+      <c r="B144" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C144" t="str">
+        <v>1354</v>
+      </c>
+      <c r="D144" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E144" t="str">
+        <v>266</v>
+      </c>
+      <c r="F144" t="str">
+        <v>221</v>
+      </c>
+      <c r="G144" t="str">
+        <v>251</v>
+      </c>
+      <c r="H144" t="str">
+        <v>195</v>
+      </c>
+      <c r="I144" t="str">
+        <v>210</v>
+      </c>
+      <c r="J144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q144" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R144" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>67772</v>
+      </c>
+      <c r="B145" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C145" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E145" t="str">
+        <v>265</v>
+      </c>
+      <c r="F145" t="str">
+        <v>222</v>
+      </c>
+      <c r="G145" t="str">
+        <v>251</v>
+      </c>
+      <c r="H145" t="str">
+        <v>194</v>
+      </c>
+      <c r="I145" t="str">
+        <v>210</v>
+      </c>
+      <c r="J145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q145" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R145" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>67798</v>
+      </c>
+      <c r="B146" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C146" t="str">
+        <v>1343</v>
+      </c>
+      <c r="D146" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E146" t="str">
+        <v>222</v>
+      </c>
+      <c r="F146" t="str">
+        <v>251</v>
+      </c>
+      <c r="G146" t="str">
+        <v>207</v>
+      </c>
+      <c r="H146" t="str">
+        <v>197</v>
+      </c>
+      <c r="I146" t="str">
+        <v>210</v>
+      </c>
+      <c r="J146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q146" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R146" t="str">
+        <v>2019-08-07 15:36:07.710</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>67812</v>
+      </c>
+      <c r="B147" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C147" t="str">
+        <v>877</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E147" t="str">
+        <v>222</v>
+      </c>
+      <c r="F147" t="str">
+        <v>1</v>
+      </c>
+      <c r="G147" t="str">
+        <v>251</v>
+      </c>
+      <c r="H147" t="str">
+        <v>2</v>
+      </c>
+      <c r="I147" t="str">
+        <v>206</v>
+      </c>
+      <c r="J147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q147" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R147" t="str">
+        <v>2019-08-07 15:36:07.204</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>67838</v>
+      </c>
+      <c r="B148" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E148" t="str">
+        <v>221</v>
+      </c>
+      <c r="F148" t="str">
+        <v>253</v>
+      </c>
+      <c r="G148" t="str">
+        <v>1</v>
+      </c>
+      <c r="H148" t="str">
+        <v>206</v>
+      </c>
+      <c r="I148" t="str">
+        <v>196</v>
+      </c>
+      <c r="J148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R148" t="str">
+        <v>2019-08-07 15:36:07.206</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>67870</v>
+      </c>
+      <c r="B149" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E149" t="str">
+        <v>222</v>
+      </c>
+      <c r="F149" t="str">
+        <v>253</v>
+      </c>
+      <c r="G149" t="str">
+        <v>207</v>
+      </c>
+      <c r="H149" t="str">
+        <v>0</v>
+      </c>
+      <c r="I149" t="str">
+        <v>196</v>
+      </c>
+      <c r="J149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q149" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R149" t="str">
+        <v>2019-08-07 15:36:07.461</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>67942</v>
+      </c>
+      <c r="B150" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C150" t="str">
+        <v>1373</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E150" t="str">
+        <v>255</v>
+      </c>
+      <c r="F150" t="str">
+        <v>212</v>
+      </c>
+      <c r="G150" t="str">
+        <v>197</v>
+      </c>
+      <c r="H150" t="str">
+        <v>203</v>
+      </c>
+      <c r="I150" t="str">
+        <v>254</v>
+      </c>
+      <c r="J150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R150" t="str">
+        <v>2019-08-07 15:36:08.022</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>67972</v>
+      </c>
+      <c r="B151" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C151" t="str">
+        <v>664</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E151" t="str">
+        <v>255</v>
+      </c>
+      <c r="F151" t="str">
+        <v>219</v>
+      </c>
+      <c r="G151" t="str">
+        <v>0</v>
+      </c>
+      <c r="H151" t="str">
+        <v>190</v>
+      </c>
+      <c r="I151" t="str">
+        <v>0</v>
+      </c>
+      <c r="J151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q151" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R151" t="str">
+        <v>2019-08-07 15:36:07.011</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>68004</v>
+      </c>
+      <c r="B152" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C152" t="str">
+        <v>867</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E152" t="str">
+        <v>255</v>
+      </c>
+      <c r="F152" t="str">
+        <v>221</v>
+      </c>
+      <c r="G152" t="str">
+        <v>4</v>
+      </c>
+      <c r="H152" t="str">
+        <v>0</v>
+      </c>
+      <c r="I152" t="str">
+        <v>188</v>
+      </c>
+      <c r="J152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q152" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R152" t="str">
+        <v>2019-08-07 15:36:07.468</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>68008</v>
+      </c>
+      <c r="B153" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C153" t="str">
+        <v>1119</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E153" t="str">
+        <v>255</v>
+      </c>
+      <c r="F153" t="str">
+        <v>223</v>
+      </c>
+      <c r="G153" t="str">
+        <v>2</v>
+      </c>
+      <c r="H153" t="str">
+        <v>188</v>
+      </c>
+      <c r="I153" t="str">
+        <v>198</v>
+      </c>
+      <c r="J153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q153" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R153" t="str">
+        <v>2019-08-07 15:36:07.719</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>69080</v>
+      </c>
+      <c r="B154" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2830</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E154" t="str">
+        <v>256</v>
+      </c>
+      <c r="F154" t="str">
+        <v>225</v>
+      </c>
+      <c r="G154" t="str">
+        <v>190</v>
+      </c>
+      <c r="H154" t="str">
+        <v>197</v>
+      </c>
+      <c r="I154" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J154" t="str">
+        <v>255</v>
+      </c>
+      <c r="K154" t="str">
+        <v>304</v>
+      </c>
+      <c r="L154" t="str">
+        <v>297</v>
+      </c>
+      <c r="M154" t="str">
+        <v>285</v>
+      </c>
+      <c r="N154" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O154" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P154" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q154" t="str">
+        <v>342</v>
+      </c>
+      <c r="R154" t="str">
+        <v>2019-08-07 15:36:09.394</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>88264</v>
+      </c>
+      <c r="B155" t="str">
+        <v>SITO</v>
+      </c>
+      <c r="C155" t="str">
+        <v>867</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E155" t="str">
+        <v>255</v>
+      </c>
+      <c r="F155" t="str">
+        <v>1</v>
+      </c>
+      <c r="G155" t="str">
+        <v>224</v>
+      </c>
+      <c r="H155" t="str">
+        <v>1</v>
+      </c>
+      <c r="I155" t="str">
+        <v>189</v>
+      </c>
+      <c r="J155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R155" t="str">
+        <v>2019-08-07 15:36:07.469</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>67774</v>
+      </c>
+      <c r="B156" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1143</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E156" t="str">
+        <v>266</v>
+      </c>
+      <c r="F156" t="str">
+        <v>0</v>
+      </c>
+      <c r="G156" t="str">
+        <v>222</v>
+      </c>
+      <c r="H156" t="str">
+        <v>251</v>
+      </c>
+      <c r="I156" t="str">
+        <v>194</v>
+      </c>
+      <c r="J156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q156" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R156" t="str">
+        <v>2019-08-07 15:36:07.201</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>67850</v>
+      </c>
+      <c r="B157" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C157" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E157" t="str">
+        <v>222</v>
+      </c>
+      <c r="F157" t="str">
+        <v>253</v>
+      </c>
+      <c r="G157" t="str">
+        <v>207</v>
+      </c>
+      <c r="H157" t="str">
+        <v>196</v>
+      </c>
+      <c r="I157" t="str">
+        <v>210</v>
+      </c>
+      <c r="J157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q157" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R157" t="str">
+        <v>2019-08-07 15:36:07.711</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>67876</v>
+      </c>
+      <c r="B158" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C158" t="str">
+        <v>1342</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E158" t="str">
+        <v>222</v>
+      </c>
+      <c r="F158" t="str">
+        <v>254</v>
+      </c>
+      <c r="G158" t="str">
+        <v>206</v>
+      </c>
+      <c r="H158" t="str">
+        <v>195</v>
+      </c>
+      <c r="I158" t="str">
+        <v>211</v>
+      </c>
+      <c r="J158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q158" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R158" t="str">
+        <v>2019-08-07 15:36:07.712</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>67944</v>
+      </c>
+      <c r="B159" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C159" t="str">
+        <v>664</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1</v>
+      </c>
+      <c r="F159" t="str">
+        <v>0</v>
+      </c>
+      <c r="G159" t="str">
+        <v>1</v>
+      </c>
+      <c r="H159" t="str">
+        <v>254</v>
+      </c>
+      <c r="I159" t="str">
+        <v>219</v>
+      </c>
+      <c r="J159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q159" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R159" t="str">
+        <v>2019-08-07 15:36:07.211</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>67748</v>
+      </c>
+      <c r="B160" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C160" t="str">
+        <v>933</v>
+      </c>
+      <c r="D160" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E160" t="str">
+        <v>266</v>
+      </c>
+      <c r="F160" t="str">
+        <v>0</v>
+      </c>
+      <c r="G160" t="str">
+        <v>222</v>
+      </c>
+      <c r="H160" t="str">
+        <v>251</v>
+      </c>
+      <c r="I160" t="str">
+        <v>0</v>
+      </c>
+      <c r="J160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q160" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R160" t="str">
+        <v>2019-08-07 15:36:06.989</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>67764</v>
+      </c>
+      <c r="B161" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C161" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2019-08-07 15:36:05.654</v>
+      </c>
+      <c r="E161" t="str">
+        <v>266</v>
+      </c>
+      <c r="F161" t="str">
+        <v>221</v>
+      </c>
+      <c r="G161" t="str">
+        <v>251</v>
+      </c>
+      <c r="H161" t="str">
+        <v>195</v>
+      </c>
+      <c r="I161" t="str">
+        <v>210</v>
+      </c>
+      <c r="J161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q161" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R161" t="str">
+        <v>2019-08-07 15:36:07.457</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>67836</v>
+      </c>
+      <c r="B162" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C162" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E162" t="str">
+        <v>222</v>
+      </c>
+      <c r="F162" t="str">
+        <v>253</v>
+      </c>
+      <c r="G162" t="str">
+        <v>1</v>
+      </c>
+      <c r="H162" t="str">
+        <v>206</v>
+      </c>
+      <c r="I162" t="str">
+        <v>195</v>
+      </c>
+      <c r="J162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R162" t="str">
+        <v>2019-08-07 15:36:07.205</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>67856</v>
+      </c>
+      <c r="B163" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C163" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E163" t="str">
+        <v>222</v>
+      </c>
+      <c r="F163" t="str">
+        <v>253</v>
+      </c>
+      <c r="G163" t="str">
+        <v>207</v>
+      </c>
+      <c r="H163" t="str">
+        <v>195</v>
+      </c>
+      <c r="I163" t="str">
+        <v>211</v>
+      </c>
+      <c r="J163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q163" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R163" t="str">
+        <v>2019-08-07 15:36:07.460</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>69076</v>
+      </c>
+      <c r="B164" t="str">
+        <v>LODE</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2830</v>
+      </c>
+      <c r="D164" t="str">
+        <v>2019-08-07 15:36:06.121</v>
+      </c>
+      <c r="E164" t="str">
+        <v>229</v>
+      </c>
+      <c r="F164" t="str">
+        <v>255</v>
+      </c>
+      <c r="G164" t="str">
+        <v>225</v>
+      </c>
+      <c r="H164" t="str">
+        <v>190</v>
+      </c>
+      <c r="I164" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J164" t="str">
+        <v>253</v>
+      </c>
+      <c r="K164" t="str">
+        <v>251</v>
+      </c>
+      <c r="L164" t="str">
+        <v>305</v>
+      </c>
+      <c r="M164" t="str">
+        <v>299</v>
+      </c>
+      <c r="N164" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O164" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P164" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q164" t="str">
+        <v>284</v>
+      </c>
+      <c r="R164" t="str">
+        <v>2019-08-07 15:36:09.177</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>67916</v>
+      </c>
+      <c r="B165" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1374</v>
+      </c>
+      <c r="D165" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E165" t="str">
+        <v>255</v>
+      </c>
+      <c r="F165" t="str">
+        <v>213</v>
+      </c>
+      <c r="G165" t="str">
+        <v>197</v>
+      </c>
+      <c r="H165" t="str">
+        <v>203</v>
+      </c>
+      <c r="I165" t="str">
+        <v>254</v>
+      </c>
+      <c r="J165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q165" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R165" t="str">
+        <v>2019-08-07 15:36:08.021</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>67780</v>
+      </c>
+      <c r="B166" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C166" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E166" t="str">
+        <v>267</v>
+      </c>
+      <c r="F166" t="str">
+        <v>221</v>
+      </c>
+      <c r="G166" t="str">
+        <v>251</v>
+      </c>
+      <c r="H166" t="str">
+        <v>197</v>
+      </c>
+      <c r="I166" t="str">
+        <v>207</v>
+      </c>
+      <c r="J166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q166" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R166" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>67930</v>
+      </c>
+      <c r="B167" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C167" t="str">
+        <v>664</v>
+      </c>
+      <c r="D167" t="str">
+        <v>2019-08-07 15:36:06.120</v>
+      </c>
+      <c r="E167" t="str">
+        <v>1</v>
+      </c>
+      <c r="F167" t="str">
+        <v>254</v>
+      </c>
+      <c r="G167" t="str">
+        <v>1</v>
+      </c>
+      <c r="H167" t="str">
+        <v>212</v>
+      </c>
+      <c r="I167" t="str">
+        <v>0</v>
+      </c>
+      <c r="J167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R167" t="str">
+        <v>2019-08-07 15:36:07.210</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>67784</v>
+      </c>
+      <c r="B168" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C168" t="str">
+        <v>1353</v>
+      </c>
+      <c r="D168" t="str">
+        <v>2019-08-07 15:36:05.655</v>
+      </c>
+      <c r="E168" t="str">
+        <v>267</v>
+      </c>
+      <c r="F168" t="str">
+        <v>221</v>
+      </c>
+      <c r="G168" t="str">
+        <v>252</v>
+      </c>
+      <c r="H168" t="str">
+        <v>202</v>
+      </c>
+      <c r="I168" t="str">
+        <v>201</v>
+      </c>
+      <c r="J168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q168" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R168" t="str">
+        <v>2019-08-07 15:36:07.458</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>67882</v>
+      </c>
+      <c r="B169" t="str">
+        <v>FIDE</v>
+      </c>
+      <c r="C169" t="str">
+        <v>1088</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2019-08-07 15:36:05.849</v>
+      </c>
+      <c r="E169" t="str">
+        <v>221</v>
+      </c>
+      <c r="F169" t="str">
+        <v>1</v>
+      </c>
+      <c r="G169" t="str">
+        <v>255</v>
+      </c>
+      <c r="H169" t="str">
+        <v>213</v>
+      </c>
+      <c r="I169" t="str">
+        <v>189</v>
+      </c>
+      <c r="J169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="K169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="L169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="M169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="N169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q169" t="str">
+        <v>9999</v>
+      </c>
+      <c r="R169" t="str">
+        <v>2019-08-07 15:36:07.463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -439,77 +439,407 @@
     </row>
     <row r="12"/>
     <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>more</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1088</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="F14">
+        <v>253</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>195</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9999</v>
+      </c>
+      <c r="K14">
+        <v>9999</v>
+      </c>
+      <c r="L14">
+        <v>9999</v>
+      </c>
+      <c r="M14">
+        <v>9999</v>
+      </c>
+      <c r="N14">
+        <v>9999</v>
+      </c>
+      <c r="O14">
+        <v>9999</v>
+      </c>
+      <c r="P14">
+        <v>9999</v>
+      </c>
+      <c r="Q14">
+        <v>9999</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>mid</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1120</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>254</v>
+      </c>
+      <c r="F15">
+        <v>221</v>
+      </c>
+      <c r="G15">
+        <v>206</v>
+      </c>
+      <c r="H15">
+        <v>196</v>
+      </c>
+      <c r="I15">
+        <v>203</v>
+      </c>
+      <c r="J15">
+        <v>9999</v>
+      </c>
+      <c r="K15">
+        <v>9999</v>
+      </c>
+      <c r="L15">
+        <v>9999</v>
+      </c>
+      <c r="M15">
+        <v>9999</v>
+      </c>
+      <c r="N15">
+        <v>9999</v>
+      </c>
+      <c r="O15">
+        <v>9999</v>
+      </c>
+      <c r="P15">
+        <v>9999</v>
+      </c>
+      <c r="Q15">
+        <v>9999</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>avg</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1187</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>221</v>
+      </c>
+      <c r="F16">
+        <v>191</v>
+      </c>
+      <c r="G16">
+        <v>174</v>
+      </c>
+      <c r="H16">
+        <v>162</v>
+      </c>
+      <c r="I16">
+        <v>770</v>
+      </c>
+      <c r="J16">
+        <v>9409</v>
+      </c>
+      <c r="K16">
+        <v>9407</v>
+      </c>
+      <c r="L16">
+        <v>9406</v>
+      </c>
+      <c r="M16">
+        <v>9411</v>
+      </c>
+      <c r="N16">
+        <v>9999</v>
+      </c>
+      <c r="O16">
+        <v>9999</v>
+      </c>
+      <c r="P16">
+        <v>9999</v>
+      </c>
+      <c r="Q16">
+        <v>9409</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>min</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>656</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>198</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>9999</v>
+      </c>
+      <c r="O17">
+        <v>9999</v>
+      </c>
+      <c r="P17">
+        <v>9999</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>max</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2830</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>272</v>
+      </c>
+      <c r="F18">
+        <v>272</v>
+      </c>
+      <c r="G18">
+        <v>266</v>
+      </c>
+      <c r="H18">
+        <v>255</v>
+      </c>
+      <c r="I18">
+        <v>9999</v>
+      </c>
+      <c r="J18">
+        <v>9999</v>
+      </c>
+      <c r="K18">
+        <v>9999</v>
+      </c>
+      <c r="L18">
+        <v>9999</v>
+      </c>
+      <c r="M18">
+        <v>9999</v>
+      </c>
+      <c r="N18">
+        <v>9999</v>
+      </c>
+      <c r="O18">
+        <v>9999</v>
+      </c>
+      <c r="P18">
+        <v>9999</v>
+      </c>
+      <c r="Q18">
+        <v>9999</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>RuleID</v>
+      </c>
+      <c r="B19" t="str">
+        <v>areaCate</v>
+      </c>
+      <c r="C19" t="str">
+        <v>subTotalTime</v>
+      </c>
+      <c r="D19" t="str">
+        <v>START</v>
+      </c>
+      <c r="E19" t="str">
+        <v>basicInfoTime</v>
+      </c>
+      <c r="F19" t="str">
+        <v>preOpeTime</v>
+      </c>
+      <c r="G19" t="str">
+        <v>checkDefectTime</v>
+      </c>
+      <c r="H19" t="str">
+        <v>saveDefectTime</v>
+      </c>
+      <c r="I19" t="str">
+        <v>sitoTime</v>
+      </c>
+      <c r="J19" t="str">
+        <v>getGlassTime</v>
+      </c>
+      <c r="K19" t="str">
+        <v>sheetTupleListTime</v>
+      </c>
+      <c r="L19" t="str">
+        <v>redisRuleKeysTime</v>
+      </c>
+      <c r="M19" t="str">
+        <v>getRuleBySheetsTime</v>
+      </c>
+      <c r="N19" t="str">
+        <v>getSampCntTime</v>
+      </c>
+      <c r="O19" t="str">
+        <v>checkRuleTime</v>
+      </c>
+      <c r="P19" t="str">
+        <v>sendAlarmTime</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>toFileCheckOutTime</v>
+      </c>
+      <c r="R19" t="str">
+        <v>FINISH</v>
+      </c>
+    </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>RuleId</v>
+        <v>67854</v>
       </c>
       <c r="B20" t="str">
-        <v>areaCate</v>
+        <v>FIDE</v>
       </c>
       <c r="C20" t="str">
-        <v>subTotalTime</v>
+        <v>1090</v>
       </c>
       <c r="D20" t="str">
-        <v>START</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E20" t="str">
-        <v>basicInfoTime</v>
+        <v>222</v>
       </c>
       <c r="F20" t="str">
-        <v>preOpeTime</v>
+        <v>253</v>
       </c>
       <c r="G20" t="str">
-        <v>checkDefectTime</v>
+        <v>2</v>
       </c>
       <c r="H20" t="str">
-        <v>saveDefectTime</v>
+        <v>207</v>
       </c>
       <c r="I20" t="str">
-        <v>sitoTime</v>
+        <v>195</v>
       </c>
       <c r="J20" t="str">
-        <v>getGlassTime</v>
+        <v>9999</v>
       </c>
       <c r="K20" t="str">
-        <v>sheetTupleListTime</v>
+        <v>9999</v>
       </c>
       <c r="L20" t="str">
-        <v>redisRuleKeysTime</v>
+        <v>9999</v>
       </c>
       <c r="M20" t="str">
-        <v>getRuleBySheetsTime</v>
+        <v>9999</v>
       </c>
       <c r="N20" t="str">
-        <v>getSampCntTime</v>
+        <v>9999</v>
       </c>
       <c r="O20" t="str">
-        <v>checkRuleTime</v>
+        <v>9999</v>
       </c>
       <c r="P20" t="str">
-        <v>sendAlarmTime</v>
+        <v>9999</v>
       </c>
       <c r="Q20" t="str">
-        <v>toFileCheckOutTime</v>
+        <v>9999</v>
       </c>
       <c r="R20" t="str">
-        <v>FINISH</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67864</v>
+        <v>67858</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
       </c>
       <c r="C21" t="str">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D21" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -518,16 +848,16 @@
         <v>222</v>
       </c>
       <c r="F21" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G21" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H21" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I21" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -559,31 +889,31 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>67920</v>
+        <v>67890</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
       </c>
       <c r="C22" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D22" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E22" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F22" t="str">
+        <v>253</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2</v>
+      </c>
+      <c r="H22" t="str">
         <v>213</v>
       </c>
-      <c r="G22" t="str">
-        <v>191</v>
-      </c>
-      <c r="H22" t="str">
-        <v>4</v>
-      </c>
       <c r="I22" t="str">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="J22" t="str">
         <v>9999</v>
@@ -610,12 +940,12 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67974</v>
+        <v>67920</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
@@ -624,22 +954,22 @@
         <v>1120</v>
       </c>
       <c r="D23" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E23" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23" t="str">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G23" t="str">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="H23" t="str">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="I23" t="str">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -666,18 +996,18 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>67998</v>
+        <v>69084</v>
       </c>
       <c r="B24" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C24" t="str">
-        <v>1372</v>
+        <v>2260</v>
       </c>
       <c r="D24" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -686,28 +1016,28 @@
         <v>255</v>
       </c>
       <c r="F24" t="str">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G24" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H24" t="str">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="J24" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K24" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L24" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M24" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N24" t="str">
         <v>9999</v>
@@ -719,21 +1049,21 @@
         <v>9999</v>
       </c>
       <c r="Q24" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>68000</v>
+        <v>67980</v>
       </c>
       <c r="B25" t="str">
         <v>FIDE</v>
       </c>
       <c r="C25" t="str">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D25" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -745,13 +1075,13 @@
         <v>219</v>
       </c>
       <c r="G25" t="str">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H25" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I25" t="str">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="J25" t="str">
         <v>9999</v>
@@ -778,36 +1108,36 @@
         <v>9999</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>68006</v>
+        <v>67758</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1120</v>
+        <v>1343</v>
       </c>
       <c r="D26" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E26" t="str">
+        <v>194</v>
+      </c>
+      <c r="F26" t="str">
+        <v>271</v>
+      </c>
+      <c r="G26" t="str">
+        <v>222</v>
+      </c>
+      <c r="H26" t="str">
         <v>255</v>
       </c>
-      <c r="F26" t="str">
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
-        <v>226</v>
-      </c>
-      <c r="H26" t="str">
-        <v>189</v>
-      </c>
       <c r="I26" t="str">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -834,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>88258</v>
+        <v>67760</v>
       </c>
       <c r="B27" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1120</v>
+        <v>1353</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E27" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F27" t="str">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G27" t="str">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="H27" t="str">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I27" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -890,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67892</v>
+        <v>67770</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>1342</v>
+        <v>1144</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E28" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F28" t="str">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G28" t="str">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H28" t="str">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="I28" t="str">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -946,36 +1276,36 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67900</v>
+        <v>67808</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D29" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E29" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F29" t="str">
+        <v>252</v>
+      </c>
+      <c r="G29" t="str">
+        <v>208</v>
+      </c>
+      <c r="H29" t="str">
         <v>0</v>
       </c>
-      <c r="G29" t="str">
-        <v>1</v>
-      </c>
-      <c r="H29" t="str">
-        <v>213</v>
-      </c>
       <c r="I29" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J29" t="str">
         <v>9999</v>
@@ -1002,36 +1332,36 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>67912</v>
+        <v>67802</v>
       </c>
       <c r="B30" t="str">
         <v>FIDE</v>
       </c>
       <c r="C30" t="str">
-        <v>867</v>
+        <v>1086</v>
       </c>
       <c r="D30" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E30" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F30" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G30" t="str">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H30" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I30" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J30" t="str">
         <v>9999</v>
@@ -1058,36 +1388,36 @@
         <v>9999</v>
       </c>
       <c r="R30" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67988</v>
+        <v>67976</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
       </c>
       <c r="C31" t="str">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="D31" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E31" t="str">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F31" t="str">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="G31" t="str">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="H31" t="str">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I31" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="J31" t="str">
         <v>9999</v>
@@ -1114,36 +1444,36 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67800</v>
+        <v>67982</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>1088</v>
+        <v>1371</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E32" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F32" t="str">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G32" t="str">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H32" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I32" t="str">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="J32" t="str">
         <v>9999</v>
@@ -1170,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67804</v>
+        <v>67768</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>1088</v>
+        <v>1142</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E33" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F33" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G33" t="str">
         <v>252</v>
       </c>
       <c r="H33" t="str">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I33" t="str">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1226,36 +1556,36 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>67810</v>
+        <v>67780</v>
       </c>
       <c r="B34" t="str">
         <v>FIDE</v>
       </c>
       <c r="C34" t="str">
-        <v>1087</v>
+        <v>1353</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E34" t="str">
+        <v>267</v>
+      </c>
+      <c r="F34" t="str">
         <v>221</v>
       </c>
-      <c r="F34" t="str">
-        <v>252</v>
-      </c>
       <c r="G34" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="H34" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I34" t="str">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1287,13 +1617,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67868</v>
+        <v>67870</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D35" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -1305,13 +1635,13 @@
         <v>253</v>
       </c>
       <c r="G35" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H35" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I35" t="str">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="J35" t="str">
         <v>9999</v>
@@ -1343,13 +1673,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67946</v>
+        <v>67906</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>1372</v>
+        <v>1121</v>
       </c>
       <c r="D36" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -1361,14 +1691,14 @@
         <v>212</v>
       </c>
       <c r="G36" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H36" t="str">
+        <v>2</v>
+      </c>
+      <c r="I36" t="str">
         <v>203</v>
       </c>
-      <c r="I36" t="str">
-        <v>254</v>
-      </c>
       <c r="J36" t="str">
         <v>9999</v>
       </c>
@@ -1394,12 +1724,12 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>67980</v>
+        <v>68004</v>
       </c>
       <c r="B37" t="str">
         <v>FIDE</v>
@@ -1414,16 +1744,16 @@
         <v>255</v>
       </c>
       <c r="F37" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G37" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I37" t="str">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="J37" t="str">
         <v>9999</v>
@@ -1450,36 +1780,36 @@
         <v>9999</v>
       </c>
       <c r="R37" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>68012</v>
+        <v>67928</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>670</v>
+        <v>867</v>
       </c>
       <c r="D38" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E38" t="str">
         <v>255</v>
       </c>
       <c r="F38" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G38" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H38" t="str">
         <v>1</v>
       </c>
       <c r="I38" t="str">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="J38" t="str">
         <v>9999</v>
@@ -1506,36 +1836,36 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>67768</v>
+        <v>68006</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
       </c>
       <c r="C39" t="str">
-        <v>1142</v>
+        <v>1120</v>
       </c>
       <c r="D39" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E39" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F39" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G39" t="str">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="H39" t="str">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I39" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1562,36 +1892,36 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>67814</v>
+        <v>88264</v>
       </c>
       <c r="B40" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C40" t="str">
-        <v>1087</v>
+        <v>867</v>
       </c>
       <c r="D40" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E40" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F40" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H40" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J40" t="str">
         <v>9999</v>
@@ -1618,18 +1948,18 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>67890</v>
+        <v>67846</v>
       </c>
       <c r="B41" t="str">
         <v>FIDE</v>
       </c>
       <c r="C41" t="str">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D41" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -1641,13 +1971,13 @@
         <v>253</v>
       </c>
       <c r="G41" t="str">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="H41" t="str">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I41" t="str">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J41" t="str">
         <v>9999</v>
@@ -1674,36 +2004,36 @@
         <v>9999</v>
       </c>
       <c r="R41" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67958</v>
+        <v>67850</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="D42" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E42" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F42" t="str">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G42" t="str">
+        <v>207</v>
+      </c>
+      <c r="H42" t="str">
         <v>196</v>
       </c>
-      <c r="H42" t="str">
-        <v>202</v>
-      </c>
       <c r="I42" t="str">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -1730,37 +2060,37 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67840</v>
+        <v>67990</v>
       </c>
       <c r="B43" t="str">
         <v>FIDE</v>
       </c>
       <c r="C43" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D43" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E43" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F43" t="str">
+        <v>219</v>
+      </c>
+      <c r="G43" t="str">
+        <v>192</v>
+      </c>
+      <c r="H43" t="str">
+        <v>201</v>
+      </c>
+      <c r="I43" t="str">
         <v>253</v>
       </c>
-      <c r="G43" t="str">
-        <v>207</v>
-      </c>
-      <c r="H43" t="str">
-        <v>196</v>
-      </c>
-      <c r="I43" t="str">
-        <v>210</v>
-      </c>
       <c r="J43" t="str">
         <v>9999</v>
       </c>
@@ -1786,48 +2116,48 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>67842</v>
+        <v>69080</v>
       </c>
       <c r="B44" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C44" t="str">
-        <v>1342</v>
+        <v>2830</v>
       </c>
       <c r="D44" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E44" t="str">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="F44" t="str">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G44" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H44" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I44" t="str">
-        <v>211</v>
+        <v>9999</v>
       </c>
       <c r="J44" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K44" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L44" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M44" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N44" t="str">
         <v>9999</v>
@@ -1839,39 +2169,39 @@
         <v>9999</v>
       </c>
       <c r="Q44" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67896</v>
+        <v>67762</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="D45" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E45" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F45" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G45" t="str">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="H45" t="str">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I45" t="str">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="J45" t="str">
         <v>9999</v>
@@ -1898,36 +2228,36 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67962</v>
+        <v>67824</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>1120</v>
+        <v>876</v>
       </c>
       <c r="D46" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E46" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F46" t="str">
+        <v>222</v>
+      </c>
+      <c r="G46" t="str">
+        <v>252</v>
+      </c>
+      <c r="H46" t="str">
         <v>1</v>
       </c>
-      <c r="G46" t="str">
-        <v>219</v>
-      </c>
-      <c r="H46" t="str">
-        <v>190</v>
-      </c>
       <c r="I46" t="str">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -1954,36 +2284,36 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67758</v>
+        <v>67832</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>1343</v>
+        <v>1087</v>
       </c>
       <c r="D47" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E47" t="str">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F47" t="str">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G47" t="str">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H47" t="str">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="I47" t="str">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J47" t="str">
         <v>9999</v>
@@ -2010,36 +2340,36 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67808</v>
+        <v>67966</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>877</v>
+        <v>1372</v>
       </c>
       <c r="D48" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E48" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F48" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G48" t="str">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H48" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I48" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J48" t="str">
         <v>9999</v>
@@ -2066,18 +2396,18 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>67846</v>
+        <v>67804</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D49" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -2086,16 +2416,16 @@
         <v>222</v>
       </c>
       <c r="F49" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G49" t="str">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="H49" t="str">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I49" t="str">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2122,36 +2452,36 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>67878</v>
+        <v>67908</v>
       </c>
       <c r="B50" t="str">
         <v>FIDE</v>
       </c>
       <c r="C50" t="str">
-        <v>1088</v>
+        <v>656</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E50" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F50" t="str">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G50" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="H50" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I50" t="str">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J50" t="str">
         <v>9999</v>
@@ -2178,36 +2508,36 @@
         <v>9999</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>67770</v>
+        <v>67930</v>
       </c>
       <c r="B51" t="str">
         <v>FIDE</v>
       </c>
       <c r="C51" t="str">
-        <v>1144</v>
+        <v>664</v>
       </c>
       <c r="D51" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E51" t="str">
         <v>1</v>
       </c>
       <c r="F51" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G51" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="H51" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="I51" t="str">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="J51" t="str">
         <v>9999</v>
@@ -2234,36 +2564,36 @@
         <v>9999</v>
       </c>
       <c r="R51" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>67782</v>
+        <v>88260</v>
       </c>
       <c r="B52" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C52" t="str">
-        <v>933</v>
+        <v>1120</v>
       </c>
       <c r="D52" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E52" t="str">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G52" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="H52" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="I52" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2290,36 +2620,36 @@
         <v>9999</v>
       </c>
       <c r="R52" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>67956</v>
+        <v>67764</v>
       </c>
       <c r="B53" t="str">
         <v>FIDE</v>
       </c>
       <c r="C53" t="str">
-        <v>1120</v>
+        <v>1353</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E53" t="str">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F53" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G53" t="str">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="H53" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I53" t="str">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2346,36 +2676,36 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67984</v>
+        <v>67806</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>1120</v>
+        <v>877</v>
       </c>
       <c r="D54" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E54" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F54" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G54" t="str">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H54" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I54" t="str">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J54" t="str">
         <v>9999</v>
@@ -2402,18 +2732,18 @@
         <v>9999</v>
       </c>
       <c r="R54" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67844</v>
+        <v>67814</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D55" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -2422,16 +2752,16 @@
         <v>222</v>
       </c>
       <c r="F55" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G55" t="str">
         <v>207</v>
       </c>
       <c r="H55" t="str">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="I55" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2458,36 +2788,36 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67994</v>
+        <v>67838</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
       </c>
       <c r="C56" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D56" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E56" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F56" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G56" t="str">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="H56" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I56" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J56" t="str">
         <v>9999</v>
@@ -2514,36 +2844,36 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>68010</v>
+        <v>67862</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>1372</v>
+        <v>682</v>
       </c>
       <c r="D57" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E57" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F57" t="str">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="G57" t="str">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="H57" t="str">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I57" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J57" t="str">
         <v>9999</v>
@@ -2570,36 +2900,36 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>88262</v>
+        <v>67904</v>
       </c>
       <c r="B58" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C58" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D58" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E58" t="str">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F58" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G58" t="str">
         <v>189</v>
       </c>
       <c r="H58" t="str">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="I58" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2626,36 +2956,36 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>67826</v>
+        <v>67986</v>
       </c>
       <c r="B59" t="str">
         <v>FIDE</v>
       </c>
       <c r="C59" t="str">
-        <v>877</v>
+        <v>1371</v>
       </c>
       <c r="D59" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E59" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F59" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G59" t="str">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H59" t="str">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="I59" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -2682,36 +3012,36 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>67886</v>
+        <v>67784</v>
       </c>
       <c r="B60" t="str">
         <v>FIDE</v>
       </c>
       <c r="C60" t="str">
-        <v>877</v>
+        <v>1353</v>
       </c>
       <c r="D60" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E60" t="str">
+        <v>267</v>
+      </c>
+      <c r="F60" t="str">
         <v>221</v>
       </c>
-      <c r="F60" t="str">
-        <v>254</v>
-      </c>
       <c r="G60" t="str">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="H60" t="str">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="I60" t="str">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -2738,33 +3068,33 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67766</v>
+        <v>67848</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>1143</v>
+        <v>1088</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E61" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F61" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G61" t="str">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="H61" t="str">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I61" t="str">
         <v>0</v>
@@ -2794,12 +3124,12 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67816</v>
+        <v>67878</v>
       </c>
       <c r="B62" t="str">
         <v>FIDE</v>
@@ -2814,16 +3144,16 @@
         <v>222</v>
       </c>
       <c r="F62" t="str">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G62" t="str">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H62" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I62" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J62" t="str">
         <v>9999</v>
@@ -2850,18 +3180,18 @@
         <v>9999</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>67950</v>
+        <v>67934</v>
       </c>
       <c r="B63" t="str">
         <v>FIDE</v>
       </c>
       <c r="C63" t="str">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D63" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -2870,16 +3200,16 @@
         <v>255</v>
       </c>
       <c r="F63" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G63" t="str">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="H63" t="str">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I63" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="J63" t="str">
         <v>9999</v>
@@ -2906,18 +3236,18 @@
         <v>9999</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67968</v>
+        <v>67992</v>
       </c>
       <c r="B64" t="str">
         <v>FIDE</v>
       </c>
       <c r="C64" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D64" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -2926,16 +3256,16 @@
         <v>255</v>
       </c>
       <c r="F64" t="str">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
         <v>219</v>
       </c>
-      <c r="G64" t="str">
-        <v>191</v>
-      </c>
       <c r="H64" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I64" t="str">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="J64" t="str">
         <v>9999</v>
@@ -2962,36 +3292,36 @@
         <v>9999</v>
       </c>
       <c r="R64" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>67996</v>
+        <v>88258</v>
       </c>
       <c r="B65" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C65" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D65" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E65" t="str">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="F65" t="str">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G65" t="str">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H65" t="str">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I65" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J65" t="str">
         <v>9999</v>
@@ -3018,48 +3348,48 @@
         <v>9999</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>69088</v>
+        <v>67876</v>
       </c>
       <c r="B66" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C66" t="str">
-        <v>2258</v>
+        <v>1342</v>
       </c>
       <c r="D66" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E66" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F66" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G66" t="str">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="H66" t="str">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I66" t="str">
-        <v>9999</v>
+        <v>211</v>
       </c>
       <c r="J66" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K66" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L66" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M66" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N66" t="str">
         <v>9999</v>
@@ -3071,39 +3401,39 @@
         <v>9999</v>
       </c>
       <c r="Q66" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>67760</v>
+        <v>67978</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>1353</v>
+        <v>1121</v>
       </c>
       <c r="D67" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E67" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F67" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G67" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="H67" t="str">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I67" t="str">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3130,36 +3460,36 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67852</v>
+        <v>67994</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>981</v>
+        <v>1120</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E68" t="str">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F68" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G68" t="str">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="H68" t="str">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="I68" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J68" t="str">
         <v>9999</v>
@@ -3186,48 +3516,48 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>67894</v>
+        <v>69074</v>
       </c>
       <c r="B69" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C69" t="str">
-        <v>981</v>
+        <v>2253</v>
       </c>
       <c r="D69" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E69" t="str">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F69" t="str">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G69" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="H69" t="str">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="I69" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="J69" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K69" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L69" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M69" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N69" t="str">
         <v>9999</v>
@@ -3239,39 +3569,39 @@
         <v>9999</v>
       </c>
       <c r="Q69" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>67832</v>
+        <v>67772</v>
       </c>
       <c r="B70" t="str">
         <v>FIDE</v>
       </c>
       <c r="C70" t="str">
-        <v>1087</v>
+        <v>1353</v>
       </c>
       <c r="D70" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E70" t="str">
+        <v>265</v>
+      </c>
+      <c r="F70" t="str">
         <v>222</v>
       </c>
-      <c r="F70" t="str">
-        <v>252</v>
-      </c>
       <c r="G70" t="str">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H70" t="str">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I70" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J70" t="str">
         <v>9999</v>
@@ -3298,36 +3628,36 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>67874</v>
+        <v>67778</v>
       </c>
       <c r="B71" t="str">
         <v>FIDE</v>
       </c>
       <c r="C71" t="str">
-        <v>1089</v>
+        <v>942</v>
       </c>
       <c r="D71" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E71" t="str">
+        <v>266</v>
+      </c>
+      <c r="F71" t="str">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
         <v>222</v>
       </c>
-      <c r="F71" t="str">
-        <v>254</v>
-      </c>
-      <c r="G71" t="str">
-        <v>206</v>
-      </c>
       <c r="H71" t="str">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="I71" t="str">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J71" t="str">
         <v>9999</v>
@@ -3354,36 +3684,36 @@
         <v>9999</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67954</v>
+        <v>67938</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>866</v>
+        <v>1093</v>
       </c>
       <c r="D72" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E72" t="str">
+        <v>226</v>
+      </c>
+      <c r="F72" t="str">
         <v>255</v>
       </c>
-      <c r="F72" t="str">
-        <v>212</v>
-      </c>
       <c r="G72" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H72" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I72" t="str">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J72" t="str">
         <v>9999</v>
@@ -3410,18 +3740,18 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>67960</v>
+        <v>67900</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>1371</v>
+        <v>867</v>
       </c>
       <c r="D73" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -3430,16 +3760,16 @@
         <v>254</v>
       </c>
       <c r="F73" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G73" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H73" t="str">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="I73" t="str">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J73" t="str">
         <v>9999</v>
@@ -3466,33 +3796,33 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67986</v>
+        <v>67896</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D74" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E74" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F74" t="str">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G74" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H74" t="str">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I74" t="str">
         <v>253</v>
@@ -3522,36 +3852,36 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67992</v>
+        <v>67952</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>1120</v>
+        <v>867</v>
       </c>
       <c r="D75" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E75" t="str">
+        <v>0</v>
+      </c>
+      <c r="F75" t="str">
         <v>255</v>
-      </c>
-      <c r="F75" t="str">
-        <v>0</v>
       </c>
       <c r="G75" t="str">
         <v>219</v>
       </c>
       <c r="H75" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I75" t="str">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="J75" t="str">
         <v>9999</v>
@@ -3578,37 +3908,37 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>67792</v>
+        <v>67788</v>
       </c>
       <c r="B76" t="str">
         <v>FIDE</v>
       </c>
       <c r="C76" t="str">
-        <v>1145</v>
+        <v>947</v>
       </c>
       <c r="D76" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E76" t="str">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F76" t="str">
         <v>222</v>
       </c>
       <c r="G76" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H76" t="str">
+        <v>207</v>
+      </c>
+      <c r="I76" t="str">
         <v>0</v>
       </c>
-      <c r="I76" t="str">
-        <v>207</v>
-      </c>
       <c r="J76" t="str">
         <v>9999</v>
       </c>
@@ -3634,18 +3964,18 @@
         <v>9999</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>67862</v>
+        <v>67790</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
       </c>
       <c r="C77" t="str">
-        <v>682</v>
+        <v>1343</v>
       </c>
       <c r="D77" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -3654,16 +3984,16 @@
         <v>222</v>
       </c>
       <c r="F77" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G77" t="str">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="H77" t="str">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I77" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -3690,37 +4020,37 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>67970</v>
+        <v>67898</v>
       </c>
       <c r="B78" t="str">
         <v>FIDE</v>
       </c>
       <c r="C78" t="str">
-        <v>1372</v>
+        <v>1122</v>
       </c>
       <c r="D78" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E78" t="str">
         <v>255</v>
       </c>
       <c r="F78" t="str">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G78" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H78" t="str">
+        <v>0</v>
+      </c>
+      <c r="I78" t="str">
         <v>203</v>
       </c>
-      <c r="I78" t="str">
-        <v>253</v>
-      </c>
       <c r="J78" t="str">
         <v>9999</v>
       </c>
@@ -3746,36 +4076,36 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67744</v>
+        <v>67932</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1143</v>
+        <v>1121</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E79" t="str">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="F79" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G79" t="str">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H79" t="str">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="I79" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J79" t="str">
         <v>9999</v>
@@ -3802,37 +4132,37 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>67754</v>
+        <v>67996</v>
       </c>
       <c r="B80" t="str">
         <v>FIDE</v>
       </c>
       <c r="C80" t="str">
-        <v>1144</v>
+        <v>867</v>
       </c>
       <c r="D80" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E80" t="str">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F80" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="G80" t="str">
+        <v>225</v>
+      </c>
+      <c r="H80" t="str">
+        <v>188</v>
+      </c>
+      <c r="I80" t="str">
         <v>0</v>
       </c>
-      <c r="H80" t="str">
-        <v>253</v>
-      </c>
-      <c r="I80" t="str">
-        <v>193</v>
-      </c>
       <c r="J80" t="str">
         <v>9999</v>
       </c>
@@ -3858,36 +4188,36 @@
         <v>9999</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67818</v>
+        <v>67792</v>
       </c>
       <c r="B81" t="str">
         <v>FIDE</v>
       </c>
       <c r="C81" t="str">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D81" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E81" t="str">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F81" t="str">
         <v>222</v>
       </c>
       <c r="G81" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H81" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="I81" t="str">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J81" t="str">
         <v>9999</v>
@@ -3914,37 +4244,37 @@
         <v>9999</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67790</v>
+        <v>67872</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1343</v>
+        <v>1088</v>
       </c>
       <c r="D82" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E82" t="str">
+        <v>0</v>
+      </c>
+      <c r="F82" t="str">
         <v>222</v>
       </c>
-      <c r="F82" t="str">
-        <v>251</v>
-      </c>
       <c r="G82" t="str">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="H82" t="str">
+        <v>206</v>
+      </c>
+      <c r="I82" t="str">
         <v>196</v>
       </c>
-      <c r="I82" t="str">
-        <v>211</v>
-      </c>
       <c r="J82" t="str">
         <v>9999</v>
       </c>
@@ -3970,36 +4300,36 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67880</v>
+        <v>67884</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
       </c>
       <c r="C83" t="str">
-        <v>878</v>
+        <v>1343</v>
       </c>
       <c r="D83" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E83" t="str">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F83" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G83" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="H83" t="str">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I83" t="str">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J83" t="str">
         <v>9999</v>
@@ -4026,36 +4356,36 @@
         <v>9999</v>
       </c>
       <c r="R83" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>67906</v>
+        <v>67956</v>
       </c>
       <c r="B84" t="str">
         <v>FIDE</v>
       </c>
       <c r="C84" t="str">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D84" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E84" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" t="str">
         <v>212</v>
       </c>
       <c r="G84" t="str">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H84" t="str">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="I84" t="str">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="J84" t="str">
         <v>9999</v>
@@ -4082,12 +4412,12 @@
         <v>9999</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>67934</v>
+        <v>67984</v>
       </c>
       <c r="B85" t="str">
         <v>FIDE</v>
@@ -4096,22 +4426,22 @@
         <v>1120</v>
       </c>
       <c r="D85" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E85" t="str">
         <v>255</v>
       </c>
       <c r="F85" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G85" t="str">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H85" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I85" t="str">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J85" t="str">
         <v>9999</v>
@@ -4138,36 +4468,36 @@
         <v>9999</v>
       </c>
       <c r="R85" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67786</v>
+        <v>67998</v>
       </c>
       <c r="B86" t="str">
         <v>FIDE</v>
       </c>
       <c r="C86" t="str">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E86" t="str">
+        <v>255</v>
+      </c>
+      <c r="F86" t="str">
+        <v>219</v>
+      </c>
+      <c r="G86" t="str">
         <v>195</v>
       </c>
-      <c r="F86" t="str">
-        <v>272</v>
-      </c>
-      <c r="G86" t="str">
-        <v>232</v>
-      </c>
       <c r="H86" t="str">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="I86" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J86" t="str">
         <v>9999</v>
@@ -4194,21 +4524,21 @@
         <v>9999</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67788</v>
+        <v>67766</v>
       </c>
       <c r="B87" t="str">
         <v>FIDE</v>
       </c>
       <c r="C87" t="str">
-        <v>947</v>
+        <v>1143</v>
       </c>
       <c r="D87" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E87" t="str">
         <v>266</v>
@@ -4220,7 +4550,7 @@
         <v>252</v>
       </c>
       <c r="H87" t="str">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I87" t="str">
         <v>0</v>
@@ -4250,37 +4580,37 @@
         <v>9999</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>68014</v>
+        <v>67816</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>867</v>
+        <v>1088</v>
       </c>
       <c r="D88" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E88" t="str">
+        <v>222</v>
+      </c>
+      <c r="F88" t="str">
+        <v>252</v>
+      </c>
+      <c r="G88" t="str">
+        <v>208</v>
+      </c>
+      <c r="H88" t="str">
+        <v>195</v>
+      </c>
+      <c r="I88" t="str">
         <v>0</v>
       </c>
-      <c r="F88" t="str">
-        <v>256</v>
-      </c>
-      <c r="G88" t="str">
-        <v>225</v>
-      </c>
-      <c r="H88" t="str">
-        <v>189</v>
-      </c>
-      <c r="I88" t="str">
-        <v>197</v>
-      </c>
       <c r="J88" t="str">
         <v>9999</v>
       </c>
@@ -4306,48 +4636,48 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>69090</v>
+        <v>67914</v>
       </c>
       <c r="B89" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>2260</v>
+        <v>1372</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E89" t="str">
         <v>255</v>
       </c>
       <c r="F89" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G89" t="str">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="H89" t="str">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="I89" t="str">
-        <v>9999</v>
+        <v>254</v>
       </c>
       <c r="J89" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K89" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L89" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M89" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N89" t="str">
         <v>9999</v>
@@ -4359,39 +4689,39 @@
         <v>9999</v>
       </c>
       <c r="Q89" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67802</v>
+        <v>67948</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>1086</v>
+        <v>1373</v>
       </c>
       <c r="D90" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E90" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F90" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="G90" t="str">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H90" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I90" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J90" t="str">
         <v>9999</v>
@@ -4418,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67820</v>
+        <v>67988</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>1087</v>
+        <v>1371</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E91" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F91" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G91" t="str">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="H91" t="str">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I91" t="str">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4474,36 +4804,36 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67830</v>
+        <v>67852</v>
       </c>
       <c r="B92" t="str">
         <v>FIDE</v>
       </c>
       <c r="C92" t="str">
-        <v>1342</v>
+        <v>981</v>
       </c>
       <c r="D92" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E92" t="str">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F92" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="G92" t="str">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H92" t="str">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I92" t="str">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="J92" t="str">
         <v>9999</v>
@@ -4530,18 +4860,18 @@
         <v>9999</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67848</v>
+        <v>67828</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D93" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -4550,16 +4880,16 @@
         <v>222</v>
       </c>
       <c r="F93" t="str">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G93" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H93" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I93" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4586,36 +4916,36 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>67904</v>
+        <v>67972</v>
       </c>
       <c r="B94" t="str">
         <v>FIDE</v>
       </c>
       <c r="C94" t="str">
-        <v>1372</v>
+        <v>664</v>
       </c>
       <c r="D94" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E94" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F94" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G94" t="str">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="H94" t="str">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I94" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J94" t="str">
         <v>9999</v>
@@ -4642,36 +4972,36 @@
         <v>9999</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>67914</v>
+        <v>67756</v>
       </c>
       <c r="B95" t="str">
         <v>FIDE</v>
       </c>
       <c r="C95" t="str">
-        <v>1372</v>
+        <v>933</v>
       </c>
       <c r="D95" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E95" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G95" t="str">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="H95" t="str">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I95" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J95" t="str">
         <v>9999</v>
@@ -4698,48 +5028,48 @@
         <v>9999</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>69078</v>
+        <v>67856</v>
       </c>
       <c r="B96" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C96" t="str">
-        <v>1978</v>
+        <v>1088</v>
       </c>
       <c r="D96" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E96" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F96" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G96" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H96" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I96" t="str">
-        <v>9999</v>
+        <v>211</v>
       </c>
       <c r="J96" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K96" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L96" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M96" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N96" t="str">
         <v>9999</v>
@@ -4751,39 +5081,39 @@
         <v>9999</v>
       </c>
       <c r="Q96" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67750</v>
+        <v>67922</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D97" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E97" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F97" t="str">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G97" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H97" t="str">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I97" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -4810,36 +5140,36 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>67778</v>
+        <v>68008</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>942</v>
+        <v>1119</v>
       </c>
       <c r="D98" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E98" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F98" t="str">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="G98" t="str">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="H98" t="str">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="I98" t="str">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J98" t="str">
         <v>9999</v>
@@ -4866,36 +5196,36 @@
         <v>9999</v>
       </c>
       <c r="R98" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>67824</v>
+        <v>67888</v>
       </c>
       <c r="B99" t="str">
         <v>FIDE</v>
       </c>
       <c r="C99" t="str">
-        <v>876</v>
+        <v>1088</v>
       </c>
       <c r="D99" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E99" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F99" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G99" t="str">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H99" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I99" t="str">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J99" t="str">
         <v>9999</v>
@@ -4922,36 +5252,36 @@
         <v>9999</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>67924</v>
+        <v>67786</v>
       </c>
       <c r="B100" t="str">
         <v>FIDE</v>
       </c>
       <c r="C100" t="str">
-        <v>867</v>
+        <v>1365</v>
       </c>
       <c r="D100" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E100" t="str">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F100" t="str">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="G100" t="str">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="H100" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I100" t="str">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J100" t="str">
         <v>9999</v>
@@ -4978,37 +5308,37 @@
         <v>9999</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67936</v>
+        <v>67782</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E101" t="str">
+        <v>266</v>
+      </c>
+      <c r="F101" t="str">
+        <v>221</v>
+      </c>
+      <c r="G101" t="str">
+        <v>1</v>
+      </c>
+      <c r="H101" t="str">
+        <v>251</v>
+      </c>
+      <c r="I101" t="str">
         <v>0</v>
       </c>
-      <c r="F101" t="str">
-        <v>255</v>
-      </c>
-      <c r="G101" t="str">
-        <v>212</v>
-      </c>
-      <c r="H101" t="str">
-        <v>197</v>
-      </c>
-      <c r="I101" t="str">
-        <v>203</v>
-      </c>
       <c r="J101" t="str">
         <v>9999</v>
       </c>
@@ -5034,36 +5364,36 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67978</v>
+        <v>67810</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>1121</v>
+        <v>1087</v>
       </c>
       <c r="D102" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E102" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F102" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="G102" t="str">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H102" t="str">
         <v>195</v>
       </c>
       <c r="I102" t="str">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J102" t="str">
         <v>9999</v>
@@ -5090,48 +5420,48 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>69086</v>
+        <v>67822</v>
       </c>
       <c r="B103" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>2260</v>
+        <v>877</v>
       </c>
       <c r="D103" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E103" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F103" t="str">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="G103" t="str">
+        <v>252</v>
+      </c>
+      <c r="H103" t="str">
         <v>1</v>
       </c>
-      <c r="H103" t="str">
-        <v>189</v>
-      </c>
       <c r="I103" t="str">
-        <v>9999</v>
+        <v>206</v>
       </c>
       <c r="J103" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K103" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L103" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M103" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N103" t="str">
         <v>9999</v>
@@ -5143,39 +5473,39 @@
         <v>9999</v>
       </c>
       <c r="Q103" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>67762</v>
+        <v>67836</v>
       </c>
       <c r="B104" t="str">
         <v>FIDE</v>
       </c>
       <c r="C104" t="str">
-        <v>1353</v>
+        <v>1088</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E104" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F104" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G104" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="H104" t="str">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I104" t="str">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J104" t="str">
         <v>9999</v>
@@ -5202,36 +5532,36 @@
         <v>9999</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>67806</v>
+        <v>67844</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>877</v>
+        <v>1089</v>
       </c>
       <c r="D105" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E105" t="str">
+        <v>222</v>
+      </c>
+      <c r="F105" t="str">
+        <v>253</v>
+      </c>
+      <c r="G105" t="str">
+        <v>207</v>
+      </c>
+      <c r="H105" t="str">
         <v>1</v>
       </c>
-      <c r="F105" t="str">
-        <v>222</v>
-      </c>
-      <c r="G105" t="str">
-        <v>0</v>
-      </c>
-      <c r="H105" t="str">
-        <v>252</v>
-      </c>
       <c r="I105" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J105" t="str">
         <v>9999</v>
@@ -5258,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>67822</v>
+        <v>67882</v>
       </c>
       <c r="B106" t="str">
         <v>FIDE</v>
       </c>
       <c r="C106" t="str">
-        <v>877</v>
+        <v>1088</v>
       </c>
       <c r="D106" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E106" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F106" t="str">
         <v>1</v>
       </c>
       <c r="G106" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H106" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="I106" t="str">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5314,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67834</v>
+        <v>67916</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>1088</v>
+        <v>1374</v>
       </c>
       <c r="D107" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E107" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F107" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G107" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H107" t="str">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I107" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5370,36 +5700,36 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>67866</v>
+        <v>68012</v>
       </c>
       <c r="B108" t="str">
         <v>FIDE</v>
       </c>
       <c r="C108" t="str">
-        <v>1088</v>
+        <v>670</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E108" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F108" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G108" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="H108" t="str">
         <v>1</v>
       </c>
       <c r="I108" t="str">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="J108" t="str">
         <v>9999</v>
@@ -5426,36 +5756,36 @@
         <v>9999</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67926</v>
+        <v>67886</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>1371</v>
+        <v>877</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E109" t="str">
+        <v>221</v>
+      </c>
+      <c r="F109" t="str">
         <v>254</v>
       </c>
-      <c r="F109" t="str">
-        <v>213</v>
-      </c>
       <c r="G109" t="str">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H109" t="str">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="I109" t="str">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="J109" t="str">
         <v>9999</v>
@@ -5482,36 +5812,36 @@
         <v>9999</v>
       </c>
       <c r="R109" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>67932</v>
+        <v>67924</v>
       </c>
       <c r="B110" t="str">
         <v>FIDE</v>
       </c>
       <c r="C110" t="str">
-        <v>1121</v>
+        <v>867</v>
       </c>
       <c r="D110" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E110" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F110" t="str">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G110" t="str">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H110" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I110" t="str">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J110" t="str">
         <v>9999</v>
@@ -5538,24 +5868,24 @@
         <v>9999</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67964</v>
+        <v>67968</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>1120</v>
+        <v>867</v>
       </c>
       <c r="D111" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E111" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F111" t="str">
         <v>219</v>
@@ -5567,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="str">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="J111" t="str">
         <v>9999</v>
@@ -5594,48 +5924,48 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>69074</v>
+        <v>67894</v>
       </c>
       <c r="B112" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>2253</v>
+        <v>981</v>
       </c>
       <c r="D112" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E112" t="str">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F112" t="str">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G112" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H112" t="str">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="I112" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="J112" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K112" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L112" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M112" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N112" t="str">
         <v>9999</v>
@@ -5647,39 +5977,39 @@
         <v>9999</v>
       </c>
       <c r="Q112" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>67898</v>
+        <v>67798</v>
       </c>
       <c r="B113" t="str">
         <v>FIDE</v>
       </c>
       <c r="C113" t="str">
-        <v>1122</v>
+        <v>1343</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E113" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F113" t="str">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="G113" t="str">
+        <v>207</v>
+      </c>
+      <c r="H113" t="str">
         <v>197</v>
       </c>
-      <c r="H113" t="str">
-        <v>0</v>
-      </c>
       <c r="I113" t="str">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J113" t="str">
         <v>9999</v>
@@ -5706,36 +6036,36 @@
         <v>9999</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67982</v>
+        <v>67826</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
       </c>
       <c r="C114" t="str">
-        <v>1371</v>
+        <v>877</v>
       </c>
       <c r="D114" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E114" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F114" t="str">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G114" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H114" t="str">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I114" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J114" t="str">
         <v>9999</v>
@@ -5762,12 +6092,12 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>68002</v>
+        <v>67962</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
@@ -5776,22 +6106,22 @@
         <v>1120</v>
       </c>
       <c r="D115" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E115" t="str">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F115" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H115" t="str">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I115" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -5818,48 +6148,48 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>67854</v>
+        <v>69086</v>
       </c>
       <c r="B116" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C116" t="str">
-        <v>1090</v>
+        <v>2260</v>
       </c>
       <c r="D116" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E116" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F116" t="str">
+        <v>225</v>
+      </c>
+      <c r="G116" t="str">
+        <v>1</v>
+      </c>
+      <c r="H116" t="str">
+        <v>189</v>
+      </c>
+      <c r="I116" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J116" t="str">
         <v>253</v>
       </c>
-      <c r="G116" t="str">
-        <v>2</v>
-      </c>
-      <c r="H116" t="str">
-        <v>207</v>
-      </c>
-      <c r="I116" t="str">
-        <v>195</v>
-      </c>
-      <c r="J116" t="str">
-        <v>9999</v>
-      </c>
       <c r="K116" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L116" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M116" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N116" t="str">
         <v>9999</v>
@@ -5871,40 +6201,40 @@
         <v>9999</v>
       </c>
       <c r="Q116" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>67872</v>
+        <v>67812</v>
       </c>
       <c r="B117" t="str">
         <v>FIDE</v>
       </c>
       <c r="C117" t="str">
-        <v>1088</v>
+        <v>877</v>
       </c>
       <c r="D117" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E117" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F117" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G117" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H117" t="str">
+        <v>2</v>
+      </c>
+      <c r="I117" t="str">
         <v>206</v>
       </c>
-      <c r="I117" t="str">
-        <v>196</v>
-      </c>
       <c r="J117" t="str">
         <v>9999</v>
       </c>
@@ -5930,36 +6260,36 @@
         <v>9999</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>67884</v>
+        <v>67874</v>
       </c>
       <c r="B118" t="str">
         <v>FIDE</v>
       </c>
       <c r="C118" t="str">
-        <v>1343</v>
+        <v>1089</v>
       </c>
       <c r="D118" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E118" t="str">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F118" t="str">
         <v>254</v>
       </c>
       <c r="G118" t="str">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H118" t="str">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I118" t="str">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J118" t="str">
         <v>9999</v>
@@ -5986,48 +6316,48 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>69084</v>
+        <v>67910</v>
       </c>
       <c r="B119" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>2260</v>
+        <v>1372</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E119" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F119" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G119" t="str">
         <v>190</v>
       </c>
       <c r="H119" t="str">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="I119" t="str">
-        <v>9999</v>
+        <v>254</v>
       </c>
       <c r="J119" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K119" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L119" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M119" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N119" t="str">
         <v>9999</v>
@@ -6039,39 +6369,39 @@
         <v>9999</v>
       </c>
       <c r="Q119" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>67746</v>
+        <v>67926</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>932</v>
+        <v>1371</v>
       </c>
       <c r="D120" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E120" t="str">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F120" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G120" t="str">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="H120" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I120" t="str">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J120" t="str">
         <v>9999</v>
@@ -6098,36 +6428,36 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67756</v>
+        <v>67936</v>
       </c>
       <c r="B121" t="str">
         <v>FIDE</v>
       </c>
       <c r="C121" t="str">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="D121" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E121" t="str">
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G121" t="str">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="H121" t="str">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="I121" t="str">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="J121" t="str">
         <v>9999</v>
@@ -6154,36 +6484,36 @@
         <v>9999</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>67794</v>
+        <v>67946</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>681</v>
+        <v>1372</v>
       </c>
       <c r="D122" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E122" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F122" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="G122" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H122" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I122" t="str">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="J122" t="str">
         <v>9999</v>
@@ -6210,36 +6540,36 @@
         <v>9999</v>
       </c>
       <c r="R122" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67902</v>
+        <v>67746</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>1092</v>
+        <v>932</v>
       </c>
       <c r="D123" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E123" t="str">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="F123" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="G123" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H123" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I123" t="str">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J123" t="str">
         <v>9999</v>
@@ -6266,36 +6596,36 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>67908</v>
+        <v>67950</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>656</v>
+        <v>1121</v>
       </c>
       <c r="D124" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E124" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F124" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G124" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H124" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I124" t="str">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J124" t="str">
         <v>9999</v>
@@ -6322,36 +6652,36 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>67940</v>
+        <v>67954</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>1371</v>
+        <v>866</v>
       </c>
       <c r="D125" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E125" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F125" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G125" t="str">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="H125" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I125" t="str">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="J125" t="str">
         <v>9999</v>
@@ -6378,36 +6708,36 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>67952</v>
+        <v>67960</v>
       </c>
       <c r="B126" t="str">
         <v>FIDE</v>
       </c>
       <c r="C126" t="str">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="D126" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E126" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="F126" t="str">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G126" t="str">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="H126" t="str">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I126" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J126" t="str">
         <v>9999</v>
@@ -6434,36 +6764,36 @@
         <v>9999</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67990</v>
+        <v>67964</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>1372</v>
+        <v>1120</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E127" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F127" t="str">
         <v>219</v>
       </c>
       <c r="G127" t="str">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H127" t="str">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="I127" t="str">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="J127" t="str">
         <v>9999</v>
@@ -6490,36 +6820,36 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>88260</v>
+        <v>67892</v>
       </c>
       <c r="B128" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>1120</v>
+        <v>1342</v>
       </c>
       <c r="D128" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E128" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F128" t="str">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G128" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H128" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I128" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J128" t="str">
         <v>9999</v>
@@ -6546,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67776</v>
+        <v>67942</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>1143</v>
+        <v>1373</v>
       </c>
       <c r="D129" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E129" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F129" t="str">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G129" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H129" t="str">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="I129" t="str">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6602,48 +6932,48 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>67828</v>
+        <v>69082</v>
       </c>
       <c r="B130" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C130" t="str">
-        <v>1087</v>
+        <v>2260</v>
       </c>
       <c r="D130" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E130" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F130" t="str">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="G130" t="str">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H130" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I130" t="str">
-        <v>195</v>
+        <v>9999</v>
       </c>
       <c r="J130" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K130" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L130" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M130" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N130" t="str">
         <v>9999</v>
@@ -6655,36 +6985,36 @@
         <v>9999</v>
       </c>
       <c r="Q130" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>67948</v>
+        <v>88262</v>
       </c>
       <c r="B131" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C131" t="str">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D131" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E131" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F131" t="str">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G131" t="str">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H131" t="str">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I131" t="str">
         <v>253</v>
@@ -6714,33 +7044,33 @@
         <v>9999</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>67796</v>
+        <v>67748</v>
       </c>
       <c r="B132" t="str">
         <v>FIDE</v>
       </c>
       <c r="C132" t="str">
-        <v>675</v>
+        <v>933</v>
       </c>
       <c r="D132" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E132" t="str">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="F132" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="str">
+        <v>222</v>
+      </c>
+      <c r="H132" t="str">
         <v>251</v>
-      </c>
-      <c r="H132" t="str">
-        <v>202</v>
       </c>
       <c r="I132" t="str">
         <v>0</v>
@@ -6770,36 +7100,36 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67888</v>
+        <v>67774</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="D133" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E133" t="str">
+        <v>266</v>
+      </c>
+      <c r="F133" t="str">
+        <v>0</v>
+      </c>
+      <c r="G133" t="str">
         <v>222</v>
       </c>
-      <c r="F133" t="str">
-        <v>253</v>
-      </c>
-      <c r="G133" t="str">
-        <v>214</v>
-      </c>
       <c r="H133" t="str">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="I133" t="str">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J133" t="str">
         <v>9999</v>
@@ -6826,36 +7156,36 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>67910</v>
+        <v>67820</v>
       </c>
       <c r="B134" t="str">
         <v>FIDE</v>
       </c>
       <c r="C134" t="str">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="D134" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E134" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F134" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G134" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H134" t="str">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I134" t="str">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="J134" t="str">
         <v>9999</v>
@@ -6882,36 +7212,36 @@
         <v>9999</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67922</v>
+        <v>67754</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1372</v>
+        <v>1144</v>
       </c>
       <c r="D135" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E135" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F135" t="str">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G135" t="str">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H135" t="str">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="I135" t="str">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="J135" t="str">
         <v>9999</v>
@@ -6938,36 +7268,36 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67860</v>
+        <v>67818</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>879</v>
+        <v>1147</v>
       </c>
       <c r="D136" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E136" t="str">
+        <v>270</v>
+      </c>
+      <c r="F136" t="str">
         <v>222</v>
       </c>
-      <c r="F136" t="str">
+      <c r="G136" t="str">
         <v>254</v>
       </c>
-      <c r="G136" t="str">
-        <v>0</v>
-      </c>
       <c r="H136" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I136" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J136" t="str">
         <v>9999</v>
@@ -6999,31 +7329,31 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67918</v>
+        <v>67864</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1121</v>
+        <v>1342</v>
       </c>
       <c r="D137" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E137" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F137" t="str">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="G137" t="str">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H137" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I137" t="str">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7050,48 +7380,48 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>67928</v>
+        <v>69088</v>
       </c>
       <c r="B138" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C138" t="str">
-        <v>867</v>
+        <v>2258</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E138" t="str">
+        <v>1</v>
+      </c>
+      <c r="F138" t="str">
+        <v>0</v>
+      </c>
+      <c r="G138" t="str">
         <v>255</v>
       </c>
-      <c r="F138" t="str">
-        <v>213</v>
-      </c>
-      <c r="G138" t="str">
-        <v>196</v>
-      </c>
       <c r="H138" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="I138" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J138" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="K138" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L138" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M138" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N138" t="str">
         <v>9999</v>
@@ -7103,39 +7433,39 @@
         <v>9999</v>
       </c>
       <c r="Q138" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>67938</v>
+        <v>68014</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>1093</v>
+        <v>867</v>
       </c>
       <c r="D139" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E139" t="str">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G139" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="H139" t="str">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I139" t="str">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J139" t="str">
         <v>9999</v>
@@ -7162,36 +7492,36 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67976</v>
+        <v>67744</v>
       </c>
       <c r="B140" t="str">
         <v>FIDE</v>
       </c>
       <c r="C140" t="str">
-        <v>1347</v>
+        <v>1143</v>
       </c>
       <c r="D140" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E140" t="str">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="F140" t="str">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G140" t="str">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H140" t="str">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="I140" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J140" t="str">
         <v>9999</v>
@@ -7218,33 +7548,33 @@
         <v>9999</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67858</v>
+        <v>67750</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="D141" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E141" t="str">
+        <v>265</v>
+      </c>
+      <c r="F141" t="str">
         <v>222</v>
       </c>
-      <c r="F141" t="str">
-        <v>253</v>
-      </c>
       <c r="G141" t="str">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H141" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I141" t="str">
         <v>210</v>
@@ -7274,36 +7604,36 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67966</v>
+        <v>67794</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
       </c>
       <c r="C142" t="str">
-        <v>1372</v>
+        <v>681</v>
       </c>
       <c r="D142" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E142" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F142" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G142" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H142" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I142" t="str">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="J142" t="str">
         <v>9999</v>
@@ -7330,48 +7660,48 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>69082</v>
+        <v>67840</v>
       </c>
       <c r="B143" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>2260</v>
+        <v>1088</v>
       </c>
       <c r="D143" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E143" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F143" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G143" t="str">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H143" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I143" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J143" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K143" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L143" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M143" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N143" t="str">
         <v>9999</v>
@@ -7383,39 +7713,39 @@
         <v>9999</v>
       </c>
       <c r="Q143" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>67752</v>
+        <v>67842</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="D144" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E144" t="str">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F144" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G144" t="str">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="H144" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I144" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7442,36 +7772,36 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>67772</v>
+        <v>67970</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D145" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E145" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F145" t="str">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G145" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H145" t="str">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I145" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7498,36 +7828,36 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>67798</v>
+        <v>68010</v>
       </c>
       <c r="B146" t="str">
         <v>FIDE</v>
       </c>
       <c r="C146" t="str">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="D146" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E146" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F146" t="str">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G146" t="str">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H146" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I146" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J146" t="str">
         <v>9999</v>
@@ -7554,48 +7884,48 @@
         <v>9999</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>67812</v>
+        <v>69078</v>
       </c>
       <c r="B147" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C147" t="str">
-        <v>877</v>
+        <v>1978</v>
       </c>
       <c r="D147" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E147" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F147" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="G147" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="H147" t="str">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="I147" t="str">
-        <v>206</v>
+        <v>9999</v>
       </c>
       <c r="J147" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K147" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L147" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M147" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N147" t="str">
         <v>9999</v>
@@ -7607,51 +7937,51 @@
         <v>9999</v>
       </c>
       <c r="Q147" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>67838</v>
+        <v>69090</v>
       </c>
       <c r="B148" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C148" t="str">
-        <v>1088</v>
+        <v>2260</v>
       </c>
       <c r="D148" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E148" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F148" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G148" t="str">
+        <v>225</v>
+      </c>
+      <c r="H148" t="str">
+        <v>190</v>
+      </c>
+      <c r="I148" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J148" t="str">
+        <v>252</v>
+      </c>
+      <c r="K148" t="str">
+        <v>252</v>
+      </c>
+      <c r="L148" t="str">
         <v>1</v>
       </c>
-      <c r="H148" t="str">
-        <v>206</v>
-      </c>
-      <c r="I148" t="str">
-        <v>196</v>
-      </c>
-      <c r="J148" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K148" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L148" t="str">
-        <v>9999</v>
-      </c>
       <c r="M148" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N148" t="str">
         <v>9999</v>
@@ -7663,39 +7993,39 @@
         <v>9999</v>
       </c>
       <c r="Q148" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67870</v>
+        <v>67776</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E149" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F149" t="str">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G149" t="str">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="H149" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I149" t="str">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J149" t="str">
         <v>9999</v>
@@ -7722,36 +8052,36 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>67942</v>
+        <v>67796</v>
       </c>
       <c r="B150" t="str">
         <v>FIDE</v>
       </c>
       <c r="C150" t="str">
-        <v>1373</v>
+        <v>675</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E150" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F150" t="str">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G150" t="str">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="H150" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I150" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J150" t="str">
         <v>9999</v>
@@ -7778,36 +8108,36 @@
         <v>9999</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>67972</v>
+        <v>67830</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
       </c>
       <c r="C151" t="str">
-        <v>664</v>
+        <v>1342</v>
       </c>
       <c r="D151" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E151" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F151" t="str">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="G151" t="str">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="H151" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I151" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -7834,36 +8164,36 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>68004</v>
+        <v>67880</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E152" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F152" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G152" t="str">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="H152" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I152" t="str">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J152" t="str">
         <v>9999</v>
@@ -7890,48 +8220,48 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>68008</v>
+        <v>69076</v>
       </c>
       <c r="B153" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C153" t="str">
-        <v>1119</v>
+        <v>2830</v>
       </c>
       <c r="D153" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E153" t="str">
+        <v>229</v>
+      </c>
+      <c r="F153" t="str">
         <v>255</v>
       </c>
-      <c r="F153" t="str">
-        <v>223</v>
-      </c>
       <c r="G153" t="str">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="H153" t="str">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I153" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="J153" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K153" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L153" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M153" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N153" t="str">
         <v>9999</v>
@@ -7943,51 +8273,51 @@
         <v>9999</v>
       </c>
       <c r="Q153" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>69080</v>
+        <v>67974</v>
       </c>
       <c r="B154" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C154" t="str">
-        <v>2830</v>
+        <v>1120</v>
       </c>
       <c r="D154" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E154" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F154" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G154" t="str">
+        <v>0</v>
+      </c>
+      <c r="H154" t="str">
         <v>190</v>
       </c>
-      <c r="H154" t="str">
-        <v>197</v>
-      </c>
       <c r="I154" t="str">
-        <v>9999</v>
+        <v>203</v>
       </c>
       <c r="J154" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K154" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L154" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M154" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N154" t="str">
         <v>9999</v>
@@ -7999,21 +8329,21 @@
         <v>9999</v>
       </c>
       <c r="Q154" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>88264</v>
+        <v>68000</v>
       </c>
       <c r="B155" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C155" t="str">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D155" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -8022,16 +8352,16 @@
         <v>255</v>
       </c>
       <c r="F155" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G155" t="str">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H155" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="str">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J155" t="str">
         <v>9999</v>
@@ -8058,36 +8388,36 @@
         <v>9999</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>67774</v>
+        <v>67752</v>
       </c>
       <c r="B156" t="str">
         <v>FIDE</v>
       </c>
       <c r="C156" t="str">
-        <v>1143</v>
+        <v>1354</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E156" t="str">
         <v>266</v>
       </c>
       <c r="F156" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G156" t="str">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H156" t="str">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="I156" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J156" t="str">
         <v>9999</v>
@@ -8114,18 +8444,18 @@
         <v>9999</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67850</v>
+        <v>67834</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
       </c>
       <c r="C157" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D157" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8134,16 +8464,16 @@
         <v>222</v>
       </c>
       <c r="F157" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G157" t="str">
+        <v>1</v>
+      </c>
+      <c r="H157" t="str">
         <v>207</v>
       </c>
-      <c r="H157" t="str">
-        <v>196</v>
-      </c>
       <c r="I157" t="str">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J157" t="str">
         <v>9999</v>
@@ -8170,36 +8500,36 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>67876</v>
+        <v>68002</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>1342</v>
+        <v>1120</v>
       </c>
       <c r="D158" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E158" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F158" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G158" t="str">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H158" t="str">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I158" t="str">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="J158" t="str">
         <v>9999</v>
@@ -8226,36 +8556,36 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>67944</v>
+        <v>67860</v>
       </c>
       <c r="B159" t="str">
         <v>FIDE</v>
       </c>
       <c r="C159" t="str">
-        <v>664</v>
+        <v>879</v>
       </c>
       <c r="D159" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E159" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F159" t="str">
+        <v>254</v>
+      </c>
+      <c r="G159" t="str">
         <v>0</v>
       </c>
-      <c r="G159" t="str">
-        <v>1</v>
-      </c>
       <c r="H159" t="str">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="I159" t="str">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="J159" t="str">
         <v>9999</v>
@@ -8282,33 +8612,33 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67748</v>
+        <v>67902</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
       </c>
       <c r="C160" t="str">
-        <v>933</v>
+        <v>1092</v>
       </c>
       <c r="D160" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E160" t="str">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F160" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G160" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H160" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="I160" t="str">
         <v>0</v>
@@ -8338,36 +8668,36 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67764</v>
+        <v>67944</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>1353</v>
+        <v>664</v>
       </c>
       <c r="D161" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E161" t="str">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F161" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G161" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="H161" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="I161" t="str">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8394,12 +8724,12 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>67836</v>
+        <v>67800</v>
       </c>
       <c r="B162" t="str">
         <v>FIDE</v>
@@ -8414,16 +8744,16 @@
         <v>222</v>
       </c>
       <c r="F162" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G162" t="str">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H162" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I162" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J162" t="str">
         <v>9999</v>
@@ -8450,12 +8780,12 @@
         <v>9999</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>67856</v>
+        <v>67866</v>
       </c>
       <c r="B163" t="str">
         <v>FIDE</v>
@@ -8473,14 +8803,14 @@
         <v>253</v>
       </c>
       <c r="G163" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H163" t="str">
+        <v>1</v>
+      </c>
+      <c r="I163" t="str">
         <v>195</v>
       </c>
-      <c r="I163" t="str">
-        <v>211</v>
-      </c>
       <c r="J163" t="str">
         <v>9999</v>
       </c>
@@ -8506,48 +8836,48 @@
         <v>9999</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>69076</v>
+        <v>67868</v>
       </c>
       <c r="B164" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C164" t="str">
-        <v>2830</v>
+        <v>1087</v>
       </c>
       <c r="D164" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E164" t="str">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F164" t="str">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G164" t="str">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H164" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I164" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J164" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K164" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L164" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M164" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N164" t="str">
         <v>9999</v>
@@ -8559,21 +8889,21 @@
         <v>9999</v>
       </c>
       <c r="Q164" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R164" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67916</v>
+        <v>67912</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>1374</v>
+        <v>867</v>
       </c>
       <c r="D165" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -8582,16 +8912,16 @@
         <v>255</v>
       </c>
       <c r="F165" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G165" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H165" t="str">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="I165" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J165" t="str">
         <v>9999</v>
@@ -8618,36 +8948,36 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>67780</v>
+        <v>67918</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>1353</v>
+        <v>1121</v>
       </c>
       <c r="D166" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E166" t="str">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F166" t="str">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G166" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H166" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I166" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J166" t="str">
         <v>9999</v>
@@ -8674,37 +9004,37 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>67930</v>
+        <v>67940</v>
       </c>
       <c r="B167" t="str">
         <v>FIDE</v>
       </c>
       <c r="C167" t="str">
-        <v>664</v>
+        <v>1371</v>
       </c>
       <c r="D167" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E167" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F167" t="str">
+        <v>213</v>
+      </c>
+      <c r="G167" t="str">
+        <v>196</v>
+      </c>
+      <c r="H167" t="str">
+        <v>203</v>
+      </c>
+      <c r="I167" t="str">
         <v>254</v>
       </c>
-      <c r="G167" t="str">
-        <v>1</v>
-      </c>
-      <c r="H167" t="str">
-        <v>212</v>
-      </c>
-      <c r="I167" t="str">
-        <v>0</v>
-      </c>
       <c r="J167" t="str">
         <v>9999</v>
       </c>
@@ -8730,36 +9060,36 @@
         <v>9999</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>67784</v>
+        <v>67958</v>
       </c>
       <c r="B168" t="str">
         <v>FIDE</v>
       </c>
       <c r="C168" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D168" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E168" t="str">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F168" t="str">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G168" t="str">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="H168" t="str">
         <v>202</v>
       </c>
       <c r="I168" t="str">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="J168" t="str">
         <v>9999</v>
@@ -8786,63 +9116,7 @@
         <v>9999</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:07.458</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>67882</v>
-      </c>
-      <c r="B169" t="str">
-        <v>FIDE</v>
-      </c>
-      <c r="C169" t="str">
-        <v>1088</v>
-      </c>
-      <c r="D169" t="str">
-        <v>2019-08-07 15:36:05.849</v>
-      </c>
-      <c r="E169" t="str">
-        <v>221</v>
-      </c>
-      <c r="F169" t="str">
-        <v>1</v>
-      </c>
-      <c r="G169" t="str">
-        <v>255</v>
-      </c>
-      <c r="H169" t="str">
-        <v>213</v>
-      </c>
-      <c r="I169" t="str">
-        <v>189</v>
-      </c>
-      <c r="J169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="M169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="N169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="O169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="P169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="Q169" t="str">
-        <v>9999</v>
-      </c>
-      <c r="R169" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
   </sheetData>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -777,43 +777,43 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>67854</v>
+        <v>69080</v>
       </c>
       <c r="B20" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C20" t="str">
-        <v>1090</v>
+        <v>2830</v>
       </c>
       <c r="D20" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E20" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F20" t="str">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G20" t="str">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="H20" t="str">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I20" t="str">
-        <v>195</v>
+        <v>9999</v>
       </c>
       <c r="J20" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K20" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L20" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M20" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N20" t="str">
         <v>9999</v>
@@ -825,21 +825,21 @@
         <v>9999</v>
       </c>
       <c r="Q20" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R20" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67858</v>
+        <v>67848</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
       </c>
       <c r="C21" t="str">
-        <v>1343</v>
+        <v>1088</v>
       </c>
       <c r="D21" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -851,13 +851,13 @@
         <v>253</v>
       </c>
       <c r="G21" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" t="str">
         <v>196</v>
       </c>
       <c r="I21" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -884,12 +884,12 @@
         <v>9999</v>
       </c>
       <c r="R21" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>67890</v>
+        <v>67866</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
@@ -907,13 +907,13 @@
         <v>253</v>
       </c>
       <c r="G22" t="str">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="H22" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="I22" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J22" t="str">
         <v>9999</v>
@@ -940,12 +940,12 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67920</v>
+        <v>67962</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
@@ -960,16 +960,16 @@
         <v>254</v>
       </c>
       <c r="F23" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H23" t="str">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="I23" t="str">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -996,18 +996,18 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>69084</v>
+        <v>68012</v>
       </c>
       <c r="B24" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C24" t="str">
-        <v>2260</v>
+        <v>670</v>
       </c>
       <c r="D24" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -1016,28 +1016,28 @@
         <v>255</v>
       </c>
       <c r="F24" t="str">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H24" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I24" t="str">
-        <v>9999</v>
+        <v>224</v>
       </c>
       <c r="J24" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K24" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L24" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M24" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N24" t="str">
         <v>9999</v>
@@ -1049,51 +1049,51 @@
         <v>9999</v>
       </c>
       <c r="Q24" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>67980</v>
+        <v>69078</v>
       </c>
       <c r="B25" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C25" t="str">
-        <v>867</v>
+        <v>1978</v>
       </c>
       <c r="D25" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E25" t="str">
+        <v>256</v>
+      </c>
+      <c r="F25" t="str">
+        <v>225</v>
+      </c>
+      <c r="G25" t="str">
+        <v>190</v>
+      </c>
+      <c r="H25" t="str">
+        <v>197</v>
+      </c>
+      <c r="I25" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J25" t="str">
         <v>255</v>
       </c>
-      <c r="F25" t="str">
-        <v>219</v>
-      </c>
-      <c r="G25" t="str">
-        <v>1</v>
-      </c>
-      <c r="H25" t="str">
-        <v>190</v>
-      </c>
-      <c r="I25" t="str">
-        <v>2</v>
-      </c>
-      <c r="J25" t="str">
-        <v>9999</v>
-      </c>
       <c r="K25" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L25" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M25" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N25" t="str">
         <v>9999</v>
@@ -1105,39 +1105,39 @@
         <v>9999</v>
       </c>
       <c r="Q25" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>67758</v>
+        <v>67762</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="D26" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E26" t="str">
+        <v>266</v>
+      </c>
+      <c r="F26" t="str">
+        <v>221</v>
+      </c>
+      <c r="G26" t="str">
+        <v>252</v>
+      </c>
+      <c r="H26" t="str">
         <v>194</v>
       </c>
-      <c r="F26" t="str">
-        <v>271</v>
-      </c>
-      <c r="G26" t="str">
-        <v>222</v>
-      </c>
-      <c r="H26" t="str">
-        <v>255</v>
-      </c>
       <c r="I26" t="str">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -1164,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>67760</v>
+        <v>67790</v>
       </c>
       <c r="B27" t="str">
         <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E27" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F27" t="str">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G27" t="str">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="H27" t="str">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I27" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -1220,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67770</v>
+        <v>67824</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>1144</v>
+        <v>876</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E28" t="str">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>222</v>
+      </c>
+      <c r="G28" t="str">
+        <v>252</v>
+      </c>
+      <c r="H28" t="str">
         <v>1</v>
       </c>
-      <c r="F28" t="str">
-        <v>266</v>
-      </c>
-      <c r="G28" t="str">
-        <v>221</v>
-      </c>
-      <c r="H28" t="str">
-        <v>252</v>
-      </c>
       <c r="I28" t="str">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -1276,18 +1276,18 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67808</v>
+        <v>67878</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>877</v>
+        <v>1088</v>
       </c>
       <c r="D29" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -1296,16 +1296,16 @@
         <v>222</v>
       </c>
       <c r="F29" t="str">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G29" t="str">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H29" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I29" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J29" t="str">
         <v>9999</v>
@@ -1332,7 +1332,7 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="30">
@@ -1393,31 +1393,31 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67976</v>
+        <v>67910</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
       </c>
       <c r="C31" t="str">
-        <v>1347</v>
+        <v>1372</v>
       </c>
       <c r="D31" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E31" t="str">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F31" t="str">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="G31" t="str">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H31" t="str">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="I31" t="str">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J31" t="str">
         <v>9999</v>
@@ -1444,33 +1444,33 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67982</v>
+        <v>67948</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E32" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F32" t="str">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G32" t="str">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H32" t="str">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I32" t="str">
         <v>253</v>
@@ -1500,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67768</v>
+        <v>67960</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>1142</v>
+        <v>1371</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E33" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F33" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G33" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H33" t="str">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="I33" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1556,12 +1556,12 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>67780</v>
+        <v>67764</v>
       </c>
       <c r="B34" t="str">
         <v>FIDE</v>
@@ -1570,10 +1570,10 @@
         <v>1353</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E34" t="str">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" t="str">
         <v>221</v>
@@ -1582,10 +1582,10 @@
         <v>251</v>
       </c>
       <c r="H34" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I34" t="str">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1612,36 +1612,36 @@
         <v>9999</v>
       </c>
       <c r="R34" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67870</v>
+        <v>67810</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D35" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E35" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H35" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I35" t="str">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J35" t="str">
         <v>9999</v>
@@ -1668,36 +1668,36 @@
         <v>9999</v>
       </c>
       <c r="R35" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67906</v>
+        <v>67968</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>1121</v>
+        <v>867</v>
       </c>
       <c r="D36" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E36" t="str">
         <v>255</v>
       </c>
       <c r="F36" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G36" t="str">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H36" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="J36" t="str">
         <v>9999</v>
@@ -1724,36 +1724,36 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>68004</v>
+        <v>67982</v>
       </c>
       <c r="B37" t="str">
         <v>FIDE</v>
       </c>
       <c r="C37" t="str">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="D37" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E37" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37" t="str">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G37" t="str">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="H37" t="str">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="I37" t="str">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="J37" t="str">
         <v>9999</v>
@@ -1780,36 +1780,36 @@
         <v>9999</v>
       </c>
       <c r="R37" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>67928</v>
+        <v>67990</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>867</v>
+        <v>1372</v>
       </c>
       <c r="D38" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E38" t="str">
         <v>255</v>
       </c>
       <c r="F38" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G38" t="str">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H38" t="str">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="I38" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J38" t="str">
         <v>9999</v>
@@ -1836,12 +1836,12 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>68006</v>
+        <v>67992</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H39" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I39" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1892,36 +1892,36 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>88264</v>
+        <v>67792</v>
       </c>
       <c r="B40" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C40" t="str">
-        <v>867</v>
+        <v>1145</v>
       </c>
       <c r="D40" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E40" t="str">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F40" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G40" t="str">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H40" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="str">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J40" t="str">
         <v>9999</v>
@@ -1948,36 +1948,36 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>67846</v>
+        <v>67886</v>
       </c>
       <c r="B41" t="str">
         <v>FIDE</v>
       </c>
       <c r="C41" t="str">
-        <v>1089</v>
+        <v>877</v>
       </c>
       <c r="D41" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E41" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G41" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" t="str">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="I41" t="str">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="J41" t="str">
         <v>9999</v>
@@ -2004,36 +2004,36 @@
         <v>9999</v>
       </c>
       <c r="R41" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67850</v>
+        <v>67916</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>1342</v>
+        <v>1374</v>
       </c>
       <c r="D42" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E42" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F42" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G42" t="str">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H42" t="str">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I42" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -2060,12 +2060,12 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67990</v>
+        <v>67946</v>
       </c>
       <c r="B43" t="str">
         <v>FIDE</v>
@@ -2074,22 +2074,22 @@
         <v>1372</v>
       </c>
       <c r="D43" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E43" t="str">
         <v>255</v>
       </c>
       <c r="F43" t="str">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G43" t="str">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H43" t="str">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I43" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J43" t="str">
         <v>9999</v>
@@ -2116,18 +2116,18 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>69080</v>
+        <v>88258</v>
       </c>
       <c r="B44" t="str">
-        <v>LODE</v>
+        <v>SITO</v>
       </c>
       <c r="C44" t="str">
-        <v>2830</v>
+        <v>1120</v>
       </c>
       <c r="D44" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -2136,28 +2136,28 @@
         <v>256</v>
       </c>
       <c r="F44" t="str">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" t="str">
         <v>190</v>
       </c>
       <c r="H44" t="str">
+        <v>0</v>
+      </c>
+      <c r="I44" t="str">
         <v>197</v>
       </c>
-      <c r="I44" t="str">
-        <v>9999</v>
-      </c>
       <c r="J44" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K44" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L44" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M44" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N44" t="str">
         <v>9999</v>
@@ -2169,40 +2169,40 @@
         <v>9999</v>
       </c>
       <c r="Q44" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67762</v>
+        <v>67770</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>1353</v>
+        <v>1144</v>
       </c>
       <c r="D45" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E45" t="str">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
         <v>266</v>
       </c>
-      <c r="F45" t="str">
+      <c r="G45" t="str">
         <v>221</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <v>252</v>
       </c>
-      <c r="H45" t="str">
+      <c r="I45" t="str">
         <v>194</v>
       </c>
-      <c r="I45" t="str">
-        <v>210</v>
-      </c>
       <c r="J45" t="str">
         <v>9999</v>
       </c>
@@ -2228,36 +2228,36 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67824</v>
+        <v>67938</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>876</v>
+        <v>1093</v>
       </c>
       <c r="D46" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E46" t="str">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F46" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="G46" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="H46" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="I46" t="str">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -2284,36 +2284,36 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67832</v>
+        <v>67914</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>1087</v>
+        <v>1372</v>
       </c>
       <c r="D47" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E47" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F47" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G47" t="str">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H47" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I47" t="str">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="J47" t="str">
         <v>9999</v>
@@ -2340,36 +2340,36 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67966</v>
+        <v>67932</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>1372</v>
+        <v>1121</v>
       </c>
       <c r="D48" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E48" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F48" t="str">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G48" t="str">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H48" t="str">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I48" t="str">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="J48" t="str">
         <v>9999</v>
@@ -2396,36 +2396,36 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>67804</v>
+        <v>68008</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>1088</v>
+        <v>1119</v>
       </c>
       <c r="D49" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E49" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F49" t="str">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="G49" t="str">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="H49" t="str">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I49" t="str">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2452,36 +2452,36 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>67908</v>
+        <v>67772</v>
       </c>
       <c r="B50" t="str">
         <v>FIDE</v>
       </c>
       <c r="C50" t="str">
-        <v>656</v>
+        <v>1353</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E50" t="str">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F50" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G50" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="H50" t="str">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="I50" t="str">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J50" t="str">
         <v>9999</v>
@@ -2508,36 +2508,36 @@
         <v>9999</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>67930</v>
+        <v>67820</v>
       </c>
       <c r="B51" t="str">
         <v>FIDE</v>
       </c>
       <c r="C51" t="str">
-        <v>664</v>
+        <v>1087</v>
       </c>
       <c r="D51" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E51" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F51" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G51" t="str">
         <v>1</v>
       </c>
       <c r="H51" t="str">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I51" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J51" t="str">
         <v>9999</v>
@@ -2564,36 +2564,36 @@
         <v>9999</v>
       </c>
       <c r="R51" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>88260</v>
+        <v>67978</v>
       </c>
       <c r="B52" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C52" t="str">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D52" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E52" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F52" t="str">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G52" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H52" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I52" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2620,36 +2620,36 @@
         <v>9999</v>
       </c>
       <c r="R52" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>67764</v>
+        <v>67998</v>
       </c>
       <c r="B53" t="str">
         <v>FIDE</v>
       </c>
       <c r="C53" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E53" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F53" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G53" t="str">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="H53" t="str">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I53" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2676,36 +2676,36 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67806</v>
+        <v>67944</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>877</v>
+        <v>664</v>
       </c>
       <c r="D54" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E54" t="str">
         <v>1</v>
       </c>
       <c r="F54" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="str">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I54" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J54" t="str">
         <v>9999</v>
@@ -2732,36 +2732,36 @@
         <v>9999</v>
       </c>
       <c r="R54" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67814</v>
+        <v>67784</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>1087</v>
+        <v>1353</v>
       </c>
       <c r="D55" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E55" t="str">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="F55" t="str">
+        <v>221</v>
+      </c>
+      <c r="G55" t="str">
         <v>252</v>
       </c>
-      <c r="G55" t="str">
-        <v>207</v>
-      </c>
       <c r="H55" t="str">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I55" t="str">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2788,36 +2788,36 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67838</v>
+        <v>67902</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
       </c>
       <c r="C56" t="str">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D56" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E56" t="str">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F56" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G56" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="H56" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I56" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="J56" t="str">
         <v>9999</v>
@@ -2844,36 +2844,36 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>67862</v>
+        <v>67920</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>682</v>
+        <v>1120</v>
       </c>
       <c r="D57" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E57" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F57" t="str">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="G57" t="str">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="H57" t="str">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="I57" t="str">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J57" t="str">
         <v>9999</v>
@@ -2900,12 +2900,12 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>67904</v>
+        <v>67922</v>
       </c>
       <c r="B58" t="str">
         <v>FIDE</v>
@@ -2917,19 +2917,19 @@
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E58" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F58" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G58" t="str">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H58" t="str">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I58" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2956,36 +2956,36 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>67986</v>
+        <v>67822</v>
       </c>
       <c r="B59" t="str">
         <v>FIDE</v>
       </c>
       <c r="C59" t="str">
-        <v>1371</v>
+        <v>877</v>
       </c>
       <c r="D59" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E59" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F59" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G59" t="str">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="H59" t="str">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I59" t="str">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -3012,36 +3012,36 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>67784</v>
+        <v>67842</v>
       </c>
       <c r="B60" t="str">
         <v>FIDE</v>
       </c>
       <c r="C60" t="str">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="D60" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E60" t="str">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="F60" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G60" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H60" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I60" t="str">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -3068,33 +3068,33 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67848</v>
+        <v>67952</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E61" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G61" t="str">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H61" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I61" t="str">
         <v>0</v>
@@ -3124,48 +3124,48 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67878</v>
+        <v>69084</v>
       </c>
       <c r="B62" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C62" t="str">
-        <v>1088</v>
+        <v>2260</v>
       </c>
       <c r="D62" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E62" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F62" t="str">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G62" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H62" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I62" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J62" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K62" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L62" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M62" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N62" t="str">
         <v>9999</v>
@@ -3177,51 +3177,51 @@
         <v>9999</v>
       </c>
       <c r="Q62" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>67934</v>
+        <v>69090</v>
       </c>
       <c r="B63" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C63" t="str">
-        <v>1120</v>
+        <v>2260</v>
       </c>
       <c r="D63" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E63" t="str">
         <v>255</v>
       </c>
       <c r="F63" t="str">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G63" t="str">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H63" t="str">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I63" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J63" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="K63" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L63" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M63" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N63" t="str">
         <v>9999</v>
@@ -3233,40 +3233,40 @@
         <v>9999</v>
       </c>
       <c r="Q63" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67992</v>
+        <v>67766</v>
       </c>
       <c r="B64" t="str">
         <v>FIDE</v>
       </c>
       <c r="C64" t="str">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="D64" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E64" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F64" t="str">
+        <v>222</v>
+      </c>
+      <c r="G64" t="str">
+        <v>252</v>
+      </c>
+      <c r="H64" t="str">
+        <v>193</v>
+      </c>
+      <c r="I64" t="str">
         <v>0</v>
       </c>
-      <c r="G64" t="str">
-        <v>219</v>
-      </c>
-      <c r="H64" t="str">
-        <v>195</v>
-      </c>
-      <c r="I64" t="str">
-        <v>198</v>
-      </c>
       <c r="J64" t="str">
         <v>9999</v>
       </c>
@@ -3292,36 +3292,36 @@
         <v>9999</v>
       </c>
       <c r="R64" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>88258</v>
+        <v>67776</v>
       </c>
       <c r="B65" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C65" t="str">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="D65" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E65" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F65" t="str">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G65" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H65" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I65" t="str">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J65" t="str">
         <v>9999</v>
@@ -3348,18 +3348,18 @@
         <v>9999</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>67876</v>
+        <v>67840</v>
       </c>
       <c r="B66" t="str">
         <v>FIDE</v>
       </c>
       <c r="C66" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D66" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -3368,16 +3368,16 @@
         <v>222</v>
       </c>
       <c r="F66" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G66" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H66" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I66" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J66" t="str">
         <v>9999</v>
@@ -3404,18 +3404,18 @@
         <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>67978</v>
+        <v>68006</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D67" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -3424,16 +3424,16 @@
         <v>255</v>
       </c>
       <c r="F67" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="str">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H67" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I67" t="str">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3460,36 +3460,36 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67994</v>
+        <v>67900</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>1120</v>
+        <v>867</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E68" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F68" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G68" t="str">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="H68" t="str">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I68" t="str">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J68" t="str">
         <v>9999</v>
@@ -3516,48 +3516,48 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>69074</v>
+        <v>67956</v>
       </c>
       <c r="B69" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C69" t="str">
-        <v>2253</v>
+        <v>1120</v>
       </c>
       <c r="D69" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E69" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F69" t="str">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G69" t="str">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H69" t="str">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I69" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="J69" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K69" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L69" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M69" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N69" t="str">
         <v>9999</v>
@@ -3569,39 +3569,39 @@
         <v>9999</v>
       </c>
       <c r="Q69" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>67772</v>
+        <v>88260</v>
       </c>
       <c r="B70" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C70" t="str">
-        <v>1353</v>
+        <v>1120</v>
       </c>
       <c r="D70" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E70" t="str">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G70" t="str">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H70" t="str">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I70" t="str">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J70" t="str">
         <v>9999</v>
@@ -3628,48 +3628,48 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>67778</v>
+        <v>69082</v>
       </c>
       <c r="B71" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C71" t="str">
-        <v>942</v>
+        <v>2260</v>
       </c>
       <c r="D71" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E71" t="str">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F71" t="str">
         <v>0</v>
       </c>
       <c r="G71" t="str">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H71" t="str">
+        <v>190</v>
+      </c>
+      <c r="I71" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J71" t="str">
+        <v>253</v>
+      </c>
+      <c r="K71" t="str">
         <v>252</v>
       </c>
-      <c r="I71" t="str">
-        <v>201</v>
-      </c>
-      <c r="J71" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K71" t="str">
-        <v>9999</v>
-      </c>
       <c r="L71" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M71" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N71" t="str">
         <v>9999</v>
@@ -3681,39 +3681,39 @@
         <v>9999</v>
       </c>
       <c r="Q71" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67938</v>
+        <v>67744</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>1093</v>
+        <v>1143</v>
       </c>
       <c r="D72" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E72" t="str">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="F72" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="G72" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H72" t="str">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="I72" t="str">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J72" t="str">
         <v>9999</v>
@@ -3740,36 +3740,36 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>67900</v>
+        <v>67834</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>867</v>
+        <v>1088</v>
       </c>
       <c r="D73" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E73" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F73" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G73" t="str">
         <v>1</v>
       </c>
       <c r="H73" t="str">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I73" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J73" t="str">
         <v>9999</v>
@@ -3796,36 +3796,36 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67896</v>
+        <v>67864</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="D74" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E74" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F74" t="str">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G74" t="str">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H74" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I74" t="str">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="J74" t="str">
         <v>9999</v>
@@ -3852,36 +3852,36 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67952</v>
+        <v>67906</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>867</v>
+        <v>1121</v>
       </c>
       <c r="D75" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E75" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F75" t="str">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G75" t="str">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H75" t="str">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I75" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J75" t="str">
         <v>9999</v>
@@ -3908,36 +3908,36 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>67788</v>
+        <v>67798</v>
       </c>
       <c r="B76" t="str">
         <v>FIDE</v>
       </c>
       <c r="C76" t="str">
-        <v>947</v>
+        <v>1343</v>
       </c>
       <c r="D76" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E76" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F76" t="str">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G76" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H76" t="str">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I76" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J76" t="str">
         <v>9999</v>
@@ -3964,36 +3964,36 @@
         <v>9999</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>67790</v>
+        <v>67912</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
       </c>
       <c r="C77" t="str">
-        <v>1343</v>
+        <v>867</v>
       </c>
       <c r="D77" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E77" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F77" t="str">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G77" t="str">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H77" t="str">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I77" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -4020,37 +4020,37 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>67898</v>
+        <v>67996</v>
       </c>
       <c r="B78" t="str">
         <v>FIDE</v>
       </c>
       <c r="C78" t="str">
-        <v>1122</v>
+        <v>867</v>
       </c>
       <c r="D78" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E78" t="str">
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
         <v>255</v>
       </c>
-      <c r="F78" t="str">
-        <v>213</v>
-      </c>
       <c r="G78" t="str">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="H78" t="str">
+        <v>188</v>
+      </c>
+      <c r="I78" t="str">
         <v>0</v>
       </c>
-      <c r="I78" t="str">
-        <v>203</v>
-      </c>
       <c r="J78" t="str">
         <v>9999</v>
       </c>
@@ -4076,36 +4076,36 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67932</v>
+        <v>67800</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E79" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F79" t="str">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G79" t="str">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H79" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I79" t="str">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J79" t="str">
         <v>9999</v>
@@ -4132,33 +4132,33 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>67996</v>
+        <v>67862</v>
       </c>
       <c r="B80" t="str">
         <v>FIDE</v>
       </c>
       <c r="C80" t="str">
-        <v>867</v>
+        <v>682</v>
       </c>
       <c r="D80" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E80" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F80" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G80" t="str">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H80" t="str">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="I80" t="str">
         <v>0</v>
@@ -4188,36 +4188,36 @@
         <v>9999</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67792</v>
+        <v>67876</v>
       </c>
       <c r="B81" t="str">
         <v>FIDE</v>
       </c>
       <c r="C81" t="str">
-        <v>1145</v>
+        <v>1342</v>
       </c>
       <c r="D81" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E81" t="str">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F81" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G81" t="str">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="H81" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I81" t="str">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J81" t="str">
         <v>9999</v>
@@ -4244,36 +4244,36 @@
         <v>9999</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67872</v>
+        <v>67986</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1088</v>
+        <v>1371</v>
       </c>
       <c r="D82" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E82" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="F82" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G82" t="str">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="H82" t="str">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I82" t="str">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="J82" t="str">
         <v>9999</v>
@@ -4300,36 +4300,36 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67884</v>
+        <v>67778</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
       </c>
       <c r="C83" t="str">
-        <v>1343</v>
+        <v>942</v>
       </c>
       <c r="D83" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E83" t="str">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F83" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G83" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H83" t="str">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="I83" t="str">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J83" t="str">
         <v>9999</v>
@@ -4356,36 +4356,36 @@
         <v>9999</v>
       </c>
       <c r="R83" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>67956</v>
+        <v>67794</v>
       </c>
       <c r="B84" t="str">
         <v>FIDE</v>
       </c>
       <c r="C84" t="str">
-        <v>1120</v>
+        <v>681</v>
       </c>
       <c r="D84" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E84" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F84" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G84" t="str">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="H84" t="str">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I84" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="J84" t="str">
         <v>9999</v>
@@ -4412,36 +4412,36 @@
         <v>9999</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>67984</v>
+        <v>67808</v>
       </c>
       <c r="B85" t="str">
         <v>FIDE</v>
       </c>
       <c r="C85" t="str">
-        <v>1120</v>
+        <v>877</v>
       </c>
       <c r="D85" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E85" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F85" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G85" t="str">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H85" t="str">
         <v>0</v>
       </c>
       <c r="I85" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J85" t="str">
         <v>9999</v>
@@ -4468,36 +4468,36 @@
         <v>9999</v>
       </c>
       <c r="R85" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67998</v>
+        <v>67964</v>
       </c>
       <c r="B86" t="str">
         <v>FIDE</v>
       </c>
       <c r="C86" t="str">
-        <v>1372</v>
+        <v>1120</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E86" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F86" t="str">
         <v>219</v>
       </c>
       <c r="G86" t="str">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H86" t="str">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I86" t="str">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="J86" t="str">
         <v>9999</v>
@@ -4524,36 +4524,36 @@
         <v>9999</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67766</v>
+        <v>67758</v>
       </c>
       <c r="B87" t="str">
         <v>FIDE</v>
       </c>
       <c r="C87" t="str">
-        <v>1143</v>
+        <v>1343</v>
       </c>
       <c r="D87" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E87" t="str">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="F87" t="str">
+        <v>271</v>
+      </c>
+      <c r="G87" t="str">
         <v>222</v>
       </c>
-      <c r="G87" t="str">
-        <v>252</v>
-      </c>
       <c r="H87" t="str">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="I87" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J87" t="str">
         <v>9999</v>
@@ -4580,36 +4580,36 @@
         <v>9999</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>67816</v>
+        <v>67752</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>1088</v>
+        <v>1354</v>
       </c>
       <c r="D88" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E88" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F88" t="str">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G88" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="H88" t="str">
         <v>195</v>
       </c>
       <c r="I88" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J88" t="str">
         <v>9999</v>
@@ -4636,37 +4636,37 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>67914</v>
+        <v>67890</v>
       </c>
       <c r="B89" t="str">
         <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E89" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F89" t="str">
+        <v>253</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2</v>
+      </c>
+      <c r="H89" t="str">
         <v>213</v>
       </c>
-      <c r="G89" t="str">
+      <c r="I89" t="str">
         <v>189</v>
       </c>
-      <c r="H89" t="str">
-        <v>210</v>
-      </c>
-      <c r="I89" t="str">
-        <v>254</v>
-      </c>
       <c r="J89" t="str">
         <v>9999</v>
       </c>
@@ -4692,30 +4692,30 @@
         <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67948</v>
+        <v>67970</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D90" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E90" t="str">
         <v>255</v>
       </c>
       <c r="F90" t="str">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G90" t="str">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H90" t="str">
         <v>203</v>
@@ -4748,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67988</v>
+        <v>67826</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>1371</v>
+        <v>877</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E91" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F91" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G91" t="str">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H91" t="str">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I91" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4804,36 +4804,36 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67852</v>
+        <v>67884</v>
       </c>
       <c r="B92" t="str">
         <v>FIDE</v>
       </c>
       <c r="C92" t="str">
-        <v>981</v>
+        <v>1343</v>
       </c>
       <c r="D92" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E92" t="str">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="F92" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G92" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="H92" t="str">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="I92" t="str">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="J92" t="str">
         <v>9999</v>
@@ -4860,36 +4860,36 @@
         <v>9999</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67828</v>
+        <v>67934</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="D93" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E93" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F93" t="str">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G93" t="str">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H93" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I93" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4916,36 +4916,36 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>67972</v>
+        <v>68002</v>
       </c>
       <c r="B94" t="str">
         <v>FIDE</v>
       </c>
       <c r="C94" t="str">
-        <v>664</v>
+        <v>1120</v>
       </c>
       <c r="D94" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E94" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F94" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G94" t="str">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H94" t="str">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I94" t="str">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="J94" t="str">
         <v>9999</v>
@@ -4972,36 +4972,36 @@
         <v>9999</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>67756</v>
+        <v>67926</v>
       </c>
       <c r="B95" t="str">
         <v>FIDE</v>
       </c>
       <c r="C95" t="str">
-        <v>933</v>
+        <v>1371</v>
       </c>
       <c r="D95" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E95" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="F95" t="str">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="G95" t="str">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="H95" t="str">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="I95" t="str">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J95" t="str">
         <v>9999</v>
@@ -5028,36 +5028,36 @@
         <v>9999</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>67856</v>
+        <v>67954</v>
       </c>
       <c r="B96" t="str">
         <v>FIDE</v>
       </c>
       <c r="C96" t="str">
-        <v>1088</v>
+        <v>866</v>
       </c>
       <c r="D96" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E96" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F96" t="str">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G96" t="str">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="H96" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I96" t="str">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="J96" t="str">
         <v>9999</v>
@@ -5084,36 +5084,36 @@
         <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67922</v>
+        <v>67774</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>1372</v>
+        <v>1143</v>
       </c>
       <c r="D97" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E97" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F97" t="str">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G97" t="str">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="H97" t="str">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="I97" t="str">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -5140,36 +5140,36 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>68008</v>
+        <v>67780</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>1119</v>
+        <v>1353</v>
       </c>
       <c r="D98" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E98" t="str">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F98" t="str">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G98" t="str">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="H98" t="str">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I98" t="str">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J98" t="str">
         <v>9999</v>
@@ -5196,18 +5196,18 @@
         <v>9999</v>
       </c>
       <c r="R98" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>67888</v>
+        <v>67858</v>
       </c>
       <c r="B99" t="str">
         <v>FIDE</v>
       </c>
       <c r="C99" t="str">
-        <v>1088</v>
+        <v>1343</v>
       </c>
       <c r="D99" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5219,10 +5219,10 @@
         <v>253</v>
       </c>
       <c r="G99" t="str">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H99" t="str">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I99" t="str">
         <v>210</v>
@@ -5252,36 +5252,36 @@
         <v>9999</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>67786</v>
+        <v>67908</v>
       </c>
       <c r="B100" t="str">
         <v>FIDE</v>
       </c>
       <c r="C100" t="str">
-        <v>1365</v>
+        <v>656</v>
       </c>
       <c r="D100" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E100" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="F100" t="str">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="G100" t="str">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="H100" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="I100" t="str">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="J100" t="str">
         <v>9999</v>
@@ -5308,36 +5308,36 @@
         <v>9999</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67782</v>
+        <v>67850</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>933</v>
+        <v>1342</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E101" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F101" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G101" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H101" t="str">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="I101" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J101" t="str">
         <v>9999</v>
@@ -5364,37 +5364,37 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67810</v>
+        <v>67854</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D102" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E102" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F102" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G102" t="str">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="H102" t="str">
+        <v>207</v>
+      </c>
+      <c r="I102" t="str">
         <v>195</v>
       </c>
-      <c r="I102" t="str">
-        <v>210</v>
-      </c>
       <c r="J102" t="str">
         <v>9999</v>
       </c>
@@ -5420,18 +5420,18 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>67822</v>
+        <v>67860</v>
       </c>
       <c r="B103" t="str">
         <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D103" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5440,16 +5440,16 @@
         <v>222</v>
       </c>
       <c r="F103" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G103" t="str">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H103" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="I103" t="str">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J103" t="str">
         <v>9999</v>
@@ -5476,48 +5476,48 @@
         <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>67836</v>
+        <v>69088</v>
       </c>
       <c r="B104" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C104" t="str">
-        <v>1088</v>
+        <v>2258</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E104" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F104" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G104" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="H104" t="str">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I104" t="str">
-        <v>195</v>
+        <v>9999</v>
       </c>
       <c r="J104" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="K104" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L104" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M104" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N104" t="str">
         <v>9999</v>
@@ -5529,40 +5529,40 @@
         <v>9999</v>
       </c>
       <c r="Q104" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>67844</v>
+        <v>68010</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>1089</v>
+        <v>1372</v>
       </c>
       <c r="D105" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E105" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F105" t="str">
+        <v>226</v>
+      </c>
+      <c r="G105" t="str">
+        <v>188</v>
+      </c>
+      <c r="H105" t="str">
+        <v>198</v>
+      </c>
+      <c r="I105" t="str">
         <v>253</v>
       </c>
-      <c r="G105" t="str">
-        <v>207</v>
-      </c>
-      <c r="H105" t="str">
-        <v>1</v>
-      </c>
-      <c r="I105" t="str">
-        <v>195</v>
-      </c>
       <c r="J105" t="str">
         <v>9999</v>
       </c>
@@ -5588,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>67882</v>
+        <v>67748</v>
       </c>
       <c r="B106" t="str">
         <v>FIDE</v>
       </c>
       <c r="C106" t="str">
-        <v>1088</v>
+        <v>933</v>
       </c>
       <c r="D106" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E106" t="str">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="F106" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="H106" t="str">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="I106" t="str">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5644,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67916</v>
+        <v>67788</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>1374</v>
+        <v>947</v>
       </c>
       <c r="D107" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E107" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F107" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G107" t="str">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="H107" t="str">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I107" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5700,36 +5700,36 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>68012</v>
+        <v>67806</v>
       </c>
       <c r="B108" t="str">
         <v>FIDE</v>
       </c>
       <c r="C108" t="str">
-        <v>670</v>
+        <v>877</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E108" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F108" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G108" t="str">
         <v>0</v>
       </c>
       <c r="H108" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="I108" t="str">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J108" t="str">
         <v>9999</v>
@@ -5756,37 +5756,37 @@
         <v>9999</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67886</v>
+        <v>67966</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>877</v>
+        <v>1372</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E109" t="str">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="F109" t="str">
+        <v>219</v>
+      </c>
+      <c r="G109" t="str">
+        <v>190</v>
+      </c>
+      <c r="H109" t="str">
+        <v>203</v>
+      </c>
+      <c r="I109" t="str">
         <v>254</v>
       </c>
-      <c r="G109" t="str">
-        <v>206</v>
-      </c>
-      <c r="H109" t="str">
-        <v>3</v>
-      </c>
-      <c r="I109" t="str">
-        <v>4</v>
-      </c>
       <c r="J109" t="str">
         <v>9999</v>
       </c>
@@ -5812,12 +5812,12 @@
         <v>9999</v>
       </c>
       <c r="R109" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>67924</v>
+        <v>68004</v>
       </c>
       <c r="B110" t="str">
         <v>FIDE</v>
@@ -5826,22 +5826,22 @@
         <v>867</v>
       </c>
       <c r="D110" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E110" t="str">
         <v>255</v>
       </c>
       <c r="F110" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G110" t="str">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="H110" t="str">
         <v>0</v>
       </c>
       <c r="I110" t="str">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J110" t="str">
         <v>9999</v>
@@ -5868,36 +5868,36 @@
         <v>9999</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67968</v>
+        <v>67830</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>867</v>
+        <v>1342</v>
       </c>
       <c r="D111" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E111" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F111" t="str">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="G111" t="str">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H111" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I111" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J111" t="str">
         <v>9999</v>
@@ -5924,36 +5924,36 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>67894</v>
+        <v>67888</v>
       </c>
       <c r="B112" t="str">
         <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>981</v>
+        <v>1088</v>
       </c>
       <c r="D112" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E112" t="str">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F112" t="str">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G112" t="str">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="H112" t="str">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="I112" t="str">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="J112" t="str">
         <v>9999</v>
@@ -5980,36 +5980,36 @@
         <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>67798</v>
+        <v>67918</v>
       </c>
       <c r="B113" t="str">
         <v>FIDE</v>
       </c>
       <c r="C113" t="str">
-        <v>1343</v>
+        <v>1121</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E113" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F113" t="str">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G113" t="str">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H113" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I113" t="str">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J113" t="str">
         <v>9999</v>
@@ -6036,36 +6036,36 @@
         <v>9999</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67826</v>
+        <v>67940</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
       </c>
       <c r="C114" t="str">
-        <v>877</v>
+        <v>1371</v>
       </c>
       <c r="D114" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E114" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F114" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G114" t="str">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H114" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I114" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J114" t="str">
         <v>9999</v>
@@ -6092,36 +6092,36 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>67962</v>
+        <v>67846</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
       </c>
       <c r="C115" t="str">
-        <v>1120</v>
+        <v>1089</v>
       </c>
       <c r="D115" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E115" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F115" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G115" t="str">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H115" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I115" t="str">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -6148,48 +6148,48 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>69086</v>
+        <v>67892</v>
       </c>
       <c r="B116" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C116" t="str">
-        <v>2260</v>
+        <v>1342</v>
       </c>
       <c r="D116" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E116" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F116" t="str">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G116" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="H116" t="str">
         <v>189</v>
       </c>
       <c r="I116" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J116" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K116" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L116" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M116" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N116" t="str">
         <v>9999</v>
@@ -6201,39 +6201,39 @@
         <v>9999</v>
       </c>
       <c r="Q116" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>67812</v>
+        <v>67942</v>
       </c>
       <c r="B117" t="str">
         <v>FIDE</v>
       </c>
       <c r="C117" t="str">
-        <v>877</v>
+        <v>1373</v>
       </c>
       <c r="D117" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E117" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F117" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G117" t="str">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="H117" t="str">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="I117" t="str">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="J117" t="str">
         <v>9999</v>
@@ -6260,36 +6260,36 @@
         <v>9999</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>67874</v>
+        <v>88262</v>
       </c>
       <c r="B118" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C118" t="str">
-        <v>1089</v>
+        <v>1371</v>
       </c>
       <c r="D118" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E118" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F118" t="str">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G118" t="str">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H118" t="str">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="I118" t="str">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="J118" t="str">
         <v>9999</v>
@@ -6316,36 +6316,36 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>67910</v>
+        <v>67756</v>
       </c>
       <c r="B119" t="str">
         <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>1372</v>
+        <v>933</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E119" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G119" t="str">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="H119" t="str">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I119" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J119" t="str">
         <v>9999</v>
@@ -6372,18 +6372,18 @@
         <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>67926</v>
+        <v>67904</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D120" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -6395,10 +6395,10 @@
         <v>213</v>
       </c>
       <c r="G120" t="str">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H120" t="str">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I120" t="str">
         <v>254</v>
@@ -6428,37 +6428,37 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67936</v>
+        <v>67930</v>
       </c>
       <c r="B121" t="str">
         <v>FIDE</v>
       </c>
       <c r="C121" t="str">
-        <v>867</v>
+        <v>664</v>
       </c>
       <c r="D121" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E121" t="str">
+        <v>1</v>
+      </c>
+      <c r="F121" t="str">
+        <v>254</v>
+      </c>
+      <c r="G121" t="str">
+        <v>1</v>
+      </c>
+      <c r="H121" t="str">
+        <v>212</v>
+      </c>
+      <c r="I121" t="str">
         <v>0</v>
       </c>
-      <c r="F121" t="str">
-        <v>255</v>
-      </c>
-      <c r="G121" t="str">
-        <v>212</v>
-      </c>
-      <c r="H121" t="str">
-        <v>197</v>
-      </c>
-      <c r="I121" t="str">
-        <v>203</v>
-      </c>
       <c r="J121" t="str">
         <v>9999</v>
       </c>
@@ -6484,36 +6484,36 @@
         <v>9999</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>67946</v>
+        <v>67984</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>1372</v>
+        <v>1120</v>
       </c>
       <c r="D122" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E122" t="str">
         <v>255</v>
       </c>
       <c r="F122" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G122" t="str">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H122" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I122" t="str">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="J122" t="str">
         <v>9999</v>
@@ -6540,18 +6540,18 @@
         <v>9999</v>
       </c>
       <c r="R122" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67746</v>
+        <v>67750</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>932</v>
+        <v>1354</v>
       </c>
       <c r="D123" t="str">
         <v>2019-08-07 15:36:05.654</v>
@@ -6560,16 +6560,16 @@
         <v>265</v>
       </c>
       <c r="F123" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G123" t="str">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H123" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I123" t="str">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="J123" t="str">
         <v>9999</v>
@@ -6596,36 +6596,36 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>67950</v>
+        <v>67838</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="D124" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E124" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F124" t="str">
+        <v>253</v>
+      </c>
+      <c r="G124" t="str">
         <v>1</v>
       </c>
-      <c r="G124" t="str">
-        <v>219</v>
-      </c>
       <c r="H124" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I124" t="str">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J124" t="str">
         <v>9999</v>
@@ -6652,18 +6652,18 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>67954</v>
+        <v>67928</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D125" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -6672,17 +6672,17 @@
         <v>255</v>
       </c>
       <c r="F125" t="str">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G125" t="str">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="H125" t="str">
+        <v>1</v>
+      </c>
+      <c r="I125" t="str">
         <v>0</v>
       </c>
-      <c r="I125" t="str">
-        <v>190</v>
-      </c>
       <c r="J125" t="str">
         <v>9999</v>
       </c>
@@ -6708,36 +6708,36 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>67960</v>
+        <v>67972</v>
       </c>
       <c r="B126" t="str">
         <v>FIDE</v>
       </c>
       <c r="C126" t="str">
-        <v>1371</v>
+        <v>664</v>
       </c>
       <c r="D126" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E126" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F126" t="str">
         <v>219</v>
       </c>
       <c r="G126" t="str">
+        <v>0</v>
+      </c>
+      <c r="H126" t="str">
         <v>190</v>
       </c>
-      <c r="H126" t="str">
-        <v>203</v>
-      </c>
       <c r="I126" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J126" t="str">
         <v>9999</v>
@@ -6764,36 +6764,36 @@
         <v>9999</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67964</v>
+        <v>67818</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>1120</v>
+        <v>1147</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E127" t="str">
+        <v>270</v>
+      </c>
+      <c r="F127" t="str">
+        <v>222</v>
+      </c>
+      <c r="G127" t="str">
         <v>254</v>
       </c>
-      <c r="F127" t="str">
-        <v>219</v>
-      </c>
-      <c r="G127" t="str">
-        <v>191</v>
-      </c>
       <c r="H127" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I127" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J127" t="str">
         <v>9999</v>
@@ -6820,37 +6820,37 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>67892</v>
+        <v>67958</v>
       </c>
       <c r="B128" t="str">
         <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>1342</v>
+        <v>1372</v>
       </c>
       <c r="D128" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E128" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F128" t="str">
+        <v>213</v>
+      </c>
+      <c r="G128" t="str">
+        <v>196</v>
+      </c>
+      <c r="H128" t="str">
+        <v>202</v>
+      </c>
+      <c r="I128" t="str">
         <v>254</v>
       </c>
-      <c r="G128" t="str">
-        <v>213</v>
-      </c>
-      <c r="H128" t="str">
-        <v>189</v>
-      </c>
-      <c r="I128" t="str">
-        <v>210</v>
-      </c>
       <c r="J128" t="str">
         <v>9999</v>
       </c>
@@ -6876,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67942</v>
+        <v>67988</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D129" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E129" t="str">
         <v>255</v>
       </c>
       <c r="F129" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G129" t="str">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H129" t="str">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I129" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6932,48 +6932,48 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>69082</v>
+        <v>68000</v>
       </c>
       <c r="B130" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C130" t="str">
-        <v>2260</v>
+        <v>868</v>
       </c>
       <c r="D130" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E130" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F130" t="str">
+        <v>219</v>
+      </c>
+      <c r="G130" t="str">
+        <v>195</v>
+      </c>
+      <c r="H130" t="str">
         <v>0</v>
       </c>
-      <c r="G130" t="str">
-        <v>225</v>
-      </c>
-      <c r="H130" t="str">
-        <v>190</v>
-      </c>
       <c r="I130" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="J130" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K130" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L130" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M130" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N130" t="str">
         <v>9999</v>
@@ -6985,51 +6985,51 @@
         <v>9999</v>
       </c>
       <c r="Q130" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>88262</v>
+        <v>69074</v>
       </c>
       <c r="B131" t="str">
-        <v>SITO</v>
+        <v>LODE</v>
       </c>
       <c r="C131" t="str">
-        <v>1371</v>
+        <v>2253</v>
       </c>
       <c r="D131" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E131" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F131" t="str">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G131" t="str">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H131" t="str">
         <v>197</v>
       </c>
       <c r="I131" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J131" t="str">
         <v>253</v>
       </c>
-      <c r="J131" t="str">
-        <v>9999</v>
-      </c>
       <c r="K131" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L131" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M131" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N131" t="str">
         <v>9999</v>
@@ -7041,39 +7041,39 @@
         <v>9999</v>
       </c>
       <c r="Q131" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>67748</v>
+        <v>88264</v>
       </c>
       <c r="B132" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C132" t="str">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="D132" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E132" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F132" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="str">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H132" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="I132" t="str">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J132" t="str">
         <v>9999</v>
@@ -7100,36 +7100,36 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67774</v>
+        <v>67786</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>1143</v>
+        <v>1365</v>
       </c>
       <c r="D133" t="str">
         <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E133" t="str">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="F133" t="str">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G133" t="str">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H133" t="str">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I133" t="str">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="J133" t="str">
         <v>9999</v>
@@ -7156,48 +7156,48 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>67820</v>
+        <v>69076</v>
       </c>
       <c r="B134" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C134" t="str">
-        <v>1087</v>
+        <v>2830</v>
       </c>
       <c r="D134" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E134" t="str">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F134" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G134" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="H134" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I134" t="str">
-        <v>195</v>
+        <v>9999</v>
       </c>
       <c r="J134" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K134" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L134" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M134" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N134" t="str">
         <v>9999</v>
@@ -7209,39 +7209,39 @@
         <v>9999</v>
       </c>
       <c r="Q134" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67754</v>
+        <v>67950</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="D135" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E135" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F135" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G135" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H135" t="str">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="I135" t="str">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="J135" t="str">
         <v>9999</v>
@@ -7268,36 +7268,36 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67818</v>
+        <v>67980</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>1147</v>
+        <v>867</v>
       </c>
       <c r="D136" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E136" t="str">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F136" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G136" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="H136" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I136" t="str">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="J136" t="str">
         <v>9999</v>
@@ -7324,18 +7324,18 @@
         <v>9999</v>
       </c>
       <c r="R136" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67864</v>
+        <v>67874</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1342</v>
+        <v>1089</v>
       </c>
       <c r="D137" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7350,10 +7350,10 @@
         <v>206</v>
       </c>
       <c r="H137" t="str">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="I137" t="str">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7380,48 +7380,48 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>69088</v>
+        <v>67898</v>
       </c>
       <c r="B138" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C138" t="str">
-        <v>2258</v>
+        <v>1122</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E138" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F138" t="str">
+        <v>213</v>
+      </c>
+      <c r="G138" t="str">
+        <v>197</v>
+      </c>
+      <c r="H138" t="str">
         <v>0</v>
       </c>
-      <c r="G138" t="str">
-        <v>255</v>
-      </c>
-      <c r="H138" t="str">
-        <v>225</v>
-      </c>
       <c r="I138" t="str">
-        <v>9999</v>
+        <v>203</v>
       </c>
       <c r="J138" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K138" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L138" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M138" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N138" t="str">
         <v>9999</v>
@@ -7433,39 +7433,39 @@
         <v>9999</v>
       </c>
       <c r="Q138" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>68014</v>
+        <v>67760</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>867</v>
+        <v>1353</v>
       </c>
       <c r="D139" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E139" t="str">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="F139" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="G139" t="str">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H139" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I139" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J139" t="str">
         <v>9999</v>
@@ -7492,37 +7492,37 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67744</v>
+        <v>67768</v>
       </c>
       <c r="B140" t="str">
         <v>FIDE</v>
       </c>
       <c r="C140" t="str">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D140" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E140" t="str">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F140" t="str">
+        <v>221</v>
+      </c>
+      <c r="G140" t="str">
+        <v>252</v>
+      </c>
+      <c r="H140" t="str">
+        <v>193</v>
+      </c>
+      <c r="I140" t="str">
         <v>1</v>
       </c>
-      <c r="G140" t="str">
-        <v>222</v>
-      </c>
-      <c r="H140" t="str">
-        <v>250</v>
-      </c>
-      <c r="I140" t="str">
-        <v>195</v>
-      </c>
       <c r="J140" t="str">
         <v>9999</v>
       </c>
@@ -7548,36 +7548,36 @@
         <v>9999</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67750</v>
+        <v>67796</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>1354</v>
+        <v>675</v>
       </c>
       <c r="D141" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E141" t="str">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="F141" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G141" t="str">
         <v>251</v>
       </c>
       <c r="H141" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I141" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J141" t="str">
         <v>9999</v>
@@ -7604,37 +7604,37 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67794</v>
+        <v>67868</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
       </c>
       <c r="C142" t="str">
-        <v>681</v>
+        <v>1087</v>
       </c>
       <c r="D142" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E142" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F142" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G142" t="str">
+        <v>206</v>
+      </c>
+      <c r="H142" t="str">
+        <v>195</v>
+      </c>
+      <c r="I142" t="str">
         <v>1</v>
       </c>
-      <c r="H142" t="str">
-        <v>0</v>
-      </c>
-      <c r="I142" t="str">
-        <v>207</v>
-      </c>
       <c r="J142" t="str">
         <v>9999</v>
       </c>
@@ -7660,18 +7660,18 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>67840</v>
+        <v>67880</v>
       </c>
       <c r="B143" t="str">
         <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>1088</v>
+        <v>878</v>
       </c>
       <c r="D143" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7680,16 +7680,16 @@
         <v>222</v>
       </c>
       <c r="F143" t="str">
+        <v>1</v>
+      </c>
+      <c r="G143" t="str">
         <v>253</v>
       </c>
-      <c r="G143" t="str">
-        <v>207</v>
-      </c>
       <c r="H143" t="str">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I143" t="str">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="J143" t="str">
         <v>9999</v>
@@ -7716,36 +7716,36 @@
         <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>67842</v>
+        <v>67852</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>1342</v>
+        <v>981</v>
       </c>
       <c r="D144" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E144" t="str">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="F144" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G144" t="str">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="H144" t="str">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="I144" t="str">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7772,36 +7772,36 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>67970</v>
+        <v>67828</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="D145" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E145" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F145" t="str">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="G145" t="str">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H145" t="str">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I145" t="str">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7828,36 +7828,36 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>68010</v>
+        <v>67924</v>
       </c>
       <c r="B146" t="str">
         <v>FIDE</v>
       </c>
       <c r="C146" t="str">
-        <v>1372</v>
+        <v>867</v>
       </c>
       <c r="D146" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E146" t="str">
         <v>255</v>
       </c>
       <c r="F146" t="str">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G146" t="str">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H146" t="str">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I146" t="str">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="J146" t="str">
         <v>9999</v>
@@ -7884,48 +7884,48 @@
         <v>9999</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>69078</v>
+        <v>67994</v>
       </c>
       <c r="B147" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C147" t="str">
-        <v>1978</v>
+        <v>1120</v>
       </c>
       <c r="D147" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E147" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F147" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G147" t="str">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H147" t="str">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I147" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J147" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K147" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L147" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M147" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N147" t="str">
         <v>9999</v>
@@ -7937,51 +7937,51 @@
         <v>9999</v>
       </c>
       <c r="Q147" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>69090</v>
+        <v>67976</v>
       </c>
       <c r="B148" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C148" t="str">
-        <v>2260</v>
+        <v>1347</v>
       </c>
       <c r="D148" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E148" t="str">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F148" t="str">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G148" t="str">
         <v>225</v>
       </c>
       <c r="H148" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I148" t="str">
-        <v>9999</v>
+        <v>197</v>
       </c>
       <c r="J148" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K148" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L148" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M148" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N148" t="str">
         <v>9999</v>
@@ -7993,39 +7993,39 @@
         <v>9999</v>
       </c>
       <c r="Q148" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67776</v>
+        <v>67936</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>1143</v>
+        <v>867</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E149" t="str">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="G149" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H149" t="str">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="I149" t="str">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J149" t="str">
         <v>9999</v>
@@ -8052,36 +8052,36 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>67796</v>
+        <v>67974</v>
       </c>
       <c r="B150" t="str">
         <v>FIDE</v>
       </c>
       <c r="C150" t="str">
-        <v>675</v>
+        <v>1120</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E150" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F150" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G150" t="str">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H150" t="str">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I150" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J150" t="str">
         <v>9999</v>
@@ -8108,36 +8108,36 @@
         <v>9999</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>67830</v>
+        <v>68014</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
       </c>
       <c r="C151" t="str">
-        <v>1342</v>
+        <v>867</v>
       </c>
       <c r="D151" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E151" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G151" t="str">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H151" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I151" t="str">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -8164,36 +8164,36 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>67880</v>
+        <v>67754</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>878</v>
+        <v>1144</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E152" t="str">
+        <v>266</v>
+      </c>
+      <c r="F152" t="str">
         <v>222</v>
       </c>
-      <c r="F152" t="str">
-        <v>1</v>
-      </c>
       <c r="G152" t="str">
+        <v>0</v>
+      </c>
+      <c r="H152" t="str">
         <v>253</v>
       </c>
-      <c r="H152" t="str">
-        <v>211</v>
-      </c>
       <c r="I152" t="str">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J152" t="str">
         <v>9999</v>
@@ -8220,48 +8220,48 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>69076</v>
+        <v>67816</v>
       </c>
       <c r="B153" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C153" t="str">
-        <v>2830</v>
+        <v>1088</v>
       </c>
       <c r="D153" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E153" t="str">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F153" t="str">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G153" t="str">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H153" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I153" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J153" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K153" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L153" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M153" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N153" t="str">
         <v>9999</v>
@@ -8273,39 +8273,39 @@
         <v>9999</v>
       </c>
       <c r="Q153" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>67974</v>
+        <v>67856</v>
       </c>
       <c r="B154" t="str">
         <v>FIDE</v>
       </c>
       <c r="C154" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D154" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E154" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F154" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G154" t="str">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H154" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I154" t="str">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J154" t="str">
         <v>9999</v>
@@ -8332,36 +8332,36 @@
         <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>68000</v>
+        <v>67872</v>
       </c>
       <c r="B155" t="str">
         <v>FIDE</v>
       </c>
       <c r="C155" t="str">
-        <v>868</v>
+        <v>1088</v>
       </c>
       <c r="D155" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E155" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G155" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="H155" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I155" t="str">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J155" t="str">
         <v>9999</v>
@@ -8388,48 +8388,48 @@
         <v>9999</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>67752</v>
+        <v>69086</v>
       </c>
       <c r="B156" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C156" t="str">
-        <v>1354</v>
+        <v>2260</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E156" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F156" t="str">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G156" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="H156" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I156" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J156" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K156" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L156" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M156" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N156" t="str">
         <v>9999</v>
@@ -8441,15 +8441,15 @@
         <v>9999</v>
       </c>
       <c r="Q156" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67834</v>
+        <v>67804</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
@@ -8464,13 +8464,13 @@
         <v>222</v>
       </c>
       <c r="F157" t="str">
+        <v>0</v>
+      </c>
+      <c r="G157" t="str">
         <v>252</v>
       </c>
-      <c r="G157" t="str">
-        <v>1</v>
-      </c>
       <c r="H157" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I157" t="str">
         <v>195</v>
@@ -8500,36 +8500,36 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>68002</v>
+        <v>67836</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D158" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E158" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F158" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G158" t="str">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="H158" t="str">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="I158" t="str">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J158" t="str">
         <v>9999</v>
@@ -8556,18 +8556,18 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>67860</v>
+        <v>67870</v>
       </c>
       <c r="B159" t="str">
         <v>FIDE</v>
       </c>
       <c r="C159" t="str">
-        <v>879</v>
+        <v>1088</v>
       </c>
       <c r="D159" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8576,13 +8576,13 @@
         <v>222</v>
       </c>
       <c r="F159" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G159" t="str">
+        <v>207</v>
+      </c>
+      <c r="H159" t="str">
         <v>0</v>
-      </c>
-      <c r="H159" t="str">
-        <v>207</v>
       </c>
       <c r="I159" t="str">
         <v>196</v>
@@ -8612,36 +8612,36 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67902</v>
+        <v>67882</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
       </c>
       <c r="C160" t="str">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D160" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E160" t="str">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F160" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="G160" t="str">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="H160" t="str">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="I160" t="str">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J160" t="str">
         <v>9999</v>
@@ -8668,36 +8668,36 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67944</v>
+        <v>67812</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>664</v>
+        <v>877</v>
       </c>
       <c r="D161" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E161" t="str">
+        <v>222</v>
+      </c>
+      <c r="F161" t="str">
         <v>1</v>
       </c>
-      <c r="F161" t="str">
-        <v>0</v>
-      </c>
       <c r="G161" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H161" t="str">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="I161" t="str">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8724,18 +8724,18 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>67800</v>
+        <v>67832</v>
       </c>
       <c r="B162" t="str">
         <v>FIDE</v>
       </c>
       <c r="C162" t="str">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D162" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8747,7 +8747,7 @@
         <v>252</v>
       </c>
       <c r="G162" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H162" t="str">
         <v>195</v>
@@ -8780,18 +8780,18 @@
         <v>9999</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>67866</v>
+        <v>67844</v>
       </c>
       <c r="B163" t="str">
         <v>FIDE</v>
       </c>
       <c r="C163" t="str">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D163" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8803,7 +8803,7 @@
         <v>253</v>
       </c>
       <c r="G163" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H163" t="str">
         <v>1</v>
@@ -8836,37 +8836,37 @@
         <v>9999</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>67868</v>
+        <v>67896</v>
       </c>
       <c r="B164" t="str">
         <v>FIDE</v>
       </c>
       <c r="C164" t="str">
-        <v>1087</v>
+        <v>1372</v>
       </c>
       <c r="D164" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E164" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F164" t="str">
+        <v>212</v>
+      </c>
+      <c r="G164" t="str">
+        <v>197</v>
+      </c>
+      <c r="H164" t="str">
+        <v>203</v>
+      </c>
+      <c r="I164" t="str">
         <v>253</v>
       </c>
-      <c r="G164" t="str">
-        <v>206</v>
-      </c>
-      <c r="H164" t="str">
-        <v>195</v>
-      </c>
-      <c r="I164" t="str">
-        <v>1</v>
-      </c>
       <c r="J164" t="str">
         <v>9999</v>
       </c>
@@ -8892,36 +8892,36 @@
         <v>9999</v>
       </c>
       <c r="R164" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67912</v>
+        <v>67746</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>867</v>
+        <v>932</v>
       </c>
       <c r="D165" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E165" t="str">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F165" t="str">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G165" t="str">
+        <v>221</v>
+      </c>
+      <c r="H165" t="str">
         <v>1</v>
       </c>
-      <c r="H165" t="str">
-        <v>189</v>
-      </c>
       <c r="I165" t="str">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J165" t="str">
         <v>9999</v>
@@ -8948,37 +8948,37 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>67918</v>
+        <v>67782</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>1121</v>
+        <v>933</v>
       </c>
       <c r="D166" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E166" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F166" t="str">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G166" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H166" t="str">
+        <v>251</v>
+      </c>
+      <c r="I166" t="str">
         <v>0</v>
       </c>
-      <c r="I166" t="str">
-        <v>208</v>
-      </c>
       <c r="J166" t="str">
         <v>9999</v>
       </c>
@@ -9004,36 +9004,36 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>67940</v>
+        <v>67894</v>
       </c>
       <c r="B167" t="str">
         <v>FIDE</v>
       </c>
       <c r="C167" t="str">
-        <v>1371</v>
+        <v>981</v>
       </c>
       <c r="D167" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E167" t="str">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F167" t="str">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G167" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="H167" t="str">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="I167" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J167" t="str">
         <v>9999</v>
@@ -9060,36 +9060,36 @@
         <v>9999</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>67958</v>
+        <v>67814</v>
       </c>
       <c r="B168" t="str">
         <v>FIDE</v>
       </c>
       <c r="C168" t="str">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="D168" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E168" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F168" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G168" t="str">
+        <v>207</v>
+      </c>
+      <c r="H168" t="str">
         <v>196</v>
       </c>
-      <c r="H168" t="str">
-        <v>202</v>
-      </c>
       <c r="I168" t="str">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J168" t="str">
         <v>9999</v>
@@ -9116,7 +9116,7 @@
         <v>9999</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
   </sheetData>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -777,43 +777,43 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>69080</v>
+        <v>67878</v>
       </c>
       <c r="B20" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C20" t="str">
-        <v>2830</v>
+        <v>1088</v>
       </c>
       <c r="D20" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E20" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F20" t="str">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G20" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H20" t="str">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J20" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K20" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L20" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M20" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N20" t="str">
         <v>9999</v>
@@ -825,15 +825,15 @@
         <v>9999</v>
       </c>
       <c r="Q20" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R20" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67848</v>
+        <v>67882</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
@@ -845,19 +845,19 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E21" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="H21" t="str">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="I21" t="str">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -884,18 +884,18 @@
         <v>9999</v>
       </c>
       <c r="R21" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>67866</v>
+        <v>67892</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
       </c>
       <c r="C22" t="str">
-        <v>1088</v>
+        <v>1342</v>
       </c>
       <c r="D22" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -904,16 +904,16 @@
         <v>222</v>
       </c>
       <c r="F22" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" t="str">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H22" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I22" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J22" t="str">
         <v>9999</v>
@@ -940,36 +940,36 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67962</v>
+        <v>67912</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
       </c>
       <c r="C23" t="str">
-        <v>1120</v>
+        <v>867</v>
       </c>
       <c r="D23" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E23" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" t="str">
+        <v>212</v>
+      </c>
+      <c r="G23" t="str">
         <v>1</v>
       </c>
-      <c r="G23" t="str">
-        <v>219</v>
-      </c>
       <c r="H23" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I23" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -996,18 +996,18 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>68012</v>
+        <v>69086</v>
       </c>
       <c r="B24" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C24" t="str">
-        <v>670</v>
+        <v>2260</v>
       </c>
       <c r="D24" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -1016,84 +1016,84 @@
         <v>255</v>
       </c>
       <c r="F24" t="str">
+        <v>225</v>
+      </c>
+      <c r="G24" t="str">
         <v>1</v>
       </c>
-      <c r="G24" t="str">
-        <v>0</v>
-      </c>
       <c r="H24" t="str">
+        <v>189</v>
+      </c>
+      <c r="I24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J24" t="str">
+        <v>253</v>
+      </c>
+      <c r="K24" t="str">
+        <v>252</v>
+      </c>
+      <c r="L24" t="str">
+        <v>304</v>
+      </c>
+      <c r="M24" t="str">
+        <v>299</v>
+      </c>
+      <c r="N24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P24" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q24" t="str">
         <v>1</v>
       </c>
-      <c r="I24" t="str">
-        <v>224</v>
-      </c>
-      <c r="J24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="M24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="N24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="O24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="P24" t="str">
-        <v>9999</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>9999</v>
-      </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>69078</v>
+        <v>67780</v>
       </c>
       <c r="B25" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C25" t="str">
-        <v>1978</v>
+        <v>1353</v>
       </c>
       <c r="D25" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E25" t="str">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F25" t="str">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G25" t="str">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="H25" t="str">
         <v>197</v>
       </c>
       <c r="I25" t="str">
-        <v>9999</v>
+        <v>207</v>
       </c>
       <c r="J25" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K25" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L25" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M25" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N25" t="str">
         <v>9999</v>
@@ -1105,39 +1105,39 @@
         <v>9999</v>
       </c>
       <c r="Q25" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>67762</v>
+        <v>67828</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1353</v>
+        <v>1087</v>
       </c>
       <c r="D26" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E26" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F26" t="str">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G26" t="str">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="H26" t="str">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="I26" t="str">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -1164,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>67790</v>
+        <v>67914</v>
       </c>
       <c r="B27" t="str">
         <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E27" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F27" t="str">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G27" t="str">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H27" t="str">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I27" t="str">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -1220,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67824</v>
+        <v>67972</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>876</v>
+        <v>664</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E28" t="str">
+        <v>255</v>
+      </c>
+      <c r="F28" t="str">
+        <v>219</v>
+      </c>
+      <c r="G28" t="str">
         <v>0</v>
       </c>
-      <c r="F28" t="str">
-        <v>222</v>
-      </c>
-      <c r="G28" t="str">
-        <v>252</v>
-      </c>
       <c r="H28" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I28" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -1276,33 +1276,33 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67878</v>
+        <v>67762</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>1088</v>
+        <v>1353</v>
       </c>
       <c r="D29" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E29" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F29" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="G29" t="str">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="H29" t="str">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I29" t="str">
         <v>210</v>
@@ -1332,30 +1332,30 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>67802</v>
+        <v>67752</v>
       </c>
       <c r="B30" t="str">
         <v>FIDE</v>
       </c>
       <c r="C30" t="str">
-        <v>1086</v>
+        <v>1354</v>
       </c>
       <c r="D30" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E30" t="str">
+        <v>266</v>
+      </c>
+      <c r="F30" t="str">
         <v>221</v>
       </c>
-      <c r="F30" t="str">
-        <v>252</v>
-      </c>
       <c r="G30" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="H30" t="str">
         <v>195</v>
@@ -1388,36 +1388,36 @@
         <v>9999</v>
       </c>
       <c r="R30" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67910</v>
+        <v>67934</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
       </c>
       <c r="C31" t="str">
-        <v>1372</v>
+        <v>1120</v>
       </c>
       <c r="D31" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E31" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F31" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G31" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H31" t="str">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I31" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J31" t="str">
         <v>9999</v>
@@ -1444,36 +1444,36 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67948</v>
+        <v>67830</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E32" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F32" t="str">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G32" t="str">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H32" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I32" t="str">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="J32" t="str">
         <v>9999</v>
@@ -1500,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67960</v>
+        <v>67860</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>1371</v>
+        <v>879</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E33" t="str">
+        <v>222</v>
+      </c>
+      <c r="F33" t="str">
         <v>254</v>
       </c>
-      <c r="F33" t="str">
-        <v>219</v>
-      </c>
       <c r="G33" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H33" t="str">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I33" t="str">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1556,36 +1556,36 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>67764</v>
+        <v>67944</v>
       </c>
       <c r="B34" t="str">
         <v>FIDE</v>
       </c>
       <c r="C34" t="str">
-        <v>1353</v>
+        <v>664</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E34" t="str">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F34" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G34" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="H34" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="I34" t="str">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1612,37 +1612,37 @@
         <v>9999</v>
       </c>
       <c r="R34" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67810</v>
+        <v>67744</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>1087</v>
+        <v>1143</v>
       </c>
       <c r="D35" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E35" t="str">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="F35" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="G35" t="str">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H35" t="str">
+        <v>250</v>
+      </c>
+      <c r="I35" t="str">
         <v>195</v>
       </c>
-      <c r="I35" t="str">
-        <v>210</v>
-      </c>
       <c r="J35" t="str">
         <v>9999</v>
       </c>
@@ -1668,36 +1668,36 @@
         <v>9999</v>
       </c>
       <c r="R35" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67968</v>
+        <v>67846</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>867</v>
+        <v>1089</v>
       </c>
       <c r="D36" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E36" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F36" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G36" t="str">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H36" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I36" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J36" t="str">
         <v>9999</v>
@@ -1724,12 +1724,12 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>67982</v>
+        <v>67960</v>
       </c>
       <c r="B37" t="str">
         <v>FIDE</v>
@@ -1738,19 +1738,19 @@
         <v>1371</v>
       </c>
       <c r="D37" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E37" t="str">
         <v>254</v>
       </c>
       <c r="F37" t="str">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37" t="str">
         <v>190</v>
       </c>
       <c r="H37" t="str">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I37" t="str">
         <v>253</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>67990</v>
+        <v>68008</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>1372</v>
+        <v>1119</v>
       </c>
       <c r="D38" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -1800,16 +1800,16 @@
         <v>255</v>
       </c>
       <c r="F38" t="str">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G38" t="str">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="H38" t="str">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I38" t="str">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="J38" t="str">
         <v>9999</v>
@@ -1836,36 +1836,36 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>67992</v>
+        <v>67758</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
       </c>
       <c r="C39" t="str">
-        <v>1120</v>
+        <v>1343</v>
       </c>
       <c r="D39" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E39" t="str">
+        <v>194</v>
+      </c>
+      <c r="F39" t="str">
+        <v>271</v>
+      </c>
+      <c r="G39" t="str">
+        <v>222</v>
+      </c>
+      <c r="H39" t="str">
         <v>255</v>
       </c>
-      <c r="F39" t="str">
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
-        <v>219</v>
-      </c>
-      <c r="H39" t="str">
-        <v>195</v>
-      </c>
       <c r="I39" t="str">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1892,36 +1892,36 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>67792</v>
+        <v>67836</v>
       </c>
       <c r="B40" t="str">
         <v>FIDE</v>
       </c>
       <c r="C40" t="str">
-        <v>1145</v>
+        <v>1088</v>
       </c>
       <c r="D40" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E40" t="str">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F40" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G40" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="H40" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I40" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J40" t="str">
         <v>9999</v>
@@ -1948,7 +1948,7 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="41">
@@ -2009,31 +2009,31 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67916</v>
+        <v>67970</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D42" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E42" t="str">
         <v>255</v>
       </c>
       <c r="F42" t="str">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G42" t="str">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H42" t="str">
         <v>203</v>
       </c>
       <c r="I42" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -2060,36 +2060,36 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67946</v>
+        <v>67986</v>
       </c>
       <c r="B43" t="str">
         <v>FIDE</v>
       </c>
       <c r="C43" t="str">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D43" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E43" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F43" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G43" t="str">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H43" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I43" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J43" t="str">
         <v>9999</v>
@@ -2116,36 +2116,36 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>88258</v>
+        <v>67754</v>
       </c>
       <c r="B44" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C44" t="str">
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="D44" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E44" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F44" t="str">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G44" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H44" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="I44" t="str">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J44" t="str">
         <v>9999</v>
@@ -2172,36 +2172,36 @@
         <v>9999</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67770</v>
+        <v>67820</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>1144</v>
+        <v>1087</v>
       </c>
       <c r="D45" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E45" t="str">
+        <v>222</v>
+      </c>
+      <c r="F45" t="str">
+        <v>252</v>
+      </c>
+      <c r="G45" t="str">
         <v>1</v>
       </c>
-      <c r="F45" t="str">
-        <v>266</v>
-      </c>
-      <c r="G45" t="str">
-        <v>221</v>
-      </c>
       <c r="H45" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="I45" t="str">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J45" t="str">
         <v>9999</v>
@@ -2228,36 +2228,36 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67938</v>
+        <v>67864</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>1093</v>
+        <v>1342</v>
       </c>
       <c r="D46" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E46" t="str">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F46" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G46" t="str">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="H46" t="str">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="I46" t="str">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -2284,37 +2284,37 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67914</v>
+        <v>67900</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>1372</v>
+        <v>867</v>
       </c>
       <c r="D47" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E47" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47" t="str">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>1</v>
+      </c>
+      <c r="H47" t="str">
         <v>213</v>
       </c>
-      <c r="G47" t="str">
+      <c r="I47" t="str">
         <v>189</v>
       </c>
-      <c r="H47" t="str">
-        <v>210</v>
-      </c>
-      <c r="I47" t="str">
-        <v>254</v>
-      </c>
       <c r="J47" t="str">
         <v>9999</v>
       </c>
@@ -2340,18 +2340,18 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67932</v>
+        <v>67930</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>1121</v>
+        <v>664</v>
       </c>
       <c r="D48" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -2360,16 +2360,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G48" t="str">
+        <v>1</v>
+      </c>
+      <c r="H48" t="str">
         <v>212</v>
       </c>
-      <c r="H48" t="str">
-        <v>197</v>
-      </c>
       <c r="I48" t="str">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="J48" t="str">
         <v>9999</v>
@@ -2396,36 +2396,36 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>68008</v>
+        <v>67746</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>1119</v>
+        <v>932</v>
       </c>
       <c r="D49" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E49" t="str">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F49" t="str">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="G49" t="str">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="H49" t="str">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="I49" t="str">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2452,33 +2452,33 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>67772</v>
+        <v>67810</v>
       </c>
       <c r="B50" t="str">
         <v>FIDE</v>
       </c>
       <c r="C50" t="str">
-        <v>1353</v>
+        <v>1087</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E50" t="str">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="F50" t="str">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G50" t="str">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="H50" t="str">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I50" t="str">
         <v>210</v>
@@ -2508,12 +2508,12 @@
         <v>9999</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>67820</v>
+        <v>67832</v>
       </c>
       <c r="B51" t="str">
         <v>FIDE</v>
@@ -2531,13 +2531,13 @@
         <v>252</v>
       </c>
       <c r="G51" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H51" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I51" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J51" t="str">
         <v>9999</v>
@@ -2569,31 +2569,31 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>67978</v>
+        <v>67946</v>
       </c>
       <c r="B52" t="str">
         <v>FIDE</v>
       </c>
       <c r="C52" t="str">
-        <v>1121</v>
+        <v>1372</v>
       </c>
       <c r="D52" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E52" t="str">
         <v>255</v>
       </c>
       <c r="F52" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G52" t="str">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H52" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I52" t="str">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2620,12 +2620,12 @@
         <v>9999</v>
       </c>
       <c r="R52" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>67998</v>
+        <v>67958</v>
       </c>
       <c r="B53" t="str">
         <v>FIDE</v>
@@ -2634,22 +2634,22 @@
         <v>1372</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E53" t="str">
         <v>255</v>
       </c>
       <c r="F53" t="str">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G53" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H53" t="str">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I53" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2676,36 +2676,36 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67944</v>
+        <v>67770</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>664</v>
+        <v>1144</v>
       </c>
       <c r="D54" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E54" t="str">
         <v>1</v>
       </c>
       <c r="F54" t="str">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="G54" t="str">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="H54" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I54" t="str">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="J54" t="str">
         <v>9999</v>
@@ -2732,36 +2732,36 @@
         <v>9999</v>
       </c>
       <c r="R54" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67784</v>
+        <v>67808</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>1353</v>
+        <v>877</v>
       </c>
       <c r="D55" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E55" t="str">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="F55" t="str">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G55" t="str">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="H55" t="str">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I55" t="str">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2788,33 +2788,33 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67902</v>
+        <v>67826</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
       </c>
       <c r="C56" t="str">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="D56" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E56" t="str">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F56" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G56" t="str">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H56" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I56" t="str">
         <v>0</v>
@@ -2844,36 +2844,36 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>67920</v>
+        <v>67876</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>1120</v>
+        <v>1342</v>
       </c>
       <c r="D57" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E57" t="str">
+        <v>222</v>
+      </c>
+      <c r="F57" t="str">
         <v>254</v>
       </c>
-      <c r="F57" t="str">
-        <v>213</v>
-      </c>
       <c r="G57" t="str">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H57" t="str">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="I57" t="str">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J57" t="str">
         <v>9999</v>
@@ -2900,36 +2900,36 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>67922</v>
+        <v>67908</v>
       </c>
       <c r="B58" t="str">
         <v>FIDE</v>
       </c>
       <c r="C58" t="str">
-        <v>1372</v>
+        <v>656</v>
       </c>
       <c r="D58" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E58" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" t="str">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G58" t="str">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H58" t="str">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I58" t="str">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2956,36 +2956,36 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>67822</v>
+        <v>88264</v>
       </c>
       <c r="B59" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C59" t="str">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D59" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E59" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F59" t="str">
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H59" t="str">
         <v>1</v>
       </c>
       <c r="I59" t="str">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -3012,36 +3012,36 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>67842</v>
+        <v>67750</v>
       </c>
       <c r="B60" t="str">
         <v>FIDE</v>
       </c>
       <c r="C60" t="str">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="D60" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E60" t="str">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="F60" t="str">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="G60" t="str">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H60" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I60" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -3068,33 +3068,33 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67952</v>
+        <v>67782</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E61" t="str">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="F61" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G61" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="H61" t="str">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="I61" t="str">
         <v>0</v>
@@ -3124,48 +3124,48 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>69084</v>
+        <v>67854</v>
       </c>
       <c r="B62" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C62" t="str">
-        <v>2260</v>
+        <v>1090</v>
       </c>
       <c r="D62" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E62" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F62" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G62" t="str">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="H62" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I62" t="str">
-        <v>9999</v>
+        <v>195</v>
       </c>
       <c r="J62" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K62" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L62" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M62" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N62" t="str">
         <v>9999</v>
@@ -3177,21 +3177,21 @@
         <v>9999</v>
       </c>
       <c r="Q62" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>69090</v>
+        <v>67998</v>
       </c>
       <c r="B63" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C63" t="str">
-        <v>2260</v>
+        <v>1372</v>
       </c>
       <c r="D63" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -3200,28 +3200,28 @@
         <v>255</v>
       </c>
       <c r="F63" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G63" t="str">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="H63" t="str">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I63" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="J63" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K63" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L63" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M63" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N63" t="str">
         <v>9999</v>
@@ -3233,39 +3233,39 @@
         <v>9999</v>
       </c>
       <c r="Q63" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67766</v>
+        <v>88258</v>
       </c>
       <c r="B64" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C64" t="str">
-        <v>1143</v>
+        <v>1120</v>
       </c>
       <c r="D64" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E64" t="str">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F64" t="str">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G64" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H64" t="str">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="I64" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J64" t="str">
         <v>9999</v>
@@ -3292,18 +3292,18 @@
         <v>9999</v>
       </c>
       <c r="R64" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>67776</v>
+        <v>67778</v>
       </c>
       <c r="B65" t="str">
         <v>FIDE</v>
       </c>
       <c r="C65" t="str">
-        <v>1143</v>
+        <v>942</v>
       </c>
       <c r="D65" t="str">
         <v>2019-08-07 15:36:05.655</v>
@@ -3312,16 +3312,16 @@
         <v>266</v>
       </c>
       <c r="F65" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G65" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H65" t="str">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I65" t="str">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J65" t="str">
         <v>9999</v>
@@ -3348,37 +3348,37 @@
         <v>9999</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>67840</v>
+        <v>67948</v>
       </c>
       <c r="B66" t="str">
         <v>FIDE</v>
       </c>
       <c r="C66" t="str">
-        <v>1088</v>
+        <v>1373</v>
       </c>
       <c r="D66" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E66" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F66" t="str">
+        <v>212</v>
+      </c>
+      <c r="G66" t="str">
+        <v>198</v>
+      </c>
+      <c r="H66" t="str">
+        <v>203</v>
+      </c>
+      <c r="I66" t="str">
         <v>253</v>
       </c>
-      <c r="G66" t="str">
-        <v>207</v>
-      </c>
-      <c r="H66" t="str">
-        <v>196</v>
-      </c>
-      <c r="I66" t="str">
-        <v>210</v>
-      </c>
       <c r="J66" t="str">
         <v>9999</v>
       </c>
@@ -3404,36 +3404,36 @@
         <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>68006</v>
+        <v>67904</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="D67" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E67" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F67" t="str">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="G67" t="str">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="H67" t="str">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="I67" t="str">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3460,36 +3460,36 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67900</v>
+        <v>67774</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E68" t="str">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F68" t="str">
         <v>0</v>
       </c>
       <c r="G68" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H68" t="str">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="I68" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J68" t="str">
         <v>9999</v>
@@ -3516,37 +3516,37 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>67956</v>
+        <v>67916</v>
       </c>
       <c r="B69" t="str">
         <v>FIDE</v>
       </c>
       <c r="C69" t="str">
-        <v>1120</v>
+        <v>1374</v>
       </c>
       <c r="D69" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E69" t="str">
+        <v>255</v>
+      </c>
+      <c r="F69" t="str">
+        <v>213</v>
+      </c>
+      <c r="G69" t="str">
+        <v>197</v>
+      </c>
+      <c r="H69" t="str">
+        <v>203</v>
+      </c>
+      <c r="I69" t="str">
         <v>254</v>
       </c>
-      <c r="F69" t="str">
-        <v>212</v>
-      </c>
-      <c r="G69" t="str">
-        <v>198</v>
-      </c>
-      <c r="H69" t="str">
-        <v>202</v>
-      </c>
-      <c r="I69" t="str">
-        <v>1</v>
-      </c>
       <c r="J69" t="str">
         <v>9999</v>
       </c>
@@ -3572,36 +3572,36 @@
         <v>9999</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>88260</v>
+        <v>67952</v>
       </c>
       <c r="B70" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C70" t="str">
-        <v>1120</v>
+        <v>867</v>
       </c>
       <c r="D70" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E70" t="str">
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G70" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H70" t="str">
         <v>190</v>
       </c>
       <c r="I70" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="J70" t="str">
         <v>9999</v>
@@ -3628,48 +3628,48 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>69082</v>
+        <v>68014</v>
       </c>
       <c r="B71" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C71" t="str">
-        <v>2260</v>
+        <v>867</v>
       </c>
       <c r="D71" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E71" t="str">
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
         <v>256</v>
-      </c>
-      <c r="F71" t="str">
-        <v>0</v>
       </c>
       <c r="G71" t="str">
         <v>225</v>
       </c>
       <c r="H71" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I71" t="str">
-        <v>9999</v>
+        <v>197</v>
       </c>
       <c r="J71" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K71" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L71" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M71" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N71" t="str">
         <v>9999</v>
@@ -3681,39 +3681,39 @@
         <v>9999</v>
       </c>
       <c r="Q71" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67744</v>
+        <v>67760</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>1143</v>
+        <v>1353</v>
       </c>
       <c r="D72" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E72" t="str">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F72" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G72" t="str">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H72" t="str">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="I72" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J72" t="str">
         <v>9999</v>
@@ -3740,37 +3740,37 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>67834</v>
+        <v>67792</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>1088</v>
+        <v>1145</v>
       </c>
       <c r="D73" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E73" t="str">
+        <v>268</v>
+      </c>
+      <c r="F73" t="str">
         <v>222</v>
       </c>
-      <c r="F73" t="str">
-        <v>252</v>
-      </c>
       <c r="G73" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="H73" t="str">
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
         <v>207</v>
       </c>
-      <c r="I73" t="str">
-        <v>195</v>
-      </c>
       <c r="J73" t="str">
         <v>9999</v>
       </c>
@@ -3796,18 +3796,18 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67864</v>
+        <v>67848</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D74" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -3816,16 +3816,16 @@
         <v>222</v>
       </c>
       <c r="F74" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" t="str">
         <v>206</v>
       </c>
       <c r="H74" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I74" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J74" t="str">
         <v>9999</v>
@@ -3852,37 +3852,37 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67906</v>
+        <v>67866</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="D75" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E75" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F75" t="str">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G75" t="str">
+        <v>206</v>
+      </c>
+      <c r="H75" t="str">
+        <v>1</v>
+      </c>
+      <c r="I75" t="str">
         <v>195</v>
       </c>
-      <c r="H75" t="str">
-        <v>2</v>
-      </c>
-      <c r="I75" t="str">
-        <v>203</v>
-      </c>
       <c r="J75" t="str">
         <v>9999</v>
       </c>
@@ -3908,36 +3908,36 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>67798</v>
+        <v>67978</v>
       </c>
       <c r="B76" t="str">
         <v>FIDE</v>
       </c>
       <c r="C76" t="str">
-        <v>1343</v>
+        <v>1121</v>
       </c>
       <c r="D76" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E76" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F76" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="G76" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H76" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I76" t="str">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J76" t="str">
         <v>9999</v>
@@ -3964,36 +3964,36 @@
         <v>9999</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>67912</v>
+        <v>68006</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
       </c>
       <c r="C77" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D77" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E77" t="str">
         <v>255</v>
       </c>
       <c r="F77" t="str">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G77" t="str">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="H77" t="str">
         <v>189</v>
       </c>
       <c r="I77" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -4020,36 +4020,36 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>67996</v>
+        <v>88262</v>
       </c>
       <c r="B78" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C78" t="str">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="D78" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E78" t="str">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="F78" t="str">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G78" t="str">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="H78" t="str">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I78" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J78" t="str">
         <v>9999</v>
@@ -4076,36 +4076,36 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67800</v>
+        <v>67764</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1088</v>
+        <v>1353</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E79" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F79" t="str">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G79" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="H79" t="str">
         <v>195</v>
       </c>
       <c r="I79" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J79" t="str">
         <v>9999</v>
@@ -4132,48 +4132,48 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>67862</v>
+        <v>69076</v>
       </c>
       <c r="B80" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C80" t="str">
-        <v>682</v>
+        <v>2830</v>
       </c>
       <c r="D80" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E80" t="str">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F80" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G80" t="str">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="H80" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I80" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J80" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K80" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L80" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M80" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N80" t="str">
         <v>9999</v>
@@ -4185,39 +4185,39 @@
         <v>9999</v>
       </c>
       <c r="Q80" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67876</v>
+        <v>67920</v>
       </c>
       <c r="B81" t="str">
         <v>FIDE</v>
       </c>
       <c r="C81" t="str">
-        <v>1342</v>
+        <v>1120</v>
       </c>
       <c r="D81" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E81" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F81" t="str">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G81" t="str">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H81" t="str">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="I81" t="str">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J81" t="str">
         <v>9999</v>
@@ -4244,33 +4244,33 @@
         <v>9999</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67986</v>
+        <v>67922</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D82" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E82" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F82" t="str">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G82" t="str">
         <v>191</v>
       </c>
       <c r="H82" t="str">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I82" t="str">
         <v>253</v>
@@ -4300,36 +4300,36 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67778</v>
+        <v>67942</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
       </c>
       <c r="C83" t="str">
-        <v>942</v>
+        <v>1373</v>
       </c>
       <c r="D83" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E83" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F83" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G83" t="str">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H83" t="str">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="I83" t="str">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="J83" t="str">
         <v>9999</v>
@@ -4356,48 +4356,48 @@
         <v>9999</v>
       </c>
       <c r="R83" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>67794</v>
+        <v>69090</v>
       </c>
       <c r="B84" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C84" t="str">
-        <v>681</v>
+        <v>2260</v>
       </c>
       <c r="D84" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E84" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F84" t="str">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <v>225</v>
+      </c>
+      <c r="H84" t="str">
+        <v>190</v>
+      </c>
+      <c r="I84" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J84" t="str">
         <v>252</v>
       </c>
-      <c r="G84" t="str">
+      <c r="K84" t="str">
+        <v>252</v>
+      </c>
+      <c r="L84" t="str">
         <v>1</v>
       </c>
-      <c r="H84" t="str">
-        <v>0</v>
-      </c>
-      <c r="I84" t="str">
-        <v>207</v>
-      </c>
-      <c r="J84" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K84" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L84" t="str">
-        <v>9999</v>
-      </c>
       <c r="M84" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N84" t="str">
         <v>9999</v>
@@ -4409,39 +4409,39 @@
         <v>9999</v>
       </c>
       <c r="Q84" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>67808</v>
+        <v>67842</v>
       </c>
       <c r="B85" t="str">
         <v>FIDE</v>
       </c>
       <c r="C85" t="str">
-        <v>877</v>
+        <v>1342</v>
       </c>
       <c r="D85" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E85" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F85" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G85" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H85" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I85" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J85" t="str">
         <v>9999</v>
@@ -4468,36 +4468,36 @@
         <v>9999</v>
       </c>
       <c r="R85" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67964</v>
+        <v>67804</v>
       </c>
       <c r="B86" t="str">
         <v>FIDE</v>
       </c>
       <c r="C86" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E86" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F86" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G86" t="str">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="H86" t="str">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I86" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J86" t="str">
         <v>9999</v>
@@ -4524,36 +4524,36 @@
         <v>9999</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67758</v>
+        <v>67844</v>
       </c>
       <c r="B87" t="str">
         <v>FIDE</v>
       </c>
       <c r="C87" t="str">
-        <v>1343</v>
+        <v>1089</v>
       </c>
       <c r="D87" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E87" t="str">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F87" t="str">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G87" t="str">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H87" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="I87" t="str">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J87" t="str">
         <v>9999</v>
@@ -4580,33 +4580,33 @@
         <v>9999</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>67752</v>
+        <v>67858</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="D88" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E88" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F88" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G88" t="str">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="H88" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I88" t="str">
         <v>210</v>
@@ -4636,36 +4636,36 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>67890</v>
+        <v>67906</v>
       </c>
       <c r="B89" t="str">
         <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>1088</v>
+        <v>1121</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E89" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F89" t="str">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G89" t="str">
+        <v>195</v>
+      </c>
+      <c r="H89" t="str">
         <v>2</v>
       </c>
-      <c r="H89" t="str">
-        <v>213</v>
-      </c>
       <c r="I89" t="str">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="J89" t="str">
         <v>9999</v>
@@ -4692,18 +4692,18 @@
         <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67970</v>
+        <v>67968</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>1372</v>
+        <v>867</v>
       </c>
       <c r="D90" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -4712,16 +4712,16 @@
         <v>255</v>
       </c>
       <c r="F90" t="str">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G90" t="str">
         <v>191</v>
       </c>
       <c r="H90" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I90" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J90" t="str">
         <v>9999</v>
@@ -4748,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67826</v>
+        <v>67990</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>877</v>
+        <v>1372</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E91" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F91" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G91" t="str">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H91" t="str">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="I91" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4804,36 +4804,36 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67884</v>
+        <v>67994</v>
       </c>
       <c r="B92" t="str">
         <v>FIDE</v>
       </c>
       <c r="C92" t="str">
-        <v>1343</v>
+        <v>1120</v>
       </c>
       <c r="D92" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E92" t="str">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F92" t="str">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="G92" t="str">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H92" t="str">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="I92" t="str">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="J92" t="str">
         <v>9999</v>
@@ -4860,36 +4860,36 @@
         <v>9999</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67934</v>
+        <v>67768</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="D93" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E93" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F93" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G93" t="str">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="H93" t="str">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I93" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4916,36 +4916,36 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>68002</v>
+        <v>67800</v>
       </c>
       <c r="B94" t="str">
         <v>FIDE</v>
       </c>
       <c r="C94" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D94" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E94" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F94" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G94" t="str">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H94" t="str">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I94" t="str">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J94" t="str">
         <v>9999</v>
@@ -4972,48 +4972,48 @@
         <v>9999</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>67926</v>
+        <v>69080</v>
       </c>
       <c r="B95" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C95" t="str">
-        <v>1371</v>
+        <v>2830</v>
       </c>
       <c r="D95" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E95" t="str">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F95" t="str">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G95" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H95" t="str">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I95" t="str">
-        <v>254</v>
+        <v>9999</v>
       </c>
       <c r="J95" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K95" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L95" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M95" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N95" t="str">
         <v>9999</v>
@@ -5025,39 +5025,39 @@
         <v>9999</v>
       </c>
       <c r="Q95" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>67954</v>
+        <v>67756</v>
       </c>
       <c r="B96" t="str">
         <v>FIDE</v>
       </c>
       <c r="C96" t="str">
-        <v>866</v>
+        <v>933</v>
       </c>
       <c r="D96" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E96" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G96" t="str">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="H96" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I96" t="str">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="J96" t="str">
         <v>9999</v>
@@ -5084,36 +5084,36 @@
         <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67774</v>
+        <v>67888</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>1143</v>
+        <v>1088</v>
       </c>
       <c r="D97" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E97" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F97" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G97" t="str">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H97" t="str">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="I97" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -5140,36 +5140,36 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>67780</v>
+        <v>67966</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D98" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E98" t="str">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F98" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G98" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="H98" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I98" t="str">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="J98" t="str">
         <v>9999</v>
@@ -5196,48 +5196,48 @@
         <v>9999</v>
       </c>
       <c r="R98" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>67858</v>
+        <v>69084</v>
       </c>
       <c r="B99" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C99" t="str">
-        <v>1343</v>
+        <v>2260</v>
       </c>
       <c r="D99" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E99" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F99" t="str">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G99" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H99" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I99" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J99" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K99" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L99" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M99" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N99" t="str">
         <v>9999</v>
@@ -5249,51 +5249,51 @@
         <v>9999</v>
       </c>
       <c r="Q99" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>67908</v>
+        <v>69088</v>
       </c>
       <c r="B100" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C100" t="str">
-        <v>656</v>
+        <v>2258</v>
       </c>
       <c r="D100" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E100" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F100" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G100" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H100" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="I100" t="str">
-        <v>188</v>
+        <v>9999</v>
       </c>
       <c r="J100" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="K100" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L100" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M100" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N100" t="str">
         <v>9999</v>
@@ -5305,39 +5305,39 @@
         <v>9999</v>
       </c>
       <c r="Q100" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67850</v>
+        <v>67748</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>1342</v>
+        <v>933</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E101" t="str">
+        <v>266</v>
+      </c>
+      <c r="F101" t="str">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
         <v>222</v>
       </c>
-      <c r="F101" t="str">
-        <v>253</v>
-      </c>
-      <c r="G101" t="str">
-        <v>207</v>
-      </c>
       <c r="H101" t="str">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="I101" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J101" t="str">
         <v>9999</v>
@@ -5364,36 +5364,36 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67854</v>
+        <v>67796</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>1090</v>
+        <v>675</v>
       </c>
       <c r="D102" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E102" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F102" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G102" t="str">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="H102" t="str">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I102" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J102" t="str">
         <v>9999</v>
@@ -5420,18 +5420,18 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>67860</v>
+        <v>67862</v>
       </c>
       <c r="B103" t="str">
         <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>879</v>
+        <v>682</v>
       </c>
       <c r="D103" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5440,17 +5440,17 @@
         <v>222</v>
       </c>
       <c r="F103" t="str">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
         <v>254</v>
       </c>
-      <c r="G103" t="str">
+      <c r="H103" t="str">
+        <v>206</v>
+      </c>
+      <c r="I103" t="str">
         <v>0</v>
       </c>
-      <c r="H103" t="str">
-        <v>207</v>
-      </c>
-      <c r="I103" t="str">
-        <v>196</v>
-      </c>
       <c r="J103" t="str">
         <v>9999</v>
       </c>
@@ -5476,48 +5476,48 @@
         <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>69088</v>
+        <v>67880</v>
       </c>
       <c r="B104" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C104" t="str">
-        <v>2258</v>
+        <v>878</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E104" t="str">
+        <v>222</v>
+      </c>
+      <c r="F104" t="str">
         <v>1</v>
       </c>
-      <c r="F104" t="str">
-        <v>0</v>
-      </c>
       <c r="G104" t="str">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H104" t="str">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I104" t="str">
-        <v>9999</v>
+        <v>191</v>
       </c>
       <c r="J104" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K104" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L104" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M104" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N104" t="str">
         <v>9999</v>
@@ -5529,39 +5529,39 @@
         <v>9999</v>
       </c>
       <c r="Q104" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>68010</v>
+        <v>67884</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="D105" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E105" t="str">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F105" t="str">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G105" t="str">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="H105" t="str">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I105" t="str">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="J105" t="str">
         <v>9999</v>
@@ -5588,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>67748</v>
+        <v>67950</v>
       </c>
       <c r="B106" t="str">
         <v>FIDE</v>
       </c>
       <c r="C106" t="str">
-        <v>933</v>
+        <v>1121</v>
       </c>
       <c r="D106" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E106" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F106" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H106" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="I106" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5644,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67788</v>
+        <v>67974</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>947</v>
+        <v>1120</v>
       </c>
       <c r="D107" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E107" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F107" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G107" t="str">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H107" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I107" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5700,36 +5700,36 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>67806</v>
+        <v>68004</v>
       </c>
       <c r="B108" t="str">
         <v>FIDE</v>
       </c>
       <c r="C108" t="str">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E108" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F108" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G108" t="str">
+        <v>4</v>
+      </c>
+      <c r="H108" t="str">
         <v>0</v>
       </c>
-      <c r="H108" t="str">
-        <v>252</v>
-      </c>
       <c r="I108" t="str">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J108" t="str">
         <v>9999</v>
@@ -5756,36 +5756,36 @@
         <v>9999</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67966</v>
+        <v>67784</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E109" t="str">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F109" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G109" t="str">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="H109" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I109" t="str">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="J109" t="str">
         <v>9999</v>
@@ -5812,36 +5812,36 @@
         <v>9999</v>
       </c>
       <c r="R109" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>68004</v>
+        <v>67964</v>
       </c>
       <c r="B110" t="str">
         <v>FIDE</v>
       </c>
       <c r="C110" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D110" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E110" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F110" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G110" t="str">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="H110" t="str">
         <v>0</v>
       </c>
       <c r="I110" t="str">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J110" t="str">
         <v>9999</v>
@@ -5868,37 +5868,37 @@
         <v>9999</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67830</v>
+        <v>67918</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>1342</v>
+        <v>1121</v>
       </c>
       <c r="D111" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E111" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F111" t="str">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G111" t="str">
+        <v>191</v>
+      </c>
+      <c r="H111" t="str">
+        <v>0</v>
+      </c>
+      <c r="I111" t="str">
         <v>208</v>
       </c>
-      <c r="H111" t="str">
-        <v>195</v>
-      </c>
-      <c r="I111" t="str">
-        <v>211</v>
-      </c>
       <c r="J111" t="str">
         <v>9999</v>
       </c>
@@ -5924,33 +5924,33 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>67888</v>
+        <v>67802</v>
       </c>
       <c r="B112" t="str">
         <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D112" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E112" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F112" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G112" t="str">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H112" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I112" t="str">
         <v>210</v>
@@ -5980,36 +5980,36 @@
         <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>67918</v>
+        <v>67812</v>
       </c>
       <c r="B113" t="str">
         <v>FIDE</v>
       </c>
       <c r="C113" t="str">
-        <v>1121</v>
+        <v>877</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E113" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F113" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G113" t="str">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H113" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="str">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J113" t="str">
         <v>9999</v>
@@ -6036,36 +6036,36 @@
         <v>9999</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67940</v>
+        <v>67824</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
       </c>
       <c r="C114" t="str">
-        <v>1371</v>
+        <v>876</v>
       </c>
       <c r="D114" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E114" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G114" t="str">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="H114" t="str">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I114" t="str">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="J114" t="str">
         <v>9999</v>
@@ -6092,18 +6092,18 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>67846</v>
+        <v>67856</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
       </c>
       <c r="C115" t="str">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D115" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -6118,10 +6118,10 @@
         <v>207</v>
       </c>
       <c r="H115" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I115" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -6148,36 +6148,36 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>67892</v>
+        <v>67924</v>
       </c>
       <c r="B116" t="str">
         <v>FIDE</v>
       </c>
       <c r="C116" t="str">
-        <v>1342</v>
+        <v>867</v>
       </c>
       <c r="D116" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E116" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F116" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G116" t="str">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="H116" t="str">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I116" t="str">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J116" t="str">
         <v>9999</v>
@@ -6204,48 +6204,48 @@
         <v>9999</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>67942</v>
+        <v>69078</v>
       </c>
       <c r="B117" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C117" t="str">
-        <v>1373</v>
+        <v>1978</v>
       </c>
       <c r="D117" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E117" t="str">
+        <v>256</v>
+      </c>
+      <c r="F117" t="str">
+        <v>225</v>
+      </c>
+      <c r="G117" t="str">
+        <v>190</v>
+      </c>
+      <c r="H117" t="str">
+        <v>197</v>
+      </c>
+      <c r="I117" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J117" t="str">
         <v>255</v>
       </c>
-      <c r="F117" t="str">
-        <v>212</v>
-      </c>
-      <c r="G117" t="str">
-        <v>197</v>
-      </c>
-      <c r="H117" t="str">
-        <v>203</v>
-      </c>
-      <c r="I117" t="str">
-        <v>254</v>
-      </c>
-      <c r="J117" t="str">
-        <v>9999</v>
-      </c>
       <c r="K117" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L117" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M117" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N117" t="str">
         <v>9999</v>
@@ -6257,39 +6257,39 @@
         <v>9999</v>
       </c>
       <c r="Q117" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>88262</v>
+        <v>67776</v>
       </c>
       <c r="B118" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C118" t="str">
-        <v>1371</v>
+        <v>1143</v>
       </c>
       <c r="D118" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E118" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F118" t="str">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G118" t="str">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="H118" t="str">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="I118" t="str">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="J118" t="str">
         <v>9999</v>
@@ -6316,37 +6316,37 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>67756</v>
+        <v>67928</v>
       </c>
       <c r="B119" t="str">
         <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E119" t="str">
+        <v>255</v>
+      </c>
+      <c r="F119" t="str">
+        <v>213</v>
+      </c>
+      <c r="G119" t="str">
+        <v>196</v>
+      </c>
+      <c r="H119" t="str">
+        <v>1</v>
+      </c>
+      <c r="I119" t="str">
         <v>0</v>
       </c>
-      <c r="F119" t="str">
-        <v>0</v>
-      </c>
-      <c r="G119" t="str">
-        <v>266</v>
-      </c>
-      <c r="H119" t="str">
-        <v>222</v>
-      </c>
-      <c r="I119" t="str">
-        <v>251</v>
-      </c>
       <c r="J119" t="str">
         <v>9999</v>
       </c>
@@ -6372,18 +6372,18 @@
         <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>67904</v>
+        <v>67926</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D120" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -6395,10 +6395,10 @@
         <v>213</v>
       </c>
       <c r="G120" t="str">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H120" t="str">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I120" t="str">
         <v>254</v>
@@ -6428,36 +6428,36 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67930</v>
+        <v>67936</v>
       </c>
       <c r="B121" t="str">
         <v>FIDE</v>
       </c>
       <c r="C121" t="str">
-        <v>664</v>
+        <v>867</v>
       </c>
       <c r="D121" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E121" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G121" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="H121" t="str">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I121" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J121" t="str">
         <v>9999</v>
@@ -6484,18 +6484,18 @@
         <v>9999</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>67984</v>
+        <v>68000</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>1120</v>
+        <v>868</v>
       </c>
       <c r="D122" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -6507,13 +6507,13 @@
         <v>219</v>
       </c>
       <c r="G122" t="str">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H122" t="str">
         <v>0</v>
       </c>
       <c r="I122" t="str">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J122" t="str">
         <v>9999</v>
@@ -6540,36 +6540,36 @@
         <v>9999</v>
       </c>
       <c r="R122" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67750</v>
+        <v>67838</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>1354</v>
+        <v>1088</v>
       </c>
       <c r="D123" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E123" t="str">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="F123" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G123" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="H123" t="str">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I123" t="str">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J123" t="str">
         <v>9999</v>
@@ -6596,18 +6596,18 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>67838</v>
+        <v>67794</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>1088</v>
+        <v>681</v>
       </c>
       <c r="D124" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -6616,16 +6616,16 @@
         <v>221</v>
       </c>
       <c r="F124" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G124" t="str">
         <v>1</v>
       </c>
       <c r="H124" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="I124" t="str">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J124" t="str">
         <v>9999</v>
@@ -6652,36 +6652,36 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>67928</v>
+        <v>67806</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D125" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E125" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F125" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G125" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H125" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="I125" t="str">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J125" t="str">
         <v>9999</v>
@@ -6708,36 +6708,36 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>67972</v>
+        <v>67834</v>
       </c>
       <c r="B126" t="str">
         <v>FIDE</v>
       </c>
       <c r="C126" t="str">
-        <v>664</v>
+        <v>1088</v>
       </c>
       <c r="D126" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E126" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F126" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G126" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I126" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J126" t="str">
         <v>9999</v>
@@ -6764,37 +6764,37 @@
         <v>9999</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67818</v>
+        <v>67910</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>1147</v>
+        <v>1372</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E127" t="str">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F127" t="str">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G127" t="str">
+        <v>190</v>
+      </c>
+      <c r="H127" t="str">
+        <v>209</v>
+      </c>
+      <c r="I127" t="str">
         <v>254</v>
       </c>
-      <c r="H127" t="str">
-        <v>206</v>
-      </c>
-      <c r="I127" t="str">
-        <v>195</v>
-      </c>
       <c r="J127" t="str">
         <v>9999</v>
       </c>
@@ -6820,37 +6820,37 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>67958</v>
+        <v>67852</v>
       </c>
       <c r="B128" t="str">
         <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>1372</v>
+        <v>981</v>
       </c>
       <c r="D128" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E128" t="str">
+        <v>272</v>
+      </c>
+      <c r="F128" t="str">
+        <v>1</v>
+      </c>
+      <c r="G128" t="str">
+        <v>1</v>
+      </c>
+      <c r="H128" t="str">
+        <v>228</v>
+      </c>
+      <c r="I128" t="str">
         <v>255</v>
       </c>
-      <c r="F128" t="str">
-        <v>213</v>
-      </c>
-      <c r="G128" t="str">
-        <v>196</v>
-      </c>
-      <c r="H128" t="str">
-        <v>202</v>
-      </c>
-      <c r="I128" t="str">
-        <v>254</v>
-      </c>
       <c r="J128" t="str">
         <v>9999</v>
       </c>
@@ -6876,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67988</v>
+        <v>67818</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>1371</v>
+        <v>1147</v>
       </c>
       <c r="D129" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E129" t="str">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F129" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G129" t="str">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="H129" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I129" t="str">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6932,36 +6932,36 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>68000</v>
+        <v>67840</v>
       </c>
       <c r="B130" t="str">
         <v>FIDE</v>
       </c>
       <c r="C130" t="str">
-        <v>868</v>
+        <v>1088</v>
       </c>
       <c r="D130" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E130" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F130" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G130" t="str">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H130" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I130" t="str">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J130" t="str">
         <v>9999</v>
@@ -6988,48 +6988,48 @@
         <v>9999</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>69074</v>
+        <v>67870</v>
       </c>
       <c r="B131" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C131" t="str">
-        <v>2253</v>
+        <v>1088</v>
       </c>
       <c r="D131" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E131" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F131" t="str">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G131" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H131" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I131" t="str">
-        <v>9999</v>
+        <v>196</v>
       </c>
       <c r="J131" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K131" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L131" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M131" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N131" t="str">
         <v>9999</v>
@@ -7041,39 +7041,39 @@
         <v>9999</v>
       </c>
       <c r="Q131" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>88264</v>
+        <v>67976</v>
       </c>
       <c r="B132" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C132" t="str">
-        <v>867</v>
+        <v>1347</v>
       </c>
       <c r="D132" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E132" t="str">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F132" t="str">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G132" t="str">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H132" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I132" t="str">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J132" t="str">
         <v>9999</v>
@@ -7100,36 +7100,36 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67786</v>
+        <v>67982</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="D133" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E133" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="F133" t="str">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="G133" t="str">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="H133" t="str">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="I133" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J133" t="str">
         <v>9999</v>
@@ -7156,48 +7156,48 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>69076</v>
+        <v>67788</v>
       </c>
       <c r="B134" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C134" t="str">
-        <v>2830</v>
+        <v>947</v>
       </c>
       <c r="D134" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E134" t="str">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F134" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G134" t="str">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H134" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I134" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J134" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K134" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L134" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M134" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N134" t="str">
         <v>9999</v>
@@ -7209,39 +7209,39 @@
         <v>9999</v>
       </c>
       <c r="Q134" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67950</v>
+        <v>67872</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="D135" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E135" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G135" t="str">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="H135" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I135" t="str">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J135" t="str">
         <v>9999</v>
@@ -7268,37 +7268,37 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67980</v>
+        <v>67954</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D136" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E136" t="str">
         <v>255</v>
       </c>
       <c r="F136" t="str">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G136" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H136" t="str">
+        <v>0</v>
+      </c>
+      <c r="I136" t="str">
         <v>190</v>
       </c>
-      <c r="I136" t="str">
-        <v>2</v>
-      </c>
       <c r="J136" t="str">
         <v>9999</v>
       </c>
@@ -7324,36 +7324,36 @@
         <v>9999</v>
       </c>
       <c r="R136" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67874</v>
+        <v>67766</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1089</v>
+        <v>1143</v>
       </c>
       <c r="D137" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E137" t="str">
+        <v>266</v>
+      </c>
+      <c r="F137" t="str">
         <v>222</v>
       </c>
-      <c r="F137" t="str">
-        <v>254</v>
-      </c>
       <c r="G137" t="str">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="H137" t="str">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="I137" t="str">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7380,36 +7380,36 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>67898</v>
+        <v>67814</v>
       </c>
       <c r="B138" t="str">
         <v>FIDE</v>
       </c>
       <c r="C138" t="str">
-        <v>1122</v>
+        <v>1087</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E138" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F138" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G138" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H138" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I138" t="str">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J138" t="str">
         <v>9999</v>
@@ -7436,37 +7436,37 @@
         <v>9999</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>67760</v>
+        <v>67874</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>1353</v>
+        <v>1089</v>
       </c>
       <c r="D139" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E139" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F139" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G139" t="str">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="H139" t="str">
+        <v>2</v>
+      </c>
+      <c r="I139" t="str">
         <v>194</v>
       </c>
-      <c r="I139" t="str">
-        <v>210</v>
-      </c>
       <c r="J139" t="str">
         <v>9999</v>
       </c>
@@ -7492,36 +7492,36 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67768</v>
+        <v>67898</v>
       </c>
       <c r="B140" t="str">
         <v>FIDE</v>
       </c>
       <c r="C140" t="str">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="D140" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E140" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F140" t="str">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G140" t="str">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="H140" t="str">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="I140" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="J140" t="str">
         <v>9999</v>
@@ -7548,36 +7548,36 @@
         <v>9999</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67796</v>
+        <v>67988</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>675</v>
+        <v>1371</v>
       </c>
       <c r="D141" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E141" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F141" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G141" t="str">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="H141" t="str">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I141" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J141" t="str">
         <v>9999</v>
@@ -7604,36 +7604,36 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67868</v>
+        <v>67992</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
       </c>
       <c r="C142" t="str">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="D142" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E142" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F142" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G142" t="str">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H142" t="str">
         <v>195</v>
       </c>
       <c r="I142" t="str">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="J142" t="str">
         <v>9999</v>
@@ -7660,18 +7660,18 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>67880</v>
+        <v>67798</v>
       </c>
       <c r="B143" t="str">
         <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>878</v>
+        <v>1343</v>
       </c>
       <c r="D143" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7680,16 +7680,16 @@
         <v>222</v>
       </c>
       <c r="F143" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="G143" t="str">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="H143" t="str">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I143" t="str">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J143" t="str">
         <v>9999</v>
@@ -7716,36 +7716,36 @@
         <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>67852</v>
+        <v>68010</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>981</v>
+        <v>1372</v>
       </c>
       <c r="D144" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E144" t="str">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F144" t="str">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="G144" t="str">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="H144" t="str">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="I144" t="str">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7772,36 +7772,36 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>67828</v>
+        <v>68002</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="D145" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E145" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F145" t="str">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="G145" t="str">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H145" t="str">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="I145" t="str">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7828,36 +7828,36 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>67924</v>
+        <v>67894</v>
       </c>
       <c r="B146" t="str">
         <v>FIDE</v>
       </c>
       <c r="C146" t="str">
-        <v>867</v>
+        <v>981</v>
       </c>
       <c r="D146" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E146" t="str">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F146" t="str">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G146" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H146" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146" t="str">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="J146" t="str">
         <v>9999</v>
@@ -7884,36 +7884,36 @@
         <v>9999</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>67994</v>
+        <v>67822</v>
       </c>
       <c r="B147" t="str">
         <v>FIDE</v>
       </c>
       <c r="C147" t="str">
-        <v>1120</v>
+        <v>877</v>
       </c>
       <c r="D147" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E147" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F147" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G147" t="str">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="H147" t="str">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I147" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J147" t="str">
         <v>9999</v>
@@ -7940,36 +7940,36 @@
         <v>9999</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>67976</v>
+        <v>67850</v>
       </c>
       <c r="B148" t="str">
         <v>FIDE</v>
       </c>
       <c r="C148" t="str">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="D148" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E148" t="str">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F148" t="str">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G148" t="str">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H148" t="str">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I148" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J148" t="str">
         <v>9999</v>
@@ -7996,36 +7996,36 @@
         <v>9999</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67936</v>
+        <v>67868</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>867</v>
+        <v>1087</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E149" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F149" t="str">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G149" t="str">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H149" t="str">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I149" t="str">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="J149" t="str">
         <v>9999</v>
@@ -8052,36 +8052,36 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>67974</v>
+        <v>67890</v>
       </c>
       <c r="B150" t="str">
         <v>FIDE</v>
       </c>
       <c r="C150" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E150" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F150" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G150" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150" t="str">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="I150" t="str">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J150" t="str">
         <v>9999</v>
@@ -8108,12 +8108,12 @@
         <v>9999</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>68014</v>
+        <v>67980</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
@@ -8125,19 +8125,19 @@
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E151" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F151" t="str">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G151" t="str">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="H151" t="str">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I151" t="str">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -8164,36 +8164,36 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>67754</v>
+        <v>67786</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>1144</v>
+        <v>1365</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E152" t="str">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="F152" t="str">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="G152" t="str">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H152" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I152" t="str">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="J152" t="str">
         <v>9999</v>
@@ -8220,36 +8220,36 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>67816</v>
+        <v>67984</v>
       </c>
       <c r="B153" t="str">
         <v>FIDE</v>
       </c>
       <c r="C153" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D153" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E153" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F153" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G153" t="str">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H153" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I153" t="str">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J153" t="str">
         <v>9999</v>
@@ -8276,36 +8276,36 @@
         <v>9999</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>67856</v>
+        <v>67996</v>
       </c>
       <c r="B154" t="str">
         <v>FIDE</v>
       </c>
       <c r="C154" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D154" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E154" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F154" t="str">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G154" t="str">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H154" t="str">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I154" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J154" t="str">
         <v>9999</v>
@@ -8332,48 +8332,48 @@
         <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>67872</v>
+        <v>69074</v>
       </c>
       <c r="B155" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C155" t="str">
-        <v>1088</v>
+        <v>2253</v>
       </c>
       <c r="D155" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E155" t="str">
+        <v>255</v>
+      </c>
+      <c r="F155" t="str">
+        <v>226</v>
+      </c>
+      <c r="G155" t="str">
+        <v>190</v>
+      </c>
+      <c r="H155" t="str">
+        <v>197</v>
+      </c>
+      <c r="I155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J155" t="str">
+        <v>253</v>
+      </c>
+      <c r="K155" t="str">
+        <v>304</v>
+      </c>
+      <c r="L155" t="str">
         <v>0</v>
       </c>
-      <c r="F155" t="str">
-        <v>222</v>
-      </c>
-      <c r="G155" t="str">
-        <v>254</v>
-      </c>
-      <c r="H155" t="str">
-        <v>206</v>
-      </c>
-      <c r="I155" t="str">
-        <v>196</v>
-      </c>
-      <c r="J155" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K155" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L155" t="str">
-        <v>9999</v>
-      </c>
       <c r="M155" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N155" t="str">
         <v>9999</v>
@@ -8385,51 +8385,51 @@
         <v>9999</v>
       </c>
       <c r="Q155" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>69086</v>
+        <v>67772</v>
       </c>
       <c r="B156" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C156" t="str">
-        <v>2260</v>
+        <v>1353</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E156" t="str">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F156" t="str">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G156" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H156" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I156" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J156" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K156" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L156" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M156" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N156" t="str">
         <v>9999</v>
@@ -8441,39 +8441,39 @@
         <v>9999</v>
       </c>
       <c r="Q156" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67804</v>
+        <v>67938</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
       </c>
       <c r="C157" t="str">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="D157" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E157" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F157" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G157" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="H157" t="str">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I157" t="str">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J157" t="str">
         <v>9999</v>
@@ -8500,36 +8500,36 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>67836</v>
+        <v>67962</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D158" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E158" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F158" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G158" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="H158" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I158" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J158" t="str">
         <v>9999</v>
@@ -8556,36 +8556,36 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>67870</v>
+        <v>88260</v>
       </c>
       <c r="B159" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C159" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D159" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E159" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G159" t="str">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H159" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I159" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J159" t="str">
         <v>9999</v>
@@ -8612,36 +8612,36 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67882</v>
+        <v>67902</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
       </c>
       <c r="C160" t="str">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D160" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E160" t="str">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F160" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G160" t="str">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H160" t="str">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I160" t="str">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="J160" t="str">
         <v>9999</v>
@@ -8668,36 +8668,36 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67812</v>
+        <v>67940</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>877</v>
+        <v>1371</v>
       </c>
       <c r="D161" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E161" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F161" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G161" t="str">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="H161" t="str">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="I161" t="str">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8724,36 +8724,36 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>67832</v>
+        <v>67932</v>
       </c>
       <c r="B162" t="str">
         <v>FIDE</v>
       </c>
       <c r="C162" t="str">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="D162" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E162" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F162" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G162" t="str">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H162" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I162" t="str">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J162" t="str">
         <v>9999</v>
@@ -8780,18 +8780,18 @@
         <v>9999</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>67844</v>
+        <v>67816</v>
       </c>
       <c r="B163" t="str">
         <v>FIDE</v>
       </c>
       <c r="C163" t="str">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D163" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8800,16 +8800,16 @@
         <v>222</v>
       </c>
       <c r="F163" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G163" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H163" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I163" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J163" t="str">
         <v>9999</v>
@@ -8836,7 +8836,7 @@
         <v>9999</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="164">
@@ -8897,32 +8897,32 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67746</v>
+        <v>67956</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>932</v>
+        <v>1120</v>
       </c>
       <c r="D165" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E165" t="str">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F165" t="str">
+        <v>212</v>
+      </c>
+      <c r="G165" t="str">
+        <v>198</v>
+      </c>
+      <c r="H165" t="str">
+        <v>202</v>
+      </c>
+      <c r="I165" t="str">
         <v>1</v>
       </c>
-      <c r="G165" t="str">
-        <v>221</v>
-      </c>
-      <c r="H165" t="str">
-        <v>1</v>
-      </c>
-      <c r="I165" t="str">
-        <v>250</v>
-      </c>
       <c r="J165" t="str">
         <v>9999</v>
       </c>
@@ -8948,36 +8948,36 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>67782</v>
+        <v>68012</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>933</v>
+        <v>670</v>
       </c>
       <c r="D166" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E166" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F166" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G166" t="str">
+        <v>0</v>
+      </c>
+      <c r="H166" t="str">
         <v>1</v>
       </c>
-      <c r="H166" t="str">
-        <v>251</v>
-      </c>
       <c r="I166" t="str">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J166" t="str">
         <v>9999</v>
@@ -9004,48 +9004,48 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>67894</v>
+        <v>69082</v>
       </c>
       <c r="B167" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C167" t="str">
-        <v>981</v>
+        <v>2260</v>
       </c>
       <c r="D167" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E167" t="str">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F167" t="str">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="G167" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="H167" t="str">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="I167" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J167" t="str">
+        <v>253</v>
+      </c>
+      <c r="K167" t="str">
         <v>252</v>
       </c>
-      <c r="J167" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K167" t="str">
-        <v>9999</v>
-      </c>
       <c r="L167" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M167" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N167" t="str">
         <v>9999</v>
@@ -9057,21 +9057,21 @@
         <v>9999</v>
       </c>
       <c r="Q167" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>67814</v>
+        <v>67790</v>
       </c>
       <c r="B168" t="str">
         <v>FIDE</v>
       </c>
       <c r="C168" t="str">
-        <v>1087</v>
+        <v>1343</v>
       </c>
       <c r="D168" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -9080,16 +9080,16 @@
         <v>222</v>
       </c>
       <c r="F168" t="str">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G168" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H168" t="str">
         <v>196</v>
       </c>
       <c r="I168" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J168" t="str">
         <v>9999</v>
@@ -9116,7 +9116,7 @@
         <v>9999</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
   </sheetData>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -777,43 +777,43 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>67878</v>
+        <v>69082</v>
       </c>
       <c r="B20" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C20" t="str">
-        <v>1088</v>
+        <v>2260</v>
       </c>
       <c r="D20" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E20" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F20" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H20" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I20" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J20" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K20" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L20" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M20" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N20" t="str">
         <v>9999</v>
@@ -825,39 +825,39 @@
         <v>9999</v>
       </c>
       <c r="Q20" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R20" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67882</v>
+        <v>67786</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
       </c>
       <c r="C21" t="str">
-        <v>1088</v>
+        <v>1365</v>
       </c>
       <c r="D21" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E21" t="str">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="G21" t="str">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="H21" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="I21" t="str">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -884,33 +884,33 @@
         <v>9999</v>
       </c>
       <c r="R21" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>67892</v>
+        <v>67752</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
       </c>
       <c r="C22" t="str">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="D22" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E22" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F22" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="G22" t="str">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H22" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I22" t="str">
         <v>210</v>
@@ -940,36 +940,36 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67912</v>
+        <v>67830</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
       </c>
       <c r="C23" t="str">
-        <v>867</v>
+        <v>1342</v>
       </c>
       <c r="D23" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E23" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F23" t="str">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G23" t="str">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H23" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I23" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -996,48 +996,48 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>69086</v>
+        <v>67914</v>
       </c>
       <c r="B24" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C24" t="str">
-        <v>2260</v>
+        <v>1372</v>
       </c>
       <c r="D24" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E24" t="str">
         <v>255</v>
       </c>
       <c r="F24" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G24" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="H24" t="str">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="I24" t="str">
-        <v>9999</v>
+        <v>254</v>
       </c>
       <c r="J24" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K24" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L24" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M24" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N24" t="str">
         <v>9999</v>
@@ -1049,39 +1049,39 @@
         <v>9999</v>
       </c>
       <c r="Q24" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>67780</v>
+        <v>67954</v>
       </c>
       <c r="B25" t="str">
         <v>FIDE</v>
       </c>
       <c r="C25" t="str">
-        <v>1353</v>
+        <v>866</v>
       </c>
       <c r="D25" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E25" t="str">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F25" t="str">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G25" t="str">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="H25" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I25" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J25" t="str">
         <v>9999</v>
@@ -1108,36 +1108,36 @@
         <v>9999</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>67828</v>
+        <v>67994</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="D26" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E26" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F26" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G26" t="str">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H26" t="str">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="I26" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -1164,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>67914</v>
+        <v>67774</v>
       </c>
       <c r="B27" t="str">
         <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1372</v>
+        <v>1143</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E27" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F27" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="H27" t="str">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="I27" t="str">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -1220,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67972</v>
+        <v>67804</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>664</v>
+        <v>1088</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E28" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F28" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G28" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H28" t="str">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="I28" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -1276,36 +1276,36 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67762</v>
+        <v>67960</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="D29" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E29" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F29" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G29" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H29" t="str">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I29" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J29" t="str">
         <v>9999</v>
@@ -1332,36 +1332,36 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>67752</v>
+        <v>67966</v>
       </c>
       <c r="B30" t="str">
         <v>FIDE</v>
       </c>
       <c r="C30" t="str">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D30" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E30" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F30" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G30" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="H30" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I30" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J30" t="str">
         <v>9999</v>
@@ -1388,12 +1388,12 @@
         <v>9999</v>
       </c>
       <c r="R30" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67934</v>
+        <v>67974</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
@@ -1402,23 +1402,23 @@
         <v>1120</v>
       </c>
       <c r="D31" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E31" t="str">
         <v>255</v>
       </c>
       <c r="F31" t="str">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G31" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H31" t="str">
+        <v>190</v>
+      </c>
+      <c r="I31" t="str">
         <v>203</v>
       </c>
-      <c r="I31" t="str">
-        <v>0</v>
-      </c>
       <c r="J31" t="str">
         <v>9999</v>
       </c>
@@ -1444,36 +1444,36 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67830</v>
+        <v>67980</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>1342</v>
+        <v>867</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E32" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F32" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G32" t="str">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H32" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I32" t="str">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="J32" t="str">
         <v>9999</v>
@@ -1500,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67860</v>
+        <v>67744</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>879</v>
+        <v>1143</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E33" t="str">
+        <v>265</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
         <v>222</v>
       </c>
-      <c r="F33" t="str">
-        <v>254</v>
-      </c>
-      <c r="G33" t="str">
-        <v>0</v>
-      </c>
       <c r="H33" t="str">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="I33" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1556,36 +1556,36 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>67944</v>
+        <v>67748</v>
       </c>
       <c r="B34" t="str">
         <v>FIDE</v>
       </c>
       <c r="C34" t="str">
-        <v>664</v>
+        <v>933</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E34" t="str">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="F34" t="str">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H34" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I34" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1612,36 +1612,36 @@
         <v>9999</v>
       </c>
       <c r="R34" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67744</v>
+        <v>67778</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>1143</v>
+        <v>942</v>
       </c>
       <c r="D35" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E35" t="str">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F35" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="str">
         <v>222</v>
       </c>
       <c r="H35" t="str">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I35" t="str">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J35" t="str">
         <v>9999</v>
@@ -1668,18 +1668,18 @@
         <v>9999</v>
       </c>
       <c r="R35" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67846</v>
+        <v>67862</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>1089</v>
+        <v>682</v>
       </c>
       <c r="D36" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -1688,16 +1688,16 @@
         <v>222</v>
       </c>
       <c r="F36" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G36" t="str">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="H36" t="str">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I36" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J36" t="str">
         <v>9999</v>
@@ -1724,36 +1724,36 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>67960</v>
+        <v>67876</v>
       </c>
       <c r="B37" t="str">
         <v>FIDE</v>
       </c>
       <c r="C37" t="str">
-        <v>1371</v>
+        <v>1342</v>
       </c>
       <c r="D37" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E37" t="str">
+        <v>222</v>
+      </c>
+      <c r="F37" t="str">
         <v>254</v>
       </c>
-      <c r="F37" t="str">
-        <v>219</v>
-      </c>
       <c r="G37" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H37" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I37" t="str">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="J37" t="str">
         <v>9999</v>
@@ -1780,18 +1780,18 @@
         <v>9999</v>
       </c>
       <c r="R37" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>68008</v>
+        <v>67984</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D38" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -1800,16 +1800,16 @@
         <v>255</v>
       </c>
       <c r="F38" t="str">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G38" t="str">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="H38" t="str">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="str">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J38" t="str">
         <v>9999</v>
@@ -1836,36 +1836,36 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>67758</v>
+        <v>67746</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
       </c>
       <c r="C39" t="str">
-        <v>1343</v>
+        <v>932</v>
       </c>
       <c r="D39" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E39" t="str">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F39" t="str">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="G39" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H39" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="I39" t="str">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1892,37 +1892,37 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>67836</v>
+        <v>67768</v>
       </c>
       <c r="B40" t="str">
         <v>FIDE</v>
       </c>
       <c r="C40" t="str">
-        <v>1088</v>
+        <v>1142</v>
       </c>
       <c r="D40" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E40" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F40" t="str">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G40" t="str">
+        <v>252</v>
+      </c>
+      <c r="H40" t="str">
+        <v>193</v>
+      </c>
+      <c r="I40" t="str">
         <v>1</v>
       </c>
-      <c r="H40" t="str">
-        <v>206</v>
-      </c>
-      <c r="I40" t="str">
-        <v>195</v>
-      </c>
       <c r="J40" t="str">
         <v>9999</v>
       </c>
@@ -1948,36 +1948,36 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>67886</v>
+        <v>67800</v>
       </c>
       <c r="B41" t="str">
         <v>FIDE</v>
       </c>
       <c r="C41" t="str">
-        <v>877</v>
+        <v>1088</v>
       </c>
       <c r="D41" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E41" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F41" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G41" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H41" t="str">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="I41" t="str">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="J41" t="str">
         <v>9999</v>
@@ -2004,36 +2004,36 @@
         <v>9999</v>
       </c>
       <c r="R41" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67970</v>
+        <v>67838</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D42" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E42" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F42" t="str">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="G42" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H42" t="str">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I42" t="str">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -2060,36 +2060,36 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67986</v>
+        <v>67868</v>
       </c>
       <c r="B43" t="str">
         <v>FIDE</v>
       </c>
       <c r="C43" t="str">
-        <v>1371</v>
+        <v>1087</v>
       </c>
       <c r="D43" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E43" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F43" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G43" t="str">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H43" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I43" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="J43" t="str">
         <v>9999</v>
@@ -2116,36 +2116,36 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>67754</v>
+        <v>67870</v>
       </c>
       <c r="B44" t="str">
         <v>FIDE</v>
       </c>
       <c r="C44" t="str">
-        <v>1144</v>
+        <v>1088</v>
       </c>
       <c r="D44" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E44" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F44" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G44" t="str">
+        <v>207</v>
+      </c>
+      <c r="H44" t="str">
         <v>0</v>
       </c>
-      <c r="H44" t="str">
-        <v>253</v>
-      </c>
       <c r="I44" t="str">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J44" t="str">
         <v>9999</v>
@@ -2172,36 +2172,36 @@
         <v>9999</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67820</v>
+        <v>67924</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>1087</v>
+        <v>867</v>
       </c>
       <c r="D45" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E45" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F45" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="G45" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H45" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I45" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J45" t="str">
         <v>9999</v>
@@ -2228,36 +2228,36 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67864</v>
+        <v>67922</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>1342</v>
+        <v>1372</v>
       </c>
       <c r="D46" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E46" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F46" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G46" t="str">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H46" t="str">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I46" t="str">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -2284,24 +2284,24 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67900</v>
+        <v>67944</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>867</v>
+        <v>664</v>
       </c>
       <c r="D47" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E47" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F47" t="str">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="str">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="I47" t="str">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J47" t="str">
         <v>9999</v>
@@ -2340,33 +2340,33 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67930</v>
+        <v>67952</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>664</v>
+        <v>867</v>
       </c>
       <c r="D48" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E48" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G48" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="H48" t="str">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="I48" t="str">
         <v>0</v>
@@ -2396,36 +2396,36 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>67746</v>
+        <v>67790</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>932</v>
+        <v>1343</v>
       </c>
       <c r="D49" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E49" t="str">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F49" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="G49" t="str">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H49" t="str">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="I49" t="str">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2452,36 +2452,36 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>67810</v>
+        <v>67930</v>
       </c>
       <c r="B50" t="str">
         <v>FIDE</v>
       </c>
       <c r="C50" t="str">
-        <v>1087</v>
+        <v>664</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E50" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G50" t="str">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H50" t="str">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="I50" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J50" t="str">
         <v>9999</v>
@@ -2508,36 +2508,36 @@
         <v>9999</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>67832</v>
+        <v>67996</v>
       </c>
       <c r="B51" t="str">
         <v>FIDE</v>
       </c>
       <c r="C51" t="str">
-        <v>1087</v>
+        <v>867</v>
       </c>
       <c r="D51" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E51" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F51" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G51" t="str">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H51" t="str">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I51" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J51" t="str">
         <v>9999</v>
@@ -2564,18 +2564,18 @@
         <v>9999</v>
       </c>
       <c r="R51" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>67946</v>
+        <v>67948</v>
       </c>
       <c r="B52" t="str">
         <v>FIDE</v>
       </c>
       <c r="C52" t="str">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D52" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -2587,13 +2587,13 @@
         <v>212</v>
       </c>
       <c r="G52" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H52" t="str">
         <v>203</v>
       </c>
       <c r="I52" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2625,31 +2625,31 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>67958</v>
+        <v>88262</v>
       </c>
       <c r="B53" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C53" t="str">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E53" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F53" t="str">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G53" t="str">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H53" t="str">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I53" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2676,36 +2676,36 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67770</v>
+        <v>67772</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>1144</v>
+        <v>1353</v>
       </c>
       <c r="D54" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E54" t="str">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="F54" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="G54" t="str">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H54" t="str">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="I54" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J54" t="str">
         <v>9999</v>
@@ -2732,18 +2732,18 @@
         <v>9999</v>
       </c>
       <c r="R54" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67808</v>
+        <v>67814</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>877</v>
+        <v>1087</v>
       </c>
       <c r="D55" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -2755,13 +2755,13 @@
         <v>252</v>
       </c>
       <c r="G55" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H55" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I55" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2788,18 +2788,18 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67826</v>
+        <v>67834</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
       </c>
       <c r="C56" t="str">
-        <v>877</v>
+        <v>1088</v>
       </c>
       <c r="D56" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -2811,13 +2811,13 @@
         <v>252</v>
       </c>
       <c r="G56" t="str">
+        <v>1</v>
+      </c>
+      <c r="H56" t="str">
         <v>207</v>
       </c>
-      <c r="H56" t="str">
-        <v>1</v>
-      </c>
       <c r="I56" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J56" t="str">
         <v>9999</v>
@@ -2844,18 +2844,18 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>67876</v>
+        <v>67856</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D57" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -2864,10 +2864,10 @@
         <v>222</v>
       </c>
       <c r="F57" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G57" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H57" t="str">
         <v>195</v>
@@ -2900,36 +2900,36 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>67908</v>
+        <v>67936</v>
       </c>
       <c r="B58" t="str">
         <v>FIDE</v>
       </c>
       <c r="C58" t="str">
-        <v>656</v>
+        <v>867</v>
       </c>
       <c r="D58" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E58" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G58" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H58" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="I58" t="str">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2956,36 +2956,36 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>88264</v>
+        <v>67942</v>
       </c>
       <c r="B59" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C59" t="str">
-        <v>867</v>
+        <v>1373</v>
       </c>
       <c r="D59" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E59" t="str">
         <v>255</v>
       </c>
       <c r="F59" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G59" t="str">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H59" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I59" t="str">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -3012,36 +3012,36 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>67750</v>
+        <v>88264</v>
       </c>
       <c r="B60" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C60" t="str">
-        <v>1354</v>
+        <v>867</v>
       </c>
       <c r="D60" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E60" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F60" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G60" t="str">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H60" t="str">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="I60" t="str">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -3068,36 +3068,36 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67782</v>
+        <v>67750</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>933</v>
+        <v>1354</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E61" t="str">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F61" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G61" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H61" t="str">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="I61" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J61" t="str">
         <v>9999</v>
@@ -3124,36 +3124,36 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67854</v>
+        <v>67928</v>
       </c>
       <c r="B62" t="str">
         <v>FIDE</v>
       </c>
       <c r="C62" t="str">
-        <v>1090</v>
+        <v>867</v>
       </c>
       <c r="D62" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E62" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F62" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G62" t="str">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="H62" t="str">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="I62" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J62" t="str">
         <v>9999</v>
@@ -3180,33 +3180,33 @@
         <v>9999</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>67998</v>
+        <v>67986</v>
       </c>
       <c r="B63" t="str">
         <v>FIDE</v>
       </c>
       <c r="C63" t="str">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D63" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E63" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F63" t="str">
         <v>219</v>
       </c>
       <c r="G63" t="str">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H63" t="str">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I63" t="str">
         <v>253</v>
@@ -3236,7 +3236,7 @@
         <v>9999</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="64">
@@ -3297,43 +3297,43 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>67778</v>
+        <v>69084</v>
       </c>
       <c r="B65" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C65" t="str">
-        <v>942</v>
+        <v>2260</v>
       </c>
       <c r="D65" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E65" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F65" t="str">
+        <v>225</v>
+      </c>
+      <c r="G65" t="str">
+        <v>190</v>
+      </c>
+      <c r="H65" t="str">
+        <v>197</v>
+      </c>
+      <c r="I65" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J65" t="str">
+        <v>255</v>
+      </c>
+      <c r="K65" t="str">
         <v>0</v>
       </c>
-      <c r="G65" t="str">
-        <v>222</v>
-      </c>
-      <c r="H65" t="str">
-        <v>252</v>
-      </c>
-      <c r="I65" t="str">
-        <v>201</v>
-      </c>
-      <c r="J65" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K65" t="str">
-        <v>9999</v>
-      </c>
       <c r="L65" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M65" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N65" t="str">
         <v>9999</v>
@@ -3345,39 +3345,39 @@
         <v>9999</v>
       </c>
       <c r="Q65" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>67948</v>
+        <v>88260</v>
       </c>
       <c r="B66" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C66" t="str">
-        <v>1373</v>
+        <v>1120</v>
       </c>
       <c r="D66" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E66" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="G66" t="str">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="H66" t="str">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I66" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="J66" t="str">
         <v>9999</v>
@@ -3404,36 +3404,36 @@
         <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>67904</v>
+        <v>67822</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>1372</v>
+        <v>877</v>
       </c>
       <c r="D67" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E67" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F67" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G67" t="str">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="H67" t="str">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I67" t="str">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3460,36 +3460,36 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67774</v>
+        <v>67858</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>1143</v>
+        <v>1343</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E68" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F68" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G68" t="str">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H68" t="str">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="I68" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J68" t="str">
         <v>9999</v>
@@ -3516,36 +3516,36 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>67916</v>
+        <v>67884</v>
       </c>
       <c r="B69" t="str">
         <v>FIDE</v>
       </c>
       <c r="C69" t="str">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="D69" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E69" t="str">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F69" t="str">
+        <v>254</v>
+      </c>
+      <c r="G69" t="str">
         <v>213</v>
       </c>
-      <c r="G69" t="str">
-        <v>197</v>
-      </c>
       <c r="H69" t="str">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I69" t="str">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="J69" t="str">
         <v>9999</v>
@@ -3572,12 +3572,12 @@
         <v>9999</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>67952</v>
+        <v>67912</v>
       </c>
       <c r="B70" t="str">
         <v>FIDE</v>
@@ -3589,16 +3589,16 @@
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E70" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F70" t="str">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G70" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="H70" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I70" t="str">
         <v>0</v>
@@ -3628,36 +3628,36 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>68014</v>
+        <v>67770</v>
       </c>
       <c r="B71" t="str">
         <v>FIDE</v>
       </c>
       <c r="C71" t="str">
-        <v>867</v>
+        <v>1144</v>
       </c>
       <c r="D71" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E71" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="G71" t="str">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H71" t="str">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="I71" t="str">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J71" t="str">
         <v>9999</v>
@@ -3684,37 +3684,37 @@
         <v>9999</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67760</v>
+        <v>67776</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>1353</v>
+        <v>1143</v>
       </c>
       <c r="D72" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E72" t="str">
         <v>266</v>
       </c>
       <c r="F72" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G72" t="str">
+        <v>1</v>
+      </c>
+      <c r="H72" t="str">
         <v>251</v>
       </c>
-      <c r="H72" t="str">
+      <c r="I72" t="str">
         <v>194</v>
       </c>
-      <c r="I72" t="str">
-        <v>210</v>
-      </c>
       <c r="J72" t="str">
         <v>9999</v>
       </c>
@@ -3740,33 +3740,33 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>67792</v>
+        <v>67780</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>1145</v>
+        <v>1353</v>
       </c>
       <c r="D73" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E73" t="str">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F73" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G73" t="str">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H73" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I73" t="str">
         <v>207</v>
@@ -3796,36 +3796,36 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67848</v>
+        <v>67938</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="D74" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E74" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F74" t="str">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G74" t="str">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H74" t="str">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="I74" t="str">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="J74" t="str">
         <v>9999</v>
@@ -3852,37 +3852,37 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67866</v>
+        <v>67990</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D75" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E75" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F75" t="str">
+        <v>219</v>
+      </c>
+      <c r="G75" t="str">
+        <v>192</v>
+      </c>
+      <c r="H75" t="str">
+        <v>201</v>
+      </c>
+      <c r="I75" t="str">
         <v>253</v>
       </c>
-      <c r="G75" t="str">
-        <v>206</v>
-      </c>
-      <c r="H75" t="str">
-        <v>1</v>
-      </c>
-      <c r="I75" t="str">
-        <v>195</v>
-      </c>
       <c r="J75" t="str">
         <v>9999</v>
       </c>
@@ -3908,48 +3908,48 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>67978</v>
+        <v>69078</v>
       </c>
       <c r="B76" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C76" t="str">
-        <v>1121</v>
+        <v>1978</v>
       </c>
       <c r="D76" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E76" t="str">
+        <v>256</v>
+      </c>
+      <c r="F76" t="str">
+        <v>225</v>
+      </c>
+      <c r="G76" t="str">
+        <v>190</v>
+      </c>
+      <c r="H76" t="str">
+        <v>197</v>
+      </c>
+      <c r="I76" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J76" t="str">
         <v>255</v>
       </c>
-      <c r="F76" t="str">
-        <v>1</v>
-      </c>
-      <c r="G76" t="str">
-        <v>219</v>
-      </c>
-      <c r="H76" t="str">
-        <v>195</v>
-      </c>
-      <c r="I76" t="str">
-        <v>198</v>
-      </c>
-      <c r="J76" t="str">
-        <v>9999</v>
-      </c>
       <c r="K76" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L76" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M76" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N76" t="str">
         <v>9999</v>
@@ -3961,39 +3961,39 @@
         <v>9999</v>
       </c>
       <c r="Q76" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>68006</v>
+        <v>67906</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
       </c>
       <c r="C77" t="str">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D77" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E77" t="str">
         <v>255</v>
       </c>
       <c r="F77" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G77" t="str">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H77" t="str">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="I77" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -4020,36 +4020,36 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>88262</v>
+        <v>67964</v>
       </c>
       <c r="B78" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C78" t="str">
-        <v>1371</v>
+        <v>1120</v>
       </c>
       <c r="D78" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E78" t="str">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F78" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G78" t="str">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H78" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I78" t="str">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="J78" t="str">
         <v>9999</v>
@@ -4076,30 +4076,30 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67764</v>
+        <v>67810</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1353</v>
+        <v>1087</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E79" t="str">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F79" t="str">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G79" t="str">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="H79" t="str">
         <v>195</v>
@@ -4132,48 +4132,48 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>69076</v>
+        <v>68002</v>
       </c>
       <c r="B80" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C80" t="str">
-        <v>2830</v>
+        <v>1120</v>
       </c>
       <c r="D80" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E80" t="str">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="F80" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G80" t="str">
         <v>225</v>
       </c>
       <c r="H80" t="str">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I80" t="str">
-        <v>9999</v>
+        <v>199</v>
       </c>
       <c r="J80" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K80" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L80" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M80" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N80" t="str">
         <v>9999</v>
@@ -4185,39 +4185,39 @@
         <v>9999</v>
       </c>
       <c r="Q80" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67920</v>
+        <v>67794</v>
       </c>
       <c r="B81" t="str">
         <v>FIDE</v>
       </c>
       <c r="C81" t="str">
-        <v>1120</v>
+        <v>681</v>
       </c>
       <c r="D81" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E81" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F81" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G81" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H81" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="str">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J81" t="str">
         <v>9999</v>
@@ -4244,36 +4244,36 @@
         <v>9999</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67922</v>
+        <v>67798</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="D82" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E82" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F82" t="str">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G82" t="str">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H82" t="str">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I82" t="str">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="J82" t="str">
         <v>9999</v>
@@ -4300,18 +4300,18 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67942</v>
+        <v>67950</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
       </c>
       <c r="C83" t="str">
-        <v>1373</v>
+        <v>1121</v>
       </c>
       <c r="D83" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -4320,17 +4320,17 @@
         <v>255</v>
       </c>
       <c r="F83" t="str">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G83" t="str">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H83" t="str">
+        <v>190</v>
+      </c>
+      <c r="I83" t="str">
         <v>203</v>
       </c>
-      <c r="I83" t="str">
-        <v>254</v>
-      </c>
       <c r="J83" t="str">
         <v>9999</v>
       </c>
@@ -4356,48 +4356,48 @@
         <v>9999</v>
       </c>
       <c r="R83" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>69090</v>
+        <v>67762</v>
       </c>
       <c r="B84" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C84" t="str">
-        <v>2260</v>
+        <v>1353</v>
       </c>
       <c r="D84" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E84" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F84" t="str">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="G84" t="str">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H84" t="str">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I84" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J84" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K84" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L84" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M84" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N84" t="str">
         <v>9999</v>
@@ -4409,15 +4409,15 @@
         <v>9999</v>
       </c>
       <c r="Q84" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>67842</v>
+        <v>67864</v>
       </c>
       <c r="B85" t="str">
         <v>FIDE</v>
@@ -4429,16 +4429,16 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E85" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F85" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G85" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H85" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85" t="str">
         <v>211</v>
@@ -4473,31 +4473,31 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67804</v>
+        <v>67900</v>
       </c>
       <c r="B86" t="str">
         <v>FIDE</v>
       </c>
       <c r="C86" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E86" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F86" t="str">
         <v>0</v>
       </c>
       <c r="G86" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="H86" t="str">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I86" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J86" t="str">
         <v>9999</v>
@@ -4524,18 +4524,18 @@
         <v>9999</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67844</v>
+        <v>67892</v>
       </c>
       <c r="B87" t="str">
         <v>FIDE</v>
       </c>
       <c r="C87" t="str">
-        <v>1089</v>
+        <v>1342</v>
       </c>
       <c r="D87" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -4544,16 +4544,16 @@
         <v>222</v>
       </c>
       <c r="F87" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G87" t="str">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H87" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I87" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J87" t="str">
         <v>9999</v>
@@ -4580,36 +4580,36 @@
         <v>9999</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>67858</v>
+        <v>67902</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>1343</v>
+        <v>1092</v>
       </c>
       <c r="D88" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E88" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F88" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G88" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H88" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I88" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J88" t="str">
         <v>9999</v>
@@ -4636,36 +4636,36 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>67906</v>
+        <v>67754</v>
       </c>
       <c r="B89" t="str">
         <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>1121</v>
+        <v>1144</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E89" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F89" t="str">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G89" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="H89" t="str">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="I89" t="str">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="J89" t="str">
         <v>9999</v>
@@ -4692,36 +4692,36 @@
         <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67968</v>
+        <v>67756</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="D90" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E90" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G90" t="str">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="H90" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I90" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="J90" t="str">
         <v>9999</v>
@@ -4748,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67990</v>
+        <v>67764</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E91" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F91" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G91" t="str">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="H91" t="str">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I91" t="str">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4804,36 +4804,36 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67994</v>
+        <v>67840</v>
       </c>
       <c r="B92" t="str">
         <v>FIDE</v>
       </c>
       <c r="C92" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D92" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E92" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F92" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G92" t="str">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H92" t="str">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I92" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J92" t="str">
         <v>9999</v>
@@ -4860,36 +4860,36 @@
         <v>9999</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67768</v>
+        <v>67842</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>1142</v>
+        <v>1342</v>
       </c>
       <c r="D93" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E93" t="str">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F93" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G93" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H93" t="str">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I93" t="str">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4916,18 +4916,18 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>67800</v>
+        <v>67846</v>
       </c>
       <c r="B94" t="str">
         <v>FIDE</v>
       </c>
       <c r="C94" t="str">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D94" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -4936,16 +4936,16 @@
         <v>222</v>
       </c>
       <c r="F94" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G94" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H94" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I94" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J94" t="str">
         <v>9999</v>
@@ -4972,48 +4972,48 @@
         <v>9999</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>69080</v>
+        <v>67898</v>
       </c>
       <c r="B95" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C95" t="str">
-        <v>2830</v>
+        <v>1122</v>
       </c>
       <c r="D95" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E95" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G95" t="str">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H95" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I95" t="str">
-        <v>9999</v>
+        <v>203</v>
       </c>
       <c r="J95" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K95" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L95" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M95" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N95" t="str">
         <v>9999</v>
@@ -5025,39 +5025,39 @@
         <v>9999</v>
       </c>
       <c r="Q95" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>67756</v>
+        <v>67932</v>
       </c>
       <c r="B96" t="str">
         <v>FIDE</v>
       </c>
       <c r="C96" t="str">
-        <v>933</v>
+        <v>1121</v>
       </c>
       <c r="D96" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E96" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G96" t="str">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="H96" t="str">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="I96" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="J96" t="str">
         <v>9999</v>
@@ -5084,36 +5084,36 @@
         <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67888</v>
+        <v>67968</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D97" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E97" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F97" t="str">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G97" t="str">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="H97" t="str">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I97" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -5140,36 +5140,36 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>67966</v>
+        <v>67982</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D98" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E98" t="str">
         <v>254</v>
       </c>
       <c r="F98" t="str">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G98" t="str">
         <v>190</v>
       </c>
       <c r="H98" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I98" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J98" t="str">
         <v>9999</v>
@@ -5201,13 +5201,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>69084</v>
+        <v>68010</v>
       </c>
       <c r="B99" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C99" t="str">
-        <v>2260</v>
+        <v>1372</v>
       </c>
       <c r="D99" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -5216,28 +5216,28 @@
         <v>255</v>
       </c>
       <c r="F99" t="str">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G99" t="str">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H99" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I99" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="J99" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K99" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L99" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M99" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N99" t="str">
         <v>9999</v>
@@ -5249,51 +5249,51 @@
         <v>9999</v>
       </c>
       <c r="Q99" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>69088</v>
+        <v>67796</v>
       </c>
       <c r="B100" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C100" t="str">
-        <v>2258</v>
+        <v>675</v>
       </c>
       <c r="D100" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E100" t="str">
+        <v>221</v>
+      </c>
+      <c r="F100" t="str">
         <v>1</v>
       </c>
-      <c r="F100" t="str">
+      <c r="G100" t="str">
+        <v>251</v>
+      </c>
+      <c r="H100" t="str">
+        <v>202</v>
+      </c>
+      <c r="I100" t="str">
         <v>0</v>
       </c>
-      <c r="G100" t="str">
-        <v>255</v>
-      </c>
-      <c r="H100" t="str">
-        <v>225</v>
-      </c>
-      <c r="I100" t="str">
-        <v>9999</v>
-      </c>
       <c r="J100" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K100" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L100" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M100" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N100" t="str">
         <v>9999</v>
@@ -5305,39 +5305,39 @@
         <v>9999</v>
       </c>
       <c r="Q100" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67748</v>
+        <v>67844</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>933</v>
+        <v>1089</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E101" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F101" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G101" t="str">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H101" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="I101" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J101" t="str">
         <v>9999</v>
@@ -5364,36 +5364,36 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67796</v>
+        <v>67860</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>675</v>
+        <v>879</v>
       </c>
       <c r="D102" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E102" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F102" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G102" t="str">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H102" t="str">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I102" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J102" t="str">
         <v>9999</v>
@@ -5420,18 +5420,18 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>67862</v>
+        <v>67866</v>
       </c>
       <c r="B103" t="str">
         <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>682</v>
+        <v>1088</v>
       </c>
       <c r="D103" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5440,16 +5440,16 @@
         <v>222</v>
       </c>
       <c r="F103" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G103" t="str">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="H103" t="str">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="I103" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J103" t="str">
         <v>9999</v>
@@ -5476,36 +5476,36 @@
         <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>67880</v>
+        <v>67976</v>
       </c>
       <c r="B104" t="str">
         <v>FIDE</v>
       </c>
       <c r="C104" t="str">
-        <v>878</v>
+        <v>1347</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E104" t="str">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F104" t="str">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G104" t="str">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="H104" t="str">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I104" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J104" t="str">
         <v>9999</v>
@@ -5532,36 +5532,36 @@
         <v>9999</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>67884</v>
+        <v>67992</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>1343</v>
+        <v>1120</v>
       </c>
       <c r="D105" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E105" t="str">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F105" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G105" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H105" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I105" t="str">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J105" t="str">
         <v>9999</v>
@@ -5588,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>67950</v>
+        <v>67760</v>
       </c>
       <c r="B106" t="str">
         <v>FIDE</v>
       </c>
       <c r="C106" t="str">
-        <v>1121</v>
+        <v>1353</v>
       </c>
       <c r="D106" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E106" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F106" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G106" t="str">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="H106" t="str">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I106" t="str">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5644,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67974</v>
+        <v>67818</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>1120</v>
+        <v>1147</v>
       </c>
       <c r="D107" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E107" t="str">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F107" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G107" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="H107" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I107" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5700,36 +5700,36 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>68004</v>
+        <v>67946</v>
       </c>
       <c r="B108" t="str">
         <v>FIDE</v>
       </c>
       <c r="C108" t="str">
-        <v>867</v>
+        <v>1372</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E108" t="str">
         <v>255</v>
       </c>
       <c r="F108" t="str">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G108" t="str">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="H108" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I108" t="str">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="J108" t="str">
         <v>9999</v>
@@ -5756,36 +5756,36 @@
         <v>9999</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67784</v>
+        <v>67758</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E109" t="str">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="F109" t="str">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="G109" t="str">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="H109" t="str">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="I109" t="str">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="J109" t="str">
         <v>9999</v>
@@ -5812,36 +5812,36 @@
         <v>9999</v>
       </c>
       <c r="R109" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>67964</v>
+        <v>67894</v>
       </c>
       <c r="B110" t="str">
         <v>FIDE</v>
       </c>
       <c r="C110" t="str">
-        <v>1120</v>
+        <v>981</v>
       </c>
       <c r="D110" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E110" t="str">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F110" t="str">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G110" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H110" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110" t="str">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="J110" t="str">
         <v>9999</v>
@@ -5868,36 +5868,36 @@
         <v>9999</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67918</v>
+        <v>67904</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>1121</v>
+        <v>1372</v>
       </c>
       <c r="D111" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E111" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F111" t="str">
         <v>213</v>
       </c>
       <c r="G111" t="str">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H111" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I111" t="str">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="J111" t="str">
         <v>9999</v>
@@ -5924,36 +5924,36 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>67802</v>
+        <v>67916</v>
       </c>
       <c r="B112" t="str">
         <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>1086</v>
+        <v>1374</v>
       </c>
       <c r="D112" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E112" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F112" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G112" t="str">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H112" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I112" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J112" t="str">
         <v>9999</v>
@@ -5980,48 +5980,48 @@
         <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>67812</v>
+        <v>69080</v>
       </c>
       <c r="B113" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C113" t="str">
-        <v>877</v>
+        <v>2830</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E113" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F113" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="G113" t="str">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="H113" t="str">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="I113" t="str">
-        <v>206</v>
+        <v>9999</v>
       </c>
       <c r="J113" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K113" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L113" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M113" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N113" t="str">
         <v>9999</v>
@@ -6033,39 +6033,39 @@
         <v>9999</v>
       </c>
       <c r="Q113" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67824</v>
+        <v>67836</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
       </c>
       <c r="C114" t="str">
-        <v>876</v>
+        <v>1088</v>
       </c>
       <c r="D114" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E114" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F114" t="str">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G114" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="H114" t="str">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="I114" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J114" t="str">
         <v>9999</v>
@@ -6092,18 +6092,18 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>67856</v>
+        <v>67880</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
       </c>
       <c r="C115" t="str">
-        <v>1088</v>
+        <v>878</v>
       </c>
       <c r="D115" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -6112,16 +6112,16 @@
         <v>222</v>
       </c>
       <c r="F115" t="str">
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
         <v>253</v>
       </c>
-      <c r="G115" t="str">
-        <v>207</v>
-      </c>
       <c r="H115" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I115" t="str">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -6148,18 +6148,18 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>67924</v>
+        <v>67934</v>
       </c>
       <c r="B116" t="str">
         <v>FIDE</v>
       </c>
       <c r="C116" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D116" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -6171,14 +6171,14 @@
         <v>212</v>
       </c>
       <c r="G116" t="str">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H116" t="str">
+        <v>203</v>
+      </c>
+      <c r="I116" t="str">
         <v>0</v>
       </c>
-      <c r="I116" t="str">
-        <v>203</v>
-      </c>
       <c r="J116" t="str">
         <v>9999</v>
       </c>
@@ -6204,48 +6204,48 @@
         <v>9999</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>69078</v>
+        <v>68014</v>
       </c>
       <c r="B117" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C117" t="str">
-        <v>1978</v>
+        <v>867</v>
       </c>
       <c r="D117" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E117" t="str">
+        <v>0</v>
+      </c>
+      <c r="F117" t="str">
         <v>256</v>
       </c>
-      <c r="F117" t="str">
+      <c r="G117" t="str">
         <v>225</v>
       </c>
-      <c r="G117" t="str">
-        <v>190</v>
-      </c>
       <c r="H117" t="str">
+        <v>189</v>
+      </c>
+      <c r="I117" t="str">
         <v>197</v>
       </c>
-      <c r="I117" t="str">
-        <v>9999</v>
-      </c>
       <c r="J117" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K117" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L117" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M117" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N117" t="str">
         <v>9999</v>
@@ -6257,39 +6257,39 @@
         <v>9999</v>
       </c>
       <c r="Q117" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>67776</v>
+        <v>67852</v>
       </c>
       <c r="B118" t="str">
         <v>FIDE</v>
       </c>
       <c r="C118" t="str">
-        <v>1143</v>
+        <v>981</v>
       </c>
       <c r="D118" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E118" t="str">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F118" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G118" t="str">
         <v>1</v>
       </c>
       <c r="H118" t="str">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="I118" t="str">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="J118" t="str">
         <v>9999</v>
@@ -6316,36 +6316,36 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>67928</v>
+        <v>68006</v>
       </c>
       <c r="B119" t="str">
         <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E119" t="str">
         <v>255</v>
       </c>
       <c r="F119" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="G119" t="str">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H119" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="I119" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J119" t="str">
         <v>9999</v>
@@ -6372,36 +6372,36 @@
         <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>67926</v>
+        <v>68008</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>1371</v>
+        <v>1119</v>
       </c>
       <c r="D120" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E120" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F120" t="str">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G120" t="str">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="H120" t="str">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I120" t="str">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="J120" t="str">
         <v>9999</v>
@@ -6428,36 +6428,36 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67936</v>
+        <v>67808</v>
       </c>
       <c r="B121" t="str">
         <v>FIDE</v>
       </c>
       <c r="C121" t="str">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D121" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E121" t="str">
+        <v>222</v>
+      </c>
+      <c r="F121" t="str">
+        <v>252</v>
+      </c>
+      <c r="G121" t="str">
+        <v>208</v>
+      </c>
+      <c r="H121" t="str">
         <v>0</v>
       </c>
-      <c r="F121" t="str">
-        <v>255</v>
-      </c>
-      <c r="G121" t="str">
-        <v>212</v>
-      </c>
-      <c r="H121" t="str">
-        <v>197</v>
-      </c>
       <c r="I121" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J121" t="str">
         <v>9999</v>
@@ -6484,37 +6484,37 @@
         <v>9999</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>68000</v>
+        <v>67816</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>868</v>
+        <v>1088</v>
       </c>
       <c r="D122" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E122" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F122" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G122" t="str">
+        <v>208</v>
+      </c>
+      <c r="H122" t="str">
         <v>195</v>
       </c>
-      <c r="H122" t="str">
+      <c r="I122" t="str">
         <v>0</v>
       </c>
-      <c r="I122" t="str">
-        <v>198</v>
-      </c>
       <c r="J122" t="str">
         <v>9999</v>
       </c>
@@ -6540,37 +6540,37 @@
         <v>9999</v>
       </c>
       <c r="R122" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67838</v>
+        <v>67896</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D123" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E123" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F123" t="str">
+        <v>212</v>
+      </c>
+      <c r="G123" t="str">
+        <v>197</v>
+      </c>
+      <c r="H123" t="str">
+        <v>203</v>
+      </c>
+      <c r="I123" t="str">
         <v>253</v>
       </c>
-      <c r="G123" t="str">
-        <v>1</v>
-      </c>
-      <c r="H123" t="str">
-        <v>206</v>
-      </c>
-      <c r="I123" t="str">
-        <v>196</v>
-      </c>
       <c r="J123" t="str">
         <v>9999</v>
       </c>
@@ -6596,36 +6596,36 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>67794</v>
+        <v>68000</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>681</v>
+        <v>868</v>
       </c>
       <c r="D124" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E124" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F124" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G124" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="H124" t="str">
         <v>0</v>
       </c>
       <c r="I124" t="str">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J124" t="str">
         <v>9999</v>
@@ -6652,36 +6652,36 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>67806</v>
+        <v>68004</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D125" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E125" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F125" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G125" t="str">
+        <v>4</v>
+      </c>
+      <c r="H125" t="str">
         <v>0</v>
       </c>
-      <c r="H125" t="str">
-        <v>252</v>
-      </c>
       <c r="I125" t="str">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J125" t="str">
         <v>9999</v>
@@ -6708,48 +6708,48 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>67834</v>
+        <v>69088</v>
       </c>
       <c r="B126" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C126" t="str">
-        <v>1088</v>
+        <v>2258</v>
       </c>
       <c r="D126" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E126" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F126" t="str">
+        <v>0</v>
+      </c>
+      <c r="G126" t="str">
+        <v>255</v>
+      </c>
+      <c r="H126" t="str">
+        <v>225</v>
+      </c>
+      <c r="I126" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J126" t="str">
+        <v>198</v>
+      </c>
+      <c r="K126" t="str">
         <v>252</v>
       </c>
-      <c r="G126" t="str">
-        <v>1</v>
-      </c>
-      <c r="H126" t="str">
-        <v>207</v>
-      </c>
-      <c r="I126" t="str">
-        <v>195</v>
-      </c>
-      <c r="J126" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K126" t="str">
-        <v>9999</v>
-      </c>
       <c r="L126" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M126" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N126" t="str">
         <v>9999</v>
@@ -6761,39 +6761,39 @@
         <v>9999</v>
       </c>
       <c r="Q126" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67910</v>
+        <v>67824</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>1372</v>
+        <v>876</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E127" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G127" t="str">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="H127" t="str">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I127" t="str">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="J127" t="str">
         <v>9999</v>
@@ -6820,36 +6820,36 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>67852</v>
+        <v>67832</v>
       </c>
       <c r="B128" t="str">
         <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>981</v>
+        <v>1087</v>
       </c>
       <c r="D128" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E128" t="str">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F128" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="G128" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H128" t="str">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="I128" t="str">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="J128" t="str">
         <v>9999</v>
@@ -6876,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67818</v>
+        <v>67874</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>1147</v>
+        <v>1089</v>
       </c>
       <c r="D129" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E129" t="str">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F129" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G129" t="str">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="H129" t="str">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="I129" t="str">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6932,36 +6932,36 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>67840</v>
+        <v>67908</v>
       </c>
       <c r="B130" t="str">
         <v>FIDE</v>
       </c>
       <c r="C130" t="str">
-        <v>1088</v>
+        <v>656</v>
       </c>
       <c r="D130" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E130" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F130" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G130" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H130" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I130" t="str">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J130" t="str">
         <v>9999</v>
@@ -6988,36 +6988,36 @@
         <v>9999</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>67870</v>
+        <v>67920</v>
       </c>
       <c r="B131" t="str">
         <v>FIDE</v>
       </c>
       <c r="C131" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D131" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E131" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F131" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G131" t="str">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H131" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131" t="str">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J131" t="str">
         <v>9999</v>
@@ -7044,36 +7044,36 @@
         <v>9999</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>67976</v>
+        <v>67926</v>
       </c>
       <c r="B132" t="str">
         <v>FIDE</v>
       </c>
       <c r="C132" t="str">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="D132" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E132" t="str">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F132" t="str">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="G132" t="str">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H132" t="str">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="I132" t="str">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J132" t="str">
         <v>9999</v>
@@ -7100,36 +7100,36 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67982</v>
+        <v>67788</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>1371</v>
+        <v>947</v>
       </c>
       <c r="D133" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E133" t="str">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F133" t="str">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G133" t="str">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="H133" t="str">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I133" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J133" t="str">
         <v>9999</v>
@@ -7156,37 +7156,37 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>67788</v>
+        <v>67806</v>
       </c>
       <c r="B134" t="str">
         <v>FIDE</v>
       </c>
       <c r="C134" t="str">
-        <v>947</v>
+        <v>877</v>
       </c>
       <c r="D134" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E134" t="str">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F134" t="str">
         <v>222</v>
       </c>
       <c r="G134" t="str">
+        <v>0</v>
+      </c>
+      <c r="H134" t="str">
         <v>252</v>
       </c>
-      <c r="H134" t="str">
+      <c r="I134" t="str">
         <v>207</v>
       </c>
-      <c r="I134" t="str">
-        <v>0</v>
-      </c>
       <c r="J134" t="str">
         <v>9999</v>
       </c>
@@ -7212,36 +7212,36 @@
         <v>9999</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67872</v>
+        <v>67802</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D135" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E135" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="F135" t="str">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G135" t="str">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="H135" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I135" t="str">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J135" t="str">
         <v>9999</v>
@@ -7268,36 +7268,36 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67954</v>
+        <v>67828</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>866</v>
+        <v>1087</v>
       </c>
       <c r="D136" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E136" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F136" t="str">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G136" t="str">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="H136" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J136" t="str">
         <v>9999</v>
@@ -7324,36 +7324,36 @@
         <v>9999</v>
       </c>
       <c r="R136" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67766</v>
+        <v>67878</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1143</v>
+        <v>1088</v>
       </c>
       <c r="D137" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E137" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F137" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G137" t="str">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="H137" t="str">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I137" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7380,36 +7380,36 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>67814</v>
+        <v>67970</v>
       </c>
       <c r="B138" t="str">
         <v>FIDE</v>
       </c>
       <c r="C138" t="str">
-        <v>1087</v>
+        <v>1372</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E138" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F138" t="str">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="G138" t="str">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H138" t="str">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I138" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J138" t="str">
         <v>9999</v>
@@ -7436,36 +7436,36 @@
         <v>9999</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>67874</v>
+        <v>67792</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>1089</v>
+        <v>1145</v>
       </c>
       <c r="D139" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E139" t="str">
+        <v>268</v>
+      </c>
+      <c r="F139" t="str">
         <v>222</v>
       </c>
-      <c r="F139" t="str">
-        <v>254</v>
-      </c>
       <c r="G139" t="str">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="H139" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="str">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J139" t="str">
         <v>9999</v>
@@ -7492,37 +7492,37 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67898</v>
+        <v>67826</v>
       </c>
       <c r="B140" t="str">
         <v>FIDE</v>
       </c>
       <c r="C140" t="str">
-        <v>1122</v>
+        <v>877</v>
       </c>
       <c r="D140" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E140" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F140" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G140" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H140" t="str">
+        <v>1</v>
+      </c>
+      <c r="I140" t="str">
         <v>0</v>
       </c>
-      <c r="I140" t="str">
-        <v>203</v>
-      </c>
       <c r="J140" t="str">
         <v>9999</v>
       </c>
@@ -7548,36 +7548,36 @@
         <v>9999</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67988</v>
+        <v>67910</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D141" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E141" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F141" t="str">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G141" t="str">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H141" t="str">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I141" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J141" t="str">
         <v>9999</v>
@@ -7604,12 +7604,12 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67992</v>
+        <v>67962</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
@@ -7618,22 +7618,22 @@
         <v>1120</v>
       </c>
       <c r="D142" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E142" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F142" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="str">
         <v>219</v>
       </c>
       <c r="H142" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I142" t="str">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J142" t="str">
         <v>9999</v>
@@ -7660,18 +7660,18 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>67798</v>
+        <v>67888</v>
       </c>
       <c r="B143" t="str">
         <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>1343</v>
+        <v>1088</v>
       </c>
       <c r="D143" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7680,13 +7680,13 @@
         <v>222</v>
       </c>
       <c r="F143" t="str">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G143" t="str">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H143" t="str">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I143" t="str">
         <v>210</v>
@@ -7716,36 +7716,36 @@
         <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>68010</v>
+        <v>67918</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>1372</v>
+        <v>1121</v>
       </c>
       <c r="D144" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E144" t="str">
         <v>255</v>
       </c>
       <c r="F144" t="str">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G144" t="str">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H144" t="str">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I144" t="str">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7772,36 +7772,36 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>68002</v>
+        <v>67812</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>1120</v>
+        <v>877</v>
       </c>
       <c r="D145" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E145" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F145" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="str">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H145" t="str">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I145" t="str">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7828,48 +7828,48 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>67894</v>
+        <v>69076</v>
       </c>
       <c r="B146" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C146" t="str">
-        <v>981</v>
+        <v>2830</v>
       </c>
       <c r="D146" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E146" t="str">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="F146" t="str">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="G146" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="H146" t="str">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="I146" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="J146" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K146" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L146" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M146" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N146" t="str">
         <v>9999</v>
@@ -7881,39 +7881,39 @@
         <v>9999</v>
       </c>
       <c r="Q146" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>67822</v>
+        <v>67972</v>
       </c>
       <c r="B147" t="str">
         <v>FIDE</v>
       </c>
       <c r="C147" t="str">
-        <v>877</v>
+        <v>664</v>
       </c>
       <c r="D147" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E147" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F147" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G147" t="str">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H147" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I147" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J147" t="str">
         <v>9999</v>
@@ -7940,37 +7940,37 @@
         <v>9999</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>67850</v>
+        <v>67988</v>
       </c>
       <c r="B148" t="str">
         <v>FIDE</v>
       </c>
       <c r="C148" t="str">
-        <v>1342</v>
+        <v>1371</v>
       </c>
       <c r="D148" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E148" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F148" t="str">
+        <v>219</v>
+      </c>
+      <c r="G148" t="str">
+        <v>192</v>
+      </c>
+      <c r="H148" t="str">
+        <v>201</v>
+      </c>
+      <c r="I148" t="str">
         <v>253</v>
       </c>
-      <c r="G148" t="str">
-        <v>207</v>
-      </c>
-      <c r="H148" t="str">
-        <v>196</v>
-      </c>
-      <c r="I148" t="str">
-        <v>210</v>
-      </c>
       <c r="J148" t="str">
         <v>9999</v>
       </c>
@@ -7996,37 +7996,37 @@
         <v>9999</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67868</v>
+        <v>67998</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>1087</v>
+        <v>1372</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E149" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F149" t="str">
+        <v>219</v>
+      </c>
+      <c r="G149" t="str">
+        <v>195</v>
+      </c>
+      <c r="H149" t="str">
+        <v>198</v>
+      </c>
+      <c r="I149" t="str">
         <v>253</v>
       </c>
-      <c r="G149" t="str">
-        <v>206</v>
-      </c>
-      <c r="H149" t="str">
-        <v>195</v>
-      </c>
-      <c r="I149" t="str">
-        <v>1</v>
-      </c>
       <c r="J149" t="str">
         <v>9999</v>
       </c>
@@ -8052,48 +8052,48 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>67890</v>
+        <v>69086</v>
       </c>
       <c r="B150" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C150" t="str">
-        <v>1088</v>
+        <v>2260</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E150" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F150" t="str">
+        <v>225</v>
+      </c>
+      <c r="G150" t="str">
+        <v>1</v>
+      </c>
+      <c r="H150" t="str">
+        <v>189</v>
+      </c>
+      <c r="I150" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J150" t="str">
         <v>253</v>
       </c>
-      <c r="G150" t="str">
-        <v>2</v>
-      </c>
-      <c r="H150" t="str">
-        <v>213</v>
-      </c>
-      <c r="I150" t="str">
-        <v>189</v>
-      </c>
-      <c r="J150" t="str">
-        <v>9999</v>
-      </c>
       <c r="K150" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L150" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M150" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N150" t="str">
         <v>9999</v>
@@ -8105,39 +8105,39 @@
         <v>9999</v>
       </c>
       <c r="Q150" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>67980</v>
+        <v>67784</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
       </c>
       <c r="C151" t="str">
-        <v>867</v>
+        <v>1353</v>
       </c>
       <c r="D151" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E151" t="str">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F151" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G151" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="H151" t="str">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I151" t="str">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -8164,36 +8164,36 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>67786</v>
+        <v>67850</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E152" t="str">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="F152" t="str">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G152" t="str">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H152" t="str">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="I152" t="str">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J152" t="str">
         <v>9999</v>
@@ -8220,36 +8220,36 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>67984</v>
+        <v>67872</v>
       </c>
       <c r="B153" t="str">
         <v>FIDE</v>
       </c>
       <c r="C153" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D153" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E153" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G153" t="str">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="H153" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I153" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J153" t="str">
         <v>9999</v>
@@ -8276,36 +8276,36 @@
         <v>9999</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>67996</v>
+        <v>67882</v>
       </c>
       <c r="B154" t="str">
         <v>FIDE</v>
       </c>
       <c r="C154" t="str">
-        <v>867</v>
+        <v>1088</v>
       </c>
       <c r="D154" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E154" t="str">
+        <v>221</v>
+      </c>
+      <c r="F154" t="str">
         <v>1</v>
       </c>
-      <c r="F154" t="str">
+      <c r="G154" t="str">
         <v>255</v>
       </c>
-      <c r="G154" t="str">
-        <v>225</v>
-      </c>
       <c r="H154" t="str">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="I154" t="str">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="J154" t="str">
         <v>9999</v>
@@ -8332,48 +8332,48 @@
         <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>69074</v>
+        <v>67958</v>
       </c>
       <c r="B155" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C155" t="str">
-        <v>2253</v>
+        <v>1372</v>
       </c>
       <c r="D155" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E155" t="str">
         <v>255</v>
       </c>
       <c r="F155" t="str">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G155" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H155" t="str">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I155" t="str">
-        <v>9999</v>
+        <v>254</v>
       </c>
       <c r="J155" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K155" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L155" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M155" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N155" t="str">
         <v>9999</v>
@@ -8385,39 +8385,39 @@
         <v>9999</v>
       </c>
       <c r="Q155" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>67772</v>
+        <v>67978</v>
       </c>
       <c r="B156" t="str">
         <v>FIDE</v>
       </c>
       <c r="C156" t="str">
-        <v>1353</v>
+        <v>1121</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E156" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F156" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G156" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="H156" t="str">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I156" t="str">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J156" t="str">
         <v>9999</v>
@@ -8444,36 +8444,36 @@
         <v>9999</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67938</v>
+        <v>67782</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
       </c>
       <c r="C157" t="str">
-        <v>1093</v>
+        <v>933</v>
       </c>
       <c r="D157" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E157" t="str">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F157" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G157" t="str">
         <v>1</v>
       </c>
       <c r="H157" t="str">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="I157" t="str">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="J157" t="str">
         <v>9999</v>
@@ -8500,36 +8500,36 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>67962</v>
+        <v>67854</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>1120</v>
+        <v>1090</v>
       </c>
       <c r="D158" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E158" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F158" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G158" t="str">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="H158" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I158" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J158" t="str">
         <v>9999</v>
@@ -8556,36 +8556,36 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>88260</v>
+        <v>67886</v>
       </c>
       <c r="B159" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C159" t="str">
-        <v>1120</v>
+        <v>877</v>
       </c>
       <c r="D159" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E159" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="F159" t="str">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G159" t="str">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H159" t="str">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="I159" t="str">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="J159" t="str">
         <v>9999</v>
@@ -8612,37 +8612,37 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67902</v>
+        <v>67940</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
       </c>
       <c r="C160" t="str">
-        <v>1092</v>
+        <v>1371</v>
       </c>
       <c r="D160" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E160" t="str">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F160" t="str">
+        <v>213</v>
+      </c>
+      <c r="G160" t="str">
+        <v>196</v>
+      </c>
+      <c r="H160" t="str">
+        <v>203</v>
+      </c>
+      <c r="I160" t="str">
         <v>254</v>
       </c>
-      <c r="G160" t="str">
-        <v>219</v>
-      </c>
-      <c r="H160" t="str">
-        <v>190</v>
-      </c>
-      <c r="I160" t="str">
-        <v>0</v>
-      </c>
       <c r="J160" t="str">
         <v>9999</v>
       </c>
@@ -8668,18 +8668,18 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67940</v>
+        <v>67956</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>1371</v>
+        <v>1120</v>
       </c>
       <c r="D161" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -8688,16 +8688,16 @@
         <v>254</v>
       </c>
       <c r="F161" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G161" t="str">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H161" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I161" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8724,48 +8724,48 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>67932</v>
+        <v>69074</v>
       </c>
       <c r="B162" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C162" t="str">
-        <v>1121</v>
+        <v>2253</v>
       </c>
       <c r="D162" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E162" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F162" t="str">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G162" t="str">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H162" t="str">
         <v>197</v>
       </c>
       <c r="I162" t="str">
-        <v>202</v>
+        <v>9999</v>
       </c>
       <c r="J162" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K162" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L162" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M162" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N162" t="str">
         <v>9999</v>
@@ -8777,36 +8777,36 @@
         <v>9999</v>
       </c>
       <c r="Q162" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>67816</v>
+        <v>67766</v>
       </c>
       <c r="B163" t="str">
         <v>FIDE</v>
       </c>
       <c r="C163" t="str">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="D163" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E163" t="str">
+        <v>266</v>
+      </c>
+      <c r="F163" t="str">
         <v>222</v>
       </c>
-      <c r="F163" t="str">
+      <c r="G163" t="str">
         <v>252</v>
       </c>
-      <c r="G163" t="str">
-        <v>208</v>
-      </c>
       <c r="H163" t="str">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I163" t="str">
         <v>0</v>
@@ -8836,36 +8836,36 @@
         <v>9999</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>67896</v>
+        <v>67820</v>
       </c>
       <c r="B164" t="str">
         <v>FIDE</v>
       </c>
       <c r="C164" t="str">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="D164" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E164" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F164" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G164" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H164" t="str">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I164" t="str">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="J164" t="str">
         <v>9999</v>
@@ -8892,36 +8892,36 @@
         <v>9999</v>
       </c>
       <c r="R164" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67956</v>
+        <v>67848</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D165" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E165" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F165" t="str">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G165" t="str">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H165" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I165" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="str">
         <v>9999</v>
@@ -8948,36 +8948,36 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>68012</v>
+        <v>67890</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>670</v>
+        <v>1088</v>
       </c>
       <c r="D166" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E166" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F166" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G166" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H166" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="I166" t="str">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="J166" t="str">
         <v>9999</v>
@@ -9004,48 +9004,48 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>69082</v>
+        <v>68012</v>
       </c>
       <c r="B167" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C167" t="str">
-        <v>2260</v>
+        <v>670</v>
       </c>
       <c r="D167" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E167" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F167" t="str">
+        <v>1</v>
+      </c>
+      <c r="G167" t="str">
         <v>0</v>
       </c>
-      <c r="G167" t="str">
-        <v>225</v>
-      </c>
       <c r="H167" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I167" t="str">
-        <v>9999</v>
+        <v>224</v>
       </c>
       <c r="J167" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K167" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L167" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M167" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N167" t="str">
         <v>9999</v>
@@ -9057,51 +9057,51 @@
         <v>9999</v>
       </c>
       <c r="Q167" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>67790</v>
+        <v>69090</v>
       </c>
       <c r="B168" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C168" t="str">
-        <v>1343</v>
+        <v>2260</v>
       </c>
       <c r="D168" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E168" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F168" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="G168" t="str">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H168" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I168" t="str">
-        <v>211</v>
+        <v>9999</v>
       </c>
       <c r="J168" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="K168" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L168" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M168" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N168" t="str">
         <v>9999</v>
@@ -9113,10 +9113,10 @@
         <v>9999</v>
       </c>
       <c r="Q168" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
   </sheetData>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -777,43 +777,43 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>69082</v>
+        <v>67892</v>
       </c>
       <c r="B20" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C20" t="str">
-        <v>2260</v>
+        <v>1342</v>
       </c>
       <c r="D20" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E20" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F20" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G20" t="str">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H20" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J20" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K20" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L20" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M20" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N20" t="str">
         <v>9999</v>
@@ -825,39 +825,39 @@
         <v>9999</v>
       </c>
       <c r="Q20" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R20" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67786</v>
+        <v>67994</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
       </c>
       <c r="C21" t="str">
-        <v>1365</v>
+        <v>1120</v>
       </c>
       <c r="D21" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E21" t="str">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="F21" t="str">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="G21" t="str">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="H21" t="str">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="I21" t="str">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -884,36 +884,36 @@
         <v>9999</v>
       </c>
       <c r="R21" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>67752</v>
+        <v>68006</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
       </c>
       <c r="C22" t="str">
-        <v>1354</v>
+        <v>1120</v>
       </c>
       <c r="D22" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E22" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F22" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="H22" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I22" t="str">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J22" t="str">
         <v>9999</v>
@@ -940,18 +940,18 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67830</v>
+        <v>67798</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
       </c>
       <c r="C23" t="str">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D23" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -963,13 +963,13 @@
         <v>251</v>
       </c>
       <c r="G23" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H23" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I23" t="str">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -996,36 +996,36 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>67914</v>
+        <v>67866</v>
       </c>
       <c r="B24" t="str">
         <v>FIDE</v>
       </c>
       <c r="C24" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D24" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E24" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F24" t="str">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G24" t="str">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H24" t="str">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="I24" t="str">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="J24" t="str">
         <v>9999</v>
@@ -1052,36 +1052,36 @@
         <v>9999</v>
       </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>67954</v>
+        <v>67868</v>
       </c>
       <c r="B25" t="str">
         <v>FIDE</v>
       </c>
       <c r="C25" t="str">
-        <v>866</v>
+        <v>1087</v>
       </c>
       <c r="D25" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E25" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F25" t="str">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G25" t="str">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="H25" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I25" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="J25" t="str">
         <v>9999</v>
@@ -1108,36 +1108,36 @@
         <v>9999</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>67994</v>
+        <v>67950</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D26" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E26" t="str">
         <v>255</v>
       </c>
       <c r="F26" t="str">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
         <v>219</v>
       </c>
-      <c r="G26" t="str">
-        <v>192</v>
-      </c>
       <c r="H26" t="str">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I26" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -1164,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>67774</v>
+        <v>67986</v>
       </c>
       <c r="B27" t="str">
         <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1143</v>
+        <v>1371</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E27" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F27" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G27" t="str">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="H27" t="str">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="I27" t="str">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -1220,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67804</v>
+        <v>67748</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>1088</v>
+        <v>933</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E28" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F28" t="str">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="H28" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="I28" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -1276,36 +1276,36 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67960</v>
+        <v>67782</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>1371</v>
+        <v>933</v>
       </c>
       <c r="D29" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E29" t="str">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F29" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G29" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H29" t="str">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="I29" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J29" t="str">
         <v>9999</v>
@@ -1332,36 +1332,36 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>67966</v>
+        <v>67792</v>
       </c>
       <c r="B30" t="str">
         <v>FIDE</v>
       </c>
       <c r="C30" t="str">
-        <v>1372</v>
+        <v>1145</v>
       </c>
       <c r="D30" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E30" t="str">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F30" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G30" t="str">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="H30" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I30" t="str">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="J30" t="str">
         <v>9999</v>
@@ -1388,36 +1388,36 @@
         <v>9999</v>
       </c>
       <c r="R30" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67974</v>
+        <v>67894</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
       </c>
       <c r="C31" t="str">
-        <v>1120</v>
+        <v>981</v>
       </c>
       <c r="D31" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E31" t="str">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F31" t="str">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G31" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="str">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="I31" t="str">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="J31" t="str">
         <v>9999</v>
@@ -1444,36 +1444,36 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67980</v>
+        <v>67854</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>867</v>
+        <v>1090</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E32" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F32" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G32" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I32" t="str">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="J32" t="str">
         <v>9999</v>
@@ -1500,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67744</v>
+        <v>67872</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>1143</v>
+        <v>1088</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E33" t="str">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G33" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H33" t="str">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="I33" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1556,36 +1556,36 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>67748</v>
+        <v>88258</v>
       </c>
       <c r="B34" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C34" t="str">
-        <v>933</v>
+        <v>1120</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E34" t="str">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F34" t="str">
+        <v>224</v>
+      </c>
+      <c r="G34" t="str">
+        <v>190</v>
+      </c>
+      <c r="H34" t="str">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
-        <v>222</v>
-      </c>
-      <c r="H34" t="str">
-        <v>251</v>
-      </c>
       <c r="I34" t="str">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1612,36 +1612,36 @@
         <v>9999</v>
       </c>
       <c r="R34" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67778</v>
+        <v>67834</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>942</v>
+        <v>1088</v>
       </c>
       <c r="D35" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E35" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F35" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G35" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="H35" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="I35" t="str">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J35" t="str">
         <v>9999</v>
@@ -1668,36 +1668,36 @@
         <v>9999</v>
       </c>
       <c r="R35" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67862</v>
+        <v>67920</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>682</v>
+        <v>1120</v>
       </c>
       <c r="D36" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E36" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F36" t="str">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="G36" t="str">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="H36" t="str">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="I36" t="str">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J36" t="str">
         <v>9999</v>
@@ -1724,37 +1724,37 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>67876</v>
+        <v>67818</v>
       </c>
       <c r="B37" t="str">
         <v>FIDE</v>
       </c>
       <c r="C37" t="str">
-        <v>1342</v>
+        <v>1147</v>
       </c>
       <c r="D37" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E37" t="str">
+        <v>270</v>
+      </c>
+      <c r="F37" t="str">
         <v>222</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <v>254</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <v>206</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <v>195</v>
       </c>
-      <c r="I37" t="str">
-        <v>211</v>
-      </c>
       <c r="J37" t="str">
         <v>9999</v>
       </c>
@@ -1780,37 +1780,37 @@
         <v>9999</v>
       </c>
       <c r="R37" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>67984</v>
+        <v>67816</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D38" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E38" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F38" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G38" t="str">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H38" t="str">
+        <v>195</v>
+      </c>
+      <c r="I38" t="str">
         <v>0</v>
       </c>
-      <c r="I38" t="str">
-        <v>202</v>
-      </c>
       <c r="J38" t="str">
         <v>9999</v>
       </c>
@@ -1836,36 +1836,36 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>67746</v>
+        <v>67944</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
       </c>
       <c r="C39" t="str">
-        <v>932</v>
+        <v>664</v>
       </c>
       <c r="D39" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E39" t="str">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="F39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
         <v>1</v>
       </c>
-      <c r="G39" t="str">
-        <v>221</v>
-      </c>
       <c r="H39" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I39" t="str">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1892,36 +1892,36 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>67768</v>
+        <v>67958</v>
       </c>
       <c r="B40" t="str">
         <v>FIDE</v>
       </c>
       <c r="C40" t="str">
-        <v>1142</v>
+        <v>1372</v>
       </c>
       <c r="D40" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E40" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F40" t="str">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G40" t="str">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="H40" t="str">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="I40" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="J40" t="str">
         <v>9999</v>
@@ -1948,36 +1948,36 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>67800</v>
+        <v>67988</v>
       </c>
       <c r="B41" t="str">
         <v>FIDE</v>
       </c>
       <c r="C41" t="str">
-        <v>1088</v>
+        <v>1371</v>
       </c>
       <c r="D41" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E41" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F41" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G41" t="str">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H41" t="str">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I41" t="str">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="J41" t="str">
         <v>9999</v>
@@ -2004,36 +2004,36 @@
         <v>9999</v>
       </c>
       <c r="R41" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67838</v>
+        <v>67826</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>1088</v>
+        <v>877</v>
       </c>
       <c r="D42" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E42" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F42" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G42" t="str">
+        <v>207</v>
+      </c>
+      <c r="H42" t="str">
         <v>1</v>
       </c>
-      <c r="H42" t="str">
-        <v>206</v>
-      </c>
       <c r="I42" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -2060,36 +2060,36 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67868</v>
+        <v>67838</v>
       </c>
       <c r="B43" t="str">
         <v>FIDE</v>
       </c>
       <c r="C43" t="str">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D43" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E43" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" t="str">
         <v>253</v>
       </c>
       <c r="G43" t="str">
+        <v>1</v>
+      </c>
+      <c r="H43" t="str">
         <v>206</v>
       </c>
-      <c r="H43" t="str">
-        <v>195</v>
-      </c>
       <c r="I43" t="str">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="J43" t="str">
         <v>9999</v>
@@ -2116,36 +2116,36 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>67870</v>
+        <v>68002</v>
       </c>
       <c r="B44" t="str">
         <v>FIDE</v>
       </c>
       <c r="C44" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D44" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E44" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F44" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G44" t="str">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H44" t="str">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I44" t="str">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J44" t="str">
         <v>9999</v>
@@ -2172,36 +2172,36 @@
         <v>9999</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67924</v>
+        <v>67752</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>867</v>
+        <v>1354</v>
       </c>
       <c r="D45" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E45" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F45" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G45" t="str">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="H45" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I45" t="str">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J45" t="str">
         <v>9999</v>
@@ -2228,18 +2228,18 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67922</v>
+        <v>67912</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>1372</v>
+        <v>867</v>
       </c>
       <c r="D46" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -2251,13 +2251,13 @@
         <v>212</v>
       </c>
       <c r="G46" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H46" t="str">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I46" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -2284,36 +2284,36 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67944</v>
+        <v>67954</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>664</v>
+        <v>866</v>
       </c>
       <c r="D47" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E47" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F47" t="str">
+        <v>212</v>
+      </c>
+      <c r="G47" t="str">
+        <v>7</v>
+      </c>
+      <c r="H47" t="str">
         <v>0</v>
       </c>
-      <c r="G47" t="str">
-        <v>1</v>
-      </c>
-      <c r="H47" t="str">
-        <v>254</v>
-      </c>
       <c r="I47" t="str">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="J47" t="str">
         <v>9999</v>
@@ -2340,36 +2340,36 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67952</v>
+        <v>67984</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D48" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E48" t="str">
+        <v>255</v>
+      </c>
+      <c r="F48" t="str">
+        <v>219</v>
+      </c>
+      <c r="G48" t="str">
+        <v>191</v>
+      </c>
+      <c r="H48" t="str">
         <v>0</v>
       </c>
-      <c r="F48" t="str">
-        <v>255</v>
-      </c>
-      <c r="G48" t="str">
-        <v>219</v>
-      </c>
-      <c r="H48" t="str">
-        <v>190</v>
-      </c>
       <c r="I48" t="str">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J48" t="str">
         <v>9999</v>
@@ -2396,36 +2396,36 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>67790</v>
+        <v>67902</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>1343</v>
+        <v>1092</v>
       </c>
       <c r="D49" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E49" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F49" t="str">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G49" t="str">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H49" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I49" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2452,48 +2452,48 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>67930</v>
+        <v>69088</v>
       </c>
       <c r="B50" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C50" t="str">
-        <v>664</v>
+        <v>2258</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E50" t="str">
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G50" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="H50" t="str">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I50" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J50" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="K50" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L50" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M50" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N50" t="str">
         <v>9999</v>
@@ -2505,51 +2505,51 @@
         <v>9999</v>
       </c>
       <c r="Q50" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>67996</v>
+        <v>69074</v>
       </c>
       <c r="B51" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C51" t="str">
-        <v>867</v>
+        <v>2253</v>
       </c>
       <c r="D51" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E51" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F51" t="str">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G51" t="str">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H51" t="str">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I51" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J51" t="str">
+        <v>253</v>
+      </c>
+      <c r="K51" t="str">
+        <v>304</v>
+      </c>
+      <c r="L51" t="str">
         <v>0</v>
       </c>
-      <c r="J51" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K51" t="str">
-        <v>9999</v>
-      </c>
-      <c r="L51" t="str">
-        <v>9999</v>
-      </c>
       <c r="M51" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N51" t="str">
         <v>9999</v>
@@ -2561,39 +2561,39 @@
         <v>9999</v>
       </c>
       <c r="Q51" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R51" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>67948</v>
+        <v>67770</v>
       </c>
       <c r="B52" t="str">
         <v>FIDE</v>
       </c>
       <c r="C52" t="str">
-        <v>1373</v>
+        <v>1144</v>
       </c>
       <c r="D52" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E52" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F52" t="str">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="G52" t="str">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="H52" t="str">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="I52" t="str">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2620,36 +2620,36 @@
         <v>9999</v>
       </c>
       <c r="R52" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>88262</v>
+        <v>67824</v>
       </c>
       <c r="B53" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C53" t="str">
-        <v>1371</v>
+        <v>876</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E53" t="str">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G53" t="str">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="H53" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I53" t="str">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2676,36 +2676,36 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67772</v>
+        <v>67976</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D54" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E54" t="str">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="F54" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G54" t="str">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H54" t="str">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I54" t="str">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J54" t="str">
         <v>9999</v>
@@ -2732,36 +2732,36 @@
         <v>9999</v>
       </c>
       <c r="R54" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67814</v>
+        <v>67908</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>1087</v>
+        <v>656</v>
       </c>
       <c r="D55" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E55" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F55" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G55" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="H55" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I55" t="str">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2788,36 +2788,36 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67834</v>
+        <v>67946</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
       </c>
       <c r="C56" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D56" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E56" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F56" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="G56" t="str">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H56" t="str">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I56" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J56" t="str">
         <v>9999</v>
@@ -2844,36 +2844,36 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>67856</v>
+        <v>67952</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D57" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E57" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G57" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H57" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I57" t="str">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J57" t="str">
         <v>9999</v>
@@ -2900,36 +2900,36 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>67936</v>
+        <v>68008</v>
       </c>
       <c r="B58" t="str">
         <v>FIDE</v>
       </c>
       <c r="C58" t="str">
-        <v>867</v>
+        <v>1119</v>
       </c>
       <c r="D58" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E58" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F58" t="str">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G58" t="str">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="H58" t="str">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I58" t="str">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2956,18 +2956,18 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>67942</v>
+        <v>67896</v>
       </c>
       <c r="B59" t="str">
         <v>FIDE</v>
       </c>
       <c r="C59" t="str">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D59" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -2985,7 +2985,7 @@
         <v>203</v>
       </c>
       <c r="I59" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -3012,18 +3012,18 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>88264</v>
+        <v>67978</v>
       </c>
       <c r="B60" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C60" t="str">
-        <v>867</v>
+        <v>1121</v>
       </c>
       <c r="D60" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -3035,13 +3035,13 @@
         <v>1</v>
       </c>
       <c r="G60" t="str">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H60" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I60" t="str">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -3068,36 +3068,36 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67750</v>
+        <v>67990</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E61" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F61" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G61" t="str">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="H61" t="str">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I61" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J61" t="str">
         <v>9999</v>
@@ -3124,12 +3124,12 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>67928</v>
+        <v>68004</v>
       </c>
       <c r="B62" t="str">
         <v>FIDE</v>
@@ -3138,22 +3138,22 @@
         <v>867</v>
       </c>
       <c r="D62" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E62" t="str">
         <v>255</v>
       </c>
       <c r="F62" t="str">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G62" t="str">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="H62" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="str">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J62" t="str">
         <v>9999</v>
@@ -3180,48 +3180,48 @@
         <v>9999</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>67986</v>
+        <v>69090</v>
       </c>
       <c r="B63" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C63" t="str">
-        <v>1371</v>
+        <v>2260</v>
       </c>
       <c r="D63" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E63" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F63" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G63" t="str">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H63" t="str">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I63" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="J63" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="K63" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L63" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M63" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N63" t="str">
         <v>9999</v>
@@ -3233,39 +3233,39 @@
         <v>9999</v>
       </c>
       <c r="Q63" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>88258</v>
+        <v>67774</v>
       </c>
       <c r="B64" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C64" t="str">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="D64" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E64" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F64" t="str">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G64" t="str">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="H64" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I64" t="str">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J64" t="str">
         <v>9999</v>
@@ -3292,48 +3292,48 @@
         <v>9999</v>
       </c>
       <c r="R64" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>69084</v>
+        <v>67820</v>
       </c>
       <c r="B65" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C65" t="str">
-        <v>2260</v>
+        <v>1087</v>
       </c>
       <c r="D65" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E65" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F65" t="str">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G65" t="str">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H65" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I65" t="str">
-        <v>9999</v>
+        <v>195</v>
       </c>
       <c r="J65" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K65" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L65" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M65" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N65" t="str">
         <v>9999</v>
@@ -3345,39 +3345,39 @@
         <v>9999</v>
       </c>
       <c r="Q65" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>88260</v>
+        <v>67850</v>
       </c>
       <c r="B66" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C66" t="str">
-        <v>1120</v>
+        <v>1342</v>
       </c>
       <c r="D66" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E66" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F66" t="str">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G66" t="str">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H66" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I66" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J66" t="str">
         <v>9999</v>
@@ -3404,36 +3404,36 @@
         <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>67822</v>
+        <v>67928</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D67" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E67" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F67" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G67" t="str">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="H67" t="str">
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3460,36 +3460,36 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67858</v>
+        <v>67964</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>1343</v>
+        <v>1120</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E68" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F68" t="str">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G68" t="str">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H68" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="I68" t="str">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J68" t="str">
         <v>9999</v>
@@ -3516,36 +3516,36 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>67884</v>
+        <v>68014</v>
       </c>
       <c r="B69" t="str">
         <v>FIDE</v>
       </c>
       <c r="C69" t="str">
-        <v>1343</v>
+        <v>867</v>
       </c>
       <c r="D69" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E69" t="str">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G69" t="str">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H69" t="str">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I69" t="str">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J69" t="str">
         <v>9999</v>
@@ -3572,36 +3572,36 @@
         <v>9999</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>67912</v>
+        <v>67754</v>
       </c>
       <c r="B70" t="str">
         <v>FIDE</v>
       </c>
       <c r="C70" t="str">
-        <v>867</v>
+        <v>1144</v>
       </c>
       <c r="D70" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E70" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F70" t="str">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G70" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="str">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="I70" t="str">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="J70" t="str">
         <v>9999</v>
@@ -3628,36 +3628,36 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>67770</v>
+        <v>67802</v>
       </c>
       <c r="B71" t="str">
         <v>FIDE</v>
       </c>
       <c r="C71" t="str">
-        <v>1144</v>
+        <v>1086</v>
       </c>
       <c r="D71" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E71" t="str">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="F71" t="str">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G71" t="str">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H71" t="str">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="I71" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J71" t="str">
         <v>9999</v>
@@ -3684,36 +3684,36 @@
         <v>9999</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67776</v>
+        <v>67812</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>1143</v>
+        <v>877</v>
       </c>
       <c r="D72" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E72" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F72" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G72" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H72" t="str">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="I72" t="str">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J72" t="str">
         <v>9999</v>
@@ -3740,36 +3740,36 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>67780</v>
+        <v>68010</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D73" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E73" t="str">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F73" t="str">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G73" t="str">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="H73" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I73" t="str">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="J73" t="str">
         <v>9999</v>
@@ -3796,36 +3796,36 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67938</v>
+        <v>67760</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1093</v>
+        <v>1353</v>
       </c>
       <c r="D74" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E74" t="str">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F74" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G74" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H74" t="str">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="I74" t="str">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J74" t="str">
         <v>9999</v>
@@ -3852,36 +3852,36 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67990</v>
+        <v>67804</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D75" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E75" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F75" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G75" t="str">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="H75" t="str">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I75" t="str">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="J75" t="str">
         <v>9999</v>
@@ -3908,48 +3908,48 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>69078</v>
+        <v>67808</v>
       </c>
       <c r="B76" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C76" t="str">
-        <v>1978</v>
+        <v>877</v>
       </c>
       <c r="D76" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E76" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F76" t="str">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G76" t="str">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H76" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I76" t="str">
-        <v>9999</v>
+        <v>195</v>
       </c>
       <c r="J76" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K76" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L76" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M76" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N76" t="str">
         <v>9999</v>
@@ -3961,15 +3961,15 @@
         <v>9999</v>
       </c>
       <c r="Q76" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>67906</v>
+        <v>67932</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
@@ -3981,19 +3981,19 @@
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E77" t="str">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
         <v>255</v>
       </c>
-      <c r="F77" t="str">
+      <c r="G77" t="str">
         <v>212</v>
       </c>
-      <c r="G77" t="str">
-        <v>195</v>
-      </c>
       <c r="H77" t="str">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="I77" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -4020,36 +4020,36 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>67964</v>
+        <v>88260</v>
       </c>
       <c r="B78" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C78" t="str">
         <v>1120</v>
       </c>
       <c r="D78" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E78" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="G78" t="str">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H78" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I78" t="str">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J78" t="str">
         <v>9999</v>
@@ -4076,36 +4076,36 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67810</v>
+        <v>67786</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1087</v>
+        <v>1365</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E79" t="str">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F79" t="str">
+        <v>272</v>
+      </c>
+      <c r="G79" t="str">
+        <v>232</v>
+      </c>
+      <c r="H79" t="str">
         <v>252</v>
       </c>
-      <c r="G79" t="str">
-        <v>208</v>
-      </c>
-      <c r="H79" t="str">
-        <v>195</v>
-      </c>
       <c r="I79" t="str">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="J79" t="str">
         <v>9999</v>
@@ -4132,36 +4132,36 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>68002</v>
+        <v>67764</v>
       </c>
       <c r="B80" t="str">
         <v>FIDE</v>
       </c>
       <c r="C80" t="str">
-        <v>1120</v>
+        <v>1353</v>
       </c>
       <c r="D80" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E80" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F80" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G80" t="str">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H80" t="str">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I80" t="str">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J80" t="str">
         <v>9999</v>
@@ -4188,36 +4188,36 @@
         <v>9999</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67794</v>
+        <v>67832</v>
       </c>
       <c r="B81" t="str">
         <v>FIDE</v>
       </c>
       <c r="C81" t="str">
-        <v>681</v>
+        <v>1087</v>
       </c>
       <c r="D81" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E81" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F81" t="str">
         <v>252</v>
       </c>
       <c r="G81" t="str">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H81" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I81" t="str">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J81" t="str">
         <v>9999</v>
@@ -4244,36 +4244,36 @@
         <v>9999</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67798</v>
+        <v>67948</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="D82" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E82" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F82" t="str">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G82" t="str">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H82" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I82" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J82" t="str">
         <v>9999</v>
@@ -4300,30 +4300,30 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67950</v>
+        <v>67974</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
       </c>
       <c r="C83" t="str">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D83" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E83" t="str">
         <v>255</v>
       </c>
       <c r="F83" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G83" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="H83" t="str">
         <v>190</v>
@@ -4356,36 +4356,36 @@
         <v>9999</v>
       </c>
       <c r="R83" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>67762</v>
+        <v>67962</v>
       </c>
       <c r="B84" t="str">
         <v>FIDE</v>
       </c>
       <c r="C84" t="str">
-        <v>1353</v>
+        <v>1120</v>
       </c>
       <c r="D84" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E84" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F84" t="str">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G84" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="H84" t="str">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I84" t="str">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J84" t="str">
         <v>9999</v>
@@ -4412,48 +4412,48 @@
         <v>9999</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>67864</v>
+        <v>69084</v>
       </c>
       <c r="B85" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C85" t="str">
-        <v>1342</v>
+        <v>2260</v>
       </c>
       <c r="D85" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E85" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F85" t="str">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G85" t="str">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H85" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I85" t="str">
-        <v>211</v>
+        <v>9999</v>
       </c>
       <c r="J85" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K85" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L85" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M85" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N85" t="str">
         <v>9999</v>
@@ -4465,39 +4465,39 @@
         <v>9999</v>
       </c>
       <c r="Q85" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R85" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67900</v>
+        <v>67750</v>
       </c>
       <c r="B86" t="str">
         <v>FIDE</v>
       </c>
       <c r="C86" t="str">
-        <v>867</v>
+        <v>1354</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E86" t="str">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F86" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G86" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H86" t="str">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="I86" t="str">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J86" t="str">
         <v>9999</v>
@@ -4524,18 +4524,18 @@
         <v>9999</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67892</v>
+        <v>67890</v>
       </c>
       <c r="B87" t="str">
         <v>FIDE</v>
       </c>
       <c r="C87" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D87" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -4544,17 +4544,17 @@
         <v>222</v>
       </c>
       <c r="F87" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G87" t="str">
+        <v>2</v>
+      </c>
+      <c r="H87" t="str">
         <v>213</v>
       </c>
-      <c r="H87" t="str">
+      <c r="I87" t="str">
         <v>189</v>
       </c>
-      <c r="I87" t="str">
-        <v>210</v>
-      </c>
       <c r="J87" t="str">
         <v>9999</v>
       </c>
@@ -4580,33 +4580,33 @@
         <v>9999</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>67902</v>
+        <v>67934</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>1092</v>
+        <v>1120</v>
       </c>
       <c r="D88" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E88" t="str">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F88" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G88" t="str">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="H88" t="str">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I88" t="str">
         <v>0</v>
@@ -4636,36 +4636,36 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>67754</v>
+        <v>67936</v>
       </c>
       <c r="B89" t="str">
         <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>1144</v>
+        <v>867</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E89" t="str">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="G89" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H89" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="I89" t="str">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="J89" t="str">
         <v>9999</v>
@@ -4692,36 +4692,36 @@
         <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67756</v>
+        <v>67960</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>933</v>
+        <v>1371</v>
       </c>
       <c r="D90" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E90" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="F90" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G90" t="str">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="H90" t="str">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="I90" t="str">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J90" t="str">
         <v>9999</v>
@@ -4748,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67764</v>
+        <v>67970</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E91" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F91" t="str">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G91" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H91" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I91" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4804,36 +4804,36 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67840</v>
+        <v>67992</v>
       </c>
       <c r="B92" t="str">
         <v>FIDE</v>
       </c>
       <c r="C92" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D92" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E92" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F92" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G92" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H92" t="str">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I92" t="str">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J92" t="str">
         <v>9999</v>
@@ -4860,36 +4860,36 @@
         <v>9999</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67842</v>
+        <v>67746</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>1342</v>
+        <v>932</v>
       </c>
       <c r="D93" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E93" t="str">
+        <v>265</v>
+      </c>
+      <c r="F93" t="str">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
         <v>221</v>
       </c>
-      <c r="F93" t="str">
-        <v>253</v>
-      </c>
-      <c r="G93" t="str">
-        <v>207</v>
-      </c>
       <c r="H93" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="I93" t="str">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4916,48 +4916,48 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>67846</v>
+        <v>69076</v>
       </c>
       <c r="B94" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C94" t="str">
-        <v>1089</v>
+        <v>2830</v>
       </c>
       <c r="D94" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E94" t="str">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F94" t="str">
+        <v>255</v>
+      </c>
+      <c r="G94" t="str">
+        <v>225</v>
+      </c>
+      <c r="H94" t="str">
+        <v>190</v>
+      </c>
+      <c r="I94" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J94" t="str">
         <v>253</v>
       </c>
-      <c r="G94" t="str">
-        <v>207</v>
-      </c>
-      <c r="H94" t="str">
-        <v>196</v>
-      </c>
-      <c r="I94" t="str">
-        <v>210</v>
-      </c>
-      <c r="J94" t="str">
-        <v>9999</v>
-      </c>
       <c r="K94" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L94" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M94" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N94" t="str">
         <v>9999</v>
@@ -4969,39 +4969,39 @@
         <v>9999</v>
       </c>
       <c r="Q94" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>67898</v>
+        <v>67900</v>
       </c>
       <c r="B95" t="str">
         <v>FIDE</v>
       </c>
       <c r="C95" t="str">
-        <v>1122</v>
+        <v>867</v>
       </c>
       <c r="D95" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E95" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F95" t="str">
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <v>1</v>
+      </c>
+      <c r="H95" t="str">
         <v>213</v>
       </c>
-      <c r="G95" t="str">
-        <v>197</v>
-      </c>
-      <c r="H95" t="str">
-        <v>0</v>
-      </c>
       <c r="I95" t="str">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J95" t="str">
         <v>9999</v>
@@ -5028,12 +5028,12 @@
         <v>9999</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>67932</v>
+        <v>67918</v>
       </c>
       <c r="B96" t="str">
         <v>FIDE</v>
@@ -5045,19 +5045,19 @@
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E96" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F96" t="str">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="G96" t="str">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H96" t="str">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I96" t="str">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J96" t="str">
         <v>9999</v>
@@ -5084,36 +5084,36 @@
         <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67968</v>
+        <v>67982</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="D97" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E97" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F97" t="str">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G97" t="str">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H97" t="str">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="I97" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -5140,36 +5140,36 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>67982</v>
+        <v>67996</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>1371</v>
+        <v>867</v>
       </c>
       <c r="D98" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E98" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F98" t="str">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="G98" t="str">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="H98" t="str">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I98" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J98" t="str">
         <v>9999</v>
@@ -5196,36 +5196,36 @@
         <v>9999</v>
       </c>
       <c r="R98" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>68010</v>
+        <v>67788</v>
       </c>
       <c r="B99" t="str">
         <v>FIDE</v>
       </c>
       <c r="C99" t="str">
-        <v>1372</v>
+        <v>947</v>
       </c>
       <c r="D99" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E99" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F99" t="str">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G99" t="str">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="H99" t="str">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I99" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J99" t="str">
         <v>9999</v>
@@ -5252,18 +5252,18 @@
         <v>9999</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>67796</v>
+        <v>67842</v>
       </c>
       <c r="B100" t="str">
         <v>FIDE</v>
       </c>
       <c r="C100" t="str">
-        <v>675</v>
+        <v>1342</v>
       </c>
       <c r="D100" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5272,16 +5272,16 @@
         <v>221</v>
       </c>
       <c r="F100" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G100" t="str">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="H100" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I100" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J100" t="str">
         <v>9999</v>
@@ -5308,36 +5308,36 @@
         <v>9999</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67844</v>
+        <v>67904</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>1089</v>
+        <v>1372</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E101" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F101" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G101" t="str">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H101" t="str">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I101" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J101" t="str">
         <v>9999</v>
@@ -5364,18 +5364,18 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67860</v>
+        <v>67848</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>879</v>
+        <v>1088</v>
       </c>
       <c r="D102" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -5384,17 +5384,17 @@
         <v>222</v>
       </c>
       <c r="F102" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G102" t="str">
+        <v>206</v>
+      </c>
+      <c r="H102" t="str">
+        <v>196</v>
+      </c>
+      <c r="I102" t="str">
         <v>0</v>
       </c>
-      <c r="H102" t="str">
-        <v>207</v>
-      </c>
-      <c r="I102" t="str">
-        <v>196</v>
-      </c>
       <c r="J102" t="str">
         <v>9999</v>
       </c>
@@ -5420,36 +5420,36 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>67866</v>
+        <v>67906</v>
       </c>
       <c r="B103" t="str">
         <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>1088</v>
+        <v>1121</v>
       </c>
       <c r="D103" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E103" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F103" t="str">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G103" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H103" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J103" t="str">
         <v>9999</v>
@@ -5476,36 +5476,36 @@
         <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>67976</v>
+        <v>67966</v>
       </c>
       <c r="B104" t="str">
         <v>FIDE</v>
       </c>
       <c r="C104" t="str">
-        <v>1347</v>
+        <v>1372</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E104" t="str">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F104" t="str">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G104" t="str">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H104" t="str">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="I104" t="str">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J104" t="str">
         <v>9999</v>
@@ -5532,18 +5532,18 @@
         <v>9999</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>67992</v>
+        <v>67998</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="D105" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -5552,16 +5552,16 @@
         <v>255</v>
       </c>
       <c r="F105" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G105" t="str">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H105" t="str">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I105" t="str">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="J105" t="str">
         <v>9999</v>
@@ -5588,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>67760</v>
+        <v>88264</v>
       </c>
       <c r="B106" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C106" t="str">
-        <v>1353</v>
+        <v>867</v>
       </c>
       <c r="D106" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E106" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F106" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="G106" t="str">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="H106" t="str">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="I106" t="str">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5644,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67818</v>
+        <v>67810</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>1147</v>
+        <v>1087</v>
       </c>
       <c r="D107" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E107" t="str">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F107" t="str">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G107" t="str">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="H107" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I107" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5700,36 +5700,36 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>67946</v>
+        <v>67814</v>
       </c>
       <c r="B108" t="str">
         <v>FIDE</v>
       </c>
       <c r="C108" t="str">
-        <v>1372</v>
+        <v>1087</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E108" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F108" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G108" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H108" t="str">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I108" t="str">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J108" t="str">
         <v>9999</v>
@@ -5756,36 +5756,36 @@
         <v>9999</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67758</v>
+        <v>67886</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>1343</v>
+        <v>877</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E109" t="str">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F109" t="str">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G109" t="str">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H109" t="str">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="I109" t="str">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="J109" t="str">
         <v>9999</v>
@@ -5817,43 +5817,43 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>67894</v>
+        <v>69086</v>
       </c>
       <c r="B110" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C110" t="str">
-        <v>981</v>
+        <v>2260</v>
       </c>
       <c r="D110" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E110" t="str">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F110" t="str">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G110" t="str">
         <v>1</v>
       </c>
       <c r="H110" t="str">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="I110" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J110" t="str">
+        <v>253</v>
+      </c>
+      <c r="K110" t="str">
         <v>252</v>
       </c>
-      <c r="J110" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K110" t="str">
-        <v>9999</v>
-      </c>
       <c r="L110" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M110" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N110" t="str">
         <v>9999</v>
@@ -5865,39 +5865,39 @@
         <v>9999</v>
       </c>
       <c r="Q110" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67904</v>
+        <v>67784</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="D111" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E111" t="str">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F111" t="str">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G111" t="str">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="H111" t="str">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I111" t="str">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="J111" t="str">
         <v>9999</v>
@@ -5924,36 +5924,36 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>67916</v>
+        <v>67790</v>
       </c>
       <c r="B112" t="str">
         <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="D112" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E112" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F112" t="str">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="G112" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H112" t="str">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I112" t="str">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J112" t="str">
         <v>9999</v>
@@ -5980,48 +5980,48 @@
         <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>69080</v>
+        <v>67846</v>
       </c>
       <c r="B113" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C113" t="str">
-        <v>2830</v>
+        <v>1089</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E113" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F113" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G113" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H113" t="str">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I113" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J113" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K113" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L113" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M113" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N113" t="str">
         <v>9999</v>
@@ -6033,15 +6033,15 @@
         <v>9999</v>
       </c>
       <c r="Q113" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67836</v>
+        <v>67888</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
@@ -6059,13 +6059,13 @@
         <v>253</v>
       </c>
       <c r="G114" t="str">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="H114" t="str">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="I114" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J114" t="str">
         <v>9999</v>
@@ -6092,36 +6092,36 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>67880</v>
+        <v>67776</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
       </c>
       <c r="C115" t="str">
-        <v>878</v>
+        <v>1143</v>
       </c>
       <c r="D115" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E115" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F115" t="str">
+        <v>221</v>
+      </c>
+      <c r="G115" t="str">
         <v>1</v>
       </c>
-      <c r="G115" t="str">
-        <v>253</v>
-      </c>
       <c r="H115" t="str">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I115" t="str">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -6148,36 +6148,36 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>67934</v>
+        <v>67876</v>
       </c>
       <c r="B116" t="str">
         <v>FIDE</v>
       </c>
       <c r="C116" t="str">
-        <v>1120</v>
+        <v>1342</v>
       </c>
       <c r="D116" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E116" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F116" t="str">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G116" t="str">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H116" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I116" t="str">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J116" t="str">
         <v>9999</v>
@@ -6204,36 +6204,36 @@
         <v>9999</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>68014</v>
+        <v>67880</v>
       </c>
       <c r="B117" t="str">
         <v>FIDE</v>
       </c>
       <c r="C117" t="str">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="D117" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E117" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F117" t="str">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G117" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H117" t="str">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="I117" t="str">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J117" t="str">
         <v>9999</v>
@@ -6260,36 +6260,36 @@
         <v>9999</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>67852</v>
+        <v>67938</v>
       </c>
       <c r="B118" t="str">
         <v>FIDE</v>
       </c>
       <c r="C118" t="str">
-        <v>981</v>
+        <v>1093</v>
       </c>
       <c r="D118" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E118" t="str">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="F118" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G118" t="str">
         <v>1</v>
       </c>
       <c r="H118" t="str">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I118" t="str">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="J118" t="str">
         <v>9999</v>
@@ -6316,36 +6316,36 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>68006</v>
+        <v>67898</v>
       </c>
       <c r="B119" t="str">
         <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E119" t="str">
         <v>255</v>
       </c>
       <c r="F119" t="str">
+        <v>213</v>
+      </c>
+      <c r="G119" t="str">
+        <v>197</v>
+      </c>
+      <c r="H119" t="str">
         <v>0</v>
       </c>
-      <c r="G119" t="str">
-        <v>226</v>
-      </c>
-      <c r="H119" t="str">
-        <v>189</v>
-      </c>
       <c r="I119" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J119" t="str">
         <v>9999</v>
@@ -6372,36 +6372,36 @@
         <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>68008</v>
+        <v>67956</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D120" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E120" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F120" t="str">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G120" t="str">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="H120" t="str">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I120" t="str">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="J120" t="str">
         <v>9999</v>
@@ -6428,36 +6428,36 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67808</v>
+        <v>67968</v>
       </c>
       <c r="B121" t="str">
         <v>FIDE</v>
       </c>
       <c r="C121" t="str">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D121" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E121" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F121" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G121" t="str">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H121" t="str">
         <v>0</v>
       </c>
       <c r="I121" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J121" t="str">
         <v>9999</v>
@@ -6484,36 +6484,36 @@
         <v>9999</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>67816</v>
+        <v>67772</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>1088</v>
+        <v>1353</v>
       </c>
       <c r="D122" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E122" t="str">
+        <v>265</v>
+      </c>
+      <c r="F122" t="str">
         <v>222</v>
       </c>
-      <c r="F122" t="str">
-        <v>252</v>
-      </c>
       <c r="G122" t="str">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="H122" t="str">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I122" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J122" t="str">
         <v>9999</v>
@@ -6540,36 +6540,36 @@
         <v>9999</v>
       </c>
       <c r="R122" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67896</v>
+        <v>67800</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D123" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E123" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F123" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G123" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H123" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I123" t="str">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="J123" t="str">
         <v>9999</v>
@@ -6596,36 +6596,36 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>68000</v>
+        <v>67840</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>868</v>
+        <v>1088</v>
       </c>
       <c r="D124" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E124" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F124" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G124" t="str">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H124" t="str">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I124" t="str">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J124" t="str">
         <v>9999</v>
@@ -6652,36 +6652,36 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>68004</v>
+        <v>67844</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>867</v>
+        <v>1089</v>
       </c>
       <c r="D125" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E125" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F125" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G125" t="str">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="H125" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="str">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J125" t="str">
         <v>9999</v>
@@ -6708,48 +6708,48 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>69088</v>
+        <v>67884</v>
       </c>
       <c r="B126" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C126" t="str">
-        <v>2258</v>
+        <v>1343</v>
       </c>
       <c r="D126" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E126" t="str">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="F126" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G126" t="str">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="H126" t="str">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="I126" t="str">
-        <v>9999</v>
+        <v>209</v>
       </c>
       <c r="J126" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K126" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L126" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M126" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N126" t="str">
         <v>9999</v>
@@ -6761,39 +6761,39 @@
         <v>9999</v>
       </c>
       <c r="Q126" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67824</v>
+        <v>67914</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>876</v>
+        <v>1372</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E127" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F127" t="str">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G127" t="str">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="H127" t="str">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="I127" t="str">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="J127" t="str">
         <v>9999</v>
@@ -6820,36 +6820,36 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>67832</v>
+        <v>67926</v>
       </c>
       <c r="B128" t="str">
         <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>1087</v>
+        <v>1371</v>
       </c>
       <c r="D128" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E128" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F128" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G128" t="str">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H128" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I128" t="str">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="J128" t="str">
         <v>9999</v>
@@ -6876,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67874</v>
+        <v>67852</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>1089</v>
+        <v>981</v>
       </c>
       <c r="D129" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E129" t="str">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="F129" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="G129" t="str">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H129" t="str">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="I129" t="str">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6932,36 +6932,36 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>67908</v>
+        <v>67874</v>
       </c>
       <c r="B130" t="str">
         <v>FIDE</v>
       </c>
       <c r="C130" t="str">
-        <v>656</v>
+        <v>1089</v>
       </c>
       <c r="D130" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E130" t="str">
+        <v>222</v>
+      </c>
+      <c r="F130" t="str">
         <v>254</v>
       </c>
-      <c r="F130" t="str">
-        <v>213</v>
-      </c>
       <c r="G130" t="str">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="H130" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="str">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J130" t="str">
         <v>9999</v>
@@ -6988,36 +6988,36 @@
         <v>9999</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>67920</v>
+        <v>67972</v>
       </c>
       <c r="B131" t="str">
         <v>FIDE</v>
       </c>
       <c r="C131" t="str">
-        <v>1120</v>
+        <v>664</v>
       </c>
       <c r="D131" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E131" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F131" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G131" t="str">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H131" t="str">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="I131" t="str">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="J131" t="str">
         <v>9999</v>
@@ -7044,36 +7044,36 @@
         <v>9999</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>67926</v>
+        <v>67758</v>
       </c>
       <c r="B132" t="str">
         <v>FIDE</v>
       </c>
       <c r="C132" t="str">
-        <v>1371</v>
+        <v>1343</v>
       </c>
       <c r="D132" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E132" t="str">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="F132" t="str">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="G132" t="str">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="H132" t="str">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="I132" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J132" t="str">
         <v>9999</v>
@@ -7100,37 +7100,37 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67788</v>
+        <v>67806</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>947</v>
+        <v>877</v>
       </c>
       <c r="D133" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E133" t="str">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="F133" t="str">
         <v>222</v>
       </c>
       <c r="G133" t="str">
+        <v>0</v>
+      </c>
+      <c r="H133" t="str">
         <v>252</v>
       </c>
-      <c r="H133" t="str">
+      <c r="I133" t="str">
         <v>207</v>
       </c>
-      <c r="I133" t="str">
-        <v>0</v>
-      </c>
       <c r="J133" t="str">
         <v>9999</v>
       </c>
@@ -7156,12 +7156,12 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>67806</v>
+        <v>67822</v>
       </c>
       <c r="B134" t="str">
         <v>FIDE</v>
@@ -7173,19 +7173,19 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E134" t="str">
+        <v>222</v>
+      </c>
+      <c r="F134" t="str">
         <v>1</v>
       </c>
-      <c r="F134" t="str">
-        <v>222</v>
-      </c>
       <c r="G134" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H134" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="I134" t="str">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J134" t="str">
         <v>9999</v>
@@ -7212,37 +7212,37 @@
         <v>9999</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67802</v>
+        <v>67836</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D135" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E135" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F135" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G135" t="str">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="H135" t="str">
+        <v>206</v>
+      </c>
+      <c r="I135" t="str">
         <v>195</v>
       </c>
-      <c r="I135" t="str">
-        <v>210</v>
-      </c>
       <c r="J135" t="str">
         <v>9999</v>
       </c>
@@ -7268,36 +7268,36 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67828</v>
+        <v>67882</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D136" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E136" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F136" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="G136" t="str">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H136" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="I136" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J136" t="str">
         <v>9999</v>
@@ -7324,36 +7324,36 @@
         <v>9999</v>
       </c>
       <c r="R136" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67878</v>
+        <v>67922</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D137" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E137" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F137" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G137" t="str">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H137" t="str">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="I137" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7380,36 +7380,36 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>67970</v>
+        <v>67930</v>
       </c>
       <c r="B138" t="str">
         <v>FIDE</v>
       </c>
       <c r="C138" t="str">
-        <v>1372</v>
+        <v>664</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E138" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F138" t="str">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="G138" t="str">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H138" t="str">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I138" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J138" t="str">
         <v>9999</v>
@@ -7436,36 +7436,36 @@
         <v>9999</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>67792</v>
+        <v>67980</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>1145</v>
+        <v>867</v>
       </c>
       <c r="D139" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E139" t="str">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F139" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G139" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="H139" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I139" t="str">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="J139" t="str">
         <v>9999</v>
@@ -7492,33 +7492,33 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67826</v>
+        <v>67766</v>
       </c>
       <c r="B140" t="str">
         <v>FIDE</v>
       </c>
       <c r="C140" t="str">
-        <v>877</v>
+        <v>1143</v>
       </c>
       <c r="D140" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E140" t="str">
+        <v>266</v>
+      </c>
+      <c r="F140" t="str">
         <v>222</v>
       </c>
-      <c r="F140" t="str">
+      <c r="G140" t="str">
         <v>252</v>
       </c>
-      <c r="G140" t="str">
-        <v>207</v>
-      </c>
       <c r="H140" t="str">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="I140" t="str">
         <v>0</v>
@@ -7548,36 +7548,36 @@
         <v>9999</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67910</v>
+        <v>67878</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D141" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E141" t="str">
+        <v>222</v>
+      </c>
+      <c r="F141" t="str">
         <v>254</v>
       </c>
-      <c r="F141" t="str">
-        <v>213</v>
-      </c>
       <c r="G141" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H141" t="str">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="I141" t="str">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="J141" t="str">
         <v>9999</v>
@@ -7604,18 +7604,18 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67962</v>
+        <v>67910</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
       </c>
       <c r="C142" t="str">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="D142" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -7624,16 +7624,16 @@
         <v>254</v>
       </c>
       <c r="F142" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G142" t="str">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="H142" t="str">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I142" t="str">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="J142" t="str">
         <v>9999</v>
@@ -7660,36 +7660,36 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>67888</v>
+        <v>67940</v>
       </c>
       <c r="B143" t="str">
         <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>1088</v>
+        <v>1371</v>
       </c>
       <c r="D143" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E143" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F143" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G143" t="str">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="H143" t="str">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="I143" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J143" t="str">
         <v>9999</v>
@@ -7716,18 +7716,18 @@
         <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>67918</v>
+        <v>67942</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>1121</v>
+        <v>1373</v>
       </c>
       <c r="D144" t="str">
         <v>2019-08-07 15:36:06.120</v>
@@ -7736,16 +7736,16 @@
         <v>255</v>
       </c>
       <c r="F144" t="str">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G144" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H144" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I144" t="str">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7772,18 +7772,18 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>67812</v>
+        <v>67860</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D145" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7792,16 +7792,16 @@
         <v>222</v>
       </c>
       <c r="F145" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G145" t="str">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H145" t="str">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="I145" t="str">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7828,48 +7828,48 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>69076</v>
+        <v>67864</v>
       </c>
       <c r="B146" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C146" t="str">
-        <v>2830</v>
+        <v>1342</v>
       </c>
       <c r="D146" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E146" t="str">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F146" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G146" t="str">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="H146" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I146" t="str">
-        <v>9999</v>
+        <v>211</v>
       </c>
       <c r="J146" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K146" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L146" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M146" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N146" t="str">
         <v>9999</v>
@@ -7881,51 +7881,51 @@
         <v>9999</v>
       </c>
       <c r="Q146" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>67972</v>
+        <v>69082</v>
       </c>
       <c r="B147" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C147" t="str">
-        <v>664</v>
+        <v>2260</v>
       </c>
       <c r="D147" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E147" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F147" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G147" t="str">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H147" t="str">
         <v>190</v>
       </c>
       <c r="I147" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J147" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K147" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L147" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M147" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N147" t="str">
         <v>9999</v>
@@ -7937,39 +7937,39 @@
         <v>9999</v>
       </c>
       <c r="Q147" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>67988</v>
+        <v>67768</v>
       </c>
       <c r="B148" t="str">
         <v>FIDE</v>
       </c>
       <c r="C148" t="str">
-        <v>1371</v>
+        <v>1142</v>
       </c>
       <c r="D148" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E148" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F148" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G148" t="str">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="H148" t="str">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I148" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="J148" t="str">
         <v>9999</v>
@@ -7996,36 +7996,36 @@
         <v>9999</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67998</v>
+        <v>67780</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E149" t="str">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F149" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G149" t="str">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="H149" t="str">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I149" t="str">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="J149" t="str">
         <v>9999</v>
@@ -8052,48 +8052,48 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>69086</v>
+        <v>67862</v>
       </c>
       <c r="B150" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C150" t="str">
-        <v>2260</v>
+        <v>682</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E150" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F150" t="str">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G150" t="str">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="H150" t="str">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="I150" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J150" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K150" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L150" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M150" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N150" t="str">
         <v>9999</v>
@@ -8105,39 +8105,39 @@
         <v>9999</v>
       </c>
       <c r="Q150" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>67784</v>
+        <v>67916</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
       </c>
       <c r="C151" t="str">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="D151" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E151" t="str">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F151" t="str">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G151" t="str">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="H151" t="str">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I151" t="str">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -8164,36 +8164,36 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>67850</v>
+        <v>68000</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>1342</v>
+        <v>868</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E152" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F152" t="str">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G152" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H152" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="I152" t="str">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J152" t="str">
         <v>9999</v>
@@ -8220,36 +8220,36 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>67872</v>
+        <v>67756</v>
       </c>
       <c r="B153" t="str">
         <v>FIDE</v>
       </c>
       <c r="C153" t="str">
-        <v>1088</v>
+        <v>933</v>
       </c>
       <c r="D153" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
       </c>
       <c r="F153" t="str">
+        <v>0</v>
+      </c>
+      <c r="G153" t="str">
+        <v>266</v>
+      </c>
+      <c r="H153" t="str">
         <v>222</v>
       </c>
-      <c r="G153" t="str">
-        <v>254</v>
-      </c>
-      <c r="H153" t="str">
-        <v>206</v>
-      </c>
       <c r="I153" t="str">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="J153" t="str">
         <v>9999</v>
@@ -8276,12 +8276,12 @@
         <v>9999</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>67882</v>
+        <v>67870</v>
       </c>
       <c r="B154" t="str">
         <v>FIDE</v>
@@ -8293,19 +8293,19 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E154" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F154" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G154" t="str">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="H154" t="str">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="I154" t="str">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J154" t="str">
         <v>9999</v>
@@ -8332,48 +8332,48 @@
         <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>67958</v>
+        <v>69078</v>
       </c>
       <c r="B155" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C155" t="str">
-        <v>1372</v>
+        <v>1978</v>
       </c>
       <c r="D155" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E155" t="str">
+        <v>256</v>
+      </c>
+      <c r="F155" t="str">
+        <v>225</v>
+      </c>
+      <c r="G155" t="str">
+        <v>190</v>
+      </c>
+      <c r="H155" t="str">
+        <v>197</v>
+      </c>
+      <c r="I155" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J155" t="str">
         <v>255</v>
       </c>
-      <c r="F155" t="str">
-        <v>213</v>
-      </c>
-      <c r="G155" t="str">
-        <v>196</v>
-      </c>
-      <c r="H155" t="str">
-        <v>202</v>
-      </c>
-      <c r="I155" t="str">
-        <v>254</v>
-      </c>
-      <c r="J155" t="str">
-        <v>9999</v>
-      </c>
       <c r="K155" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="L155" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M155" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N155" t="str">
         <v>9999</v>
@@ -8385,40 +8385,40 @@
         <v>9999</v>
       </c>
       <c r="Q155" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>67978</v>
+        <v>67744</v>
       </c>
       <c r="B156" t="str">
         <v>FIDE</v>
       </c>
       <c r="C156" t="str">
-        <v>1121</v>
+        <v>1143</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E156" t="str">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F156" t="str">
         <v>1</v>
       </c>
       <c r="G156" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H156" t="str">
+        <v>250</v>
+      </c>
+      <c r="I156" t="str">
         <v>195</v>
       </c>
-      <c r="I156" t="str">
-        <v>198</v>
-      </c>
       <c r="J156" t="str">
         <v>9999</v>
       </c>
@@ -8444,18 +8444,18 @@
         <v>9999</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67782</v>
+        <v>67778</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
       </c>
       <c r="C157" t="str">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="D157" t="str">
         <v>2019-08-07 15:36:05.655</v>
@@ -8464,16 +8464,16 @@
         <v>266</v>
       </c>
       <c r="F157" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G157" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H157" t="str">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I157" t="str">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="J157" t="str">
         <v>9999</v>
@@ -8500,37 +8500,37 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>67854</v>
+        <v>67794</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>1090</v>
+        <v>681</v>
       </c>
       <c r="D158" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E158" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F158" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G158" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="str">
+        <v>0</v>
+      </c>
+      <c r="I158" t="str">
         <v>207</v>
       </c>
-      <c r="I158" t="str">
-        <v>195</v>
-      </c>
       <c r="J158" t="str">
         <v>9999</v>
       </c>
@@ -8556,36 +8556,36 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>67886</v>
+        <v>67830</v>
       </c>
       <c r="B159" t="str">
         <v>FIDE</v>
       </c>
       <c r="C159" t="str">
-        <v>877</v>
+        <v>1342</v>
       </c>
       <c r="D159" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E159" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F159" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G159" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H159" t="str">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="I159" t="str">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="J159" t="str">
         <v>9999</v>
@@ -8612,36 +8612,36 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67940</v>
+        <v>67856</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
       </c>
       <c r="C160" t="str">
-        <v>1371</v>
+        <v>1088</v>
       </c>
       <c r="D160" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E160" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F160" t="str">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G160" t="str">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H160" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I160" t="str">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J160" t="str">
         <v>9999</v>
@@ -8668,36 +8668,36 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67956</v>
+        <v>67858</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>1120</v>
+        <v>1343</v>
       </c>
       <c r="D161" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E161" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F161" t="str">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G161" t="str">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H161" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I161" t="str">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8724,18 +8724,18 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>69074</v>
+        <v>68012</v>
       </c>
       <c r="B162" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C162" t="str">
-        <v>2253</v>
+        <v>670</v>
       </c>
       <c r="D162" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -8744,28 +8744,28 @@
         <v>255</v>
       </c>
       <c r="F162" t="str">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="G162" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H162" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I162" t="str">
-        <v>9999</v>
+        <v>224</v>
       </c>
       <c r="J162" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K162" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L162" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M162" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N162" t="str">
         <v>9999</v>
@@ -8777,51 +8777,51 @@
         <v>9999</v>
       </c>
       <c r="Q162" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>67766</v>
+        <v>69080</v>
       </c>
       <c r="B163" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C163" t="str">
-        <v>1143</v>
+        <v>2830</v>
       </c>
       <c r="D163" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E163" t="str">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F163" t="str">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G163" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H163" t="str">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I163" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J163" t="str">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="K163" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L163" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M163" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N163" t="str">
         <v>9999</v>
@@ -8833,39 +8833,39 @@
         <v>9999</v>
       </c>
       <c r="Q163" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>67820</v>
+        <v>67762</v>
       </c>
       <c r="B164" t="str">
         <v>FIDE</v>
       </c>
       <c r="C164" t="str">
-        <v>1087</v>
+        <v>1353</v>
       </c>
       <c r="D164" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E164" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F164" t="str">
+        <v>221</v>
+      </c>
+      <c r="G164" t="str">
         <v>252</v>
       </c>
-      <c r="G164" t="str">
-        <v>1</v>
-      </c>
       <c r="H164" t="str">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I164" t="str">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J164" t="str">
         <v>9999</v>
@@ -8892,33 +8892,33 @@
         <v>9999</v>
       </c>
       <c r="R164" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67848</v>
+        <v>67796</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>1088</v>
+        <v>675</v>
       </c>
       <c r="D165" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E165" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F165" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G165" t="str">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="H165" t="str">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I165" t="str">
         <v>0</v>
@@ -8948,18 +8948,18 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>67890</v>
+        <v>67828</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D166" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8968,16 +8968,16 @@
         <v>222</v>
       </c>
       <c r="F166" t="str">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G166" t="str">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="H166" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="I166" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J166" t="str">
         <v>9999</v>
@@ -9004,36 +9004,36 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>68012</v>
+        <v>67924</v>
       </c>
       <c r="B167" t="str">
         <v>FIDE</v>
       </c>
       <c r="C167" t="str">
-        <v>670</v>
+        <v>867</v>
       </c>
       <c r="D167" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E167" t="str">
         <v>255</v>
       </c>
       <c r="F167" t="str">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="G167" t="str">
+        <v>197</v>
+      </c>
+      <c r="H167" t="str">
         <v>0</v>
       </c>
-      <c r="H167" t="str">
-        <v>1</v>
-      </c>
       <c r="I167" t="str">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="J167" t="str">
         <v>9999</v>
@@ -9060,48 +9060,48 @@
         <v>9999</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>69090</v>
+        <v>88262</v>
       </c>
       <c r="B168" t="str">
-        <v>LODE</v>
+        <v>SITO</v>
       </c>
       <c r="C168" t="str">
-        <v>2260</v>
+        <v>1371</v>
       </c>
       <c r="D168" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E168" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F168" t="str">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="G168" t="str">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="H168" t="str">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I168" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="J168" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K168" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L168" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M168" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N168" t="str">
         <v>9999</v>
@@ -9113,10 +9113,10 @@
         <v>9999</v>
       </c>
       <c r="Q168" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
   </sheetData>

--- a/log-parsed.xlsx
+++ b/log-parsed.xlsx
@@ -777,31 +777,31 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>67892</v>
+        <v>67766</v>
       </c>
       <c r="B20" t="str">
         <v>FIDE</v>
       </c>
       <c r="C20" t="str">
-        <v>1342</v>
+        <v>1143</v>
       </c>
       <c r="D20" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E20" t="str">
+        <v>266</v>
+      </c>
+      <c r="F20" t="str">
         <v>222</v>
       </c>
-      <c r="F20" t="str">
-        <v>254</v>
-      </c>
       <c r="G20" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="H20" t="str">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I20" t="str">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J20" t="str">
         <v>9999</v>
@@ -828,36 +828,36 @@
         <v>9999</v>
       </c>
       <c r="R20" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>67994</v>
+        <v>67818</v>
       </c>
       <c r="B21" t="str">
         <v>FIDE</v>
       </c>
       <c r="C21" t="str">
-        <v>1120</v>
+        <v>1147</v>
       </c>
       <c r="D21" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E21" t="str">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F21" t="str">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G21" t="str">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="H21" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I21" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J21" t="str">
         <v>9999</v>
@@ -884,36 +884,36 @@
         <v>9999</v>
       </c>
       <c r="R21" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>68006</v>
+        <v>67858</v>
       </c>
       <c r="B22" t="str">
         <v>FIDE</v>
       </c>
       <c r="C22" t="str">
-        <v>1120</v>
+        <v>1343</v>
       </c>
       <c r="D22" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E22" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F22" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G22" t="str">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H22" t="str">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I22" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J22" t="str">
         <v>9999</v>
@@ -940,36 +940,36 @@
         <v>9999</v>
       </c>
       <c r="R22" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>67798</v>
+        <v>67948</v>
       </c>
       <c r="B23" t="str">
         <v>FIDE</v>
       </c>
       <c r="C23" t="str">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="D23" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E23" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F23" t="str">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G23" t="str">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H23" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I23" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J23" t="str">
         <v>9999</v>
@@ -996,36 +996,36 @@
         <v>9999</v>
       </c>
       <c r="R23" t="str">
-        <v>2019-08-07 15:36:07.710</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>67866</v>
+        <v>88260</v>
       </c>
       <c r="B24" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C24" t="str">
-        <v>1088</v>
+        <v>1120</v>
       </c>
       <c r="D24" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E24" t="str">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G24" t="str">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H24" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I24" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J24" t="str">
         <v>9999</v>
@@ -1052,36 +1052,36 @@
         <v>9999</v>
       </c>
       <c r="R24" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>67868</v>
+        <v>67756</v>
       </c>
       <c r="B25" t="str">
         <v>FIDE</v>
       </c>
       <c r="C25" t="str">
-        <v>1087</v>
+        <v>933</v>
       </c>
       <c r="D25" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E25" t="str">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>266</v>
+      </c>
+      <c r="H25" t="str">
         <v>222</v>
       </c>
-      <c r="F25" t="str">
-        <v>253</v>
-      </c>
-      <c r="G25" t="str">
-        <v>206</v>
-      </c>
-      <c r="H25" t="str">
-        <v>195</v>
-      </c>
       <c r="I25" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="J25" t="str">
         <v>9999</v>
@@ -1108,36 +1108,36 @@
         <v>9999</v>
       </c>
       <c r="R25" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:06.990</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>67950</v>
+        <v>67792</v>
       </c>
       <c r="B26" t="str">
         <v>FIDE</v>
       </c>
       <c r="C26" t="str">
-        <v>1121</v>
+        <v>1145</v>
       </c>
       <c r="D26" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E26" t="str">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F26" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G26" t="str">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="H26" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I26" t="str">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J26" t="str">
         <v>9999</v>
@@ -1164,36 +1164,36 @@
         <v>9999</v>
       </c>
       <c r="R26" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:06.994</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>67986</v>
+        <v>67906</v>
       </c>
       <c r="B27" t="str">
         <v>FIDE</v>
       </c>
       <c r="C27" t="str">
-        <v>1371</v>
+        <v>1121</v>
       </c>
       <c r="D27" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E27" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F27" t="str">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G27" t="str">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H27" t="str">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="I27" t="str">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="J27" t="str">
         <v>9999</v>
@@ -1220,36 +1220,36 @@
         <v>9999</v>
       </c>
       <c r="R27" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>67748</v>
+        <v>67966</v>
       </c>
       <c r="B28" t="str">
         <v>FIDE</v>
       </c>
       <c r="C28" t="str">
-        <v>933</v>
+        <v>1372</v>
       </c>
       <c r="D28" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E28" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F28" t="str">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G28" t="str">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="H28" t="str">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="I28" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J28" t="str">
         <v>9999</v>
@@ -1276,36 +1276,36 @@
         <v>9999</v>
       </c>
       <c r="R28" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>67782</v>
+        <v>67780</v>
       </c>
       <c r="B29" t="str">
         <v>FIDE</v>
       </c>
       <c r="C29" t="str">
-        <v>933</v>
+        <v>1353</v>
       </c>
       <c r="D29" t="str">
         <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E29" t="str">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F29" t="str">
         <v>221</v>
       </c>
       <c r="G29" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="H29" t="str">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="I29" t="str">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="J29" t="str">
         <v>9999</v>
@@ -1332,36 +1332,36 @@
         <v>9999</v>
       </c>
       <c r="R29" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>67792</v>
+        <v>67808</v>
       </c>
       <c r="B30" t="str">
         <v>FIDE</v>
       </c>
       <c r="C30" t="str">
-        <v>1145</v>
+        <v>877</v>
       </c>
       <c r="D30" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E30" t="str">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F30" t="str">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G30" t="str">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="H30" t="str">
         <v>0</v>
       </c>
       <c r="I30" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J30" t="str">
         <v>9999</v>
@@ -1388,36 +1388,36 @@
         <v>9999</v>
       </c>
       <c r="R30" t="str">
-        <v>2019-08-07 15:36:06.994</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>67894</v>
+        <v>67864</v>
       </c>
       <c r="B31" t="str">
         <v>FIDE</v>
       </c>
       <c r="C31" t="str">
-        <v>981</v>
+        <v>1342</v>
       </c>
       <c r="D31" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E31" t="str">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="F31" t="str">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G31" t="str">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="H31" t="str">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="I31" t="str">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="J31" t="str">
         <v>9999</v>
@@ -1444,36 +1444,36 @@
         <v>9999</v>
       </c>
       <c r="R31" t="str">
-        <v>2019-08-07 15:36:07.021</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>67854</v>
+        <v>67938</v>
       </c>
       <c r="B32" t="str">
         <v>FIDE</v>
       </c>
       <c r="C32" t="str">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="D32" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E32" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F32" t="str">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G32" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="str">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="I32" t="str">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J32" t="str">
         <v>9999</v>
@@ -1500,36 +1500,36 @@
         <v>9999</v>
       </c>
       <c r="R32" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>67872</v>
+        <v>67900</v>
       </c>
       <c r="B33" t="str">
         <v>FIDE</v>
       </c>
       <c r="C33" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D33" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E33" t="str">
+        <v>254</v>
+      </c>
+      <c r="F33" t="str">
         <v>0</v>
       </c>
-      <c r="F33" t="str">
-        <v>222</v>
-      </c>
       <c r="G33" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="H33" t="str">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I33" t="str">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J33" t="str">
         <v>9999</v>
@@ -1556,36 +1556,36 @@
         <v>9999</v>
       </c>
       <c r="R33" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>88258</v>
+        <v>67898</v>
       </c>
       <c r="B34" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C34" t="str">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D34" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E34" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F34" t="str">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G34" t="str">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H34" t="str">
         <v>0</v>
       </c>
       <c r="I34" t="str">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J34" t="str">
         <v>9999</v>
@@ -1612,36 +1612,36 @@
         <v>9999</v>
       </c>
       <c r="R34" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>67834</v>
+        <v>67960</v>
       </c>
       <c r="B35" t="str">
         <v>FIDE</v>
       </c>
       <c r="C35" t="str">
-        <v>1088</v>
+        <v>1371</v>
       </c>
       <c r="D35" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E35" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F35" t="str">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G35" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="H35" t="str">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I35" t="str">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="J35" t="str">
         <v>9999</v>
@@ -1668,36 +1668,36 @@
         <v>9999</v>
       </c>
       <c r="R35" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>67920</v>
+        <v>68000</v>
       </c>
       <c r="B36" t="str">
         <v>FIDE</v>
       </c>
       <c r="C36" t="str">
-        <v>1120</v>
+        <v>868</v>
       </c>
       <c r="D36" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E36" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F36" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G36" t="str">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H36" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="str">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J36" t="str">
         <v>9999</v>
@@ -1724,36 +1724,36 @@
         <v>9999</v>
       </c>
       <c r="R36" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>67818</v>
+        <v>88258</v>
       </c>
       <c r="B37" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C37" t="str">
-        <v>1147</v>
+        <v>1120</v>
       </c>
       <c r="D37" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E37" t="str">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F37" t="str">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G37" t="str">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="H37" t="str">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="I37" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J37" t="str">
         <v>9999</v>
@@ -1780,37 +1780,37 @@
         <v>9999</v>
       </c>
       <c r="R37" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>67816</v>
+        <v>67744</v>
       </c>
       <c r="B38" t="str">
         <v>FIDE</v>
       </c>
       <c r="C38" t="str">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="D38" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E38" t="str">
+        <v>265</v>
+      </c>
+      <c r="F38" t="str">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
         <v>222</v>
       </c>
-      <c r="F38" t="str">
-        <v>252</v>
-      </c>
-      <c r="G38" t="str">
-        <v>208</v>
-      </c>
       <c r="H38" t="str">
+        <v>250</v>
+      </c>
+      <c r="I38" t="str">
         <v>195</v>
       </c>
-      <c r="I38" t="str">
-        <v>0</v>
-      </c>
       <c r="J38" t="str">
         <v>9999</v>
       </c>
@@ -1836,36 +1836,36 @@
         <v>9999</v>
       </c>
       <c r="R38" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>67944</v>
+        <v>67820</v>
       </c>
       <c r="B39" t="str">
         <v>FIDE</v>
       </c>
       <c r="C39" t="str">
-        <v>664</v>
+        <v>1087</v>
       </c>
       <c r="D39" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E39" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F39" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G39" t="str">
         <v>1</v>
       </c>
       <c r="H39" t="str">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="I39" t="str">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J39" t="str">
         <v>9999</v>
@@ -1892,36 +1892,36 @@
         <v>9999</v>
       </c>
       <c r="R39" t="str">
-        <v>2019-08-07 15:36:07.211</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>67958</v>
+        <v>67908</v>
       </c>
       <c r="B40" t="str">
         <v>FIDE</v>
       </c>
       <c r="C40" t="str">
-        <v>1372</v>
+        <v>656</v>
       </c>
       <c r="D40" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E40" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" t="str">
         <v>213</v>
       </c>
       <c r="G40" t="str">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="H40" t="str">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="J40" t="str">
         <v>9999</v>
@@ -1948,18 +1948,18 @@
         <v>9999</v>
       </c>
       <c r="R40" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:06.998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>67988</v>
+        <v>67990</v>
       </c>
       <c r="B41" t="str">
         <v>FIDE</v>
       </c>
       <c r="C41" t="str">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D41" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -2004,36 +2004,36 @@
         <v>9999</v>
       </c>
       <c r="R41" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>67826</v>
+        <v>68008</v>
       </c>
       <c r="B42" t="str">
         <v>FIDE</v>
       </c>
       <c r="C42" t="str">
-        <v>877</v>
+        <v>1119</v>
       </c>
       <c r="D42" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E42" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F42" t="str">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G42" t="str">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="H42" t="str">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="I42" t="str">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="J42" t="str">
         <v>9999</v>
@@ -2060,36 +2060,36 @@
         <v>9999</v>
       </c>
       <c r="R42" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>67838</v>
+        <v>88264</v>
       </c>
       <c r="B43" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C43" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D43" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E43" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F43" t="str">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G43" t="str">
+        <v>224</v>
+      </c>
+      <c r="H43" t="str">
         <v>1</v>
       </c>
-      <c r="H43" t="str">
-        <v>206</v>
-      </c>
       <c r="I43" t="str">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J43" t="str">
         <v>9999</v>
@@ -2116,36 +2116,36 @@
         <v>9999</v>
       </c>
       <c r="R43" t="str">
-        <v>2019-08-07 15:36:07.206</v>
+        <v>2019-08-07 15:36:07.469</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>68002</v>
+        <v>67834</v>
       </c>
       <c r="B44" t="str">
         <v>FIDE</v>
       </c>
       <c r="C44" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D44" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E44" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F44" t="str">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G44" t="str">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="H44" t="str">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="I44" t="str">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J44" t="str">
         <v>9999</v>
@@ -2172,33 +2172,33 @@
         <v>9999</v>
       </c>
       <c r="R44" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>67752</v>
+        <v>67878</v>
       </c>
       <c r="B45" t="str">
         <v>FIDE</v>
       </c>
       <c r="C45" t="str">
-        <v>1354</v>
+        <v>1088</v>
       </c>
       <c r="D45" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E45" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F45" t="str">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G45" t="str">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="H45" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I45" t="str">
         <v>210</v>
@@ -2228,36 +2228,36 @@
         <v>9999</v>
       </c>
       <c r="R45" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>67912</v>
+        <v>67892</v>
       </c>
       <c r="B46" t="str">
         <v>FIDE</v>
       </c>
       <c r="C46" t="str">
-        <v>867</v>
+        <v>1342</v>
       </c>
       <c r="D46" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E46" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F46" t="str">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G46" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="H46" t="str">
         <v>189</v>
       </c>
       <c r="I46" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J46" t="str">
         <v>9999</v>
@@ -2284,36 +2284,36 @@
         <v>9999</v>
       </c>
       <c r="R46" t="str">
-        <v>2019-08-07 15:36:07.209</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>67954</v>
+        <v>67962</v>
       </c>
       <c r="B47" t="str">
         <v>FIDE</v>
       </c>
       <c r="C47" t="str">
-        <v>866</v>
+        <v>1120</v>
       </c>
       <c r="D47" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E47" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47" t="str">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="G47" t="str">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="H47" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I47" t="str">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J47" t="str">
         <v>9999</v>
@@ -2340,36 +2340,36 @@
         <v>9999</v>
       </c>
       <c r="R47" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>67984</v>
+        <v>67764</v>
       </c>
       <c r="B48" t="str">
         <v>FIDE</v>
       </c>
       <c r="C48" t="str">
-        <v>1120</v>
+        <v>1353</v>
       </c>
       <c r="D48" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E48" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F48" t="str">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G48" t="str">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H48" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I48" t="str">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J48" t="str">
         <v>9999</v>
@@ -2396,36 +2396,36 @@
         <v>9999</v>
       </c>
       <c r="R48" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>67902</v>
+        <v>67852</v>
       </c>
       <c r="B49" t="str">
         <v>FIDE</v>
       </c>
       <c r="C49" t="str">
-        <v>1092</v>
+        <v>981</v>
       </c>
       <c r="D49" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E49" t="str">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="F49" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="G49" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="H49" t="str">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="I49" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J49" t="str">
         <v>9999</v>
@@ -2452,48 +2452,48 @@
         <v>9999</v>
       </c>
       <c r="R49" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.020</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>69088</v>
+        <v>67932</v>
       </c>
       <c r="B50" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C50" t="str">
-        <v>2258</v>
+        <v>1121</v>
       </c>
       <c r="D50" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E50" t="str">
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G50" t="str">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="H50" t="str">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="I50" t="str">
-        <v>9999</v>
+        <v>202</v>
       </c>
       <c r="J50" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="K50" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L50" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="M50" t="str">
-        <v>306</v>
+        <v>9999</v>
       </c>
       <c r="N50" t="str">
         <v>9999</v>
@@ -2505,51 +2505,51 @@
         <v>9999</v>
       </c>
       <c r="Q50" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R50" t="str">
-        <v>2019-08-07 15:36:08.608</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>69074</v>
+        <v>67928</v>
       </c>
       <c r="B51" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C51" t="str">
-        <v>2253</v>
+        <v>867</v>
       </c>
       <c r="D51" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E51" t="str">
         <v>255</v>
       </c>
       <c r="F51" t="str">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G51" t="str">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H51" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I51" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J51" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K51" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L51" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="M51" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N51" t="str">
         <v>9999</v>
@@ -2561,39 +2561,39 @@
         <v>9999</v>
       </c>
       <c r="Q51" t="str">
-        <v>277</v>
+        <v>9999</v>
       </c>
       <c r="R51" t="str">
-        <v>2019-08-07 15:36:08.601</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>67770</v>
+        <v>67974</v>
       </c>
       <c r="B52" t="str">
         <v>FIDE</v>
       </c>
       <c r="C52" t="str">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="D52" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E52" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F52" t="str">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="G52" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="H52" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="I52" t="str">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J52" t="str">
         <v>9999</v>
@@ -2620,36 +2620,36 @@
         <v>9999</v>
       </c>
       <c r="R52" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>67824</v>
+        <v>68002</v>
       </c>
       <c r="B53" t="str">
         <v>FIDE</v>
       </c>
       <c r="C53" t="str">
-        <v>876</v>
+        <v>1120</v>
       </c>
       <c r="D53" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E53" t="str">
+        <v>256</v>
+      </c>
+      <c r="F53" t="str">
         <v>0</v>
       </c>
-      <c r="F53" t="str">
-        <v>222</v>
-      </c>
       <c r="G53" t="str">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H53" t="str">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="I53" t="str">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J53" t="str">
         <v>9999</v>
@@ -2676,30 +2676,30 @@
         <v>9999</v>
       </c>
       <c r="R53" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>67976</v>
+        <v>68006</v>
       </c>
       <c r="B54" t="str">
         <v>FIDE</v>
       </c>
       <c r="C54" t="str">
-        <v>1347</v>
+        <v>1120</v>
       </c>
       <c r="D54" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E54" t="str">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="F54" t="str">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H54" t="str">
         <v>189</v>
@@ -2737,31 +2737,31 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>67908</v>
+        <v>67832</v>
       </c>
       <c r="B55" t="str">
         <v>FIDE</v>
       </c>
       <c r="C55" t="str">
-        <v>656</v>
+        <v>1087</v>
       </c>
       <c r="D55" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E55" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F55" t="str">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G55" t="str">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H55" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I55" t="str">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J55" t="str">
         <v>9999</v>
@@ -2788,12 +2788,12 @@
         <v>9999</v>
       </c>
       <c r="R55" t="str">
-        <v>2019-08-07 15:36:06.998</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>67946</v>
+        <v>67922</v>
       </c>
       <c r="B56" t="str">
         <v>FIDE</v>
@@ -2811,13 +2811,13 @@
         <v>212</v>
       </c>
       <c r="G56" t="str">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H56" t="str">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I56" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J56" t="str">
         <v>9999</v>
@@ -2844,36 +2844,36 @@
         <v>9999</v>
       </c>
       <c r="R56" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>67952</v>
+        <v>67978</v>
       </c>
       <c r="B57" t="str">
         <v>FIDE</v>
       </c>
       <c r="C57" t="str">
-        <v>867</v>
+        <v>1121</v>
       </c>
       <c r="D57" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E57" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F57" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="G57" t="str">
         <v>219</v>
       </c>
       <c r="H57" t="str">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I57" t="str">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="J57" t="str">
         <v>9999</v>
@@ -2900,36 +2900,36 @@
         <v>9999</v>
       </c>
       <c r="R57" t="str">
-        <v>2019-08-07 15:36:07.212</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>68008</v>
+        <v>67786</v>
       </c>
       <c r="B58" t="str">
         <v>FIDE</v>
       </c>
       <c r="C58" t="str">
-        <v>1119</v>
+        <v>1365</v>
       </c>
       <c r="D58" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E58" t="str">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="F58" t="str">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="G58" t="str">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="H58" t="str">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="I58" t="str">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="J58" t="str">
         <v>9999</v>
@@ -2956,36 +2956,36 @@
         <v>9999</v>
       </c>
       <c r="R58" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>67896</v>
+        <v>67776</v>
       </c>
       <c r="B59" t="str">
         <v>FIDE</v>
       </c>
       <c r="C59" t="str">
-        <v>1372</v>
+        <v>1143</v>
       </c>
       <c r="D59" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E59" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F59" t="str">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G59" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H59" t="str">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="I59" t="str">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="J59" t="str">
         <v>9999</v>
@@ -3012,36 +3012,36 @@
         <v>9999</v>
       </c>
       <c r="R59" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>67978</v>
+        <v>67784</v>
       </c>
       <c r="B60" t="str">
         <v>FIDE</v>
       </c>
       <c r="C60" t="str">
-        <v>1121</v>
+        <v>1353</v>
       </c>
       <c r="D60" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E60" t="str">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F60" t="str">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="G60" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="H60" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I60" t="str">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J60" t="str">
         <v>9999</v>
@@ -3068,36 +3068,36 @@
         <v>9999</v>
       </c>
       <c r="R60" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>67990</v>
+        <v>67802</v>
       </c>
       <c r="B61" t="str">
         <v>FIDE</v>
       </c>
       <c r="C61" t="str">
-        <v>1372</v>
+        <v>1086</v>
       </c>
       <c r="D61" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E61" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F61" t="str">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G61" t="str">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="H61" t="str">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I61" t="str">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="J61" t="str">
         <v>9999</v>
@@ -3124,37 +3124,37 @@
         <v>9999</v>
       </c>
       <c r="R61" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>68004</v>
+        <v>67826</v>
       </c>
       <c r="B62" t="str">
         <v>FIDE</v>
       </c>
       <c r="C62" t="str">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D62" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E62" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F62" t="str">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G62" t="str">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="H62" t="str">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
         <v>0</v>
       </c>
-      <c r="I62" t="str">
-        <v>188</v>
-      </c>
       <c r="J62" t="str">
         <v>9999</v>
       </c>
@@ -3180,48 +3180,48 @@
         <v>9999</v>
       </c>
       <c r="R62" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>69090</v>
+        <v>67862</v>
       </c>
       <c r="B63" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C63" t="str">
-        <v>2260</v>
+        <v>682</v>
       </c>
       <c r="D63" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E63" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F63" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="H63" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I63" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J63" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="K63" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L63" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M63" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="N63" t="str">
         <v>9999</v>
@@ -3233,39 +3233,39 @@
         <v>9999</v>
       </c>
       <c r="Q63" t="str">
-        <v>298</v>
+        <v>9999</v>
       </c>
       <c r="R63" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:06.800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>67774</v>
+        <v>67886</v>
       </c>
       <c r="B64" t="str">
         <v>FIDE</v>
       </c>
       <c r="C64" t="str">
-        <v>1143</v>
+        <v>877</v>
       </c>
       <c r="D64" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E64" t="str">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="F64" t="str">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="G64" t="str">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H64" t="str">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="I64" t="str">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="J64" t="str">
         <v>9999</v>
@@ -3292,18 +3292,18 @@
         <v>9999</v>
       </c>
       <c r="R64" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>67820</v>
+        <v>67816</v>
       </c>
       <c r="B65" t="str">
         <v>FIDE</v>
       </c>
       <c r="C65" t="str">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D65" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -3315,13 +3315,13 @@
         <v>252</v>
       </c>
       <c r="G65" t="str">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="H65" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I65" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J65" t="str">
         <v>9999</v>
@@ -3348,37 +3348,37 @@
         <v>9999</v>
       </c>
       <c r="R65" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>67850</v>
+        <v>67872</v>
       </c>
       <c r="B66" t="str">
         <v>FIDE</v>
       </c>
       <c r="C66" t="str">
-        <v>1342</v>
+        <v>1088</v>
       </c>
       <c r="D66" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E66" t="str">
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
         <v>222</v>
       </c>
-      <c r="F66" t="str">
-        <v>253</v>
-      </c>
       <c r="G66" t="str">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="H66" t="str">
+        <v>206</v>
+      </c>
+      <c r="I66" t="str">
         <v>196</v>
       </c>
-      <c r="I66" t="str">
-        <v>210</v>
-      </c>
       <c r="J66" t="str">
         <v>9999</v>
       </c>
@@ -3404,36 +3404,36 @@
         <v>9999</v>
       </c>
       <c r="R66" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>67928</v>
+        <v>67988</v>
       </c>
       <c r="B67" t="str">
         <v>FIDE</v>
       </c>
       <c r="C67" t="str">
-        <v>867</v>
+        <v>1371</v>
       </c>
       <c r="D67" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E67" t="str">
         <v>255</v>
       </c>
       <c r="F67" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G67" t="str">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H67" t="str">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="I67" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="J67" t="str">
         <v>9999</v>
@@ -3460,37 +3460,37 @@
         <v>9999</v>
       </c>
       <c r="R67" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67964</v>
+        <v>67796</v>
       </c>
       <c r="B68" t="str">
         <v>FIDE</v>
       </c>
       <c r="C68" t="str">
-        <v>1120</v>
+        <v>675</v>
       </c>
       <c r="D68" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E68" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F68" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G68" t="str">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H68" t="str">
+        <v>202</v>
+      </c>
+      <c r="I68" t="str">
         <v>0</v>
       </c>
-      <c r="I68" t="str">
-        <v>202</v>
-      </c>
       <c r="J68" t="str">
         <v>9999</v>
       </c>
@@ -3516,36 +3516,36 @@
         <v>9999</v>
       </c>
       <c r="R68" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:06.791</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>68014</v>
+        <v>67822</v>
       </c>
       <c r="B69" t="str">
         <v>FIDE</v>
       </c>
       <c r="C69" t="str">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="D69" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E69" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F69" t="str">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="G69" t="str">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="H69" t="str">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="I69" t="str">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J69" t="str">
         <v>9999</v>
@@ -3572,36 +3572,36 @@
         <v>9999</v>
       </c>
       <c r="R69" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:06.993</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>67754</v>
+        <v>67918</v>
       </c>
       <c r="B70" t="str">
         <v>FIDE</v>
       </c>
       <c r="C70" t="str">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="D70" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E70" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F70" t="str">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G70" t="str">
+        <v>191</v>
+      </c>
+      <c r="H70" t="str">
         <v>0</v>
       </c>
-      <c r="H70" t="str">
-        <v>253</v>
-      </c>
       <c r="I70" t="str">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J70" t="str">
         <v>9999</v>
@@ -3628,36 +3628,36 @@
         <v>9999</v>
       </c>
       <c r="R70" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>67802</v>
+        <v>67956</v>
       </c>
       <c r="B71" t="str">
         <v>FIDE</v>
       </c>
       <c r="C71" t="str">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="D71" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E71" t="str">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="F71" t="str">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="G71" t="str">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H71" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I71" t="str">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="J71" t="str">
         <v>9999</v>
@@ -3684,36 +3684,36 @@
         <v>9999</v>
       </c>
       <c r="R71" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>67812</v>
+        <v>67984</v>
       </c>
       <c r="B72" t="str">
         <v>FIDE</v>
       </c>
       <c r="C72" t="str">
-        <v>877</v>
+        <v>1120</v>
       </c>
       <c r="D72" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E72" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F72" t="str">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="G72" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H72" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="str">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J72" t="str">
         <v>9999</v>
@@ -3740,36 +3740,36 @@
         <v>9999</v>
       </c>
       <c r="R72" t="str">
-        <v>2019-08-07 15:36:07.204</v>
+        <v>2019-08-07 15:36:07.718</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>68010</v>
+        <v>67836</v>
       </c>
       <c r="B73" t="str">
         <v>FIDE</v>
       </c>
       <c r="C73" t="str">
-        <v>1372</v>
+        <v>1088</v>
       </c>
       <c r="D73" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E73" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F73" t="str">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G73" t="str">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="H73" t="str">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I73" t="str">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="J73" t="str">
         <v>9999</v>
@@ -3796,36 +3796,36 @@
         <v>9999</v>
       </c>
       <c r="R73" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.205</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>67760</v>
+        <v>67904</v>
       </c>
       <c r="B74" t="str">
         <v>FIDE</v>
       </c>
       <c r="C74" t="str">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="D74" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E74" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F74" t="str">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G74" t="str">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="H74" t="str">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I74" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J74" t="str">
         <v>9999</v>
@@ -3852,37 +3852,37 @@
         <v>9999</v>
       </c>
       <c r="R74" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>67804</v>
+        <v>67912</v>
       </c>
       <c r="B75" t="str">
         <v>FIDE</v>
       </c>
       <c r="C75" t="str">
-        <v>1088</v>
+        <v>867</v>
       </c>
       <c r="D75" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E75" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F75" t="str">
+        <v>212</v>
+      </c>
+      <c r="G75" t="str">
+        <v>1</v>
+      </c>
+      <c r="H75" t="str">
+        <v>189</v>
+      </c>
+      <c r="I75" t="str">
         <v>0</v>
       </c>
-      <c r="G75" t="str">
-        <v>252</v>
-      </c>
-      <c r="H75" t="str">
-        <v>208</v>
-      </c>
-      <c r="I75" t="str">
-        <v>195</v>
-      </c>
       <c r="J75" t="str">
         <v>9999</v>
       </c>
@@ -3908,36 +3908,36 @@
         <v>9999</v>
       </c>
       <c r="R75" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.209</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>67808</v>
+        <v>67910</v>
       </c>
       <c r="B76" t="str">
         <v>FIDE</v>
       </c>
       <c r="C76" t="str">
-        <v>877</v>
+        <v>1372</v>
       </c>
       <c r="D76" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E76" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F76" t="str">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="G76" t="str">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H76" t="str">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I76" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J76" t="str">
         <v>9999</v>
@@ -3964,36 +3964,36 @@
         <v>9999</v>
       </c>
       <c r="R76" t="str">
-        <v>2019-08-07 15:36:07.203</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>67932</v>
+        <v>67866</v>
       </c>
       <c r="B77" t="str">
         <v>FIDE</v>
       </c>
       <c r="C77" t="str">
-        <v>1121</v>
+        <v>1088</v>
       </c>
       <c r="D77" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E77" t="str">
+        <v>222</v>
+      </c>
+      <c r="F77" t="str">
+        <v>253</v>
+      </c>
+      <c r="G77" t="str">
+        <v>206</v>
+      </c>
+      <c r="H77" t="str">
         <v>1</v>
       </c>
-      <c r="F77" t="str">
-        <v>255</v>
-      </c>
-      <c r="G77" t="str">
-        <v>212</v>
-      </c>
-      <c r="H77" t="str">
-        <v>197</v>
-      </c>
       <c r="I77" t="str">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J77" t="str">
         <v>9999</v>
@@ -4020,36 +4020,36 @@
         <v>9999</v>
       </c>
       <c r="R77" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>88260</v>
+        <v>67958</v>
       </c>
       <c r="B78" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C78" t="str">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="D78" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E78" t="str">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F78" t="str">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="G78" t="str">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H78" t="str">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="I78" t="str">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="J78" t="str">
         <v>9999</v>
@@ -4076,36 +4076,36 @@
         <v>9999</v>
       </c>
       <c r="R78" t="str">
-        <v>2019-08-07 15:36:07.720</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>67786</v>
+        <v>67970</v>
       </c>
       <c r="B79" t="str">
         <v>FIDE</v>
       </c>
       <c r="C79" t="str">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="D79" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E79" t="str">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="F79" t="str">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G79" t="str">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H79" t="str">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="I79" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J79" t="str">
         <v>9999</v>
@@ -4132,36 +4132,36 @@
         <v>9999</v>
       </c>
       <c r="R79" t="str">
-        <v>2019-08-07 15:36:07.217</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>67764</v>
+        <v>67986</v>
       </c>
       <c r="B80" t="str">
         <v>FIDE</v>
       </c>
       <c r="C80" t="str">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="D80" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E80" t="str">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F80" t="str">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G80" t="str">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H80" t="str">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I80" t="str">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="J80" t="str">
         <v>9999</v>
@@ -4188,48 +4188,48 @@
         <v>9999</v>
       </c>
       <c r="R80" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>67832</v>
+        <v>69074</v>
       </c>
       <c r="B81" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C81" t="str">
-        <v>1087</v>
+        <v>2253</v>
       </c>
       <c r="D81" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E81" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F81" t="str">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="G81" t="str">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H81" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I81" t="str">
-        <v>211</v>
+        <v>9999</v>
       </c>
       <c r="J81" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K81" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L81" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M81" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N81" t="str">
         <v>9999</v>
@@ -4241,39 +4241,39 @@
         <v>9999</v>
       </c>
       <c r="Q81" t="str">
-        <v>9999</v>
+        <v>277</v>
       </c>
       <c r="R81" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:08.601</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>67948</v>
+        <v>67806</v>
       </c>
       <c r="B82" t="str">
         <v>FIDE</v>
       </c>
       <c r="C82" t="str">
-        <v>1373</v>
+        <v>877</v>
       </c>
       <c r="D82" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E82" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F82" t="str">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G82" t="str">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H82" t="str">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="I82" t="str">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="J82" t="str">
         <v>9999</v>
@@ -4300,12 +4300,12 @@
         <v>9999</v>
       </c>
       <c r="R82" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:07.202</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>67974</v>
+        <v>67964</v>
       </c>
       <c r="B83" t="str">
         <v>FIDE</v>
@@ -4314,22 +4314,22 @@
         <v>1120</v>
       </c>
       <c r="D83" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E83" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F83" t="str">
         <v>219</v>
       </c>
       <c r="G83" t="str">
+        <v>191</v>
+      </c>
+      <c r="H83" t="str">
         <v>0</v>
       </c>
-      <c r="H83" t="str">
-        <v>190</v>
-      </c>
       <c r="I83" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J83" t="str">
         <v>9999</v>
@@ -4361,31 +4361,31 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>67962</v>
+        <v>68010</v>
       </c>
       <c r="B84" t="str">
         <v>FIDE</v>
       </c>
       <c r="C84" t="str">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="D84" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E84" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F84" t="str">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="G84" t="str">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="H84" t="str">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I84" t="str">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="J84" t="str">
         <v>9999</v>
@@ -4412,24 +4412,24 @@
         <v>9999</v>
       </c>
       <c r="R84" t="str">
-        <v>2019-08-07 15:36:07.718</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>69084</v>
+        <v>69078</v>
       </c>
       <c r="B85" t="str">
         <v>LODE</v>
       </c>
       <c r="C85" t="str">
-        <v>2260</v>
+        <v>1978</v>
       </c>
       <c r="D85" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E85" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F85" t="str">
         <v>225</v>
@@ -4450,66 +4450,66 @@
         <v>0</v>
       </c>
       <c r="L85" t="str">
+        <v>304</v>
+      </c>
+      <c r="M85" t="str">
+        <v>299</v>
+      </c>
+      <c r="N85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="O85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="P85" t="str">
+        <v>9999</v>
+      </c>
+      <c r="Q85" t="str">
         <v>0</v>
       </c>
-      <c r="M85" t="str">
-        <v>305</v>
-      </c>
-      <c r="N85" t="str">
-        <v>9999</v>
-      </c>
-      <c r="O85" t="str">
-        <v>9999</v>
-      </c>
-      <c r="P85" t="str">
-        <v>9999</v>
-      </c>
-      <c r="Q85" t="str">
-        <v>297</v>
-      </c>
       <c r="R85" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:08.327</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>67750</v>
+        <v>69086</v>
       </c>
       <c r="B86" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C86" t="str">
-        <v>1354</v>
+        <v>2260</v>
       </c>
       <c r="D86" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E86" t="str">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F86" t="str">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G86" t="str">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="H86" t="str">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I86" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J86" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K86" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L86" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M86" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N86" t="str">
         <v>9999</v>
@@ -4521,51 +4521,51 @@
         <v>9999</v>
       </c>
       <c r="Q86" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="R86" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>67890</v>
+        <v>69088</v>
       </c>
       <c r="B87" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C87" t="str">
-        <v>1088</v>
+        <v>2258</v>
       </c>
       <c r="D87" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E87" t="str">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="F87" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G87" t="str">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="H87" t="str">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I87" t="str">
-        <v>189</v>
+        <v>9999</v>
       </c>
       <c r="J87" t="str">
-        <v>9999</v>
+        <v>198</v>
       </c>
       <c r="K87" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L87" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="M87" t="str">
-        <v>9999</v>
+        <v>306</v>
       </c>
       <c r="N87" t="str">
         <v>9999</v>
@@ -4577,39 +4577,39 @@
         <v>9999</v>
       </c>
       <c r="Q87" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R87" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:08.608</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>67934</v>
+        <v>67840</v>
       </c>
       <c r="B88" t="str">
         <v>FIDE</v>
       </c>
       <c r="C88" t="str">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="D88" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E88" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F88" t="str">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G88" t="str">
+        <v>207</v>
+      </c>
+      <c r="H88" t="str">
         <v>196</v>
       </c>
-      <c r="H88" t="str">
-        <v>203</v>
-      </c>
       <c r="I88" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J88" t="str">
         <v>9999</v>
@@ -4636,37 +4636,37 @@
         <v>9999</v>
       </c>
       <c r="R88" t="str">
-        <v>2019-08-07 15:36:07.716</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>67936</v>
+        <v>67848</v>
       </c>
       <c r="B89" t="str">
         <v>FIDE</v>
       </c>
       <c r="C89" t="str">
-        <v>867</v>
+        <v>1088</v>
       </c>
       <c r="D89" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E89" t="str">
+        <v>222</v>
+      </c>
+      <c r="F89" t="str">
+        <v>253</v>
+      </c>
+      <c r="G89" t="str">
+        <v>206</v>
+      </c>
+      <c r="H89" t="str">
+        <v>196</v>
+      </c>
+      <c r="I89" t="str">
         <v>0</v>
       </c>
-      <c r="F89" t="str">
-        <v>255</v>
-      </c>
-      <c r="G89" t="str">
-        <v>212</v>
-      </c>
-      <c r="H89" t="str">
-        <v>197</v>
-      </c>
-      <c r="I89" t="str">
-        <v>203</v>
-      </c>
       <c r="J89" t="str">
         <v>9999</v>
       </c>
@@ -4692,36 +4692,36 @@
         <v>9999</v>
       </c>
       <c r="R89" t="str">
-        <v>2019-08-07 15:36:07.465</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>67960</v>
+        <v>67916</v>
       </c>
       <c r="B90" t="str">
         <v>FIDE</v>
       </c>
       <c r="C90" t="str">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="D90" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E90" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F90" t="str">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G90" t="str">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H90" t="str">
         <v>203</v>
       </c>
       <c r="I90" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J90" t="str">
         <v>9999</v>
@@ -4748,36 +4748,36 @@
         <v>9999</v>
       </c>
       <c r="R90" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>67970</v>
+        <v>67942</v>
       </c>
       <c r="B91" t="str">
         <v>FIDE</v>
       </c>
       <c r="C91" t="str">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D91" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E91" t="str">
         <v>255</v>
       </c>
       <c r="F91" t="str">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G91" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H91" t="str">
         <v>203</v>
       </c>
       <c r="I91" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J91" t="str">
         <v>9999</v>
@@ -4804,18 +4804,18 @@
         <v>9999</v>
       </c>
       <c r="R91" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>67992</v>
+        <v>69090</v>
       </c>
       <c r="B92" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C92" t="str">
-        <v>1120</v>
+        <v>2260</v>
       </c>
       <c r="D92" t="str">
         <v>2019-08-07 15:36:06.121</v>
@@ -4824,28 +4824,28 @@
         <v>255</v>
       </c>
       <c r="F92" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="str">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H92" t="str">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I92" t="str">
-        <v>198</v>
+        <v>9999</v>
       </c>
       <c r="J92" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="K92" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L92" t="str">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M92" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N92" t="str">
         <v>9999</v>
@@ -4857,21 +4857,21 @@
         <v>9999</v>
       </c>
       <c r="Q92" t="str">
-        <v>9999</v>
+        <v>298</v>
       </c>
       <c r="R92" t="str">
-        <v>2019-08-07 15:36:07.719</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>67746</v>
+        <v>67750</v>
       </c>
       <c r="B93" t="str">
         <v>FIDE</v>
       </c>
       <c r="C93" t="str">
-        <v>932</v>
+        <v>1354</v>
       </c>
       <c r="D93" t="str">
         <v>2019-08-07 15:36:05.654</v>
@@ -4880,16 +4880,16 @@
         <v>265</v>
       </c>
       <c r="F93" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G93" t="str">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H93" t="str">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I93" t="str">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="J93" t="str">
         <v>9999</v>
@@ -4916,48 +4916,48 @@
         <v>9999</v>
       </c>
       <c r="R93" t="str">
-        <v>2019-08-07 15:36:06.989</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>69076</v>
+        <v>67778</v>
       </c>
       <c r="B94" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C94" t="str">
-        <v>2830</v>
+        <v>942</v>
       </c>
       <c r="D94" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E94" t="str">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F94" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G94" t="str">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H94" t="str">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="I94" t="str">
-        <v>9999</v>
+        <v>201</v>
       </c>
       <c r="J94" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K94" t="str">
-        <v>251</v>
+        <v>9999</v>
       </c>
       <c r="L94" t="str">
-        <v>305</v>
+        <v>9999</v>
       </c>
       <c r="M94" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N94" t="str">
         <v>9999</v>
@@ -4969,15 +4969,15 @@
         <v>9999</v>
       </c>
       <c r="Q94" t="str">
-        <v>284</v>
+        <v>9999</v>
       </c>
       <c r="R94" t="str">
-        <v>2019-08-07 15:36:09.177</v>
+        <v>2019-08-07 15:36:06.992</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>67900</v>
+        <v>67924</v>
       </c>
       <c r="B95" t="str">
         <v>FIDE</v>
@@ -4989,19 +4989,19 @@
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E95" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F95" t="str">
+        <v>212</v>
+      </c>
+      <c r="G95" t="str">
+        <v>197</v>
+      </c>
+      <c r="H95" t="str">
         <v>0</v>
       </c>
-      <c r="G95" t="str">
-        <v>1</v>
-      </c>
-      <c r="H95" t="str">
-        <v>213</v>
-      </c>
       <c r="I95" t="str">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="J95" t="str">
         <v>9999</v>
@@ -5028,36 +5028,36 @@
         <v>9999</v>
       </c>
       <c r="R95" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.464</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>67918</v>
+        <v>67812</v>
       </c>
       <c r="B96" t="str">
         <v>FIDE</v>
       </c>
       <c r="C96" t="str">
-        <v>1121</v>
+        <v>877</v>
       </c>
       <c r="D96" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E96" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F96" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G96" t="str">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H96" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="str">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J96" t="str">
         <v>9999</v>
@@ -5084,36 +5084,36 @@
         <v>9999</v>
       </c>
       <c r="R96" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.204</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>67982</v>
+        <v>67846</v>
       </c>
       <c r="B97" t="str">
         <v>FIDE</v>
       </c>
       <c r="C97" t="str">
-        <v>1371</v>
+        <v>1089</v>
       </c>
       <c r="D97" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E97" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F97" t="str">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="G97" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H97" t="str">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I97" t="str">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="J97" t="str">
         <v>9999</v>
@@ -5140,33 +5140,33 @@
         <v>9999</v>
       </c>
       <c r="R97" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>67996</v>
+        <v>67902</v>
       </c>
       <c r="B98" t="str">
         <v>FIDE</v>
       </c>
       <c r="C98" t="str">
-        <v>867</v>
+        <v>1092</v>
       </c>
       <c r="D98" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E98" t="str">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="F98" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G98" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H98" t="str">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I98" t="str">
         <v>0</v>
@@ -5196,33 +5196,33 @@
         <v>9999</v>
       </c>
       <c r="R98" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>67788</v>
+        <v>67968</v>
       </c>
       <c r="B99" t="str">
         <v>FIDE</v>
       </c>
       <c r="C99" t="str">
-        <v>947</v>
+        <v>867</v>
       </c>
       <c r="D99" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E99" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F99" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G99" t="str">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="H99" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I99" t="str">
         <v>0</v>
@@ -5252,36 +5252,36 @@
         <v>9999</v>
       </c>
       <c r="R99" t="str">
-        <v>2019-08-07 15:36:06.797</v>
+        <v>2019-08-07 15:36:07.214</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>67842</v>
+        <v>67980</v>
       </c>
       <c r="B100" t="str">
         <v>FIDE</v>
       </c>
       <c r="C100" t="str">
-        <v>1342</v>
+        <v>867</v>
       </c>
       <c r="D100" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E100" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F100" t="str">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G100" t="str">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="H100" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I100" t="str">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="J100" t="str">
         <v>9999</v>
@@ -5308,36 +5308,36 @@
         <v>9999</v>
       </c>
       <c r="R100" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.466</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>67904</v>
+        <v>67746</v>
       </c>
       <c r="B101" t="str">
         <v>FIDE</v>
       </c>
       <c r="C101" t="str">
-        <v>1372</v>
+        <v>932</v>
       </c>
       <c r="D101" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E101" t="str">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F101" t="str">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G101" t="str">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="H101" t="str">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="I101" t="str">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J101" t="str">
         <v>9999</v>
@@ -5364,33 +5364,33 @@
         <v>9999</v>
       </c>
       <c r="R101" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>67848</v>
+        <v>67788</v>
       </c>
       <c r="B102" t="str">
         <v>FIDE</v>
       </c>
       <c r="C102" t="str">
-        <v>1088</v>
+        <v>947</v>
       </c>
       <c r="D102" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E102" t="str">
+        <v>266</v>
+      </c>
+      <c r="F102" t="str">
         <v>222</v>
       </c>
-      <c r="F102" t="str">
-        <v>253</v>
-      </c>
       <c r="G102" t="str">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="H102" t="str">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="I102" t="str">
         <v>0</v>
@@ -5420,36 +5420,36 @@
         <v>9999</v>
       </c>
       <c r="R102" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:06.797</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>67906</v>
+        <v>67940</v>
       </c>
       <c r="B103" t="str">
         <v>FIDE</v>
       </c>
       <c r="C103" t="str">
-        <v>1121</v>
+        <v>1371</v>
       </c>
       <c r="D103" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E103" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103" t="str">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G103" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H103" t="str">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="I103" t="str">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="J103" t="str">
         <v>9999</v>
@@ -5476,36 +5476,36 @@
         <v>9999</v>
       </c>
       <c r="R103" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>67966</v>
+        <v>68012</v>
       </c>
       <c r="B104" t="str">
         <v>FIDE</v>
       </c>
       <c r="C104" t="str">
-        <v>1372</v>
+        <v>670</v>
       </c>
       <c r="D104" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E104" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F104" t="str">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G104" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H104" t="str">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I104" t="str">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="J104" t="str">
         <v>9999</v>
@@ -5532,36 +5532,36 @@
         <v>9999</v>
       </c>
       <c r="R104" t="str">
-        <v>2019-08-07 15:36:08.023</v>
+        <v>2019-08-07 15:36:07.215</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>67998</v>
+        <v>68014</v>
       </c>
       <c r="B105" t="str">
         <v>FIDE</v>
       </c>
       <c r="C105" t="str">
-        <v>1372</v>
+        <v>867</v>
       </c>
       <c r="D105" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E105" t="str">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="G105" t="str">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="H105" t="str">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I105" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="J105" t="str">
         <v>9999</v>
@@ -5588,36 +5588,36 @@
         <v>9999</v>
       </c>
       <c r="R105" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>88264</v>
+        <v>67774</v>
       </c>
       <c r="B106" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C106" t="str">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="D106" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.655</v>
       </c>
       <c r="E106" t="str">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F106" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="str">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H106" t="str">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="I106" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J106" t="str">
         <v>9999</v>
@@ -5644,36 +5644,36 @@
         <v>9999</v>
       </c>
       <c r="R106" t="str">
-        <v>2019-08-07 15:36:07.469</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>67810</v>
+        <v>67856</v>
       </c>
       <c r="B107" t="str">
         <v>FIDE</v>
       </c>
       <c r="C107" t="str">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D107" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E107" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F107" t="str">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G107" t="str">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H107" t="str">
         <v>195</v>
       </c>
       <c r="I107" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J107" t="str">
         <v>9999</v>
@@ -5700,48 +5700,48 @@
         <v>9999</v>
       </c>
       <c r="R107" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.460</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>67814</v>
+        <v>69076</v>
       </c>
       <c r="B108" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C108" t="str">
-        <v>1087</v>
+        <v>2830</v>
       </c>
       <c r="D108" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E108" t="str">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F108" t="str">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G108" t="str">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="H108" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I108" t="str">
-        <v>210</v>
+        <v>9999</v>
       </c>
       <c r="J108" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K108" t="str">
-        <v>9999</v>
+        <v>251</v>
       </c>
       <c r="L108" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="M108" t="str">
-        <v>9999</v>
+        <v>299</v>
       </c>
       <c r="N108" t="str">
         <v>9999</v>
@@ -5753,39 +5753,39 @@
         <v>9999</v>
       </c>
       <c r="Q108" t="str">
-        <v>9999</v>
+        <v>284</v>
       </c>
       <c r="R108" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:09.177</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>67886</v>
+        <v>67934</v>
       </c>
       <c r="B109" t="str">
         <v>FIDE</v>
       </c>
       <c r="C109" t="str">
-        <v>877</v>
+        <v>1120</v>
       </c>
       <c r="D109" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E109" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F109" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G109" t="str">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H109" t="str">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="I109" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J109" t="str">
         <v>9999</v>
@@ -5812,48 +5812,48 @@
         <v>9999</v>
       </c>
       <c r="R109" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.716</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>69086</v>
+        <v>67944</v>
       </c>
       <c r="B110" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C110" t="str">
-        <v>2260</v>
+        <v>664</v>
       </c>
       <c r="D110" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E110" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F110" t="str">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G110" t="str">
         <v>1</v>
       </c>
       <c r="H110" t="str">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="I110" t="str">
-        <v>9999</v>
+        <v>219</v>
       </c>
       <c r="J110" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K110" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L110" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M110" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N110" t="str">
         <v>9999</v>
@@ -5865,39 +5865,39 @@
         <v>9999</v>
       </c>
       <c r="Q110" t="str">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="R110" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.211</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>67784</v>
+        <v>67982</v>
       </c>
       <c r="B111" t="str">
         <v>FIDE</v>
       </c>
       <c r="C111" t="str">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="D111" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E111" t="str">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F111" t="str">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G111" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H111" t="str">
         <v>202</v>
       </c>
       <c r="I111" t="str">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="J111" t="str">
         <v>9999</v>
@@ -5924,36 +5924,36 @@
         <v>9999</v>
       </c>
       <c r="R111" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:08.023</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>67790</v>
+        <v>67998</v>
       </c>
       <c r="B112" t="str">
         <v>FIDE</v>
       </c>
       <c r="C112" t="str">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="D112" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E112" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F112" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G112" t="str">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H112" t="str">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I112" t="str">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="J112" t="str">
         <v>9999</v>
@@ -5980,37 +5980,37 @@
         <v>9999</v>
       </c>
       <c r="R112" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>67846</v>
+        <v>88262</v>
       </c>
       <c r="B113" t="str">
-        <v>FIDE</v>
+        <v>SITO</v>
       </c>
       <c r="C113" t="str">
-        <v>1089</v>
+        <v>1371</v>
       </c>
       <c r="D113" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E113" t="str">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F113" t="str">
+        <v>225</v>
+      </c>
+      <c r="G113" t="str">
+        <v>189</v>
+      </c>
+      <c r="H113" t="str">
+        <v>197</v>
+      </c>
+      <c r="I113" t="str">
         <v>253</v>
       </c>
-      <c r="G113" t="str">
-        <v>207</v>
-      </c>
-      <c r="H113" t="str">
-        <v>196</v>
-      </c>
-      <c r="I113" t="str">
-        <v>210</v>
-      </c>
       <c r="J113" t="str">
         <v>9999</v>
       </c>
@@ -6036,33 +6036,33 @@
         <v>9999</v>
       </c>
       <c r="R113" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:08.024</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>67888</v>
+        <v>67772</v>
       </c>
       <c r="B114" t="str">
         <v>FIDE</v>
       </c>
       <c r="C114" t="str">
-        <v>1088</v>
+        <v>1353</v>
       </c>
       <c r="D114" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E114" t="str">
+        <v>265</v>
+      </c>
+      <c r="F114" t="str">
         <v>222</v>
       </c>
-      <c r="F114" t="str">
-        <v>253</v>
-      </c>
       <c r="G114" t="str">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="H114" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I114" t="str">
         <v>210</v>
@@ -6092,18 +6092,18 @@
         <v>9999</v>
       </c>
       <c r="R114" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>67776</v>
+        <v>67782</v>
       </c>
       <c r="B115" t="str">
         <v>FIDE</v>
       </c>
       <c r="C115" t="str">
-        <v>1143</v>
+        <v>933</v>
       </c>
       <c r="D115" t="str">
         <v>2019-08-07 15:36:05.655</v>
@@ -6121,7 +6121,7 @@
         <v>251</v>
       </c>
       <c r="I115" t="str">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="J115" t="str">
         <v>9999</v>
@@ -6148,12 +6148,12 @@
         <v>9999</v>
       </c>
       <c r="R115" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:06.991</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>67876</v>
+        <v>67842</v>
       </c>
       <c r="B116" t="str">
         <v>FIDE</v>
@@ -6165,16 +6165,16 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E116" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F116" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G116" t="str">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H116" t="str">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I116" t="str">
         <v>211</v>
@@ -6204,36 +6204,36 @@
         <v>9999</v>
       </c>
       <c r="R116" t="str">
-        <v>2019-08-07 15:36:07.712</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>67880</v>
+        <v>67950</v>
       </c>
       <c r="B117" t="str">
         <v>FIDE</v>
       </c>
       <c r="C117" t="str">
-        <v>878</v>
+        <v>1121</v>
       </c>
       <c r="D117" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E117" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F117" t="str">
         <v>1</v>
       </c>
       <c r="G117" t="str">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="H117" t="str">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="I117" t="str">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J117" t="str">
         <v>9999</v>
@@ -6260,37 +6260,37 @@
         <v>9999</v>
       </c>
       <c r="R117" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.717</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>67938</v>
+        <v>67768</v>
       </c>
       <c r="B118" t="str">
         <v>FIDE</v>
       </c>
       <c r="C118" t="str">
-        <v>1093</v>
+        <v>1142</v>
       </c>
       <c r="D118" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E118" t="str">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F118" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G118" t="str">
+        <v>252</v>
+      </c>
+      <c r="H118" t="str">
+        <v>193</v>
+      </c>
+      <c r="I118" t="str">
         <v>1</v>
       </c>
-      <c r="H118" t="str">
-        <v>219</v>
-      </c>
-      <c r="I118" t="str">
-        <v>193</v>
-      </c>
       <c r="J118" t="str">
         <v>9999</v>
       </c>
@@ -6316,36 +6316,36 @@
         <v>9999</v>
       </c>
       <c r="R118" t="str">
-        <v>2019-08-07 15:36:07.467</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>67898</v>
+        <v>67844</v>
       </c>
       <c r="B119" t="str">
         <v>FIDE</v>
       </c>
       <c r="C119" t="str">
-        <v>1122</v>
+        <v>1089</v>
       </c>
       <c r="D119" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E119" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F119" t="str">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G119" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H119" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J119" t="str">
         <v>9999</v>
@@ -6372,36 +6372,36 @@
         <v>9999</v>
       </c>
       <c r="R119" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>67956</v>
+        <v>67954</v>
       </c>
       <c r="B120" t="str">
         <v>FIDE</v>
       </c>
       <c r="C120" t="str">
-        <v>1120</v>
+        <v>866</v>
       </c>
       <c r="D120" t="str">
         <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E120" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F120" t="str">
         <v>212</v>
       </c>
       <c r="G120" t="str">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="H120" t="str">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I120" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="J120" t="str">
         <v>9999</v>
@@ -6428,48 +6428,48 @@
         <v>9999</v>
       </c>
       <c r="R120" t="str">
-        <v>2019-08-07 15:36:07.717</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>67968</v>
+        <v>69082</v>
       </c>
       <c r="B121" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C121" t="str">
-        <v>867</v>
+        <v>2260</v>
       </c>
       <c r="D121" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E121" t="str">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F121" t="str">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G121" t="str">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H121" t="str">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I121" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="J121" t="str">
-        <v>9999</v>
+        <v>253</v>
       </c>
       <c r="K121" t="str">
-        <v>9999</v>
+        <v>252</v>
       </c>
       <c r="L121" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="M121" t="str">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="N121" t="str">
         <v>9999</v>
@@ -6481,36 +6481,36 @@
         <v>9999</v>
       </c>
       <c r="Q121" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R121" t="str">
-        <v>2019-08-07 15:36:07.214</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>67772</v>
+        <v>67752</v>
       </c>
       <c r="B122" t="str">
         <v>FIDE</v>
       </c>
       <c r="C122" t="str">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D122" t="str">
         <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E122" t="str">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F122" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G122" t="str">
         <v>251</v>
       </c>
       <c r="H122" t="str">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I122" t="str">
         <v>210</v>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>67800</v>
+        <v>67880</v>
       </c>
       <c r="B123" t="str">
         <v>FIDE</v>
       </c>
       <c r="C123" t="str">
-        <v>1088</v>
+        <v>878</v>
       </c>
       <c r="D123" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -6560,16 +6560,16 @@
         <v>222</v>
       </c>
       <c r="F123" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="G123" t="str">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="H123" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I123" t="str">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J123" t="str">
         <v>9999</v>
@@ -6596,37 +6596,37 @@
         <v>9999</v>
       </c>
       <c r="R123" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>67840</v>
+        <v>67896</v>
       </c>
       <c r="B124" t="str">
         <v>FIDE</v>
       </c>
       <c r="C124" t="str">
-        <v>1088</v>
+        <v>1372</v>
       </c>
       <c r="D124" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E124" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F124" t="str">
+        <v>212</v>
+      </c>
+      <c r="G124" t="str">
+        <v>197</v>
+      </c>
+      <c r="H124" t="str">
+        <v>203</v>
+      </c>
+      <c r="I124" t="str">
         <v>253</v>
       </c>
-      <c r="G124" t="str">
-        <v>207</v>
-      </c>
-      <c r="H124" t="str">
-        <v>196</v>
-      </c>
-      <c r="I124" t="str">
-        <v>210</v>
-      </c>
       <c r="J124" t="str">
         <v>9999</v>
       </c>
@@ -6652,36 +6652,36 @@
         <v>9999</v>
       </c>
       <c r="R124" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>67844</v>
+        <v>67926</v>
       </c>
       <c r="B125" t="str">
         <v>FIDE</v>
       </c>
       <c r="C125" t="str">
-        <v>1089</v>
+        <v>1371</v>
       </c>
       <c r="D125" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E125" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F125" t="str">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="G125" t="str">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H125" t="str">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I125" t="str">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="J125" t="str">
         <v>9999</v>
@@ -6708,36 +6708,36 @@
         <v>9999</v>
       </c>
       <c r="R125" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:08.021</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>67884</v>
+        <v>68004</v>
       </c>
       <c r="B126" t="str">
         <v>FIDE</v>
       </c>
       <c r="C126" t="str">
-        <v>1343</v>
+        <v>867</v>
       </c>
       <c r="D126" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E126" t="str">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F126" t="str">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="G126" t="str">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="H126" t="str">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I126" t="str">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="J126" t="str">
         <v>9999</v>
@@ -6764,36 +6764,36 @@
         <v>9999</v>
       </c>
       <c r="R126" t="str">
-        <v>2019-08-07 15:36:07.715</v>
+        <v>2019-08-07 15:36:07.468</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>67914</v>
+        <v>67758</v>
       </c>
       <c r="B127" t="str">
         <v>FIDE</v>
       </c>
       <c r="C127" t="str">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="D127" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E127" t="str">
+        <v>194</v>
+      </c>
+      <c r="F127" t="str">
+        <v>271</v>
+      </c>
+      <c r="G127" t="str">
+        <v>222</v>
+      </c>
+      <c r="H127" t="str">
         <v>255</v>
       </c>
-      <c r="F127" t="str">
-        <v>213</v>
-      </c>
-      <c r="G127" t="str">
-        <v>189</v>
-      </c>
-      <c r="H127" t="str">
-        <v>210</v>
-      </c>
       <c r="I127" t="str">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J127" t="str">
         <v>9999</v>
@@ -6820,36 +6820,36 @@
         <v>9999</v>
       </c>
       <c r="R127" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>67926</v>
+        <v>67890</v>
       </c>
       <c r="B128" t="str">
         <v>FIDE</v>
       </c>
       <c r="C128" t="str">
-        <v>1371</v>
+        <v>1088</v>
       </c>
       <c r="D128" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E128" t="str">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="F128" t="str">
+        <v>253</v>
+      </c>
+      <c r="G128" t="str">
+        <v>2</v>
+      </c>
+      <c r="H128" t="str">
         <v>213</v>
       </c>
-      <c r="G128" t="str">
-        <v>196</v>
-      </c>
-      <c r="H128" t="str">
-        <v>203</v>
-      </c>
       <c r="I128" t="str">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="J128" t="str">
         <v>9999</v>
@@ -6876,36 +6876,36 @@
         <v>9999</v>
       </c>
       <c r="R128" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>67852</v>
+        <v>67914</v>
       </c>
       <c r="B129" t="str">
         <v>FIDE</v>
       </c>
       <c r="C129" t="str">
-        <v>981</v>
+        <v>1372</v>
       </c>
       <c r="D129" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E129" t="str">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F129" t="str">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="G129" t="str">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="H129" t="str">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I129" t="str">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J129" t="str">
         <v>9999</v>
@@ -6932,36 +6932,36 @@
         <v>9999</v>
       </c>
       <c r="R129" t="str">
-        <v>2019-08-07 15:36:07.020</v>
+        <v>2019-08-07 15:36:08.020</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>67874</v>
+        <v>67920</v>
       </c>
       <c r="B130" t="str">
         <v>FIDE</v>
       </c>
       <c r="C130" t="str">
-        <v>1089</v>
+        <v>1120</v>
       </c>
       <c r="D130" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E130" t="str">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="F130" t="str">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="G130" t="str">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H130" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130" t="str">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J130" t="str">
         <v>9999</v>
@@ -6988,36 +6988,36 @@
         <v>9999</v>
       </c>
       <c r="R130" t="str">
-        <v>2019-08-07 15:36:07.462</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>67972</v>
+        <v>67936</v>
       </c>
       <c r="B131" t="str">
         <v>FIDE</v>
       </c>
       <c r="C131" t="str">
-        <v>664</v>
+        <v>867</v>
       </c>
       <c r="D131" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E131" t="str">
+        <v>0</v>
+      </c>
+      <c r="F131" t="str">
         <v>255</v>
       </c>
-      <c r="F131" t="str">
-        <v>219</v>
-      </c>
       <c r="G131" t="str">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H131" t="str">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I131" t="str">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="J131" t="str">
         <v>9999</v>
@@ -7044,36 +7044,36 @@
         <v>9999</v>
       </c>
       <c r="R131" t="str">
-        <v>2019-08-07 15:36:07.011</v>
+        <v>2019-08-07 15:36:07.465</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>67758</v>
+        <v>67952</v>
       </c>
       <c r="B132" t="str">
         <v>FIDE</v>
       </c>
       <c r="C132" t="str">
-        <v>1343</v>
+        <v>867</v>
       </c>
       <c r="D132" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E132" t="str">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G132" t="str">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H132" t="str">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="I132" t="str">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="J132" t="str">
         <v>9999</v>
@@ -7100,36 +7100,36 @@
         <v>9999</v>
       </c>
       <c r="R132" t="str">
-        <v>2019-08-07 15:36:07.208</v>
+        <v>2019-08-07 15:36:07.212</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>67806</v>
+        <v>67830</v>
       </c>
       <c r="B133" t="str">
         <v>FIDE</v>
       </c>
       <c r="C133" t="str">
-        <v>877</v>
+        <v>1342</v>
       </c>
       <c r="D133" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E133" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="F133" t="str">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G133" t="str">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="H133" t="str">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="I133" t="str">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J133" t="str">
         <v>9999</v>
@@ -7156,18 +7156,18 @@
         <v>9999</v>
       </c>
       <c r="R133" t="str">
-        <v>2019-08-07 15:36:07.202</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>67822</v>
+        <v>67850</v>
       </c>
       <c r="B134" t="str">
         <v>FIDE</v>
       </c>
       <c r="C134" t="str">
-        <v>877</v>
+        <v>1342</v>
       </c>
       <c r="D134" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7176,16 +7176,16 @@
         <v>222</v>
       </c>
       <c r="F134" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G134" t="str">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H134" t="str">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="I134" t="str">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J134" t="str">
         <v>9999</v>
@@ -7212,18 +7212,18 @@
         <v>9999</v>
       </c>
       <c r="R134" t="str">
-        <v>2019-08-07 15:36:06.993</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>67836</v>
+        <v>67876</v>
       </c>
       <c r="B135" t="str">
         <v>FIDE</v>
       </c>
       <c r="C135" t="str">
-        <v>1088</v>
+        <v>1342</v>
       </c>
       <c r="D135" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7232,16 +7232,16 @@
         <v>222</v>
       </c>
       <c r="F135" t="str">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G135" t="str">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="H135" t="str">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I135" t="str">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J135" t="str">
         <v>9999</v>
@@ -7268,36 +7268,36 @@
         <v>9999</v>
       </c>
       <c r="R135" t="str">
-        <v>2019-08-07 15:36:07.205</v>
+        <v>2019-08-07 15:36:07.712</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>67882</v>
+        <v>67814</v>
       </c>
       <c r="B136" t="str">
         <v>FIDE</v>
       </c>
       <c r="C136" t="str">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D136" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E136" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F136" t="str">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="G136" t="str">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="H136" t="str">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I136" t="str">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J136" t="str">
         <v>9999</v>
@@ -7324,36 +7324,36 @@
         <v>9999</v>
       </c>
       <c r="R136" t="str">
-        <v>2019-08-07 15:36:07.463</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>67922</v>
+        <v>67976</v>
       </c>
       <c r="B137" t="str">
         <v>FIDE</v>
       </c>
       <c r="C137" t="str">
-        <v>1372</v>
+        <v>1347</v>
       </c>
       <c r="D137" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E137" t="str">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F137" t="str">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="G137" t="str">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H137" t="str">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I137" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="J137" t="str">
         <v>9999</v>
@@ -7380,33 +7380,33 @@
         <v>9999</v>
       </c>
       <c r="R137" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.720</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>67930</v>
+        <v>67748</v>
       </c>
       <c r="B138" t="str">
         <v>FIDE</v>
       </c>
       <c r="C138" t="str">
-        <v>664</v>
+        <v>933</v>
       </c>
       <c r="D138" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E138" t="str">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="F138" t="str">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G138" t="str">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="H138" t="str">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="I138" t="str">
         <v>0</v>
@@ -7436,36 +7436,36 @@
         <v>9999</v>
       </c>
       <c r="R138" t="str">
-        <v>2019-08-07 15:36:07.210</v>
+        <v>2019-08-07 15:36:06.989</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>67980</v>
+        <v>67874</v>
       </c>
       <c r="B139" t="str">
         <v>FIDE</v>
       </c>
       <c r="C139" t="str">
-        <v>867</v>
+        <v>1089</v>
       </c>
       <c r="D139" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E139" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F139" t="str">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G139" t="str">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="H139" t="str">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="I139" t="str">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="J139" t="str">
         <v>9999</v>
@@ -7492,48 +7492,48 @@
         <v>9999</v>
       </c>
       <c r="R139" t="str">
-        <v>2019-08-07 15:36:07.466</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>67766</v>
+        <v>69084</v>
       </c>
       <c r="B140" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C140" t="str">
-        <v>1143</v>
+        <v>2260</v>
       </c>
       <c r="D140" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E140" t="str">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F140" t="str">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G140" t="str">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H140" t="str">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I140" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J140" t="str">
+        <v>255</v>
+      </c>
+      <c r="K140" t="str">
         <v>0</v>
       </c>
-      <c r="J140" t="str">
-        <v>9999</v>
-      </c>
-      <c r="K140" t="str">
-        <v>9999</v>
-      </c>
       <c r="L140" t="str">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="M140" t="str">
-        <v>9999</v>
+        <v>305</v>
       </c>
       <c r="N140" t="str">
         <v>9999</v>
@@ -7545,39 +7545,39 @@
         <v>9999</v>
       </c>
       <c r="Q140" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="R140" t="str">
-        <v>2019-08-07 15:36:06.991</v>
+        <v>2019-08-07 15:36:08.951</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>67878</v>
+        <v>67884</v>
       </c>
       <c r="B141" t="str">
         <v>FIDE</v>
       </c>
       <c r="C141" t="str">
-        <v>1088</v>
+        <v>1343</v>
       </c>
       <c r="D141" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E141" t="str">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F141" t="str">
         <v>254</v>
       </c>
       <c r="G141" t="str">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H141" t="str">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I141" t="str">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J141" t="str">
         <v>9999</v>
@@ -7604,36 +7604,36 @@
         <v>9999</v>
       </c>
       <c r="R141" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.715</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>67910</v>
+        <v>67770</v>
       </c>
       <c r="B142" t="str">
         <v>FIDE</v>
       </c>
       <c r="C142" t="str">
-        <v>1372</v>
+        <v>1144</v>
       </c>
       <c r="D142" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E142" t="str">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="F142" t="str">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="G142" t="str">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H142" t="str">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="I142" t="str">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="J142" t="str">
         <v>9999</v>
@@ -7660,36 +7660,36 @@
         <v>9999</v>
       </c>
       <c r="R142" t="str">
-        <v>2019-08-07 15:36:08.020</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>67940</v>
+        <v>67894</v>
       </c>
       <c r="B143" t="str">
         <v>FIDE</v>
       </c>
       <c r="C143" t="str">
-        <v>1371</v>
+        <v>981</v>
       </c>
       <c r="D143" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E143" t="str">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F143" t="str">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G143" t="str">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="H143" t="str">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="I143" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J143" t="str">
         <v>9999</v>
@@ -7716,36 +7716,36 @@
         <v>9999</v>
       </c>
       <c r="R143" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.021</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>67942</v>
+        <v>67794</v>
       </c>
       <c r="B144" t="str">
         <v>FIDE</v>
       </c>
       <c r="C144" t="str">
-        <v>1373</v>
+        <v>681</v>
       </c>
       <c r="D144" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E144" t="str">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F144" t="str">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G144" t="str">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H144" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I144" t="str">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="J144" t="str">
         <v>9999</v>
@@ -7772,36 +7772,36 @@
         <v>9999</v>
       </c>
       <c r="R144" t="str">
-        <v>2019-08-07 15:36:08.022</v>
+        <v>2019-08-07 15:36:06.796</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>67860</v>
+        <v>67810</v>
       </c>
       <c r="B145" t="str">
         <v>FIDE</v>
       </c>
       <c r="C145" t="str">
-        <v>879</v>
+        <v>1087</v>
       </c>
       <c r="D145" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E145" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F145" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G145" t="str">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="H145" t="str">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I145" t="str">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J145" t="str">
         <v>9999</v>
@@ -7828,18 +7828,18 @@
         <v>9999</v>
       </c>
       <c r="R145" t="str">
-        <v>2019-08-07 15:36:07.207</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>67864</v>
+        <v>67828</v>
       </c>
       <c r="B146" t="str">
         <v>FIDE</v>
       </c>
       <c r="C146" t="str">
-        <v>1342</v>
+        <v>1087</v>
       </c>
       <c r="D146" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -7848,17 +7848,17 @@
         <v>222</v>
       </c>
       <c r="F146" t="str">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G146" t="str">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H146" t="str">
+        <v>1</v>
+      </c>
+      <c r="I146" t="str">
         <v>195</v>
       </c>
-      <c r="I146" t="str">
-        <v>211</v>
-      </c>
       <c r="J146" t="str">
         <v>9999</v>
       </c>
@@ -7884,48 +7884,48 @@
         <v>9999</v>
       </c>
       <c r="R146" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.459</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>69082</v>
+        <v>67860</v>
       </c>
       <c r="B147" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C147" t="str">
-        <v>2260</v>
+        <v>879</v>
       </c>
       <c r="D147" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E147" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F147" t="str">
+        <v>254</v>
+      </c>
+      <c r="G147" t="str">
         <v>0</v>
       </c>
-      <c r="G147" t="str">
-        <v>225</v>
-      </c>
       <c r="H147" t="str">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I147" t="str">
-        <v>9999</v>
+        <v>196</v>
       </c>
       <c r="J147" t="str">
-        <v>253</v>
+        <v>9999</v>
       </c>
       <c r="K147" t="str">
-        <v>252</v>
+        <v>9999</v>
       </c>
       <c r="L147" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M147" t="str">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="N147" t="str">
         <v>9999</v>
@@ -7937,39 +7937,39 @@
         <v>9999</v>
       </c>
       <c r="Q147" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="R147" t="str">
-        <v>2019-08-07 15:36:08.951</v>
+        <v>2019-08-07 15:36:07.207</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>67768</v>
+        <v>67888</v>
       </c>
       <c r="B148" t="str">
         <v>FIDE</v>
       </c>
       <c r="C148" t="str">
-        <v>1142</v>
+        <v>1088</v>
       </c>
       <c r="D148" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E148" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F148" t="str">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G148" t="str">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H148" t="str">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I148" t="str">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="J148" t="str">
         <v>9999</v>
@@ -7996,36 +7996,36 @@
         <v>9999</v>
       </c>
       <c r="R148" t="str">
-        <v>2019-08-07 15:36:07.201</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>67780</v>
+        <v>67996</v>
       </c>
       <c r="B149" t="str">
         <v>FIDE</v>
       </c>
       <c r="C149" t="str">
-        <v>1353</v>
+        <v>867</v>
       </c>
       <c r="D149" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E149" t="str">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="F149" t="str">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="G149" t="str">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H149" t="str">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I149" t="str">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="J149" t="str">
         <v>9999</v>
@@ -8052,36 +8052,36 @@
         <v>9999</v>
       </c>
       <c r="R149" t="str">
-        <v>2019-08-07 15:36:07.458</v>
+        <v>2019-08-07 15:36:07.467</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>67862</v>
+        <v>67762</v>
       </c>
       <c r="B150" t="str">
         <v>FIDE</v>
       </c>
       <c r="C150" t="str">
-        <v>682</v>
+        <v>1353</v>
       </c>
       <c r="D150" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E150" t="str">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="F150" t="str">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G150" t="str">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H150" t="str">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I150" t="str">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J150" t="str">
         <v>9999</v>
@@ -8108,36 +8108,36 @@
         <v>9999</v>
       </c>
       <c r="R150" t="str">
-        <v>2019-08-07 15:36:06.800</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>67916</v>
+        <v>67870</v>
       </c>
       <c r="B151" t="str">
         <v>FIDE</v>
       </c>
       <c r="C151" t="str">
-        <v>1374</v>
+        <v>1088</v>
       </c>
       <c r="D151" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E151" t="str">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F151" t="str">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G151" t="str">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H151" t="str">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I151" t="str">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="J151" t="str">
         <v>9999</v>
@@ -8164,37 +8164,37 @@
         <v>9999</v>
       </c>
       <c r="R151" t="str">
-        <v>2019-08-07 15:36:08.021</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>68000</v>
+        <v>67930</v>
       </c>
       <c r="B152" t="str">
         <v>FIDE</v>
       </c>
       <c r="C152" t="str">
-        <v>868</v>
+        <v>664</v>
       </c>
       <c r="D152" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E152" t="str">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F152" t="str">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G152" t="str">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H152" t="str">
+        <v>212</v>
+      </c>
+      <c r="I152" t="str">
         <v>0</v>
       </c>
-      <c r="I152" t="str">
-        <v>198</v>
-      </c>
       <c r="J152" t="str">
         <v>9999</v>
       </c>
@@ -8220,36 +8220,36 @@
         <v>9999</v>
       </c>
       <c r="R152" t="str">
-        <v>2019-08-07 15:36:07.468</v>
+        <v>2019-08-07 15:36:07.210</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>67756</v>
+        <v>67798</v>
       </c>
       <c r="B153" t="str">
         <v>FIDE</v>
       </c>
       <c r="C153" t="str">
-        <v>933</v>
+        <v>1343</v>
       </c>
       <c r="D153" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E153" t="str">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F153" t="str">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G153" t="str">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="H153" t="str">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="I153" t="str">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="J153" t="str">
         <v>9999</v>
@@ -8276,12 +8276,12 @@
         <v>9999</v>
       </c>
       <c r="R153" t="str">
-        <v>2019-08-07 15:36:06.990</v>
+        <v>2019-08-07 15:36:07.710</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>67870</v>
+        <v>67800</v>
       </c>
       <c r="B154" t="str">
         <v>FIDE</v>
@@ -8296,16 +8296,16 @@
         <v>222</v>
       </c>
       <c r="F154" t="str">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G154" t="str">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H154" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I154" t="str">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J154" t="str">
         <v>9999</v>
@@ -8332,48 +8332,48 @@
         <v>9999</v>
       </c>
       <c r="R154" t="str">
-        <v>2019-08-07 15:36:07.461</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>69078</v>
+        <v>67790</v>
       </c>
       <c r="B155" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C155" t="str">
-        <v>1978</v>
+        <v>1343</v>
       </c>
       <c r="D155" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E155" t="str">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F155" t="str">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G155" t="str">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H155" t="str">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I155" t="str">
-        <v>9999</v>
+        <v>211</v>
       </c>
       <c r="J155" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K155" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="L155" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="M155" t="str">
-        <v>299</v>
+        <v>9999</v>
       </c>
       <c r="N155" t="str">
         <v>9999</v>
@@ -8385,39 +8385,39 @@
         <v>9999</v>
       </c>
       <c r="Q155" t="str">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="R155" t="str">
-        <v>2019-08-07 15:36:08.327</v>
+        <v>2019-08-07 15:36:07.711</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>67744</v>
+        <v>67824</v>
       </c>
       <c r="B156" t="str">
         <v>FIDE</v>
       </c>
       <c r="C156" t="str">
-        <v>1143</v>
+        <v>876</v>
       </c>
       <c r="D156" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E156" t="str">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F156" t="str">
+        <v>222</v>
+      </c>
+      <c r="G156" t="str">
+        <v>252</v>
+      </c>
+      <c r="H156" t="str">
         <v>1</v>
       </c>
-      <c r="G156" t="str">
-        <v>222</v>
-      </c>
-      <c r="H156" t="str">
-        <v>250</v>
-      </c>
       <c r="I156" t="str">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J156" t="str">
         <v>9999</v>
@@ -8444,36 +8444,36 @@
         <v>9999</v>
       </c>
       <c r="R156" t="str">
-        <v>2019-08-07 15:36:07.200</v>
+        <v>2019-08-07 15:36:07.203</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>67778</v>
+        <v>67868</v>
       </c>
       <c r="B157" t="str">
         <v>FIDE</v>
       </c>
       <c r="C157" t="str">
-        <v>942</v>
+        <v>1087</v>
       </c>
       <c r="D157" t="str">
-        <v>2019-08-07 15:36:05.655</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E157" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F157" t="str">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G157" t="str">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H157" t="str">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="I157" t="str">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="J157" t="str">
         <v>9999</v>
@@ -8500,18 +8500,18 @@
         <v>9999</v>
       </c>
       <c r="R157" t="str">
-        <v>2019-08-07 15:36:06.992</v>
+        <v>2019-08-07 15:36:07.461</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>67794</v>
+        <v>67882</v>
       </c>
       <c r="B158" t="str">
         <v>FIDE</v>
       </c>
       <c r="C158" t="str">
-        <v>681</v>
+        <v>1088</v>
       </c>
       <c r="D158" t="str">
         <v>2019-08-07 15:36:05.849</v>
@@ -8520,16 +8520,16 @@
         <v>221</v>
       </c>
       <c r="F158" t="str">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="G158" t="str">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="H158" t="str">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I158" t="str">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J158" t="str">
         <v>9999</v>
@@ -8556,36 +8556,36 @@
         <v>9999</v>
       </c>
       <c r="R158" t="str">
-        <v>2019-08-07 15:36:06.796</v>
+        <v>2019-08-07 15:36:07.463</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>67830</v>
+        <v>67754</v>
       </c>
       <c r="B159" t="str">
         <v>FIDE</v>
       </c>
       <c r="C159" t="str">
-        <v>1342</v>
+        <v>1144</v>
       </c>
       <c r="D159" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E159" t="str">
+        <v>266</v>
+      </c>
+      <c r="F159" t="str">
         <v>222</v>
       </c>
-      <c r="F159" t="str">
-        <v>251</v>
-      </c>
       <c r="G159" t="str">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="H159" t="str">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="I159" t="str">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J159" t="str">
         <v>9999</v>
@@ -8612,12 +8612,12 @@
         <v>9999</v>
       </c>
       <c r="R159" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:07.201</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>67856</v>
+        <v>67838</v>
       </c>
       <c r="B160" t="str">
         <v>FIDE</v>
@@ -8629,19 +8629,19 @@
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E160" t="str">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F160" t="str">
         <v>253</v>
       </c>
       <c r="G160" t="str">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="H160" t="str">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I160" t="str">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J160" t="str">
         <v>9999</v>
@@ -8668,36 +8668,36 @@
         <v>9999</v>
       </c>
       <c r="R160" t="str">
-        <v>2019-08-07 15:36:07.460</v>
+        <v>2019-08-07 15:36:07.206</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>67858</v>
+        <v>67946</v>
       </c>
       <c r="B161" t="str">
         <v>FIDE</v>
       </c>
       <c r="C161" t="str">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="D161" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.120</v>
       </c>
       <c r="E161" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F161" t="str">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="G161" t="str">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H161" t="str">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I161" t="str">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="J161" t="str">
         <v>9999</v>
@@ -8724,48 +8724,48 @@
         <v>9999</v>
       </c>
       <c r="R161" t="str">
-        <v>2019-08-07 15:36:07.711</v>
+        <v>2019-08-07 15:36:08.022</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>68012</v>
+        <v>69080</v>
       </c>
       <c r="B162" t="str">
-        <v>FIDE</v>
+        <v>LODE</v>
       </c>
       <c r="C162" t="str">
-        <v>670</v>
+        <v>2830</v>
       </c>
       <c r="D162" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E162" t="str">
+        <v>256</v>
+      </c>
+      <c r="F162" t="str">
+        <v>225</v>
+      </c>
+      <c r="G162" t="str">
+        <v>190</v>
+      </c>
+      <c r="H162" t="str">
+        <v>197</v>
+      </c>
+      <c r="I162" t="str">
+        <v>9999</v>
+      </c>
+      <c r="J162" t="str">
         <v>255</v>
       </c>
-      <c r="F162" t="str">
-        <v>1</v>
-      </c>
-      <c r="G162" t="str">
-        <v>0</v>
-      </c>
-      <c r="H162" t="str">
-        <v>1</v>
-      </c>
-      <c r="I162" t="str">
-        <v>224</v>
-      </c>
-      <c r="J162" t="str">
-        <v>9999</v>
-      </c>
       <c r="K162" t="str">
-        <v>9999</v>
+        <v>304</v>
       </c>
       <c r="L162" t="str">
-        <v>9999</v>
+        <v>297</v>
       </c>
       <c r="M162" t="str">
-        <v>9999</v>
+        <v>285</v>
       </c>
       <c r="N162" t="str">
         <v>9999</v>
@@ -8777,51 +8777,51 @@
         <v>9999</v>
       </c>
       <c r="Q162" t="str">
-        <v>9999</v>
+        <v>342</v>
       </c>
       <c r="R162" t="str">
-        <v>2019-08-07 15:36:07.215</v>
+        <v>2019-08-07 15:36:09.394</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>69080</v>
+        <v>67760</v>
       </c>
       <c r="B163" t="str">
-        <v>LODE</v>
+        <v>FIDE</v>
       </c>
       <c r="C163" t="str">
-        <v>2830</v>
+        <v>1353</v>
       </c>
       <c r="D163" t="str">
-        <v>2019-08-07 15:36:06.121</v>
+        <v>2019-08-07 15:36:05.654</v>
       </c>
       <c r="E163" t="str">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F163" t="str">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G163" t="str">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="H163" t="str">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I163" t="str">
-        <v>9999</v>
+        <v>210</v>
       </c>
       <c r="J163" t="str">
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="K163" t="str">
-        <v>304</v>
+        <v>9999</v>
       </c>
       <c r="L163" t="str">
-        <v>297</v>
+        <v>9999</v>
       </c>
       <c r="M163" t="str">
-        <v>285</v>
+        <v>9999</v>
       </c>
       <c r="N163" t="str">
         <v>9999</v>
@@ -8833,39 +8833,39 @@
         <v>9999</v>
       </c>
       <c r="Q163" t="str">
-        <v>342</v>
+        <v>9999</v>
       </c>
       <c r="R163" t="str">
-        <v>2019-08-07 15:36:09.394</v>
+        <v>2019-08-07 15:36:07.457</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>67762</v>
+        <v>67804</v>
       </c>
       <c r="B164" t="str">
         <v>FIDE</v>
       </c>
       <c r="C164" t="str">
-        <v>1353</v>
+        <v>1088</v>
       </c>
       <c r="D164" t="str">
-        <v>2019-08-07 15:36:05.654</v>
+        <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E164" t="str">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F164" t="str">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G164" t="str">
         <v>252</v>
       </c>
       <c r="H164" t="str">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="I164" t="str">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J164" t="str">
         <v>9999</v>
@@ -8892,36 +8892,36 @@
         <v>9999</v>
       </c>
       <c r="R164" t="str">
-        <v>2019-08-07 15:36:07.457</v>
+        <v>2019-08-07 15:36:07.458</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>67796</v>
+        <v>67854</v>
       </c>
       <c r="B165" t="str">
         <v>FIDE</v>
       </c>
       <c r="C165" t="str">
-        <v>675</v>
+        <v>1090</v>
       </c>
       <c r="D165" t="str">
         <v>2019-08-07 15:36:05.849</v>
       </c>
       <c r="E165" t="str">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F165" t="str">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="G165" t="str">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="H165" t="str">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I165" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J165" t="str">
         <v>9999</v>
@@ -8948,36 +8948,36 @@
         <v>9999</v>
       </c>
       <c r="R165" t="str">
-        <v>2019-08-07 15:36:06.791</v>
+        <v>2019-08-07 15:36:07.462</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>67828</v>
+        <v>67972</v>
       </c>
       <c r="B166" t="str">
         <v>FIDE</v>
       </c>
       <c r="C166" t="str">
-        <v>1087</v>
+        <v>664</v>
       </c>
       <c r="D166" t="str">
-        <v>2019-08-07 15:36:05.849</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E166" t="str">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F166" t="str">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G166" t="str">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="H166" t="str">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I166" t="str">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J166" t="str">
         <v>9999</v>
@@ -9004,36 +9004,36 @@
         <v>9999</v>
       </c>
       <c r="R166" t="str">
-        <v>2019-08-07 15:36:07.459</v>
+        <v>2019-08-07 15:36:07.011</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>67924</v>
+        <v>67992</v>
       </c>
       <c r="B167" t="str">
         <v>FIDE</v>
       </c>
       <c r="C167" t="str">
-        <v>867</v>
+        <v>1120</v>
       </c>
       <c r="D167" t="str">
-        <v>2019-08-07 15:36:06.120</v>
+        <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E167" t="str">
         <v>255</v>
       </c>
       <c r="F167" t="str">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G167" t="str">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H167" t="str">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I167" t="str">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J167" t="str">
         <v>9999</v>
@@ -9060,36 +9060,36 @@
         <v>9999</v>
       </c>
       <c r="R167" t="str">
-        <v>2019-08-07 15:36:07.464</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>88262</v>
+        <v>67994</v>
       </c>
       <c r="B168" t="str">
-        <v>SITO</v>
+        <v>FIDE</v>
       </c>
       <c r="C168" t="str">
-        <v>1371</v>
+        <v>1120</v>
       </c>
       <c r="D168" t="str">
         <v>2019-08-07 15:36:06.121</v>
       </c>
       <c r="E168" t="str">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F168" t="str">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G168" t="str">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H168" t="str">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I168" t="str">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J168" t="str">
         <v>9999</v>
@@ -9116,7 +9116,7 @@
         <v>9999</v>
       </c>
       <c r="R168" t="str">
-        <v>2019-08-07 15:36:08.024</v>
+        <v>2019-08-07 15:36:07.719</v>
       </c>
     </row>
   </sheetData>
